--- a/SimulationStudyData/Dataset2_Yobs.xlsx
+++ b/SimulationStudyData/Dataset2_Yobs.xlsx
@@ -407,6402 +407,6402 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-4.96802461478136</v>
+        <v>-4.58684427225325</v>
       </c>
       <c r="B2" t="n">
-        <v>-5.28366311574342</v>
+        <v>-5.53374000091069</v>
       </c>
       <c r="C2" t="n">
-        <v>-6.26281697123532</v>
+        <v>-6.61430524247869</v>
       </c>
       <c r="D2" t="n">
-        <v>-6.49569966164392</v>
+        <v>-5.66775099272311</v>
       </c>
       <c r="E2" t="n">
-        <v>-6.58443705494549</v>
+        <v>-8.0037606844685</v>
       </c>
       <c r="F2" t="n">
-        <v>-7.08753231643898</v>
+        <v>-7.1361795866164</v>
       </c>
       <c r="G2" t="n">
-        <v>-7.63384421447565</v>
+        <v>-7.62524714267904</v>
       </c>
       <c r="H2" t="n">
-        <v>-8.57642599255993</v>
+        <v>-8.29064566994488</v>
       </c>
       <c r="I2" t="n">
-        <v>-8.52970061580029</v>
+        <v>-8.75127767640121</v>
       </c>
       <c r="J2" t="n">
-        <v>-9.34772697225316</v>
+        <v>-9.24884118023056</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-4.98742124080485</v>
+        <v>-5.1122196521225</v>
       </c>
       <c r="B3" t="n">
-        <v>-5.39515547055607</v>
+        <v>-4.9990895238794</v>
       </c>
       <c r="C3" t="n">
-        <v>-5.59562553132274</v>
+        <v>-6.93011608329342</v>
       </c>
       <c r="D3" t="n">
-        <v>-6.5275945344888</v>
+        <v>-4.98800047591626</v>
       </c>
       <c r="E3" t="n">
-        <v>-6.89883162640179</v>
+        <v>-5.7407642461791</v>
       </c>
       <c r="F3" t="n">
-        <v>-7.71856694916781</v>
+        <v>-6.52090667304945</v>
       </c>
       <c r="G3" t="n">
-        <v>-7.91793045316867</v>
+        <v>-8.39932804158485</v>
       </c>
       <c r="H3" t="n">
-        <v>-8.64714697019339</v>
+        <v>-7.93942320414461</v>
       </c>
       <c r="I3" t="n">
-        <v>-9.1099846294393</v>
+        <v>-8.40464602034044</v>
       </c>
       <c r="J3" t="n">
-        <v>-8.97780892130814</v>
+        <v>-8.96888864262798</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>10.0454564418335</v>
+        <v>9.82275134007736</v>
       </c>
       <c r="B4" t="n">
-        <v>10.8481600589447</v>
+        <v>10.6740479536032</v>
       </c>
       <c r="C4" t="n">
-        <v>12.1925974159334</v>
+        <v>11.9064834796137</v>
       </c>
       <c r="D4" t="n">
-        <v>13.1290547174271</v>
+        <v>12.6464162868896</v>
       </c>
       <c r="E4" t="n">
-        <v>13.839534101983</v>
+        <v>13.4392350493983</v>
       </c>
       <c r="F4" t="n">
-        <v>14.9071018417876</v>
+        <v>13.8622659655646</v>
       </c>
       <c r="G4" t="n">
-        <v>15.7438582176432</v>
+        <v>16.8774739383479</v>
       </c>
       <c r="H4" t="n">
-        <v>17.2754419290769</v>
+        <v>15.5055400232376</v>
       </c>
       <c r="I4" t="n">
-        <v>17.9541719635487</v>
+        <v>18.8716483692623</v>
       </c>
       <c r="J4" t="n">
-        <v>19.2804349660382</v>
+        <v>19.0435174895205</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>10.2671171142583</v>
+        <v>-2.77222438366663</v>
       </c>
       <c r="B5" t="n">
-        <v>11.2257925143429</v>
+        <v>-5.96657778800911</v>
       </c>
       <c r="C5" t="n">
-        <v>12.1313733126802</v>
+        <v>-5.25220281714027</v>
       </c>
       <c r="D5" t="n">
-        <v>12.6536798007718</v>
+        <v>-7.55193524485192</v>
       </c>
       <c r="E5" t="n">
-        <v>14.2131815887812</v>
+        <v>-6.74655913051892</v>
       </c>
       <c r="F5" t="n">
-        <v>15.0474471272624</v>
+        <v>-7.09151943682697</v>
       </c>
       <c r="G5" t="n">
-        <v>15.8025902341606</v>
+        <v>-8.73658901007761</v>
       </c>
       <c r="H5" t="n">
-        <v>16.5193961882321</v>
+        <v>-7.68276636904889</v>
       </c>
       <c r="I5" t="n">
-        <v>17.6628351507265</v>
+        <v>-9.05578727756264</v>
       </c>
       <c r="J5" t="n">
-        <v>19.3520625749708</v>
+        <v>-10.0858107954454</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-5.03151767777623</v>
+        <v>9.85812159002353</v>
       </c>
       <c r="B6" t="n">
-        <v>-5.52666720328403</v>
+        <v>12.4406018001093</v>
       </c>
       <c r="C6" t="n">
-        <v>-6.16832227112918</v>
+        <v>11.971233962455</v>
       </c>
       <c r="D6" t="n">
-        <v>-6.62046690549823</v>
+        <v>11.122491567001</v>
       </c>
       <c r="E6" t="n">
-        <v>-6.93352226095617</v>
+        <v>13.1359303590008</v>
       </c>
       <c r="F6" t="n">
-        <v>-7.24921820977963</v>
+        <v>16.0914864456583</v>
       </c>
       <c r="G6" t="n">
-        <v>-7.82733763402314</v>
+        <v>15.7328669433386</v>
       </c>
       <c r="H6" t="n">
-        <v>-8.65233847468081</v>
+        <v>16.2085847365823</v>
       </c>
       <c r="I6" t="n">
-        <v>-8.68635284386504</v>
+        <v>18.0182013879902</v>
       </c>
       <c r="J6" t="n">
-        <v>-9.67500801344617</v>
+        <v>18.5729381404722</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>9.92931749119729</v>
+        <v>8.73941740855254</v>
       </c>
       <c r="B7" t="n">
-        <v>10.7438205747593</v>
+        <v>11.2960353481891</v>
       </c>
       <c r="C7" t="n">
-        <v>11.7849750626737</v>
+        <v>11.5126017938463</v>
       </c>
       <c r="D7" t="n">
-        <v>13.0999254857035</v>
+        <v>13.2103238927739</v>
       </c>
       <c r="E7" t="n">
-        <v>14.0243976218203</v>
+        <v>13.3896940508279</v>
       </c>
       <c r="F7" t="n">
-        <v>15.2717166666778</v>
+        <v>15.1029711522098</v>
       </c>
       <c r="G7" t="n">
-        <v>15.6718919306056</v>
+        <v>15.192125912026</v>
       </c>
       <c r="H7" t="n">
-        <v>16.9101973559586</v>
+        <v>17.9355416091045</v>
       </c>
       <c r="I7" t="n">
-        <v>17.6754765179887</v>
+        <v>17.5020058026806</v>
       </c>
       <c r="J7" t="n">
-        <v>19.1761497999094</v>
+        <v>17.7555976583191</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>10.2964850182554</v>
+        <v>9.97197189408162</v>
       </c>
       <c r="B8" t="n">
-        <v>11.0094812578913</v>
+        <v>11.3282363451846</v>
       </c>
       <c r="C8" t="n">
-        <v>11.765888686125</v>
+        <v>12.7453824987922</v>
       </c>
       <c r="D8" t="n">
-        <v>13.2155544365277</v>
+        <v>12.8517481993222</v>
       </c>
       <c r="E8" t="n">
-        <v>13.9960530399843</v>
+        <v>11.8445031669177</v>
       </c>
       <c r="F8" t="n">
-        <v>15.1162888489829</v>
+        <v>16.0689535345133</v>
       </c>
       <c r="G8" t="n">
-        <v>16.1704104555785</v>
+        <v>16.1891472177608</v>
       </c>
       <c r="H8" t="n">
-        <v>16.8019559956109</v>
+        <v>16.8601567124641</v>
       </c>
       <c r="I8" t="n">
-        <v>17.8399342805037</v>
+        <v>18.4118714465301</v>
       </c>
       <c r="J8" t="n">
-        <v>19.0747059542057</v>
+        <v>18.7604741350649</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>10.1057639266967</v>
+        <v>-5.45807390751526</v>
       </c>
       <c r="B9" t="n">
-        <v>10.9202771842995</v>
+        <v>-4.86779175778376</v>
       </c>
       <c r="C9" t="n">
-        <v>11.69057651639</v>
+        <v>-6.66024834745287</v>
       </c>
       <c r="D9" t="n">
-        <v>13.0791469230505</v>
+        <v>-5.92924019694631</v>
       </c>
       <c r="E9" t="n">
-        <v>13.7868561192773</v>
+        <v>-6.22227094907027</v>
       </c>
       <c r="F9" t="n">
-        <v>14.9206990804979</v>
+        <v>-7.14794320022785</v>
       </c>
       <c r="G9" t="n">
-        <v>16.3029148352808</v>
+        <v>-8.26524384000987</v>
       </c>
       <c r="H9" t="n">
-        <v>16.7578688704856</v>
+        <v>-8.33789151010242</v>
       </c>
       <c r="I9" t="n">
-        <v>17.9545013041968</v>
+        <v>-8.61527355510323</v>
       </c>
       <c r="J9" t="n">
-        <v>19.2098578202651</v>
+        <v>-9.42934168071409</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>9.56525300459565</v>
+        <v>-5.70576975213644</v>
       </c>
       <c r="B10" t="n">
-        <v>10.878586322163</v>
+        <v>-5.49782070543585</v>
       </c>
       <c r="C10" t="n">
-        <v>12.4368897790243</v>
+        <v>-5.72279988991016</v>
       </c>
       <c r="D10" t="n">
-        <v>13.0333242790557</v>
+        <v>-5.98118362946315</v>
       </c>
       <c r="E10" t="n">
-        <v>14.2289471612599</v>
+        <v>-7.25552443698267</v>
       </c>
       <c r="F10" t="n">
-        <v>14.874513060753</v>
+        <v>-6.35521314388049</v>
       </c>
       <c r="G10" t="n">
-        <v>15.7106695244466</v>
+        <v>-7.6844723210356</v>
       </c>
       <c r="H10" t="n">
-        <v>17.0403812159851</v>
+        <v>-8.00768634270765</v>
       </c>
       <c r="I10" t="n">
-        <v>18.4196736964566</v>
+        <v>-9.63077222101366</v>
       </c>
       <c r="J10" t="n">
-        <v>18.8705023230099</v>
+        <v>-9.69235582993644</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>10.238205953825</v>
+        <v>9.70432984630081</v>
       </c>
       <c r="B11" t="n">
-        <v>11.0588361188899</v>
+        <v>11.7565233450408</v>
       </c>
       <c r="C11" t="n">
-        <v>12.1427707854169</v>
+        <v>10.7954789988067</v>
       </c>
       <c r="D11" t="n">
-        <v>12.8566429649821</v>
+        <v>14.0773189506658</v>
       </c>
       <c r="E11" t="n">
-        <v>13.8268416588231</v>
+        <v>13.088592267653</v>
       </c>
       <c r="F11" t="n">
-        <v>15.401161812443</v>
+        <v>16.2225576896013</v>
       </c>
       <c r="G11" t="n">
-        <v>15.9954883396126</v>
+        <v>15.702618993469</v>
       </c>
       <c r="H11" t="n">
-        <v>17.0077939127647</v>
+        <v>16.7464314048433</v>
       </c>
       <c r="I11" t="n">
-        <v>18.1804508249985</v>
+        <v>18.7820274762096</v>
       </c>
       <c r="J11" t="n">
-        <v>19.2100981088617</v>
+        <v>19.4840237658441</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>10.0773606407</v>
+        <v>9.93858551853504</v>
       </c>
       <c r="B12" t="n">
-        <v>10.9747618364481</v>
+        <v>11.9513972385027</v>
       </c>
       <c r="C12" t="n">
-        <v>11.9686445351851</v>
+        <v>11.7172970646181</v>
       </c>
       <c r="D12" t="n">
-        <v>13.0712693680611</v>
+        <v>13.1015393113858</v>
       </c>
       <c r="E12" t="n">
-        <v>14.3427221530028</v>
+        <v>12.7816966143636</v>
       </c>
       <c r="F12" t="n">
-        <v>14.4244503074849</v>
+        <v>15.8196214254883</v>
       </c>
       <c r="G12" t="n">
-        <v>15.7686496174771</v>
+        <v>16.0920163971695</v>
       </c>
       <c r="H12" t="n">
-        <v>17.1891245551829</v>
+        <v>15.790984979299</v>
       </c>
       <c r="I12" t="n">
-        <v>18.0135222008198</v>
+        <v>19.1331954364444</v>
       </c>
       <c r="J12" t="n">
-        <v>18.6220341831737</v>
+        <v>21.281659502023</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-5.31965302429799</v>
+        <v>-6.51523720979428</v>
       </c>
       <c r="B13" t="n">
-        <v>-5.75406949884894</v>
+        <v>-6.8151872410131</v>
       </c>
       <c r="C13" t="n">
-        <v>-5.96517939856697</v>
+        <v>-6.94557151531088</v>
       </c>
       <c r="D13" t="n">
-        <v>-6.53590708666576</v>
+        <v>-5.99804245948967</v>
       </c>
       <c r="E13" t="n">
-        <v>-6.70314628293384</v>
+        <v>-6.18041274327124</v>
       </c>
       <c r="F13" t="n">
-        <v>-7.03735773092696</v>
+        <v>-8.48854682007657</v>
       </c>
       <c r="G13" t="n">
-        <v>-7.74635631667133</v>
+        <v>-8.23195273312465</v>
       </c>
       <c r="H13" t="n">
-        <v>-8.25904618526764</v>
+        <v>-8.94661116615967</v>
       </c>
       <c r="I13" t="n">
-        <v>-9.43570090670299</v>
+        <v>-9.12102060697181</v>
       </c>
       <c r="J13" t="n">
-        <v>-9.43056397235964</v>
+        <v>-10.5172860213858</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>10.207913230508</v>
+        <v>-7.30403517991748</v>
       </c>
       <c r="B14" t="n">
-        <v>10.564253225701</v>
+        <v>-5.02314010674957</v>
       </c>
       <c r="C14" t="n">
-        <v>12.2395055048545</v>
+        <v>-4.98068526155574</v>
       </c>
       <c r="D14" t="n">
-        <v>12.8048284878463</v>
+        <v>-7.61772918487625</v>
       </c>
       <c r="E14" t="n">
-        <v>13.803578278321</v>
+        <v>-5.8594088601554</v>
       </c>
       <c r="F14" t="n">
-        <v>15.1602334209136</v>
+        <v>-8.03578085361886</v>
       </c>
       <c r="G14" t="n">
-        <v>15.9590198084997</v>
+        <v>-7.23456310173979</v>
       </c>
       <c r="H14" t="n">
-        <v>17.1246765179652</v>
+        <v>-9.55545357204486</v>
       </c>
       <c r="I14" t="n">
-        <v>18.4219813671081</v>
+        <v>-8.1134344974476</v>
       </c>
       <c r="J14" t="n">
-        <v>19.1381711171835</v>
+        <v>-10.921719543778</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>9.57145057687487</v>
+        <v>-3.35117324957962</v>
       </c>
       <c r="B15" t="n">
-        <v>10.6409020889847</v>
+        <v>-6.05593534757187</v>
       </c>
       <c r="C15" t="n">
-        <v>11.933203064154</v>
+        <v>-7.12168094451563</v>
       </c>
       <c r="D15" t="n">
-        <v>13.5206846948956</v>
+        <v>-5.43661667442748</v>
       </c>
       <c r="E15" t="n">
-        <v>13.7126114136278</v>
+        <v>-7.59539206065796</v>
       </c>
       <c r="F15" t="n">
-        <v>15.0415570649293</v>
+        <v>-7.93603954476119</v>
       </c>
       <c r="G15" t="n">
-        <v>16.0533507157183</v>
+        <v>-7.76076648628399</v>
       </c>
       <c r="H15" t="n">
-        <v>17.1971022057769</v>
+        <v>-8.91217178082277</v>
       </c>
       <c r="I15" t="n">
-        <v>17.9518085445867</v>
+        <v>-8.50999210931087</v>
       </c>
       <c r="J15" t="n">
-        <v>18.922473434249</v>
+        <v>-10.1832822213849</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>10.084360574693</v>
+        <v>-4.32866029581981</v>
       </c>
       <c r="B16" t="n">
-        <v>10.6187455025237</v>
+        <v>-4.73319843470925</v>
       </c>
       <c r="C16" t="n">
-        <v>11.7406366062658</v>
+        <v>-6.04366625846505</v>
       </c>
       <c r="D16" t="n">
-        <v>13.2827336904554</v>
+        <v>-5.88119103538802</v>
       </c>
       <c r="E16" t="n">
-        <v>14.1961679929835</v>
+        <v>-7.43754587949165</v>
       </c>
       <c r="F16" t="n">
-        <v>14.9821616372048</v>
+        <v>-5.59041125499951</v>
       </c>
       <c r="G16" t="n">
-        <v>16.2187897150449</v>
+        <v>-7.41774434622693</v>
       </c>
       <c r="H16" t="n">
-        <v>16.8322435964029</v>
+        <v>-7.57748344401388</v>
       </c>
       <c r="I16" t="n">
-        <v>17.8945109614293</v>
+        <v>-8.66670115437265</v>
       </c>
       <c r="J16" t="n">
-        <v>19.0811119622893</v>
+        <v>-9.70480652834939</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>10.0443257455873</v>
+        <v>-4.20703427712237</v>
       </c>
       <c r="B17" t="n">
-        <v>11.248273472806</v>
+        <v>-4.88985910930707</v>
       </c>
       <c r="C17" t="n">
-        <v>12.4419642650706</v>
+        <v>-6.70723858652509</v>
       </c>
       <c r="D17" t="n">
-        <v>12.4910962470147</v>
+        <v>-6.17916780968061</v>
       </c>
       <c r="E17" t="n">
-        <v>14.0999123710494</v>
+        <v>-7.23605525101831</v>
       </c>
       <c r="F17" t="n">
-        <v>14.9862159646928</v>
+        <v>-7.2717562389614</v>
       </c>
       <c r="G17" t="n">
-        <v>15.6769464603685</v>
+        <v>-9.30016437928406</v>
       </c>
       <c r="H17" t="n">
-        <v>16.992912435791</v>
+        <v>-8.47198706870556</v>
       </c>
       <c r="I17" t="n">
-        <v>18.1779239985536</v>
+        <v>-8.71922058244462</v>
       </c>
       <c r="J17" t="n">
-        <v>18.7091066754163</v>
+        <v>-10.1244536405486</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>9.58645063206787</v>
+        <v>-6.6126025285428</v>
       </c>
       <c r="B18" t="n">
-        <v>10.8333633925515</v>
+        <v>-6.48224040233191</v>
       </c>
       <c r="C18" t="n">
-        <v>11.6915272674418</v>
+        <v>-7.06987058170622</v>
       </c>
       <c r="D18" t="n">
-        <v>13.2607411357223</v>
+        <v>-7.61404021405816</v>
       </c>
       <c r="E18" t="n">
-        <v>14.2888114259094</v>
+        <v>-6.96803572741714</v>
       </c>
       <c r="F18" t="n">
-        <v>15.2497547828389</v>
+        <v>-7.54849216801993</v>
       </c>
       <c r="G18" t="n">
-        <v>16.2394058667813</v>
+        <v>-7.84772779980474</v>
       </c>
       <c r="H18" t="n">
-        <v>17.0334812553017</v>
+        <v>-7.87003610536413</v>
       </c>
       <c r="I18" t="n">
-        <v>17.7402913625305</v>
+        <v>-10.2554460319561</v>
       </c>
       <c r="J18" t="n">
-        <v>18.7310347866986</v>
+        <v>-10.1631422018612</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>9.86038433575592</v>
+        <v>-5.97263874351007</v>
       </c>
       <c r="B19" t="n">
-        <v>10.712472300916</v>
+        <v>-3.3836817235902</v>
       </c>
       <c r="C19" t="n">
-        <v>12.1942900177049</v>
+        <v>-6.22276933485183</v>
       </c>
       <c r="D19" t="n">
-        <v>13.4032986537087</v>
+        <v>-6.5561116933231</v>
       </c>
       <c r="E19" t="n">
-        <v>13.9135143649658</v>
+        <v>-7.18708865608109</v>
       </c>
       <c r="F19" t="n">
-        <v>15.1521280478327</v>
+        <v>-7.07127143933367</v>
       </c>
       <c r="G19" t="n">
-        <v>16.0268828903639</v>
+        <v>-6.76963189636618</v>
       </c>
       <c r="H19" t="n">
-        <v>17.0537429019947</v>
+        <v>-8.86164256530141</v>
       </c>
       <c r="I19" t="n">
-        <v>18.0734072512826</v>
+        <v>-9.00034569546664</v>
       </c>
       <c r="J19" t="n">
-        <v>18.928897783886</v>
+        <v>-10.1585239446032</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>10.3136742681419</v>
+        <v>9.99786522715469</v>
       </c>
       <c r="B20" t="n">
-        <v>10.8206659748118</v>
+        <v>10.5439230191723</v>
       </c>
       <c r="C20" t="n">
-        <v>12.0566778149804</v>
+        <v>12.4557291853606</v>
       </c>
       <c r="D20" t="n">
-        <v>13.37399098387</v>
+        <v>11.823928556385</v>
       </c>
       <c r="E20" t="n">
-        <v>13.7229459101336</v>
+        <v>14.765338236371</v>
       </c>
       <c r="F20" t="n">
-        <v>15.1251376272806</v>
+        <v>15.6074218206284</v>
       </c>
       <c r="G20" t="n">
-        <v>15.6666373842294</v>
+        <v>15.3943391439747</v>
       </c>
       <c r="H20" t="n">
-        <v>16.9234461068505</v>
+        <v>17.042466173179</v>
       </c>
       <c r="I20" t="n">
-        <v>18.1180704277233</v>
+        <v>17.1454420287832</v>
       </c>
       <c r="J20" t="n">
-        <v>19.3409782119016</v>
+        <v>18.9102830600126</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>9.91099053258951</v>
+        <v>-3.80072237935993</v>
       </c>
       <c r="B21" t="n">
-        <v>10.8574281074347</v>
+        <v>-5.94524083296857</v>
       </c>
       <c r="C21" t="n">
-        <v>12.0090874258588</v>
+        <v>-6.28431789151822</v>
       </c>
       <c r="D21" t="n">
-        <v>12.960684223657</v>
+        <v>-6.90166593253608</v>
       </c>
       <c r="E21" t="n">
-        <v>14.2725649297712</v>
+        <v>-6.50127341474062</v>
       </c>
       <c r="F21" t="n">
-        <v>15.4933707928174</v>
+        <v>-7.74588727979114</v>
       </c>
       <c r="G21" t="n">
-        <v>15.7391644753198</v>
+        <v>-8.40666012871279</v>
       </c>
       <c r="H21" t="n">
-        <v>17.1551573873243</v>
+        <v>-9.28892216252596</v>
       </c>
       <c r="I21" t="n">
-        <v>18.5382590831253</v>
+        <v>-8.3224966877098</v>
       </c>
       <c r="J21" t="n">
-        <v>19.2629032948929</v>
+        <v>-10.4414205143712</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>9.75963570754453</v>
+        <v>-3.92134705813828</v>
       </c>
       <c r="B22" t="n">
-        <v>10.9511536808374</v>
+        <v>-6.19369268764552</v>
       </c>
       <c r="C22" t="n">
-        <v>12.0823822258747</v>
+        <v>-6.35723654836407</v>
       </c>
       <c r="D22" t="n">
-        <v>12.819197196603</v>
+        <v>-6.48165157402964</v>
       </c>
       <c r="E22" t="n">
-        <v>14.3552434131197</v>
+        <v>-6.6772830481419</v>
       </c>
       <c r="F22" t="n">
-        <v>14.6829501555881</v>
+        <v>-8.44719434641933</v>
       </c>
       <c r="G22" t="n">
-        <v>16.1131731167281</v>
+        <v>-7.98824142289229</v>
       </c>
       <c r="H22" t="n">
-        <v>17.0524809300293</v>
+        <v>-8.58336719353354</v>
       </c>
       <c r="I22" t="n">
-        <v>18.0174428825727</v>
+        <v>-8.55021671172223</v>
       </c>
       <c r="J22" t="n">
-        <v>19.0132367887484</v>
+        <v>-10.1954525119089</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>10.042341608135</v>
+        <v>-5.73818331897209</v>
       </c>
       <c r="B23" t="n">
-        <v>11.1447305466314</v>
+        <v>-5.46738513933721</v>
       </c>
       <c r="C23" t="n">
-        <v>12.2018499894425</v>
+        <v>-5.57301505206927</v>
       </c>
       <c r="D23" t="n">
-        <v>12.8542989599607</v>
+        <v>-4.75814982112028</v>
       </c>
       <c r="E23" t="n">
-        <v>13.933897765751</v>
+        <v>-5.58925722833436</v>
       </c>
       <c r="F23" t="n">
-        <v>15.511602588294</v>
+        <v>-7.72236405193329</v>
       </c>
       <c r="G23" t="n">
-        <v>15.5421848527782</v>
+        <v>-7.34913697759144</v>
       </c>
       <c r="H23" t="n">
-        <v>17.3471396017444</v>
+        <v>-8.31947325182161</v>
       </c>
       <c r="I23" t="n">
-        <v>18.2263699658213</v>
+        <v>-9.53730510537212</v>
       </c>
       <c r="J23" t="n">
-        <v>18.7563569264485</v>
+        <v>-8.76685180612048</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>9.54721319714173</v>
+        <v>-4.54594992879348</v>
       </c>
       <c r="B24" t="n">
-        <v>10.9556588575635</v>
+        <v>-5.51168906658492</v>
       </c>
       <c r="C24" t="n">
-        <v>12.0349292466568</v>
+        <v>-5.72962109061567</v>
       </c>
       <c r="D24" t="n">
-        <v>12.9038383015824</v>
+        <v>-5.76818265121852</v>
       </c>
       <c r="E24" t="n">
-        <v>13.5748678908085</v>
+        <v>-7.11999785702715</v>
       </c>
       <c r="F24" t="n">
-        <v>14.8760789271902</v>
+        <v>-7.03348218831635</v>
       </c>
       <c r="G24" t="n">
-        <v>15.7297962761763</v>
+        <v>-8.30613800183539</v>
       </c>
       <c r="H24" t="n">
-        <v>17.0485709998239</v>
+        <v>-8.05458720678689</v>
       </c>
       <c r="I24" t="n">
-        <v>17.6434207357133</v>
+        <v>-10.1285708108052</v>
       </c>
       <c r="J24" t="n">
-        <v>18.7851805757101</v>
+        <v>-9.65339905799466</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>9.92009082423954</v>
+        <v>-5.37831015387567</v>
       </c>
       <c r="B25" t="n">
-        <v>10.7130875219199</v>
+        <v>-5.34514403389384</v>
       </c>
       <c r="C25" t="n">
-        <v>12.4266369500367</v>
+        <v>-7.39311855385853</v>
       </c>
       <c r="D25" t="n">
-        <v>13.094322996359</v>
+        <v>-6.61482951606905</v>
       </c>
       <c r="E25" t="n">
-        <v>13.8041193745508</v>
+        <v>-7.23095794446204</v>
       </c>
       <c r="F25" t="n">
-        <v>15.3767011313698</v>
+        <v>-7.09617116771014</v>
       </c>
       <c r="G25" t="n">
-        <v>15.8138854585083</v>
+        <v>-7.43453818266483</v>
       </c>
       <c r="H25" t="n">
-        <v>16.8893506048277</v>
+        <v>-7.56266631346025</v>
       </c>
       <c r="I25" t="n">
-        <v>18.0825960628092</v>
+        <v>-9.90877664234066</v>
       </c>
       <c r="J25" t="n">
-        <v>19.4918492109395</v>
+        <v>-7.55749241040592</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>9.85283093626521</v>
+        <v>-4.37889088648186</v>
       </c>
       <c r="B26" t="n">
-        <v>11.3840263174426</v>
+        <v>-5.63596545175977</v>
       </c>
       <c r="C26" t="n">
-        <v>12.2728279315454</v>
+        <v>-4.98284854549726</v>
       </c>
       <c r="D26" t="n">
-        <v>12.8465622447678</v>
+        <v>-7.45470327768041</v>
       </c>
       <c r="E26" t="n">
-        <v>13.6607612619991</v>
+        <v>-7.44154900317532</v>
       </c>
       <c r="F26" t="n">
-        <v>14.9134950092026</v>
+        <v>-7.53921973388394</v>
       </c>
       <c r="G26" t="n">
-        <v>15.8654071775681</v>
+        <v>-7.42780895662712</v>
       </c>
       <c r="H26" t="n">
-        <v>16.8915485453733</v>
+        <v>-7.80874084340603</v>
       </c>
       <c r="I26" t="n">
-        <v>18.1078893000081</v>
+        <v>-7.96791945657753</v>
       </c>
       <c r="J26" t="n">
-        <v>19.0368542953077</v>
+        <v>-10.1212455037368</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>-4.72883814863566</v>
+        <v>-4.70218469977069</v>
       </c>
       <c r="B27" t="n">
-        <v>-5.57082727498967</v>
+        <v>-5.61303319766312</v>
       </c>
       <c r="C27" t="n">
-        <v>-6.071773963973</v>
+        <v>-6.12052814459415</v>
       </c>
       <c r="D27" t="n">
-        <v>-6.00546062727668</v>
+        <v>-4.91796094825466</v>
       </c>
       <c r="E27" t="n">
-        <v>-6.91842123754667</v>
+        <v>-6.94851477002347</v>
       </c>
       <c r="F27" t="n">
-        <v>-7.56869865925323</v>
+        <v>-8.41630842799584</v>
       </c>
       <c r="G27" t="n">
-        <v>-7.79881892162141</v>
+        <v>-9.58171970848548</v>
       </c>
       <c r="H27" t="n">
-        <v>-8.75725022381011</v>
+        <v>-7.02642043276245</v>
       </c>
       <c r="I27" t="n">
-        <v>-8.72509140226936</v>
+        <v>-9.38526393852875</v>
       </c>
       <c r="J27" t="n">
-        <v>-9.88737660550799</v>
+        <v>-7.77511928630879</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>-4.99969721857604</v>
+        <v>-5.49349225044018</v>
       </c>
       <c r="B28" t="n">
-        <v>-5.93365111344075</v>
+        <v>-4.35365721960462</v>
       </c>
       <c r="C28" t="n">
-        <v>-5.80292823834171</v>
+        <v>-4.78828497670065</v>
       </c>
       <c r="D28" t="n">
-        <v>-6.45096198064711</v>
+        <v>-6.14352958648667</v>
       </c>
       <c r="E28" t="n">
-        <v>-6.45044005364273</v>
+        <v>-6.96565360478076</v>
       </c>
       <c r="F28" t="n">
-        <v>-7.83189670696463</v>
+        <v>-7.49179329007669</v>
       </c>
       <c r="G28" t="n">
-        <v>-8.28992776950791</v>
+        <v>-8.24311846583174</v>
       </c>
       <c r="H28" t="n">
-        <v>-8.2888571372569</v>
+        <v>-6.95754679106733</v>
       </c>
       <c r="I28" t="n">
-        <v>-8.89928540183653</v>
+        <v>-10.1641593475506</v>
       </c>
       <c r="J28" t="n">
-        <v>-9.36290305341587</v>
+        <v>-11.1111046471708</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>9.83833546502465</v>
+        <v>9.42052282889015</v>
       </c>
       <c r="B29" t="n">
-        <v>10.9965253251137</v>
+        <v>10.6080318365245</v>
       </c>
       <c r="C29" t="n">
-        <v>11.6929517951716</v>
+        <v>13.1904282080129</v>
       </c>
       <c r="D29" t="n">
-        <v>13.1030472322885</v>
+        <v>12.450051303387</v>
       </c>
       <c r="E29" t="n">
-        <v>13.8020917366351</v>
+        <v>12.6117473078481</v>
       </c>
       <c r="F29" t="n">
-        <v>14.6781530021056</v>
+        <v>15.3785774291432</v>
       </c>
       <c r="G29" t="n">
-        <v>16.0613413286034</v>
+        <v>15.6506281717811</v>
       </c>
       <c r="H29" t="n">
-        <v>17.1869199408015</v>
+        <v>17.1570976626802</v>
       </c>
       <c r="I29" t="n">
-        <v>18.2307391542975</v>
+        <v>19.3016735554301</v>
       </c>
       <c r="J29" t="n">
-        <v>19.1185970308801</v>
+        <v>18.3943053661437</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>10.432748688507</v>
+        <v>-5.24207526273922</v>
       </c>
       <c r="B30" t="n">
-        <v>10.9160023918821</v>
+        <v>-6.31589016181826</v>
       </c>
       <c r="C30" t="n">
-        <v>11.8281518852812</v>
+        <v>-4.77711798279785</v>
       </c>
       <c r="D30" t="n">
-        <v>13.3848850436109</v>
+        <v>-6.24306631391542</v>
       </c>
       <c r="E30" t="n">
-        <v>14.2395061618729</v>
+        <v>-8.04747016767983</v>
       </c>
       <c r="F30" t="n">
-        <v>14.9430100112016</v>
+        <v>-7.68757001531294</v>
       </c>
       <c r="G30" t="n">
-        <v>15.8851736301776</v>
+        <v>-7.33996464979961</v>
       </c>
       <c r="H30" t="n">
-        <v>17.0687842314798</v>
+        <v>-8.24194766219536</v>
       </c>
       <c r="I30" t="n">
-        <v>17.879297331703</v>
+        <v>-9.82914145562535</v>
       </c>
       <c r="J30" t="n">
-        <v>18.8117488117834</v>
+        <v>-9.80921045499603</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>9.82174338052377</v>
+        <v>10.0040268456461</v>
       </c>
       <c r="B31" t="n">
-        <v>11.5188481402025</v>
+        <v>10.367714710028</v>
       </c>
       <c r="C31" t="n">
-        <v>12.0152893493455</v>
+        <v>11.3724238521231</v>
       </c>
       <c r="D31" t="n">
-        <v>12.9859720068776</v>
+        <v>12.2403367549151</v>
       </c>
       <c r="E31" t="n">
-        <v>14.1287673670082</v>
+        <v>14.188820651858</v>
       </c>
       <c r="F31" t="n">
-        <v>14.7469539362079</v>
+        <v>15.3961273874578</v>
       </c>
       <c r="G31" t="n">
-        <v>15.3508249561714</v>
+        <v>16.6857413358918</v>
       </c>
       <c r="H31" t="n">
-        <v>16.7697016318902</v>
+        <v>16.7199437136382</v>
       </c>
       <c r="I31" t="n">
-        <v>18.047570083026</v>
+        <v>17.1976086826425</v>
       </c>
       <c r="J31" t="n">
-        <v>18.382705107364</v>
+        <v>19.7781967514076</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>10.2255222387027</v>
+        <v>10.8405519326589</v>
       </c>
       <c r="B32" t="n">
-        <v>10.7467180974391</v>
+        <v>11.613988790544</v>
       </c>
       <c r="C32" t="n">
-        <v>11.768557662873</v>
+        <v>12.3911207798583</v>
       </c>
       <c r="D32" t="n">
-        <v>12.8780056011608</v>
+        <v>13.3292279791115</v>
       </c>
       <c r="E32" t="n">
-        <v>13.9535356672763</v>
+        <v>13.6579844850284</v>
       </c>
       <c r="F32" t="n">
-        <v>14.5663349973517</v>
+        <v>14.3231962140768</v>
       </c>
       <c r="G32" t="n">
-        <v>16.2224011453191</v>
+        <v>15.2408728319999</v>
       </c>
       <c r="H32" t="n">
-        <v>17.2524715855843</v>
+        <v>17.249026566694</v>
       </c>
       <c r="I32" t="n">
-        <v>17.887431032165</v>
+        <v>18.2325788443324</v>
       </c>
       <c r="J32" t="n">
-        <v>19.335374349178</v>
+        <v>20.9665054935785</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>9.76788898774104</v>
+        <v>-3.84766140938285</v>
       </c>
       <c r="B33" t="n">
-        <v>11.2146178033284</v>
+        <v>-4.89644942511007</v>
       </c>
       <c r="C33" t="n">
-        <v>12.0213835589385</v>
+        <v>-5.91724600597376</v>
       </c>
       <c r="D33" t="n">
-        <v>13.1059065740014</v>
+        <v>-6.35323339351387</v>
       </c>
       <c r="E33" t="n">
-        <v>13.9484815161481</v>
+        <v>-7.29059296717085</v>
       </c>
       <c r="F33" t="n">
-        <v>15.0504142124647</v>
+        <v>-6.74839386416528</v>
       </c>
       <c r="G33" t="n">
-        <v>15.583578378038</v>
+        <v>-7.8426274844841</v>
       </c>
       <c r="H33" t="n">
-        <v>17.0508390217824</v>
+        <v>-9.12808950888372</v>
       </c>
       <c r="I33" t="n">
-        <v>17.8919217560768</v>
+        <v>-9.16746585188237</v>
       </c>
       <c r="J33" t="n">
-        <v>19.235794738928</v>
+        <v>-8.40843736561779</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>9.5107977820582</v>
+        <v>9.73727428513345</v>
       </c>
       <c r="B34" t="n">
-        <v>11.0037313515476</v>
+        <v>10.0398834206485</v>
       </c>
       <c r="C34" t="n">
-        <v>11.6567393825437</v>
+        <v>11.697165179281</v>
       </c>
       <c r="D34" t="n">
-        <v>13.0807455159069</v>
+        <v>14.6210790217115</v>
       </c>
       <c r="E34" t="n">
-        <v>14.069588502401</v>
+        <v>13.9791056805895</v>
       </c>
       <c r="F34" t="n">
-        <v>15.0679061244477</v>
+        <v>16.315596617208</v>
       </c>
       <c r="G34" t="n">
-        <v>15.9532588374638</v>
+        <v>16.0988712388026</v>
       </c>
       <c r="H34" t="n">
-        <v>16.9041109501218</v>
+        <v>17.8478900758525</v>
       </c>
       <c r="I34" t="n">
-        <v>17.9031235183593</v>
+        <v>18.1468911441552</v>
       </c>
       <c r="J34" t="n">
-        <v>18.9285734712528</v>
+        <v>18.8654473384182</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>10.4394688232408</v>
+        <v>9.82611631824983</v>
       </c>
       <c r="B35" t="n">
-        <v>10.6298808825962</v>
+        <v>11.5053787401154</v>
       </c>
       <c r="C35" t="n">
-        <v>12.1758687305128</v>
+        <v>10.9247291726807</v>
       </c>
       <c r="D35" t="n">
-        <v>13.243420483505</v>
+        <v>13.2316561465926</v>
       </c>
       <c r="E35" t="n">
-        <v>14.0581571656712</v>
+        <v>13.1512724244723</v>
       </c>
       <c r="F35" t="n">
-        <v>15.0351514981836</v>
+        <v>14.7640594895018</v>
       </c>
       <c r="G35" t="n">
-        <v>16.2145790480699</v>
+        <v>16.0576178934383</v>
       </c>
       <c r="H35" t="n">
-        <v>16.5905376094128</v>
+        <v>18.7595142739691</v>
       </c>
       <c r="I35" t="n">
-        <v>18.0972454205954</v>
+        <v>17.4319614095727</v>
       </c>
       <c r="J35" t="n">
-        <v>19.2937416992795</v>
+        <v>19.2636118568769</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>10.0275855376474</v>
+        <v>-3.13647319479035</v>
       </c>
       <c r="B36" t="n">
-        <v>10.7080830880894</v>
+        <v>-4.90932452702073</v>
       </c>
       <c r="C36" t="n">
-        <v>11.8681831084331</v>
+        <v>-5.42702703725402</v>
       </c>
       <c r="D36" t="n">
-        <v>13.0736978593557</v>
+        <v>-6.37001057055147</v>
       </c>
       <c r="E36" t="n">
-        <v>14.0859210900822</v>
+        <v>-7.21423490039491</v>
       </c>
       <c r="F36" t="n">
-        <v>15.021135233106</v>
+        <v>-6.86246878469538</v>
       </c>
       <c r="G36" t="n">
-        <v>16.2923081349233</v>
+        <v>-8.10992505182988</v>
       </c>
       <c r="H36" t="n">
-        <v>17.2764481342497</v>
+        <v>-7.04282803934149</v>
       </c>
       <c r="I36" t="n">
-        <v>18.0688832740784</v>
+        <v>-9.97179784400478</v>
       </c>
       <c r="J36" t="n">
-        <v>19.1237842785183</v>
+        <v>-9.95640150370168</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>-5.01624066140937</v>
+        <v>9.34169311229775</v>
       </c>
       <c r="B37" t="n">
-        <v>-5.91196265429519</v>
+        <v>11.3299527323304</v>
       </c>
       <c r="C37" t="n">
-        <v>-5.88304891849504</v>
+        <v>12.5633007852755</v>
       </c>
       <c r="D37" t="n">
-        <v>-6.05220403584311</v>
+        <v>13.010234968767</v>
       </c>
       <c r="E37" t="n">
-        <v>-6.98069137529171</v>
+        <v>14.1436942240298</v>
       </c>
       <c r="F37" t="n">
-        <v>-7.60007798152224</v>
+        <v>16.2555203513002</v>
       </c>
       <c r="G37" t="n">
-        <v>-7.85839477202383</v>
+        <v>16.2046651545145</v>
       </c>
       <c r="H37" t="n">
-        <v>-9.06546494380658</v>
+        <v>15.7044801399027</v>
       </c>
       <c r="I37" t="n">
-        <v>-9.08699111738223</v>
+        <v>17.3589934590903</v>
       </c>
       <c r="J37" t="n">
-        <v>-9.25880277273928</v>
+        <v>18.1561764051182</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>10.2254789869419</v>
+        <v>-4.19478446836122</v>
       </c>
       <c r="B38" t="n">
-        <v>11.1328566576522</v>
+        <v>-5.07088020655364</v>
       </c>
       <c r="C38" t="n">
-        <v>12.1977685401038</v>
+        <v>-7.33062718483141</v>
       </c>
       <c r="D38" t="n">
-        <v>13.2392247105755</v>
+        <v>-6.66267838768998</v>
       </c>
       <c r="E38" t="n">
-        <v>13.8123227400764</v>
+        <v>-6.53054652978925</v>
       </c>
       <c r="F38" t="n">
-        <v>15.117692617016</v>
+        <v>-7.28062710556734</v>
       </c>
       <c r="G38" t="n">
-        <v>16.0226013170422</v>
+        <v>-7.75931397183155</v>
       </c>
       <c r="H38" t="n">
-        <v>17.1129234378078</v>
+        <v>-10.3048582926263</v>
       </c>
       <c r="I38" t="n">
-        <v>17.8672455801478</v>
+        <v>-8.85922591956685</v>
       </c>
       <c r="J38" t="n">
-        <v>18.9176878635357</v>
+        <v>-9.65708072583995</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>-5.78580605413552</v>
+        <v>-4.4963572935355</v>
       </c>
       <c r="B39" t="n">
-        <v>-5.66117350067116</v>
+        <v>-4.83889380311558</v>
       </c>
       <c r="C39" t="n">
-        <v>-6.33872914198616</v>
+        <v>-5.19038593845409</v>
       </c>
       <c r="D39" t="n">
-        <v>-5.93366648298354</v>
+        <v>-5.74454523611611</v>
       </c>
       <c r="E39" t="n">
-        <v>-7.11766767140086</v>
+        <v>-6.94440958685563</v>
       </c>
       <c r="F39" t="n">
-        <v>-7.80398493042433</v>
+        <v>-7.64960384148646</v>
       </c>
       <c r="G39" t="n">
-        <v>-7.71150176650291</v>
+        <v>-7.94301896789223</v>
       </c>
       <c r="H39" t="n">
-        <v>-8.500197187084</v>
+        <v>-8.97034340361221</v>
       </c>
       <c r="I39" t="n">
-        <v>-8.60584741543188</v>
+        <v>-8.79156369073041</v>
       </c>
       <c r="J39" t="n">
-        <v>-9.21425922885274</v>
+        <v>-10.1310094050882</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>-5.50830141402251</v>
+        <v>-3.88262269795949</v>
       </c>
       <c r="B40" t="n">
-        <v>-5.73444768688984</v>
+        <v>-5.89581133378464</v>
       </c>
       <c r="C40" t="n">
-        <v>-6.25173455312008</v>
+        <v>-5.89452928402233</v>
       </c>
       <c r="D40" t="n">
-        <v>-6.64224651718415</v>
+        <v>-6.04779394593263</v>
       </c>
       <c r="E40" t="n">
-        <v>-6.9192720662398</v>
+        <v>-5.34866552430918</v>
       </c>
       <c r="F40" t="n">
-        <v>-7.64750269602984</v>
+        <v>-7.52735791388153</v>
       </c>
       <c r="G40" t="n">
-        <v>-7.96227830044379</v>
+        <v>-8.59592867278098</v>
       </c>
       <c r="H40" t="n">
-        <v>-8.63485522227792</v>
+        <v>-8.50876048388322</v>
       </c>
       <c r="I40" t="n">
-        <v>-9.0747802140743</v>
+        <v>-8.68318426592507</v>
       </c>
       <c r="J40" t="n">
-        <v>-9.62151623185313</v>
+        <v>-9.25862283965704</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>-5.26701054651163</v>
+        <v>8.44405161691453</v>
       </c>
       <c r="B41" t="n">
-        <v>-5.69198027548159</v>
+        <v>10.8780816430579</v>
       </c>
       <c r="C41" t="n">
-        <v>-5.74043185467423</v>
+        <v>11.3862865542273</v>
       </c>
       <c r="D41" t="n">
-        <v>-6.34849024228618</v>
+        <v>13.7217159686703</v>
       </c>
       <c r="E41" t="n">
-        <v>-6.92995703698944</v>
+        <v>15.1920134712748</v>
       </c>
       <c r="F41" t="n">
-        <v>-7.34280896137697</v>
+        <v>14.7901916845028</v>
       </c>
       <c r="G41" t="n">
-        <v>-8.01387216934767</v>
+        <v>15.0422932386864</v>
       </c>
       <c r="H41" t="n">
-        <v>-8.2239249348349</v>
+        <v>16.5101475180034</v>
       </c>
       <c r="I41" t="n">
-        <v>-9.39718189477173</v>
+        <v>18.5827394658344</v>
       </c>
       <c r="J41" t="n">
-        <v>-9.94490559533028</v>
+        <v>19.481756702128</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>9.80655460070011</v>
+        <v>11.5990629683132</v>
       </c>
       <c r="B42" t="n">
-        <v>10.9824139656253</v>
+        <v>10.6645591656637</v>
       </c>
       <c r="C42" t="n">
-        <v>12.1635313272186</v>
+        <v>12.4493728991649</v>
       </c>
       <c r="D42" t="n">
-        <v>12.9397792115628</v>
+        <v>12.5520250108481</v>
       </c>
       <c r="E42" t="n">
-        <v>14.0564647090434</v>
+        <v>14.1092915069721</v>
       </c>
       <c r="F42" t="n">
-        <v>15.0807626392174</v>
+        <v>16.0884723372694</v>
       </c>
       <c r="G42" t="n">
-        <v>16.0215786714403</v>
+        <v>15.4059149028183</v>
       </c>
       <c r="H42" t="n">
-        <v>17.3637069909106</v>
+        <v>18.0514274128817</v>
       </c>
       <c r="I42" t="n">
-        <v>18.0534640622031</v>
+        <v>16.8695998187034</v>
       </c>
       <c r="J42" t="n">
-        <v>19.4138387548227</v>
+        <v>19.7322004700862</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>-5.25925729054842</v>
+        <v>-5.30831957177089</v>
       </c>
       <c r="B43" t="n">
-        <v>-5.63760552851826</v>
+        <v>-5.33081370199706</v>
       </c>
       <c r="C43" t="n">
-        <v>-6.15122041213401</v>
+        <v>-4.69778849511882</v>
       </c>
       <c r="D43" t="n">
-        <v>-6.74324269008614</v>
+        <v>-7.51307775949795</v>
       </c>
       <c r="E43" t="n">
-        <v>-7.14821783501785</v>
+        <v>-7.13410264747667</v>
       </c>
       <c r="F43" t="n">
-        <v>-7.39380016221111</v>
+        <v>-7.48939469476214</v>
       </c>
       <c r="G43" t="n">
-        <v>-7.73005725433529</v>
+        <v>-8.89649102265447</v>
       </c>
       <c r="H43" t="n">
-        <v>-8.80694365115457</v>
+        <v>-9.33526636574382</v>
       </c>
       <c r="I43" t="n">
-        <v>-9.38255096839428</v>
+        <v>-10.1890090978849</v>
       </c>
       <c r="J43" t="n">
-        <v>-9.51109402095932</v>
+        <v>-9.35171535666668</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>10.2648715601705</v>
+        <v>8.31193560945089</v>
       </c>
       <c r="B44" t="n">
-        <v>11.1638992832051</v>
+        <v>9.82045162681156</v>
       </c>
       <c r="C44" t="n">
-        <v>11.9265052365714</v>
+        <v>12.1853870268666</v>
       </c>
       <c r="D44" t="n">
-        <v>13.3115513624636</v>
+        <v>12.9019726546587</v>
       </c>
       <c r="E44" t="n">
-        <v>14.0248993933236</v>
+        <v>14.6256636278371</v>
       </c>
       <c r="F44" t="n">
-        <v>15.2753950022128</v>
+        <v>14.7768322955692</v>
       </c>
       <c r="G44" t="n">
-        <v>16.0258886807501</v>
+        <v>16.1517939728818</v>
       </c>
       <c r="H44" t="n">
-        <v>16.9789820846515</v>
+        <v>16.3296598830144</v>
       </c>
       <c r="I44" t="n">
-        <v>18.1637168837072</v>
+        <v>16.6444916822913</v>
       </c>
       <c r="J44" t="n">
-        <v>19.4945231263262</v>
+        <v>19.5758696171597</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>9.98512777756627</v>
+        <v>9.87070549750648</v>
       </c>
       <c r="B45" t="n">
-        <v>10.9601508696508</v>
+        <v>11.4527820831859</v>
       </c>
       <c r="C45" t="n">
-        <v>12.3435523634065</v>
+        <v>11.9922854685611</v>
       </c>
       <c r="D45" t="n">
-        <v>13.2491046680733</v>
+        <v>12.8253061328185</v>
       </c>
       <c r="E45" t="n">
-        <v>13.6860780462683</v>
+        <v>16.1013325130486</v>
       </c>
       <c r="F45" t="n">
-        <v>15.208646500991</v>
+        <v>15.1466474073369</v>
       </c>
       <c r="G45" t="n">
-        <v>15.6676140080659</v>
+        <v>15.3933171196964</v>
       </c>
       <c r="H45" t="n">
-        <v>17.2975216513803</v>
+        <v>17.4803411455913</v>
       </c>
       <c r="I45" t="n">
-        <v>17.7888473881551</v>
+        <v>18.9584682075027</v>
       </c>
       <c r="J45" t="n">
-        <v>18.4478885057186</v>
+        <v>20.512464516795</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>9.62181311209814</v>
+        <v>9.3928665048418</v>
       </c>
       <c r="B46" t="n">
-        <v>10.8348029970433</v>
+        <v>11.1299640417845</v>
       </c>
       <c r="C46" t="n">
-        <v>11.9887640513083</v>
+        <v>11.9942555126416</v>
       </c>
       <c r="D46" t="n">
-        <v>13.2859777711602</v>
+        <v>14.3687254252361</v>
       </c>
       <c r="E46" t="n">
-        <v>14.1674605094978</v>
+        <v>13.9769680738104</v>
       </c>
       <c r="F46" t="n">
-        <v>15.0530886285773</v>
+        <v>15.4042377531523</v>
       </c>
       <c r="G46" t="n">
-        <v>16.5391109217175</v>
+        <v>16.1356915919658</v>
       </c>
       <c r="H46" t="n">
-        <v>17.0817901232648</v>
+        <v>16.9286728198784</v>
       </c>
       <c r="I46" t="n">
-        <v>17.9348942268808</v>
+        <v>18.6810118172784</v>
       </c>
       <c r="J46" t="n">
-        <v>19.0287566243171</v>
+        <v>18.2791060395718</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>9.83158637867069</v>
+        <v>9.83183369943691</v>
       </c>
       <c r="B47" t="n">
-        <v>11.159360454794</v>
+        <v>12.1169040259317</v>
       </c>
       <c r="C47" t="n">
-        <v>11.4898256313482</v>
+        <v>12.9941049332412</v>
       </c>
       <c r="D47" t="n">
-        <v>13.1420918792383</v>
+        <v>12.0355638682157</v>
       </c>
       <c r="E47" t="n">
-        <v>13.9818505150738</v>
+        <v>14.8134466296036</v>
       </c>
       <c r="F47" t="n">
-        <v>15.0715303456573</v>
+        <v>13.3970419338756</v>
       </c>
       <c r="G47" t="n">
-        <v>15.6042204449539</v>
+        <v>15.1019774511246</v>
       </c>
       <c r="H47" t="n">
-        <v>16.6799037976292</v>
+        <v>16.5843927654944</v>
       </c>
       <c r="I47" t="n">
-        <v>17.8033800157622</v>
+        <v>17.8383349154061</v>
       </c>
       <c r="J47" t="n">
-        <v>19.3258119206166</v>
+        <v>18.5111217711628</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>9.87062377638705</v>
+        <v>10.281489909396</v>
       </c>
       <c r="B48" t="n">
-        <v>11.324546363714</v>
+        <v>11.2692076508648</v>
       </c>
       <c r="C48" t="n">
-        <v>11.5745078997564</v>
+        <v>11.892371800007</v>
       </c>
       <c r="D48" t="n">
-        <v>12.6279148852686</v>
+        <v>12.376062424163</v>
       </c>
       <c r="E48" t="n">
-        <v>13.7535967166417</v>
+        <v>15.1024169668918</v>
       </c>
       <c r="F48" t="n">
-        <v>15.2881021747919</v>
+        <v>14.7609599242304</v>
       </c>
       <c r="G48" t="n">
-        <v>16.4837097872808</v>
+        <v>16.075542929632</v>
       </c>
       <c r="H48" t="n">
-        <v>17.0562928280763</v>
+        <v>17.8197780003055</v>
       </c>
       <c r="I48" t="n">
-        <v>18.2589525757681</v>
+        <v>17.9676001130325</v>
       </c>
       <c r="J48" t="n">
-        <v>18.7630133598506</v>
+        <v>18.7205021149155</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>10.0251966139007</v>
+        <v>9.69944034709016</v>
       </c>
       <c r="B49" t="n">
-        <v>11.2640486554253</v>
+        <v>10.3826652096406</v>
       </c>
       <c r="C49" t="n">
-        <v>12.1303297121279</v>
+        <v>11.9201836577125</v>
       </c>
       <c r="D49" t="n">
-        <v>12.9845753575412</v>
+        <v>12.7641560056953</v>
       </c>
       <c r="E49" t="n">
-        <v>14.144958269905</v>
+        <v>14.8013656849732</v>
       </c>
       <c r="F49" t="n">
-        <v>15.3627895487757</v>
+        <v>15.6043979163228</v>
       </c>
       <c r="G49" t="n">
-        <v>15.4796715940194</v>
+        <v>15.5286752827265</v>
       </c>
       <c r="H49" t="n">
-        <v>16.9983179140923</v>
+        <v>17.2000629831055</v>
       </c>
       <c r="I49" t="n">
-        <v>17.7911100095147</v>
+        <v>16.309747537581</v>
       </c>
       <c r="J49" t="n">
-        <v>19.2524831531992</v>
+        <v>18.2565341691116</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>10.0960495653639</v>
+        <v>8.973852868562</v>
       </c>
       <c r="B50" t="n">
-        <v>10.930987693381</v>
+        <v>10.7113030174375</v>
       </c>
       <c r="C50" t="n">
-        <v>12.4204965054579</v>
+        <v>11.1946444393762</v>
       </c>
       <c r="D50" t="n">
-        <v>13.3597478580683</v>
+        <v>11.6917141199644</v>
       </c>
       <c r="E50" t="n">
-        <v>13.5570716453752</v>
+        <v>14.0315262087102</v>
       </c>
       <c r="F50" t="n">
-        <v>14.9775309083337</v>
+        <v>15.0782779111907</v>
       </c>
       <c r="G50" t="n">
-        <v>16.2981755266701</v>
+        <v>15.6608051346242</v>
       </c>
       <c r="H50" t="n">
-        <v>17.0583122328803</v>
+        <v>16.9432041746855</v>
       </c>
       <c r="I50" t="n">
-        <v>17.9189311189132</v>
+        <v>17.8686753547658</v>
       </c>
       <c r="J50" t="n">
-        <v>18.9471798993636</v>
+        <v>17.473400061514</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>10.6093611824302</v>
+        <v>-6.17984311358657</v>
       </c>
       <c r="B51" t="n">
-        <v>10.8502067443839</v>
+        <v>-6.39391297292921</v>
       </c>
       <c r="C51" t="n">
-        <v>12.1718217667939</v>
+        <v>-5.6294519752614</v>
       </c>
       <c r="D51" t="n">
-        <v>13.1904322215733</v>
+        <v>-6.56577883560918</v>
       </c>
       <c r="E51" t="n">
-        <v>14.0507160482874</v>
+        <v>-6.4371655131794</v>
       </c>
       <c r="F51" t="n">
-        <v>14.7077937626675</v>
+        <v>-7.89959353310787</v>
       </c>
       <c r="G51" t="n">
-        <v>15.9013429388979</v>
+        <v>-9.36754351262824</v>
       </c>
       <c r="H51" t="n">
-        <v>16.989958665705</v>
+        <v>-7.88085526084645</v>
       </c>
       <c r="I51" t="n">
-        <v>17.9275522787054</v>
+        <v>-9.42437136754</v>
       </c>
       <c r="J51" t="n">
-        <v>19.0776755086232</v>
+        <v>-10.7034612362228</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>9.72400799581558</v>
+        <v>10.0266548138706</v>
       </c>
       <c r="B52" t="n">
-        <v>11.2419763817801</v>
+        <v>11.1224497291072</v>
       </c>
       <c r="C52" t="n">
-        <v>12.2539366776557</v>
+        <v>13.1962671921486</v>
       </c>
       <c r="D52" t="n">
-        <v>13.2768540309037</v>
+        <v>12.1163400107879</v>
       </c>
       <c r="E52" t="n">
-        <v>13.8794668645469</v>
+        <v>14.0496479597315</v>
       </c>
       <c r="F52" t="n">
-        <v>15.2135070521205</v>
+        <v>15.5840705839871</v>
       </c>
       <c r="G52" t="n">
-        <v>16.1388961072962</v>
+        <v>17.5787972944858</v>
       </c>
       <c r="H52" t="n">
-        <v>17.4122868463448</v>
+        <v>19.3200658087195</v>
       </c>
       <c r="I52" t="n">
-        <v>17.903782237252</v>
+        <v>17.6270198854794</v>
       </c>
       <c r="J52" t="n">
-        <v>19.3268346355772</v>
+        <v>18.1927476467173</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>10.2966003704782</v>
+        <v>-5.1967923350083</v>
       </c>
       <c r="B53" t="n">
-        <v>11.038479640816</v>
+        <v>-5.80894939631727</v>
       </c>
       <c r="C53" t="n">
-        <v>12.1556806755034</v>
+        <v>-5.05178502368148</v>
       </c>
       <c r="D53" t="n">
-        <v>12.8447690375699</v>
+        <v>-7.24406522976378</v>
       </c>
       <c r="E53" t="n">
-        <v>14.1261725166079</v>
+        <v>-7.24663205832547</v>
       </c>
       <c r="F53" t="n">
-        <v>15.3552483637123</v>
+        <v>-7.30666823510377</v>
       </c>
       <c r="G53" t="n">
-        <v>15.7930386875267</v>
+        <v>-8.57646566768762</v>
       </c>
       <c r="H53" t="n">
-        <v>17.0323206561445</v>
+        <v>-8.08978936487979</v>
       </c>
       <c r="I53" t="n">
-        <v>17.8016273351284</v>
+        <v>-8.11668052790793</v>
       </c>
       <c r="J53" t="n">
-        <v>18.6896096208497</v>
+        <v>-8.86532809974331</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>-5.23182662218867</v>
+        <v>-6.27673627459892</v>
       </c>
       <c r="B54" t="n">
-        <v>-5.7569607164845</v>
+        <v>-4.83509914950784</v>
       </c>
       <c r="C54" t="n">
-        <v>-6.1370575359203</v>
+        <v>-5.75667128324473</v>
       </c>
       <c r="D54" t="n">
-        <v>-6.12429102980106</v>
+        <v>-6.27424667974615</v>
       </c>
       <c r="E54" t="n">
-        <v>-7.0625768767692</v>
+        <v>-6.423757837934</v>
       </c>
       <c r="F54" t="n">
-        <v>-7.36533499759229</v>
+        <v>-7.15563665554689</v>
       </c>
       <c r="G54" t="n">
-        <v>-7.86066158027875</v>
+        <v>-7.86618919016345</v>
       </c>
       <c r="H54" t="n">
-        <v>-8.43743056580903</v>
+        <v>-8.34113695451189</v>
       </c>
       <c r="I54" t="n">
-        <v>-8.84688651691977</v>
+        <v>-8.01694019858978</v>
       </c>
       <c r="J54" t="n">
-        <v>-9.60143158319664</v>
+        <v>-10.1523631480123</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-4.60614774254382</v>
+        <v>10.0869047788156</v>
       </c>
       <c r="B55" t="n">
-        <v>-4.95680605484804</v>
+        <v>9.96436428317861</v>
       </c>
       <c r="C55" t="n">
-        <v>-6.11050949987289</v>
+        <v>12.6860198930343</v>
       </c>
       <c r="D55" t="n">
-        <v>-6.85786725297023</v>
+        <v>13.3355490633931</v>
       </c>
       <c r="E55" t="n">
-        <v>-7.10700118433965</v>
+        <v>13.804585188789</v>
       </c>
       <c r="F55" t="n">
-        <v>-7.87345997605109</v>
+        <v>13.9841890606492</v>
       </c>
       <c r="G55" t="n">
-        <v>-7.86776668075946</v>
+        <v>15.2467256873531</v>
       </c>
       <c r="H55" t="n">
-        <v>-8.72601911667544</v>
+        <v>17.5210755666917</v>
       </c>
       <c r="I55" t="n">
-        <v>-9.17165537232618</v>
+        <v>17.1256748455049</v>
       </c>
       <c r="J55" t="n">
-        <v>-9.76724755975622</v>
+        <v>19.1849532099917</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>10.3496092008735</v>
+        <v>7.59348246969164</v>
       </c>
       <c r="B56" t="n">
-        <v>10.6774980995612</v>
+        <v>10.7064491538273</v>
       </c>
       <c r="C56" t="n">
-        <v>11.8018975242921</v>
+        <v>13.4110573573682</v>
       </c>
       <c r="D56" t="n">
-        <v>13.3561607700814</v>
+        <v>13.393997052259</v>
       </c>
       <c r="E56" t="n">
-        <v>13.750776286978</v>
+        <v>13.2227482958899</v>
       </c>
       <c r="F56" t="n">
-        <v>15.2531479532016</v>
+        <v>15.121051843998</v>
       </c>
       <c r="G56" t="n">
-        <v>16.4222163091601</v>
+        <v>16.8232791294843</v>
       </c>
       <c r="H56" t="n">
-        <v>16.9674849269649</v>
+        <v>16.948755394018</v>
       </c>
       <c r="I56" t="n">
-        <v>17.7080538581345</v>
+        <v>18.0320138885226</v>
       </c>
       <c r="J56" t="n">
-        <v>19.0337248706886</v>
+        <v>17.7346598715415</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>9.78231725968004</v>
+        <v>10.6989873497442</v>
       </c>
       <c r="B57" t="n">
-        <v>11.0730733350865</v>
+        <v>10.9467984964093</v>
       </c>
       <c r="C57" t="n">
-        <v>12.4829073031997</v>
+        <v>11.4417524793723</v>
       </c>
       <c r="D57" t="n">
-        <v>13.001587135962</v>
+        <v>12.6328078160247</v>
       </c>
       <c r="E57" t="n">
-        <v>13.8372370780941</v>
+        <v>13.4193823730505</v>
       </c>
       <c r="F57" t="n">
-        <v>15.3065051015456</v>
+        <v>14.8129438426175</v>
       </c>
       <c r="G57" t="n">
-        <v>16.1779875772301</v>
+        <v>16.7679290205488</v>
       </c>
       <c r="H57" t="n">
-        <v>16.9860244672202</v>
+        <v>16.1940924433704</v>
       </c>
       <c r="I57" t="n">
-        <v>18.125704785414</v>
+        <v>19.6955791076852</v>
       </c>
       <c r="J57" t="n">
-        <v>19.1466632688653</v>
+        <v>18.4052772761145</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>9.52435493843939</v>
+        <v>10.720895748933</v>
       </c>
       <c r="B58" t="n">
-        <v>11.5546662494416</v>
+        <v>10.7692001386148</v>
       </c>
       <c r="C58" t="n">
-        <v>12.098823541407</v>
+        <v>11.1338176484851</v>
       </c>
       <c r="D58" t="n">
-        <v>12.7080731326434</v>
+        <v>13.0119149346673</v>
       </c>
       <c r="E58" t="n">
-        <v>14.1181771429971</v>
+        <v>12.8209763671485</v>
       </c>
       <c r="F58" t="n">
-        <v>14.966104955261</v>
+        <v>16.1756081587573</v>
       </c>
       <c r="G58" t="n">
-        <v>15.8185562666907</v>
+        <v>15.4753300640228</v>
       </c>
       <c r="H58" t="n">
-        <v>16.821336619595</v>
+        <v>16.4821885932967</v>
       </c>
       <c r="I58" t="n">
-        <v>18.5032854010705</v>
+        <v>16.9331596836491</v>
       </c>
       <c r="J58" t="n">
-        <v>19.4046177753737</v>
+        <v>18.3532782148878</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>10.1706293218092</v>
+        <v>-6.1165874944679</v>
       </c>
       <c r="B59" t="n">
-        <v>10.8376290382388</v>
+        <v>-4.72928599744299</v>
       </c>
       <c r="C59" t="n">
-        <v>12.0329584034394</v>
+        <v>-5.26731824249651</v>
       </c>
       <c r="D59" t="n">
-        <v>13.0992300078553</v>
+        <v>-5.37120686983238</v>
       </c>
       <c r="E59" t="n">
-        <v>14.3080012035848</v>
+        <v>-7.23365417897289</v>
       </c>
       <c r="F59" t="n">
-        <v>15.0179351435703</v>
+        <v>-7.28383497503612</v>
       </c>
       <c r="G59" t="n">
-        <v>15.8830826913471</v>
+        <v>-8.59699751292225</v>
       </c>
       <c r="H59" t="n">
-        <v>16.9571038268722</v>
+        <v>-9.24123495856458</v>
       </c>
       <c r="I59" t="n">
-        <v>18.2594621147315</v>
+        <v>-8.40922792766664</v>
       </c>
       <c r="J59" t="n">
-        <v>19.1289656858351</v>
+        <v>-8.56890994928175</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>9.92978927641106</v>
+        <v>8.72063554037245</v>
       </c>
       <c r="B60" t="n">
-        <v>10.8992944748449</v>
+        <v>9.75148866403896</v>
       </c>
       <c r="C60" t="n">
-        <v>12.022109578466</v>
+        <v>12.0617625796844</v>
       </c>
       <c r="D60" t="n">
-        <v>13.1786252566472</v>
+        <v>12.689932020355</v>
       </c>
       <c r="E60" t="n">
-        <v>13.7243937131004</v>
+        <v>13.7540094909373</v>
       </c>
       <c r="F60" t="n">
-        <v>15.2300586607004</v>
+        <v>14.7114457906767</v>
       </c>
       <c r="G60" t="n">
-        <v>15.781856167055</v>
+        <v>14.9825935683134</v>
       </c>
       <c r="H60" t="n">
-        <v>17.040851893197</v>
+        <v>16.0654465501417</v>
       </c>
       <c r="I60" t="n">
-        <v>18.2649729181923</v>
+        <v>17.6028322533132</v>
       </c>
       <c r="J60" t="n">
-        <v>19.126175123346</v>
+        <v>19.7903788051317</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>-5.35765810834356</v>
+        <v>9.2951256864843</v>
       </c>
       <c r="B61" t="n">
-        <v>-5.28603605192066</v>
+        <v>11.4588493701317</v>
       </c>
       <c r="C61" t="n">
-        <v>-6.38944387572833</v>
+        <v>13.55103755329</v>
       </c>
       <c r="D61" t="n">
-        <v>-6.50118133687874</v>
+        <v>13.6774453467765</v>
       </c>
       <c r="E61" t="n">
-        <v>-6.89367137154883</v>
+        <v>13.6350271838145</v>
       </c>
       <c r="F61" t="n">
-        <v>-7.01825889665479</v>
+        <v>15.4009669609547</v>
       </c>
       <c r="G61" t="n">
-        <v>-8.03353661497873</v>
+        <v>16.1339337784967</v>
       </c>
       <c r="H61" t="n">
-        <v>-8.10141984648804</v>
+        <v>18.7328358281518</v>
       </c>
       <c r="I61" t="n">
-        <v>-8.78848800383991</v>
+        <v>19.3535651927579</v>
       </c>
       <c r="J61" t="n">
-        <v>-8.97314253875553</v>
+        <v>20.064051818944</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>9.61559582032542</v>
+        <v>-6.21244040676373</v>
       </c>
       <c r="B62" t="n">
-        <v>11.2414017544517</v>
+        <v>-5.25293550494334</v>
       </c>
       <c r="C62" t="n">
-        <v>12.2251630364425</v>
+        <v>-5.19527160713663</v>
       </c>
       <c r="D62" t="n">
-        <v>12.4999091396359</v>
+        <v>-6.52639571417079</v>
       </c>
       <c r="E62" t="n">
-        <v>14.4570458722077</v>
+        <v>-7.41468810858792</v>
       </c>
       <c r="F62" t="n">
-        <v>15.1348292929567</v>
+        <v>-7.14852183901288</v>
       </c>
       <c r="G62" t="n">
-        <v>15.7728277778718</v>
+        <v>-6.47735083845389</v>
       </c>
       <c r="H62" t="n">
-        <v>17.1035330366201</v>
+        <v>-8.76481852695437</v>
       </c>
       <c r="I62" t="n">
-        <v>18.136261967857</v>
+        <v>-8.61623145404356</v>
       </c>
       <c r="J62" t="n">
-        <v>18.896806629319</v>
+        <v>-9.86024341135001</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>10.0739578842539</v>
+        <v>-5.2886699611619</v>
       </c>
       <c r="B63" t="n">
-        <v>11.1778995899314</v>
+        <v>-3.182055582845</v>
       </c>
       <c r="C63" t="n">
-        <v>12.2760798238417</v>
+        <v>-5.44414397885092</v>
       </c>
       <c r="D63" t="n">
-        <v>12.6418901954434</v>
+        <v>-7.61649019850415</v>
       </c>
       <c r="E63" t="n">
-        <v>14.0099020034915</v>
+        <v>-6.86625603936754</v>
       </c>
       <c r="F63" t="n">
-        <v>14.8617301595387</v>
+        <v>-8.20956222845963</v>
       </c>
       <c r="G63" t="n">
-        <v>16.3096721841011</v>
+        <v>-7.80990071844161</v>
       </c>
       <c r="H63" t="n">
-        <v>16.7399474599803</v>
+        <v>-8.76045328363406</v>
       </c>
       <c r="I63" t="n">
-        <v>17.9801121747074</v>
+        <v>-10.7018159802848</v>
       </c>
       <c r="J63" t="n">
-        <v>18.5465690511264</v>
+        <v>-10.329809476855</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>-5.22277242831298</v>
+        <v>-6.00534310057748</v>
       </c>
       <c r="B64" t="n">
-        <v>-4.99046956453056</v>
+        <v>-5.98890010636858</v>
       </c>
       <c r="C64" t="n">
-        <v>-6.1459943942487</v>
+        <v>-6.87809467836945</v>
       </c>
       <c r="D64" t="n">
-        <v>-6.69157473326853</v>
+        <v>-6.61267787663205</v>
       </c>
       <c r="E64" t="n">
-        <v>-7.42198010602081</v>
+        <v>-7.35017314145224</v>
       </c>
       <c r="F64" t="n">
-        <v>-7.31947090839443</v>
+        <v>-7.30900424913048</v>
       </c>
       <c r="G64" t="n">
-        <v>-8.28741443502106</v>
+        <v>-7.76750343970514</v>
       </c>
       <c r="H64" t="n">
-        <v>-8.46292226959915</v>
+        <v>-8.28993765922147</v>
       </c>
       <c r="I64" t="n">
-        <v>-9.13250924964048</v>
+        <v>-8.21773939599502</v>
       </c>
       <c r="J64" t="n">
-        <v>-9.31238968763698</v>
+        <v>-8.81774751183497</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>9.78080232359137</v>
+        <v>10.9254292626995</v>
       </c>
       <c r="B65" t="n">
-        <v>10.7104257247654</v>
+        <v>10.2753115845096</v>
       </c>
       <c r="C65" t="n">
-        <v>11.9035103616588</v>
+        <v>10.8007232874234</v>
       </c>
       <c r="D65" t="n">
-        <v>12.8388403481012</v>
+        <v>13.4244658339466</v>
       </c>
       <c r="E65" t="n">
-        <v>14.5452775961962</v>
+        <v>13.8930588596545</v>
       </c>
       <c r="F65" t="n">
-        <v>14.8161176202097</v>
+        <v>14.5863657169579</v>
       </c>
       <c r="G65" t="n">
-        <v>15.7152256000202</v>
+        <v>15.8557530093347</v>
       </c>
       <c r="H65" t="n">
-        <v>16.5782357094</v>
+        <v>15.6832527732483</v>
       </c>
       <c r="I65" t="n">
-        <v>17.9211560942692</v>
+        <v>17.2989903071175</v>
       </c>
       <c r="J65" t="n">
-        <v>18.8175780311128</v>
+        <v>18.894686609643</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>9.81775250512183</v>
+        <v>10.8380659765629</v>
       </c>
       <c r="B66" t="n">
-        <v>11.1334358475615</v>
+        <v>10.7181581499587</v>
       </c>
       <c r="C66" t="n">
-        <v>11.8909651166913</v>
+        <v>12.0574767666091</v>
       </c>
       <c r="D66" t="n">
-        <v>12.6876055129359</v>
+        <v>11.7780435034603</v>
       </c>
       <c r="E66" t="n">
-        <v>14.2149437542908</v>
+        <v>14.3262069285773</v>
       </c>
       <c r="F66" t="n">
-        <v>14.377242591402</v>
+        <v>15.7551439249038</v>
       </c>
       <c r="G66" t="n">
-        <v>15.980119871875</v>
+        <v>15.9883026669549</v>
       </c>
       <c r="H66" t="n">
-        <v>17.3624294135198</v>
+        <v>17.7543464867804</v>
       </c>
       <c r="I66" t="n">
-        <v>17.7592192496559</v>
+        <v>18.7311804260658</v>
       </c>
       <c r="J66" t="n">
-        <v>19.3646016062305</v>
+        <v>18.8287588398561</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>-4.64006924698272</v>
+        <v>9.17400576138728</v>
       </c>
       <c r="B67" t="n">
-        <v>-5.35296275342295</v>
+        <v>11.7003568245399</v>
       </c>
       <c r="C67" t="n">
-        <v>-5.51864998770834</v>
+        <v>11.8730411566468</v>
       </c>
       <c r="D67" t="n">
-        <v>-6.24521490791526</v>
+        <v>13.4140687368689</v>
       </c>
       <c r="E67" t="n">
-        <v>-6.70316207453445</v>
+        <v>13.6352327102062</v>
       </c>
       <c r="F67" t="n">
-        <v>-7.6167787783924</v>
+        <v>16.3781380578508</v>
       </c>
       <c r="G67" t="n">
-        <v>-8.18444254291001</v>
+        <v>15.4621791740467</v>
       </c>
       <c r="H67" t="n">
-        <v>-8.11944471914664</v>
+        <v>16.7706824448097</v>
       </c>
       <c r="I67" t="n">
-        <v>-9.32392000148366</v>
+        <v>19.0678151066902</v>
       </c>
       <c r="J67" t="n">
-        <v>-9.05026190120971</v>
+        <v>18.468707512793</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>-5.09274644045131</v>
+        <v>10.0374447847201</v>
       </c>
       <c r="B68" t="n">
-        <v>-5.46968646925877</v>
+        <v>10.9487525592616</v>
       </c>
       <c r="C68" t="n">
-        <v>-6.28754682508872</v>
+        <v>11.8347090262432</v>
       </c>
       <c r="D68" t="n">
-        <v>-6.41552634999643</v>
+        <v>12.2934456253317</v>
       </c>
       <c r="E68" t="n">
-        <v>-7.3507955998587</v>
+        <v>13.1103179058672</v>
       </c>
       <c r="F68" t="n">
-        <v>-7.64392507460698</v>
+        <v>15.0225231178561</v>
       </c>
       <c r="G68" t="n">
-        <v>-8.03426926579184</v>
+        <v>15.5448101612882</v>
       </c>
       <c r="H68" t="n">
-        <v>-8.12905690305472</v>
+        <v>16.998702177052</v>
       </c>
       <c r="I68" t="n">
-        <v>-8.98726038418566</v>
+        <v>17.7634343819364</v>
       </c>
       <c r="J68" t="n">
-        <v>-9.2340613565109</v>
+        <v>18.5215786973141</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>10.2022970940394</v>
+        <v>10.004702722318</v>
       </c>
       <c r="B69" t="n">
-        <v>11.1453721196921</v>
+        <v>11.2442295169344</v>
       </c>
       <c r="C69" t="n">
-        <v>12.1935685773823</v>
+        <v>12.4199744463965</v>
       </c>
       <c r="D69" t="n">
-        <v>13.2654518348994</v>
+        <v>13.8238198054239</v>
       </c>
       <c r="E69" t="n">
-        <v>14.1773563354849</v>
+        <v>12.9703687724969</v>
       </c>
       <c r="F69" t="n">
-        <v>15.3405704971161</v>
+        <v>14.564462418104</v>
       </c>
       <c r="G69" t="n">
-        <v>16.3353280193</v>
+        <v>15.0785551109454</v>
       </c>
       <c r="H69" t="n">
-        <v>16.7701813172148</v>
+        <v>18.0861067580592</v>
       </c>
       <c r="I69" t="n">
-        <v>18.2579482171064</v>
+        <v>17.4409265260768</v>
       </c>
       <c r="J69" t="n">
-        <v>19.1157264902576</v>
+        <v>18.5929167628345</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>9.9178467019403</v>
+        <v>9.92938723357395</v>
       </c>
       <c r="B70" t="n">
-        <v>11.0604461991922</v>
+        <v>9.6057305089976</v>
       </c>
       <c r="C70" t="n">
-        <v>12.2239684104793</v>
+        <v>10.9914152216716</v>
       </c>
       <c r="D70" t="n">
-        <v>12.791232794511</v>
+        <v>13.1349739772067</v>
       </c>
       <c r="E70" t="n">
-        <v>14.0853912802978</v>
+        <v>13.8562418726048</v>
       </c>
       <c r="F70" t="n">
-        <v>14.7146994290762</v>
+        <v>14.5175359867745</v>
       </c>
       <c r="G70" t="n">
-        <v>16.1017184151322</v>
+        <v>15.7517185379194</v>
       </c>
       <c r="H70" t="n">
-        <v>16.8273367391602</v>
+        <v>17.8243223304306</v>
       </c>
       <c r="I70" t="n">
-        <v>17.8792551564061</v>
+        <v>18.0542047471096</v>
       </c>
       <c r="J70" t="n">
-        <v>19.1092527742919</v>
+        <v>21.2295997602524</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>10.0024744554688</v>
+        <v>9.84503609449695</v>
       </c>
       <c r="B71" t="n">
-        <v>11.0684887443285</v>
+        <v>11.5292177864792</v>
       </c>
       <c r="C71" t="n">
-        <v>11.6626336975263</v>
+        <v>11.1884751001457</v>
       </c>
       <c r="D71" t="n">
-        <v>12.8813034839649</v>
+        <v>14.5046253710972</v>
       </c>
       <c r="E71" t="n">
-        <v>14.1188429420875</v>
+        <v>13.6564909659913</v>
       </c>
       <c r="F71" t="n">
-        <v>14.9145484017496</v>
+        <v>14.6614151833198</v>
       </c>
       <c r="G71" t="n">
-        <v>16.7021907207406</v>
+        <v>15.4279285191577</v>
       </c>
       <c r="H71" t="n">
-        <v>16.5731747345377</v>
+        <v>16.9450620182481</v>
       </c>
       <c r="I71" t="n">
-        <v>17.9158239466058</v>
+        <v>18.1222887908486</v>
       </c>
       <c r="J71" t="n">
-        <v>18.8648155802261</v>
+        <v>19.6065669525151</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>9.86199550663263</v>
+        <v>-4.57083783981073</v>
       </c>
       <c r="B72" t="n">
-        <v>11.1058011890501</v>
+        <v>-5.14545944164006</v>
       </c>
       <c r="C72" t="n">
-        <v>12.0383896713738</v>
+        <v>-6.26770325519406</v>
       </c>
       <c r="D72" t="n">
-        <v>13.7166982972414</v>
+        <v>-6.43940696979233</v>
       </c>
       <c r="E72" t="n">
-        <v>13.7530427199929</v>
+        <v>-5.81742451244042</v>
       </c>
       <c r="F72" t="n">
-        <v>15.2505403909694</v>
+        <v>-7.02578054410528</v>
       </c>
       <c r="G72" t="n">
-        <v>16.0861955074339</v>
+        <v>-8.03714906646021</v>
       </c>
       <c r="H72" t="n">
-        <v>17.3047594580217</v>
+        <v>-8.33098386329423</v>
       </c>
       <c r="I72" t="n">
-        <v>18.1158380918707</v>
+        <v>-8.21478306799073</v>
       </c>
       <c r="J72" t="n">
-        <v>18.9532513906799</v>
+        <v>-9.07137838955443</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>9.831197400782</v>
+        <v>9.15063045433978</v>
       </c>
       <c r="B73" t="n">
-        <v>11.2260103302956</v>
+        <v>11.6746808109481</v>
       </c>
       <c r="C73" t="n">
-        <v>12.2289894047794</v>
+        <v>11.1238778106433</v>
       </c>
       <c r="D73" t="n">
-        <v>13.1047677335029</v>
+        <v>12.2737173693553</v>
       </c>
       <c r="E73" t="n">
-        <v>14.4195743776523</v>
+        <v>14.2617138009078</v>
       </c>
       <c r="F73" t="n">
-        <v>14.7316066054504</v>
+        <v>13.7994405393888</v>
       </c>
       <c r="G73" t="n">
-        <v>16.3914678849982</v>
+        <v>17.103055944509</v>
       </c>
       <c r="H73" t="n">
-        <v>16.6953786019847</v>
+        <v>18.0799378439961</v>
       </c>
       <c r="I73" t="n">
-        <v>17.8220215690382</v>
+        <v>16.8206525876926</v>
       </c>
       <c r="J73" t="n">
-        <v>19.3420353613923</v>
+        <v>19.1629130077015</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>-5.07596993282958</v>
+        <v>9.15774954180168</v>
       </c>
       <c r="B74" t="n">
-        <v>-5.25782441649457</v>
+        <v>10.833780797842</v>
       </c>
       <c r="C74" t="n">
-        <v>-5.9994230202978</v>
+        <v>12.1810959352675</v>
       </c>
       <c r="D74" t="n">
-        <v>-6.33666912788373</v>
+        <v>13.4257895320496</v>
       </c>
       <c r="E74" t="n">
-        <v>-7.17744601009542</v>
+        <v>13.6660734084596</v>
       </c>
       <c r="F74" t="n">
-        <v>-7.54471428864115</v>
+        <v>15.246106386092</v>
       </c>
       <c r="G74" t="n">
-        <v>-7.57544614377048</v>
+        <v>15.5357797622434</v>
       </c>
       <c r="H74" t="n">
-        <v>-8.38224841777705</v>
+        <v>16.9311483569579</v>
       </c>
       <c r="I74" t="n">
-        <v>-9.03781535402284</v>
+        <v>17.6861228064562</v>
       </c>
       <c r="J74" t="n">
-        <v>-9.35033168578202</v>
+        <v>18.8929816513064</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>-5.19867120129485</v>
+        <v>10.2349475389869</v>
       </c>
       <c r="B75" t="n">
-        <v>-5.37206927173302</v>
+        <v>11.4095420207426</v>
       </c>
       <c r="C75" t="n">
-        <v>-5.87764326153851</v>
+        <v>11.8936974004054</v>
       </c>
       <c r="D75" t="n">
-        <v>-6.48199133460202</v>
+        <v>13.7648728297739</v>
       </c>
       <c r="E75" t="n">
-        <v>-6.40972289436464</v>
+        <v>13.1872629918682</v>
       </c>
       <c r="F75" t="n">
-        <v>-7.57074288802436</v>
+        <v>15.5083210128526</v>
       </c>
       <c r="G75" t="n">
-        <v>-8.24544353083947</v>
+        <v>15.6561447321993</v>
       </c>
       <c r="H75" t="n">
-        <v>-8.38268842329659</v>
+        <v>17.1281630653672</v>
       </c>
       <c r="I75" t="n">
-        <v>-8.61508364556723</v>
+        <v>16.3414881106147</v>
       </c>
       <c r="J75" t="n">
-        <v>-9.6224201075508</v>
+        <v>18.8151085971637</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>-4.68864891483875</v>
+        <v>-3.59842528732773</v>
       </c>
       <c r="B76" t="n">
-        <v>-4.9306206668132</v>
+        <v>-6.25480009855012</v>
       </c>
       <c r="C76" t="n">
-        <v>-5.78658976228335</v>
+        <v>-6.27042994409619</v>
       </c>
       <c r="D76" t="n">
-        <v>-6.35411672355802</v>
+        <v>-8.35883834421579</v>
       </c>
       <c r="E76" t="n">
-        <v>-6.84238771784695</v>
+        <v>-5.26703869447904</v>
       </c>
       <c r="F76" t="n">
-        <v>-7.55881326125179</v>
+        <v>-6.35123197171054</v>
       </c>
       <c r="G76" t="n">
-        <v>-7.78904182854882</v>
+        <v>-7.56675068019655</v>
       </c>
       <c r="H76" t="n">
-        <v>-8.66481550689102</v>
+        <v>-7.97147642078257</v>
       </c>
       <c r="I76" t="n">
-        <v>-9.03437904774031</v>
+        <v>-9.03005043776686</v>
       </c>
       <c r="J76" t="n">
-        <v>-9.30886336771471</v>
+        <v>-8.58497192979744</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>-5.34816986450658</v>
+        <v>11.0772971446158</v>
       </c>
       <c r="B77" t="n">
-        <v>-5.37399862112432</v>
+        <v>10.8109133921728</v>
       </c>
       <c r="C77" t="n">
-        <v>-6.12511425207367</v>
+        <v>11.8718935759242</v>
       </c>
       <c r="D77" t="n">
-        <v>-6.20218401011485</v>
+        <v>13.5937846655565</v>
       </c>
       <c r="E77" t="n">
-        <v>-6.68830315601365</v>
+        <v>14.1125776158826</v>
       </c>
       <c r="F77" t="n">
-        <v>-7.60937674887319</v>
+        <v>15.1505682320691</v>
       </c>
       <c r="G77" t="n">
-        <v>-8.26500439204103</v>
+        <v>15.7004360994115</v>
       </c>
       <c r="H77" t="n">
-        <v>-8.55478199737324</v>
+        <v>15.6668388374817</v>
       </c>
       <c r="I77" t="n">
-        <v>-8.76115444025445</v>
+        <v>18.4035222785613</v>
       </c>
       <c r="J77" t="n">
-        <v>-9.63389739318724</v>
+        <v>18.5438172297151</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>9.6164501201065</v>
+        <v>10.3220052023081</v>
       </c>
       <c r="B78" t="n">
-        <v>10.9196193383263</v>
+        <v>10.5333438475042</v>
       </c>
       <c r="C78" t="n">
-        <v>12.0964536222623</v>
+        <v>12.1009646412082</v>
       </c>
       <c r="D78" t="n">
-        <v>12.4537075174099</v>
+        <v>13.7925346874904</v>
       </c>
       <c r="E78" t="n">
-        <v>14.2173373477704</v>
+        <v>14.1434651575336</v>
       </c>
       <c r="F78" t="n">
-        <v>15.197584513984</v>
+        <v>13.5294111632916</v>
       </c>
       <c r="G78" t="n">
-        <v>16.2693883681771</v>
+        <v>15.9831346314688</v>
       </c>
       <c r="H78" t="n">
-        <v>17.2665465480495</v>
+        <v>16.5714218721709</v>
       </c>
       <c r="I78" t="n">
-        <v>18.2577036769757</v>
+        <v>18.2905316193461</v>
       </c>
       <c r="J78" t="n">
-        <v>19.0898427496319</v>
+        <v>18.6696546657366</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>9.90116590520464</v>
+        <v>-4.76945521705756</v>
       </c>
       <c r="B79" t="n">
-        <v>11.2615691268788</v>
+        <v>-6.24545181430248</v>
       </c>
       <c r="C79" t="n">
-        <v>12.0600892019023</v>
+        <v>-6.98339270213396</v>
       </c>
       <c r="D79" t="n">
-        <v>12.8838956219416</v>
+        <v>-5.78570374669101</v>
       </c>
       <c r="E79" t="n">
-        <v>13.8323873570078</v>
+        <v>-7.26864320144293</v>
       </c>
       <c r="F79" t="n">
-        <v>14.9137784462117</v>
+        <v>-8.53979835473292</v>
       </c>
       <c r="G79" t="n">
-        <v>15.9444042985895</v>
+        <v>-8.03713966544869</v>
       </c>
       <c r="H79" t="n">
-        <v>16.7371201114668</v>
+        <v>-9.33717759772806</v>
       </c>
       <c r="I79" t="n">
-        <v>17.8903156693038</v>
+        <v>-9.73363526137371</v>
       </c>
       <c r="J79" t="n">
-        <v>19.375580380797</v>
+        <v>-10.2428402368976</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>10.0556966547875</v>
+        <v>-5.11814913254975</v>
       </c>
       <c r="B80" t="n">
-        <v>10.9250096862185</v>
+        <v>-4.81524015821892</v>
       </c>
       <c r="C80" t="n">
-        <v>12.0861403658273</v>
+        <v>-7.25824710011012</v>
       </c>
       <c r="D80" t="n">
-        <v>13.5276750542984</v>
+        <v>-4.85221581926426</v>
       </c>
       <c r="E80" t="n">
-        <v>13.7450021819817</v>
+        <v>-7.81831006109731</v>
       </c>
       <c r="F80" t="n">
-        <v>15.4491562741283</v>
+        <v>-7.25196557597414</v>
       </c>
       <c r="G80" t="n">
-        <v>16.4705499201948</v>
+        <v>-8.56715452181481</v>
       </c>
       <c r="H80" t="n">
-        <v>16.7254504705849</v>
+        <v>-8.68934201687154</v>
       </c>
       <c r="I80" t="n">
-        <v>18.1299312306169</v>
+        <v>-8.64997154399171</v>
       </c>
       <c r="J80" t="n">
-        <v>18.6697041521293</v>
+        <v>-10.150317822591</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>-4.80180201290215</v>
+        <v>10.5291062489881</v>
       </c>
       <c r="B81" t="n">
-        <v>-5.79125422701989</v>
+        <v>11.4883491738054</v>
       </c>
       <c r="C81" t="n">
-        <v>-5.72850513242212</v>
+        <v>10.3516533864833</v>
       </c>
       <c r="D81" t="n">
-        <v>-6.38133185056458</v>
+        <v>14.0030099337047</v>
       </c>
       <c r="E81" t="n">
-        <v>-6.86498285121041</v>
+        <v>13.891465834994</v>
       </c>
       <c r="F81" t="n">
-        <v>-7.50072219719394</v>
+        <v>14.7965806626659</v>
       </c>
       <c r="G81" t="n">
-        <v>-8.09225917337419</v>
+        <v>15.2948806655823</v>
       </c>
       <c r="H81" t="n">
-        <v>-8.6317662821543</v>
+        <v>18.2327629326416</v>
       </c>
       <c r="I81" t="n">
-        <v>-9.00469060091575</v>
+        <v>18.2488770252013</v>
       </c>
       <c r="J81" t="n">
-        <v>-9.83643402077083</v>
+        <v>19.0262309605851</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>-4.8010247801014</v>
+        <v>9.732250958433</v>
       </c>
       <c r="B82" t="n">
-        <v>-5.63845919381635</v>
+        <v>11.6110828268638</v>
       </c>
       <c r="C82" t="n">
-        <v>-5.9799896916992</v>
+        <v>13.8305593470455</v>
       </c>
       <c r="D82" t="n">
-        <v>-5.91758291825374</v>
+        <v>13.5695511030362</v>
       </c>
       <c r="E82" t="n">
-        <v>-6.91749542541795</v>
+        <v>13.6827897118495</v>
       </c>
       <c r="F82" t="n">
-        <v>-7.35224195497084</v>
+        <v>15.7363579110651</v>
       </c>
       <c r="G82" t="n">
-        <v>-8.08663723454367</v>
+        <v>16.961764711801</v>
       </c>
       <c r="H82" t="n">
-        <v>-8.65231664056669</v>
+        <v>16.5358819976496</v>
       </c>
       <c r="I82" t="n">
-        <v>-8.72739165289352</v>
+        <v>17.2911416329437</v>
       </c>
       <c r="J82" t="n">
-        <v>-9.44106975080739</v>
+        <v>18.4330087534193</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>10.0516982483356</v>
+        <v>9.69012310315507</v>
       </c>
       <c r="B83" t="n">
-        <v>10.7777222738568</v>
+        <v>12.5524317051521</v>
       </c>
       <c r="C83" t="n">
-        <v>11.7085677499882</v>
+        <v>11.4834258134213</v>
       </c>
       <c r="D83" t="n">
-        <v>13.2073801977162</v>
+        <v>12.6913553436394</v>
       </c>
       <c r="E83" t="n">
-        <v>13.7613976280601</v>
+        <v>14.1332412151274</v>
       </c>
       <c r="F83" t="n">
-        <v>15.7452471309668</v>
+        <v>14.3137939376814</v>
       </c>
       <c r="G83" t="n">
-        <v>15.9479710990418</v>
+        <v>16.521423909225</v>
       </c>
       <c r="H83" t="n">
-        <v>16.8813701527074</v>
+        <v>16.2343831864049</v>
       </c>
       <c r="I83" t="n">
-        <v>18.0041079131418</v>
+        <v>17.6661415923173</v>
       </c>
       <c r="J83" t="n">
-        <v>18.9464311297463</v>
+        <v>18.6242193743903</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>10.0877274509584</v>
+        <v>10.3825815271056</v>
       </c>
       <c r="B84" t="n">
-        <v>11.2573687948586</v>
+        <v>10.3706696585059</v>
       </c>
       <c r="C84" t="n">
-        <v>12.5585717882086</v>
+        <v>11.8798990761882</v>
       </c>
       <c r="D84" t="n">
-        <v>12.8913851832998</v>
+        <v>12.9938303156574</v>
       </c>
       <c r="E84" t="n">
-        <v>14.0240945669201</v>
+        <v>14.1360187136432</v>
       </c>
       <c r="F84" t="n">
-        <v>15.0324502673231</v>
+        <v>16.1956264231831</v>
       </c>
       <c r="G84" t="n">
-        <v>15.9122236214424</v>
+        <v>16.2790963711408</v>
       </c>
       <c r="H84" t="n">
-        <v>16.6901374728376</v>
+        <v>16.6503019178223</v>
       </c>
       <c r="I84" t="n">
-        <v>17.889847936423</v>
+        <v>17.8709904591546</v>
       </c>
       <c r="J84" t="n">
-        <v>19.3885696964695</v>
+        <v>19.5907955529678</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>-4.53216552608828</v>
+        <v>9.89640809154439</v>
       </c>
       <c r="B85" t="n">
-        <v>-5.13027196960462</v>
+        <v>10.1775825988327</v>
       </c>
       <c r="C85" t="n">
-        <v>-5.89638572781567</v>
+        <v>11.8287537824607</v>
       </c>
       <c r="D85" t="n">
-        <v>-6.25272023694484</v>
+        <v>12.8700187094057</v>
       </c>
       <c r="E85" t="n">
-        <v>-7.20926396494982</v>
+        <v>14.2136951618082</v>
       </c>
       <c r="F85" t="n">
-        <v>-7.45705947855847</v>
+        <v>14.692819957859</v>
       </c>
       <c r="G85" t="n">
-        <v>-7.91524973473876</v>
+        <v>16.7406347848451</v>
       </c>
       <c r="H85" t="n">
-        <v>-8.61931457482963</v>
+        <v>17.4928270955438</v>
       </c>
       <c r="I85" t="n">
-        <v>-9.31161879454249</v>
+        <v>19.2679091308662</v>
       </c>
       <c r="J85" t="n">
-        <v>-9.25807618243786</v>
+        <v>18.5824178621799</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>-5.24273000811404</v>
+        <v>11.0953227604541</v>
       </c>
       <c r="B86" t="n">
-        <v>-5.31051641759489</v>
+        <v>10.6486974460629</v>
       </c>
       <c r="C86" t="n">
-        <v>-6.03077576521186</v>
+        <v>12.4492682202883</v>
       </c>
       <c r="D86" t="n">
-        <v>-6.42978688416966</v>
+        <v>12.5581540373554</v>
       </c>
       <c r="E86" t="n">
-        <v>-7.12424862606819</v>
+        <v>13.075964960699</v>
       </c>
       <c r="F86" t="n">
-        <v>-7.71999800801971</v>
+        <v>14.8448180582356</v>
       </c>
       <c r="G86" t="n">
-        <v>-8.11311272506399</v>
+        <v>15.9031748013091</v>
       </c>
       <c r="H86" t="n">
-        <v>-8.85833428051481</v>
+        <v>16.5687225879385</v>
       </c>
       <c r="I86" t="n">
-        <v>-9.25271092305969</v>
+        <v>19.0609267844384</v>
       </c>
       <c r="J86" t="n">
-        <v>-9.45931301636842</v>
+        <v>19.6329818172833</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>10.3723880988343</v>
+        <v>9.9504474367232</v>
       </c>
       <c r="B87" t="n">
-        <v>10.8321022194213</v>
+        <v>10.4612388394707</v>
       </c>
       <c r="C87" t="n">
-        <v>11.7585450269419</v>
+        <v>11.5962618060274</v>
       </c>
       <c r="D87" t="n">
-        <v>12.9475075478354</v>
+        <v>13.1196025564547</v>
       </c>
       <c r="E87" t="n">
-        <v>13.6036489987231</v>
+        <v>13.162640618105</v>
       </c>
       <c r="F87" t="n">
-        <v>14.6533614712393</v>
+        <v>16.5152305660426</v>
       </c>
       <c r="G87" t="n">
-        <v>16.1805216135637</v>
+        <v>15.3106510905585</v>
       </c>
       <c r="H87" t="n">
-        <v>17.0321251908423</v>
+        <v>16.8574744620833</v>
       </c>
       <c r="I87" t="n">
-        <v>18.5061846343079</v>
+        <v>18.3949174044977</v>
       </c>
       <c r="J87" t="n">
-        <v>19.3441446454029</v>
+        <v>17.9037033312259</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>10.3031951583635</v>
+        <v>-5.63105596680292</v>
       </c>
       <c r="B88" t="n">
-        <v>11.4630152507364</v>
+        <v>-5.11737826695544</v>
       </c>
       <c r="C88" t="n">
-        <v>11.794917418745</v>
+        <v>-7.66356823085801</v>
       </c>
       <c r="D88" t="n">
-        <v>12.9552581341222</v>
+        <v>-6.82459958830515</v>
       </c>
       <c r="E88" t="n">
-        <v>14.0951583580848</v>
+        <v>-7.84488955722404</v>
       </c>
       <c r="F88" t="n">
-        <v>15.1507798738672</v>
+        <v>-7.3352979330957</v>
       </c>
       <c r="G88" t="n">
-        <v>15.7025394686326</v>
+        <v>-8.38474539973187</v>
       </c>
       <c r="H88" t="n">
-        <v>16.9049429358677</v>
+        <v>-8.99702687285584</v>
       </c>
       <c r="I88" t="n">
-        <v>18.057398615837</v>
+        <v>-8.98124402795127</v>
       </c>
       <c r="J88" t="n">
-        <v>19.0485329116016</v>
+        <v>-10.9529713627435</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>9.85351959403298</v>
+        <v>-5.19070282192998</v>
       </c>
       <c r="B89" t="n">
-        <v>10.969574227795</v>
+        <v>-5.57179561354463</v>
       </c>
       <c r="C89" t="n">
-        <v>12.0750272382734</v>
+        <v>-5.57084089863602</v>
       </c>
       <c r="D89" t="n">
-        <v>13.1209871610545</v>
+        <v>-6.41658586924234</v>
       </c>
       <c r="E89" t="n">
-        <v>14.2566033788442</v>
+        <v>-6.27293866538873</v>
       </c>
       <c r="F89" t="n">
-        <v>15.3046099048005</v>
+        <v>-6.65966442133995</v>
       </c>
       <c r="G89" t="n">
-        <v>15.8326552225915</v>
+        <v>-8.57822193537338</v>
       </c>
       <c r="H89" t="n">
-        <v>16.9266376653162</v>
+        <v>-8.63839330704754</v>
       </c>
       <c r="I89" t="n">
-        <v>18.2057318017469</v>
+        <v>-7.35099937909211</v>
       </c>
       <c r="J89" t="n">
-        <v>19.1422358980889</v>
+        <v>-9.80937809697526</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>9.52961527056639</v>
+        <v>11.0359424999488</v>
       </c>
       <c r="B90" t="n">
-        <v>11.2464698807343</v>
+        <v>11.4429890449665</v>
       </c>
       <c r="C90" t="n">
-        <v>11.7122326346894</v>
+        <v>11.7425978896682</v>
       </c>
       <c r="D90" t="n">
-        <v>12.7461424289536</v>
+        <v>12.5422830148051</v>
       </c>
       <c r="E90" t="n">
-        <v>14.2500857521225</v>
+        <v>14.6052856589547</v>
       </c>
       <c r="F90" t="n">
-        <v>14.8478027009334</v>
+        <v>13.5352533747791</v>
       </c>
       <c r="G90" t="n">
-        <v>16.057335384188</v>
+        <v>15.5485347794403</v>
       </c>
       <c r="H90" t="n">
-        <v>16.719260357974</v>
+        <v>16.594247128353</v>
       </c>
       <c r="I90" t="n">
-        <v>17.9587795065315</v>
+        <v>16.1501994567916</v>
       </c>
       <c r="J90" t="n">
-        <v>19.3639119995686</v>
+        <v>18.6006174078244</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>-5.01809690175826</v>
+        <v>-4.52943659315566</v>
       </c>
       <c r="B91" t="n">
-        <v>-5.42617175901646</v>
+        <v>-5.95378901345939</v>
       </c>
       <c r="C91" t="n">
-        <v>-6.85313937160006</v>
+        <v>-7.57272334830484</v>
       </c>
       <c r="D91" t="n">
-        <v>-6.56820865097783</v>
+        <v>-7.33872569973336</v>
       </c>
       <c r="E91" t="n">
-        <v>-6.66750037026358</v>
+        <v>-5.37876927549491</v>
       </c>
       <c r="F91" t="n">
-        <v>-7.42288184705919</v>
+        <v>-8.2428823097961</v>
       </c>
       <c r="G91" t="n">
-        <v>-7.6534721947063</v>
+        <v>-7.26426515632115</v>
       </c>
       <c r="H91" t="n">
-        <v>-8.4721218475524</v>
+        <v>-8.8013800617925</v>
       </c>
       <c r="I91" t="n">
-        <v>-9.36447611739968</v>
+        <v>-8.92674358855597</v>
       </c>
       <c r="J91" t="n">
-        <v>-9.95767111257064</v>
+        <v>-9.42839853411856</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>-5.16266585789772</v>
+        <v>9.54773809824622</v>
       </c>
       <c r="B92" t="n">
-        <v>-4.90882615771725</v>
+        <v>10.3145374360347</v>
       </c>
       <c r="C92" t="n">
-        <v>-5.78367793597305</v>
+        <v>11.9435963472248</v>
       </c>
       <c r="D92" t="n">
-        <v>-6.71113890815765</v>
+        <v>12.9297881682366</v>
       </c>
       <c r="E92" t="n">
-        <v>-7.01380592465127</v>
+        <v>13.2980389924879</v>
       </c>
       <c r="F92" t="n">
-        <v>-7.85209356754077</v>
+        <v>15.0204218119858</v>
       </c>
       <c r="G92" t="n">
-        <v>-7.72378677131054</v>
+        <v>16.1597602897935</v>
       </c>
       <c r="H92" t="n">
-        <v>-9.00957861665615</v>
+        <v>17.5352204881451</v>
       </c>
       <c r="I92" t="n">
-        <v>-8.7793793950395</v>
+        <v>17.3971984674072</v>
       </c>
       <c r="J92" t="n">
-        <v>-9.53123866976472</v>
+        <v>19.8021015048343</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>9.92506148575512</v>
+        <v>-4.89139001398868</v>
       </c>
       <c r="B93" t="n">
-        <v>11.0380104123715</v>
+        <v>-5.89637314721567</v>
       </c>
       <c r="C93" t="n">
-        <v>12.2441765092141</v>
+        <v>-6.38578972526795</v>
       </c>
       <c r="D93" t="n">
-        <v>13.3298016067857</v>
+        <v>-5.46129331108596</v>
       </c>
       <c r="E93" t="n">
-        <v>14.1938897284578</v>
+        <v>-6.77742691458097</v>
       </c>
       <c r="F93" t="n">
-        <v>15.0004424485428</v>
+        <v>-6.70276231629001</v>
       </c>
       <c r="G93" t="n">
-        <v>16.2130491769939</v>
+        <v>-6.80568784488332</v>
       </c>
       <c r="H93" t="n">
-        <v>17.0158725690952</v>
+        <v>-9.30583641302219</v>
       </c>
       <c r="I93" t="n">
-        <v>18.0795604273136</v>
+        <v>-9.79431483646721</v>
       </c>
       <c r="J93" t="n">
-        <v>18.9339717214248</v>
+        <v>-7.85895268707021</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>9.98977336184931</v>
+        <v>8.65573994336428</v>
       </c>
       <c r="B94" t="n">
-        <v>11.5400231766602</v>
+        <v>10.5339856076158</v>
       </c>
       <c r="C94" t="n">
-        <v>12.3131073520619</v>
+        <v>11.9544683048368</v>
       </c>
       <c r="D94" t="n">
-        <v>13.1031997006185</v>
+        <v>12.0348011071299</v>
       </c>
       <c r="E94" t="n">
-        <v>13.8378188267367</v>
+        <v>13.2104413573086</v>
       </c>
       <c r="F94" t="n">
-        <v>15.3254669379097</v>
+        <v>16.4825086103303</v>
       </c>
       <c r="G94" t="n">
-        <v>15.9805414885965</v>
+        <v>17.6453581337209</v>
       </c>
       <c r="H94" t="n">
-        <v>16.7238820337756</v>
+        <v>16.5407642366143</v>
       </c>
       <c r="I94" t="n">
-        <v>17.9938612222295</v>
+        <v>19.6232584138906</v>
       </c>
       <c r="J94" t="n">
-        <v>18.7861119250785</v>
+        <v>19.2295812650891</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>9.80646071957358</v>
+        <v>-4.07640724049368</v>
       </c>
       <c r="B95" t="n">
-        <v>10.9813591103968</v>
+        <v>-4.8687125673898</v>
       </c>
       <c r="C95" t="n">
-        <v>11.8493888711262</v>
+        <v>-5.21864723330388</v>
       </c>
       <c r="D95" t="n">
-        <v>13.0165766219734</v>
+        <v>-5.81388404116595</v>
       </c>
       <c r="E95" t="n">
-        <v>13.8833761516437</v>
+        <v>-6.31052120748947</v>
       </c>
       <c r="F95" t="n">
-        <v>15.2027197312486</v>
+        <v>-8.09403348064133</v>
       </c>
       <c r="G95" t="n">
-        <v>16.1552242270123</v>
+        <v>-7.3295586140054</v>
       </c>
       <c r="H95" t="n">
-        <v>16.7802627222193</v>
+        <v>-8.9883987184062</v>
       </c>
       <c r="I95" t="n">
-        <v>18.1498448606477</v>
+        <v>-9.56835315409497</v>
       </c>
       <c r="J95" t="n">
-        <v>18.4121678025021</v>
+        <v>-9.79603639970117</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>-4.77203986391214</v>
+        <v>8.94387038625823</v>
       </c>
       <c r="B96" t="n">
-        <v>-5.61801450609338</v>
+        <v>11.1716337456529</v>
       </c>
       <c r="C96" t="n">
-        <v>-6.11081095301865</v>
+        <v>12.0053122846242</v>
       </c>
       <c r="D96" t="n">
-        <v>-6.47609863805778</v>
+        <v>13.3826347167659</v>
       </c>
       <c r="E96" t="n">
-        <v>-7.54789784310697</v>
+        <v>14.0503820614746</v>
       </c>
       <c r="F96" t="n">
-        <v>-7.71575772854859</v>
+        <v>15.3681567879025</v>
       </c>
       <c r="G96" t="n">
-        <v>-8.18338969246701</v>
+        <v>16.626385501937</v>
       </c>
       <c r="H96" t="n">
-        <v>-8.35702820722992</v>
+        <v>16.5482018348688</v>
       </c>
       <c r="I96" t="n">
-        <v>-8.9021548967403</v>
+        <v>17.7068446740414</v>
       </c>
       <c r="J96" t="n">
-        <v>-9.15433148167635</v>
+        <v>19.1448156636595</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>9.59683036512206</v>
+        <v>-3.91151092535855</v>
       </c>
       <c r="B97" t="n">
-        <v>11.2520742900662</v>
+        <v>-4.89426327701735</v>
       </c>
       <c r="C97" t="n">
-        <v>11.9838985404008</v>
+        <v>-6.72232546101711</v>
       </c>
       <c r="D97" t="n">
-        <v>13.2061631128177</v>
+        <v>-6.96270562507888</v>
       </c>
       <c r="E97" t="n">
-        <v>13.7554691108918</v>
+        <v>-7.77297035249189</v>
       </c>
       <c r="F97" t="n">
-        <v>15.0371630156236</v>
+        <v>-5.85428546891055</v>
       </c>
       <c r="G97" t="n">
-        <v>16.201214379621</v>
+        <v>-8.5020451320264</v>
       </c>
       <c r="H97" t="n">
-        <v>16.7435076158235</v>
+        <v>-8.62790296885405</v>
       </c>
       <c r="I97" t="n">
-        <v>17.8543750807492</v>
+        <v>-9.4081328545541</v>
       </c>
       <c r="J97" t="n">
-        <v>18.4110568291825</v>
+        <v>-10.9427592101101</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>9.63309058045509</v>
+        <v>9.77742188662437</v>
       </c>
       <c r="B98" t="n">
-        <v>10.4422887761431</v>
+        <v>10.4394023861308</v>
       </c>
       <c r="C98" t="n">
-        <v>11.9691995031</v>
+        <v>11.8171733937158</v>
       </c>
       <c r="D98" t="n">
-        <v>13.0501272597137</v>
+        <v>11.7083035641938</v>
       </c>
       <c r="E98" t="n">
-        <v>14.0300981810974</v>
+        <v>13.5882349404328</v>
       </c>
       <c r="F98" t="n">
-        <v>14.888533895353</v>
+        <v>14.8983703692477</v>
       </c>
       <c r="G98" t="n">
-        <v>15.9615174681371</v>
+        <v>16.547087570747</v>
       </c>
       <c r="H98" t="n">
-        <v>17.1194748688314</v>
+        <v>17.0343866339269</v>
       </c>
       <c r="I98" t="n">
-        <v>18.1618363442442</v>
+        <v>18.0702365260024</v>
       </c>
       <c r="J98" t="n">
-        <v>18.9043318852412</v>
+        <v>18.6045434550039</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>-4.731794956322</v>
+        <v>-5.19751744507272</v>
       </c>
       <c r="B99" t="n">
-        <v>-5.45496852705747</v>
+        <v>-5.38479531912897</v>
       </c>
       <c r="C99" t="n">
-        <v>-5.78829361240858</v>
+        <v>-5.00723189009198</v>
       </c>
       <c r="D99" t="n">
-        <v>-6.35285902689656</v>
+        <v>-6.67512450932239</v>
       </c>
       <c r="E99" t="n">
-        <v>-6.595633015686</v>
+        <v>-7.34858337524123</v>
       </c>
       <c r="F99" t="n">
-        <v>-7.92716029041074</v>
+        <v>-5.63804371951921</v>
       </c>
       <c r="G99" t="n">
-        <v>-8.27226875277354</v>
+        <v>-7.15279865391952</v>
       </c>
       <c r="H99" t="n">
-        <v>-9.10080169978472</v>
+        <v>-8.44612848960378</v>
       </c>
       <c r="I99" t="n">
-        <v>-9.12567992592651</v>
+        <v>-9.82937464503262</v>
       </c>
       <c r="J99" t="n">
-        <v>-9.61994543430753</v>
+        <v>-8.90959697662916</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>9.87880606575865</v>
+        <v>9.27238386372364</v>
       </c>
       <c r="B100" t="n">
-        <v>10.6214006694826</v>
+        <v>12.3741622862522</v>
       </c>
       <c r="C100" t="n">
-        <v>12.1912036842677</v>
+        <v>12.4272596000859</v>
       </c>
       <c r="D100" t="n">
-        <v>12.8709922769513</v>
+        <v>13.3464577769443</v>
       </c>
       <c r="E100" t="n">
-        <v>14.0045657825689</v>
+        <v>14.2220265753023</v>
       </c>
       <c r="F100" t="n">
-        <v>15.2446431888095</v>
+        <v>14.3950468241206</v>
       </c>
       <c r="G100" t="n">
-        <v>15.9876916247818</v>
+        <v>16.6855393697962</v>
       </c>
       <c r="H100" t="n">
-        <v>17.0068125224077</v>
+        <v>17.9912553193413</v>
       </c>
       <c r="I100" t="n">
-        <v>17.993911028032</v>
+        <v>18.0937989654656</v>
       </c>
       <c r="J100" t="n">
-        <v>19.3040644544301</v>
+        <v>18.0428034057194</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>9.44759005809137</v>
+        <v>-5.1951669583158</v>
       </c>
       <c r="B101" t="n">
-        <v>11.4371822851698</v>
+        <v>-6.22920230502803</v>
       </c>
       <c r="C101" t="n">
-        <v>11.545977592049</v>
+        <v>-6.08982743928961</v>
       </c>
       <c r="D101" t="n">
-        <v>12.9645657501853</v>
+        <v>-6.33022107162181</v>
       </c>
       <c r="E101" t="n">
-        <v>13.8967641159099</v>
+        <v>-7.19557807505209</v>
       </c>
       <c r="F101" t="n">
-        <v>14.991428493068</v>
+        <v>-7.06116410177857</v>
       </c>
       <c r="G101" t="n">
-        <v>15.6917668370464</v>
+        <v>-7.27678837249561</v>
       </c>
       <c r="H101" t="n">
-        <v>17.305702923858</v>
+        <v>-8.48446276574399</v>
       </c>
       <c r="I101" t="n">
-        <v>18.0356944610273</v>
+        <v>-11.3968211208218</v>
       </c>
       <c r="J101" t="n">
-        <v>19.5092620037829</v>
+        <v>-8.58507136845163</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>10.0301970329487</v>
+        <v>10.2741253251461</v>
       </c>
       <c r="B102" t="n">
-        <v>10.4878761477115</v>
+        <v>9.51331274739217</v>
       </c>
       <c r="C102" t="n">
-        <v>12.1143864006641</v>
+        <v>12.1344864118726</v>
       </c>
       <c r="D102" t="n">
-        <v>12.7906807617927</v>
+        <v>13.6142076706663</v>
       </c>
       <c r="E102" t="n">
-        <v>13.9410569469236</v>
+        <v>14.5625554891994</v>
       </c>
       <c r="F102" t="n">
-        <v>14.9890504496452</v>
+        <v>14.1873540695746</v>
       </c>
       <c r="G102" t="n">
-        <v>16.3435012945516</v>
+        <v>16.4682960501484</v>
       </c>
       <c r="H102" t="n">
-        <v>16.9617636025786</v>
+        <v>18.0459551042221</v>
       </c>
       <c r="I102" t="n">
-        <v>17.8222974251946</v>
+        <v>18.3020275743982</v>
       </c>
       <c r="J102" t="n">
-        <v>19.2852978526431</v>
+        <v>19.2060786171621</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>9.91311848228953</v>
+        <v>10.4227023128536</v>
       </c>
       <c r="B103" t="n">
-        <v>11.0065300523734</v>
+        <v>10.4441943196873</v>
       </c>
       <c r="C103" t="n">
-        <v>11.8465478721963</v>
+        <v>12.8073397209515</v>
       </c>
       <c r="D103" t="n">
-        <v>12.9787368098729</v>
+        <v>12.7224348847004</v>
       </c>
       <c r="E103" t="n">
-        <v>13.9277703420758</v>
+        <v>13.3435277560881</v>
       </c>
       <c r="F103" t="n">
-        <v>15.0801814612699</v>
+        <v>15.111316193861</v>
       </c>
       <c r="G103" t="n">
-        <v>15.8448709215982</v>
+        <v>15.5987748956782</v>
       </c>
       <c r="H103" t="n">
-        <v>16.9963927550281</v>
+        <v>15.8960085806382</v>
       </c>
       <c r="I103" t="n">
-        <v>18.4627496382647</v>
+        <v>16.9502915590581</v>
       </c>
       <c r="J103" t="n">
-        <v>18.8601101061571</v>
+        <v>20.2542285157309</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>-4.60306736670145</v>
+        <v>-3.35185361335467</v>
       </c>
       <c r="B104" t="n">
-        <v>-5.32226190743921</v>
+        <v>-6.96639902102408</v>
       </c>
       <c r="C104" t="n">
-        <v>-5.56449560814646</v>
+        <v>-5.54361973087406</v>
       </c>
       <c r="D104" t="n">
-        <v>-6.40304974180413</v>
+        <v>-7.11281106654673</v>
       </c>
       <c r="E104" t="n">
-        <v>-7.02605779664614</v>
+        <v>-7.50098952099804</v>
       </c>
       <c r="F104" t="n">
-        <v>-7.79882436399937</v>
+        <v>-6.3063408581028</v>
       </c>
       <c r="G104" t="n">
-        <v>-8.24008968524607</v>
+        <v>-7.16240223175391</v>
       </c>
       <c r="H104" t="n">
-        <v>-7.95758204466385</v>
+        <v>-8.6506922268256</v>
       </c>
       <c r="I104" t="n">
-        <v>-8.87572436638089</v>
+        <v>-9.12773277327203</v>
       </c>
       <c r="J104" t="n">
-        <v>-9.17590121407049</v>
+        <v>-11.1592243407365</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>-4.91293810836699</v>
+        <v>10.490851415673</v>
       </c>
       <c r="B105" t="n">
-        <v>-5.69131708243313</v>
+        <v>11.5110168973235</v>
       </c>
       <c r="C105" t="n">
-        <v>-6.78749113208645</v>
+        <v>11.0272596473766</v>
       </c>
       <c r="D105" t="n">
-        <v>-6.6588908496803</v>
+        <v>13.8060210042112</v>
       </c>
       <c r="E105" t="n">
-        <v>-6.78873864607566</v>
+        <v>13.9506240202484</v>
       </c>
       <c r="F105" t="n">
-        <v>-7.27246613308193</v>
+        <v>14.0121024003498</v>
       </c>
       <c r="G105" t="n">
-        <v>-7.81280197748938</v>
+        <v>16.4905415599921</v>
       </c>
       <c r="H105" t="n">
-        <v>-8.53341433522524</v>
+        <v>16.4903762093956</v>
       </c>
       <c r="I105" t="n">
-        <v>-8.62312638529554</v>
+        <v>18.3338401546662</v>
       </c>
       <c r="J105" t="n">
-        <v>-9.21874365949545</v>
+        <v>18.2938275319546</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>-5.15852746686408</v>
+        <v>10.214397780828</v>
       </c>
       <c r="B106" t="n">
-        <v>-5.01511782494924</v>
+        <v>10.8821134439033</v>
       </c>
       <c r="C106" t="n">
-        <v>-5.85067976105758</v>
+        <v>12.9230758229852</v>
       </c>
       <c r="D106" t="n">
-        <v>-6.20692499009523</v>
+        <v>11.9998486021687</v>
       </c>
       <c r="E106" t="n">
-        <v>-6.76231758463365</v>
+        <v>14.5305809121646</v>
       </c>
       <c r="F106" t="n">
-        <v>-7.08605852936214</v>
+        <v>14.4104346893637</v>
       </c>
       <c r="G106" t="n">
-        <v>-7.79293769152234</v>
+        <v>16.1663548061953</v>
       </c>
       <c r="H106" t="n">
-        <v>-8.30606341823146</v>
+        <v>17.062123539646</v>
       </c>
       <c r="I106" t="n">
-        <v>-9.70644843901906</v>
+        <v>17.9995887152752</v>
       </c>
       <c r="J106" t="n">
-        <v>-9.57472918762492</v>
+        <v>18.839815156004</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>9.99390730246507</v>
+        <v>-4.54866462849243</v>
       </c>
       <c r="B107" t="n">
-        <v>10.7607087483069</v>
+        <v>-5.71953830169428</v>
       </c>
       <c r="C107" t="n">
-        <v>12.0211568778242</v>
+        <v>-6.15854906098662</v>
       </c>
       <c r="D107" t="n">
-        <v>12.8914030428126</v>
+        <v>-7.06205743350565</v>
       </c>
       <c r="E107" t="n">
-        <v>13.8655981555014</v>
+        <v>-6.38406876339976</v>
       </c>
       <c r="F107" t="n">
-        <v>14.9301667556034</v>
+        <v>-6.20305505749531</v>
       </c>
       <c r="G107" t="n">
-        <v>16.0423957993791</v>
+        <v>-8.19030638789216</v>
       </c>
       <c r="H107" t="n">
-        <v>17.4269296947525</v>
+        <v>-9.31142568891381</v>
       </c>
       <c r="I107" t="n">
-        <v>17.9126866951317</v>
+        <v>-8.20052221201829</v>
       </c>
       <c r="J107" t="n">
-        <v>18.7942422831228</v>
+        <v>-9.32350216970717</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>9.52608066156528</v>
+        <v>-5.52480033518454</v>
       </c>
       <c r="B108" t="n">
-        <v>11.0470984864175</v>
+        <v>-6.80919334382488</v>
       </c>
       <c r="C108" t="n">
-        <v>12.0255607217643</v>
+        <v>-6.69626622729979</v>
       </c>
       <c r="D108" t="n">
-        <v>12.7785708625335</v>
+        <v>-6.37243773756535</v>
       </c>
       <c r="E108" t="n">
-        <v>13.7672559780351</v>
+        <v>-7.3745854258575</v>
       </c>
       <c r="F108" t="n">
-        <v>15.0111701085717</v>
+        <v>-7.21151963680021</v>
       </c>
       <c r="G108" t="n">
-        <v>16.3636111471239</v>
+        <v>-8.00550422968739</v>
       </c>
       <c r="H108" t="n">
-        <v>17.0490720974588</v>
+        <v>-7.25928828699904</v>
       </c>
       <c r="I108" t="n">
-        <v>18.0391965341967</v>
+        <v>-9.01764231200765</v>
       </c>
       <c r="J108" t="n">
-        <v>18.9643686292759</v>
+        <v>-9.53257881847098</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>-5.01143263179243</v>
+        <v>-4.8093139110552</v>
       </c>
       <c r="B109" t="n">
-        <v>-5.74560254872306</v>
+        <v>-5.18506118387898</v>
       </c>
       <c r="C109" t="n">
-        <v>-5.69647700002765</v>
+        <v>-5.81442055700747</v>
       </c>
       <c r="D109" t="n">
-        <v>-6.73448881236479</v>
+        <v>-6.79044047794126</v>
       </c>
       <c r="E109" t="n">
-        <v>-7.15314875091465</v>
+        <v>-8.24844242706129</v>
       </c>
       <c r="F109" t="n">
-        <v>-7.10170008511056</v>
+        <v>-7.40968015803987</v>
       </c>
       <c r="G109" t="n">
-        <v>-8.12910607620044</v>
+        <v>-8.65327184925535</v>
       </c>
       <c r="H109" t="n">
-        <v>-7.95045377804519</v>
+        <v>-6.8887650857173</v>
       </c>
       <c r="I109" t="n">
-        <v>-8.64127358331879</v>
+        <v>-8.4082865000278</v>
       </c>
       <c r="J109" t="n">
-        <v>-9.444075804836</v>
+        <v>-8.06364141149508</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>-4.77267750149783</v>
+        <v>11.8593829767691</v>
       </c>
       <c r="B110" t="n">
-        <v>-5.35078164735609</v>
+        <v>10.8990644972108</v>
       </c>
       <c r="C110" t="n">
-        <v>-6.24448800527383</v>
+        <v>10.8807363988587</v>
       </c>
       <c r="D110" t="n">
-        <v>-6.58480141847077</v>
+        <v>12.5769259868142</v>
       </c>
       <c r="E110" t="n">
-        <v>-7.05300653109269</v>
+        <v>13.6272766561352</v>
       </c>
       <c r="F110" t="n">
-        <v>-6.93520281976059</v>
+        <v>14.6346510294501</v>
       </c>
       <c r="G110" t="n">
-        <v>-7.76693506752367</v>
+        <v>16.6712308712913</v>
       </c>
       <c r="H110" t="n">
-        <v>-8.68822316465441</v>
+        <v>16.1384435435506</v>
       </c>
       <c r="I110" t="n">
-        <v>-9.26870779237925</v>
+        <v>17.3880110677651</v>
       </c>
       <c r="J110" t="n">
-        <v>-9.40166428164562</v>
+        <v>19.3630173760483</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>-4.6894783487369</v>
+        <v>10.0765311049632</v>
       </c>
       <c r="B111" t="n">
-        <v>-5.30295935418372</v>
+        <v>10.0044740442241</v>
       </c>
       <c r="C111" t="n">
-        <v>-6.03147838165286</v>
+        <v>14.0826814130985</v>
       </c>
       <c r="D111" t="n">
-        <v>-6.80872365540271</v>
+        <v>12.0316984493109</v>
       </c>
       <c r="E111" t="n">
-        <v>-7.13763367417411</v>
+        <v>14.3507331835226</v>
       </c>
       <c r="F111" t="n">
-        <v>-7.68711942291715</v>
+        <v>14.4320644263079</v>
       </c>
       <c r="G111" t="n">
-        <v>-7.93836558719245</v>
+        <v>15.7237961449705</v>
       </c>
       <c r="H111" t="n">
-        <v>-8.04308342777576</v>
+        <v>16.8104472752355</v>
       </c>
       <c r="I111" t="n">
-        <v>-8.86127556944053</v>
+        <v>18.7353555743433</v>
       </c>
       <c r="J111" t="n">
-        <v>-9.77023087183232</v>
+        <v>19.4731536921548</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>9.64079592691457</v>
+        <v>11.2372893565829</v>
       </c>
       <c r="B112" t="n">
-        <v>11.428911820473</v>
+        <v>11.84210770421</v>
       </c>
       <c r="C112" t="n">
-        <v>11.938811414369</v>
+        <v>10.184684164809</v>
       </c>
       <c r="D112" t="n">
-        <v>12.2137164499677</v>
+        <v>12.7641431983974</v>
       </c>
       <c r="E112" t="n">
-        <v>14.3095496330052</v>
+        <v>13.3471705208048</v>
       </c>
       <c r="F112" t="n">
-        <v>14.7414897964394</v>
+        <v>14.6116605659443</v>
       </c>
       <c r="G112" t="n">
-        <v>15.8152620393806</v>
+        <v>15.1478725818075</v>
       </c>
       <c r="H112" t="n">
-        <v>16.782248976608</v>
+        <v>18.1993534148366</v>
       </c>
       <c r="I112" t="n">
-        <v>18.1439401224737</v>
+        <v>19.0039800986486</v>
       </c>
       <c r="J112" t="n">
-        <v>18.8829748785381</v>
+        <v>19.0423387567482</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>-5.02919314874632</v>
+        <v>9.34359779922752</v>
       </c>
       <c r="B113" t="n">
-        <v>-5.12808807312453</v>
+        <v>10.7504683848409</v>
       </c>
       <c r="C113" t="n">
-        <v>-6.5081928856793</v>
+        <v>12.7849352325239</v>
       </c>
       <c r="D113" t="n">
-        <v>-6.73894338134529</v>
+        <v>13.1865345649063</v>
       </c>
       <c r="E113" t="n">
-        <v>-6.60556733666176</v>
+        <v>13.5455489936926</v>
       </c>
       <c r="F113" t="n">
-        <v>-7.8810397519336</v>
+        <v>15.7895136050864</v>
       </c>
       <c r="G113" t="n">
-        <v>-8.01261108134655</v>
+        <v>16.4233642593195</v>
       </c>
       <c r="H113" t="n">
-        <v>-8.62422822963802</v>
+        <v>15.4350081213573</v>
       </c>
       <c r="I113" t="n">
-        <v>-9.19443275248554</v>
+        <v>16.0448310410231</v>
       </c>
       <c r="J113" t="n">
-        <v>-9.59751314086145</v>
+        <v>19.5952638435263</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>10.0074469367898</v>
+        <v>-4.49431747673948</v>
       </c>
       <c r="B114" t="n">
-        <v>10.9262740887648</v>
+        <v>-5.3008823297893</v>
       </c>
       <c r="C114" t="n">
-        <v>11.8140238851505</v>
+        <v>-6.45451811104497</v>
       </c>
       <c r="D114" t="n">
-        <v>12.8094645868356</v>
+        <v>-5.96075876494131</v>
       </c>
       <c r="E114" t="n">
-        <v>13.6626529566923</v>
+        <v>-7.27746594264004</v>
       </c>
       <c r="F114" t="n">
-        <v>15.7664446360449</v>
+        <v>-6.91591522917179</v>
       </c>
       <c r="G114" t="n">
-        <v>16.1865207484534</v>
+        <v>-8.2728377682942</v>
       </c>
       <c r="H114" t="n">
-        <v>16.9113012002239</v>
+        <v>-8.32224351114763</v>
       </c>
       <c r="I114" t="n">
-        <v>18.1233334791631</v>
+        <v>-9.77345439174447</v>
       </c>
       <c r="J114" t="n">
-        <v>19.1182825731375</v>
+        <v>-10.2133121312068</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>-4.99186026849529</v>
+        <v>9.57571603853946</v>
       </c>
       <c r="B115" t="n">
-        <v>-5.36449789293716</v>
+        <v>9.52436495948471</v>
       </c>
       <c r="C115" t="n">
-        <v>-6.31771136195242</v>
+        <v>10.5685009662368</v>
       </c>
       <c r="D115" t="n">
-        <v>-6.19978083323664</v>
+        <v>13.5558213657375</v>
       </c>
       <c r="E115" t="n">
-        <v>-6.99666126901759</v>
+        <v>15.0026109864883</v>
       </c>
       <c r="F115" t="n">
-        <v>-7.27697803429127</v>
+        <v>15.0781929382927</v>
       </c>
       <c r="G115" t="n">
-        <v>-7.62729231622994</v>
+        <v>16.6946552391013</v>
       </c>
       <c r="H115" t="n">
-        <v>-8.63189209466458</v>
+        <v>16.9225614448034</v>
       </c>
       <c r="I115" t="n">
-        <v>-8.68084252975086</v>
+        <v>17.2266742166828</v>
       </c>
       <c r="J115" t="n">
-        <v>-9.28313945619443</v>
+        <v>18.023495629057</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>9.94327685053638</v>
+        <v>-4.80650189992066</v>
       </c>
       <c r="B116" t="n">
-        <v>11.0621370268082</v>
+        <v>-5.18374802581255</v>
       </c>
       <c r="C116" t="n">
-        <v>12.0283085148638</v>
+        <v>-5.39735727972423</v>
       </c>
       <c r="D116" t="n">
-        <v>13.1042446807824</v>
+        <v>-6.93708383340351</v>
       </c>
       <c r="E116" t="n">
-        <v>13.9068159203857</v>
+        <v>-7.24786082648387</v>
       </c>
       <c r="F116" t="n">
-        <v>14.4896485498792</v>
+        <v>-7.67111556858014</v>
       </c>
       <c r="G116" t="n">
-        <v>16.3784983236323</v>
+        <v>-7.91101104053985</v>
       </c>
       <c r="H116" t="n">
-        <v>16.7597334836736</v>
+        <v>-9.35403773479617</v>
       </c>
       <c r="I116" t="n">
-        <v>17.887909580294</v>
+        <v>-9.85645993198854</v>
       </c>
       <c r="J116" t="n">
-        <v>18.5454885142672</v>
+        <v>-9.24718136632046</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>-4.78496223977243</v>
+        <v>11.3934012175243</v>
       </c>
       <c r="B117" t="n">
-        <v>-5.76530099682546</v>
+        <v>10.1625454567375</v>
       </c>
       <c r="C117" t="n">
-        <v>-5.8131822760811</v>
+        <v>11.5257936275647</v>
       </c>
       <c r="D117" t="n">
-        <v>-6.83321651133719</v>
+        <v>12.7397395578112</v>
       </c>
       <c r="E117" t="n">
-        <v>-6.83934430890531</v>
+        <v>13.4603921376474</v>
       </c>
       <c r="F117" t="n">
-        <v>-7.4260738156013</v>
+        <v>14.5519408131184</v>
       </c>
       <c r="G117" t="n">
-        <v>-8.25329564604344</v>
+        <v>14.6109074265304</v>
       </c>
       <c r="H117" t="n">
-        <v>-8.50728567832166</v>
+        <v>17.1797972160547</v>
       </c>
       <c r="I117" t="n">
-        <v>-9.09077923232665</v>
+        <v>17.8019408769109</v>
       </c>
       <c r="J117" t="n">
-        <v>-9.2321643041675</v>
+        <v>18.548557859202</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>10.1020547402515</v>
+        <v>10.371993255677</v>
       </c>
       <c r="B118" t="n">
-        <v>10.8973008064237</v>
+        <v>11.0703796335326</v>
       </c>
       <c r="C118" t="n">
-        <v>11.986090989874</v>
+        <v>12.0163091834615</v>
       </c>
       <c r="D118" t="n">
-        <v>13.4105092780564</v>
+        <v>13.3963436794496</v>
       </c>
       <c r="E118" t="n">
-        <v>14.3476097084701</v>
+        <v>13.5233355572658</v>
       </c>
       <c r="F118" t="n">
-        <v>14.5069113650281</v>
+        <v>15.5854241956494</v>
       </c>
       <c r="G118" t="n">
-        <v>16.1761938396054</v>
+        <v>16.8682175268285</v>
       </c>
       <c r="H118" t="n">
-        <v>16.9705285128058</v>
+        <v>16.4665353367826</v>
       </c>
       <c r="I118" t="n">
-        <v>17.7189092304321</v>
+        <v>18.1463466540527</v>
       </c>
       <c r="J118" t="n">
-        <v>18.7457467022671</v>
+        <v>19.2960270882107</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>-4.61465198471339</v>
+        <v>9.56647913596821</v>
       </c>
       <c r="B119" t="n">
-        <v>-4.9413469988616</v>
+        <v>10.3720781705774</v>
       </c>
       <c r="C119" t="n">
-        <v>-5.80101932226846</v>
+        <v>12.0682036791187</v>
       </c>
       <c r="D119" t="n">
-        <v>-5.92618503052052</v>
+        <v>13.8008878237926</v>
       </c>
       <c r="E119" t="n">
-        <v>-6.57469716733107</v>
+        <v>14.494699201721</v>
       </c>
       <c r="F119" t="n">
-        <v>-7.26366818276308</v>
+        <v>14.8833314941668</v>
       </c>
       <c r="G119" t="n">
-        <v>-8.64846669169544</v>
+        <v>15.9300296376905</v>
       </c>
       <c r="H119" t="n">
-        <v>-8.62593211589916</v>
+        <v>15.5749205652247</v>
       </c>
       <c r="I119" t="n">
-        <v>-9.25113903450218</v>
+        <v>19.0492776469634</v>
       </c>
       <c r="J119" t="n">
-        <v>-9.83457039015347</v>
+        <v>18.7741373565494</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>10.0338617366936</v>
+        <v>9.71176192040873</v>
       </c>
       <c r="B120" t="n">
-        <v>11.2528359524404</v>
+        <v>10.3754637209797</v>
       </c>
       <c r="C120" t="n">
-        <v>11.6701037217817</v>
+        <v>12.5956842963477</v>
       </c>
       <c r="D120" t="n">
-        <v>12.882692241706</v>
+        <v>13.4745193786733</v>
       </c>
       <c r="E120" t="n">
-        <v>14.0008542954122</v>
+        <v>13.6956717263666</v>
       </c>
       <c r="F120" t="n">
-        <v>14.8923958773225</v>
+        <v>13.1496368603169</v>
       </c>
       <c r="G120" t="n">
-        <v>15.9870608609879</v>
+        <v>15.2666967163641</v>
       </c>
       <c r="H120" t="n">
-        <v>17.0967558773852</v>
+        <v>17.4512508691389</v>
       </c>
       <c r="I120" t="n">
-        <v>17.8890184084298</v>
+        <v>19.1713950784655</v>
       </c>
       <c r="J120" t="n">
-        <v>19.0907873504352</v>
+        <v>17.7403827927218</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>10.0503708082236</v>
+        <v>-4.58802198635087</v>
       </c>
       <c r="B121" t="n">
-        <v>10.9454584564227</v>
+        <v>-4.71636268269982</v>
       </c>
       <c r="C121" t="n">
-        <v>11.88703363408</v>
+        <v>-6.23510921800766</v>
       </c>
       <c r="D121" t="n">
-        <v>13.3104567831284</v>
+        <v>-6.49522858071481</v>
       </c>
       <c r="E121" t="n">
-        <v>14.1038359837974</v>
+        <v>-6.83455226025573</v>
       </c>
       <c r="F121" t="n">
-        <v>15.3671286698314</v>
+        <v>-7.76192273030533</v>
       </c>
       <c r="G121" t="n">
-        <v>16.0514837701926</v>
+        <v>-8.89260254183122</v>
       </c>
       <c r="H121" t="n">
-        <v>16.9701517979636</v>
+        <v>-8.01887901317636</v>
       </c>
       <c r="I121" t="n">
-        <v>17.8793865408143</v>
+        <v>-8.78078233906966</v>
       </c>
       <c r="J121" t="n">
-        <v>19.4359509668994</v>
+        <v>-9.59077929863174</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>-5.32519814697675</v>
+        <v>-3.0209066948341</v>
       </c>
       <c r="B122" t="n">
-        <v>-5.47806906063174</v>
+        <v>-4.78644772838811</v>
       </c>
       <c r="C122" t="n">
-        <v>-5.87280154498366</v>
+        <v>-4.79546177030154</v>
       </c>
       <c r="D122" t="n">
-        <v>-6.56399451851743</v>
+        <v>-6.12597666513221</v>
       </c>
       <c r="E122" t="n">
-        <v>-7.27521169637064</v>
+        <v>-6.58497193926812</v>
       </c>
       <c r="F122" t="n">
-        <v>-7.09013583016462</v>
+        <v>-6.78704684741694</v>
       </c>
       <c r="G122" t="n">
-        <v>-7.9024874851407</v>
+        <v>-7.22717798932015</v>
       </c>
       <c r="H122" t="n">
-        <v>-8.73037453708542</v>
+        <v>-8.14119176422897</v>
       </c>
       <c r="I122" t="n">
-        <v>-8.70237040106429</v>
+        <v>-9.21017743900595</v>
       </c>
       <c r="J122" t="n">
-        <v>-9.46956449653445</v>
+        <v>-9.51168244204771</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>10.1400898029702</v>
+        <v>11.3772373843979</v>
       </c>
       <c r="B123" t="n">
-        <v>11.3341809368882</v>
+        <v>11.0068038836784</v>
       </c>
       <c r="C123" t="n">
-        <v>12.209305866202</v>
+        <v>12.0296453070809</v>
       </c>
       <c r="D123" t="n">
-        <v>12.7984511672127</v>
+        <v>12.7365003910259</v>
       </c>
       <c r="E123" t="n">
-        <v>14.0364220411635</v>
+        <v>12.912498506704</v>
       </c>
       <c r="F123" t="n">
-        <v>14.9076679219851</v>
+        <v>15.7233924749878</v>
       </c>
       <c r="G123" t="n">
-        <v>15.8942423426889</v>
+        <v>15.088313774312</v>
       </c>
       <c r="H123" t="n">
-        <v>17.249349920153</v>
+        <v>17.7237150995358</v>
       </c>
       <c r="I123" t="n">
-        <v>17.9295595249697</v>
+        <v>17.7546880591894</v>
       </c>
       <c r="J123" t="n">
-        <v>18.7928200015251</v>
+        <v>18.5750674823122</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>10.0187433730853</v>
+        <v>-5.44671255924286</v>
       </c>
       <c r="B124" t="n">
-        <v>10.4925013682707</v>
+        <v>-6.24313568600612</v>
       </c>
       <c r="C124" t="n">
-        <v>11.9102511791429</v>
+        <v>-4.6544639512815</v>
       </c>
       <c r="D124" t="n">
-        <v>13.0772113818727</v>
+        <v>-6.81782835230204</v>
       </c>
       <c r="E124" t="n">
-        <v>14.3146631686119</v>
+        <v>-7.36945568858009</v>
       </c>
       <c r="F124" t="n">
-        <v>14.7131186363316</v>
+        <v>-7.56692125115006</v>
       </c>
       <c r="G124" t="n">
-        <v>15.9193570475803</v>
+        <v>-8.0016172871657</v>
       </c>
       <c r="H124" t="n">
-        <v>17.173340708559</v>
+        <v>-8.340192955687</v>
       </c>
       <c r="I124" t="n">
-        <v>18.3768201638672</v>
+        <v>-9.60968251618738</v>
       </c>
       <c r="J124" t="n">
-        <v>19.0756148782854</v>
+        <v>-9.32080379966708</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>-4.79897484076315</v>
+        <v>9.82113616818823</v>
       </c>
       <c r="B125" t="n">
-        <v>-5.19935724472126</v>
+        <v>10.5413972048661</v>
       </c>
       <c r="C125" t="n">
-        <v>-6.0259424789769</v>
+        <v>11.893584979865</v>
       </c>
       <c r="D125" t="n">
-        <v>-6.27052023977369</v>
+        <v>13.1048107218554</v>
       </c>
       <c r="E125" t="n">
-        <v>-7.14352287884695</v>
+        <v>13.7724758964394</v>
       </c>
       <c r="F125" t="n">
-        <v>-7.11104685596588</v>
+        <v>15.3192135784065</v>
       </c>
       <c r="G125" t="n">
-        <v>-8.02181141275642</v>
+        <v>16.2698870280869</v>
       </c>
       <c r="H125" t="n">
-        <v>-8.41244537530706</v>
+        <v>16.7393888855075</v>
       </c>
       <c r="I125" t="n">
-        <v>-9.44831687199471</v>
+        <v>18.0637770464043</v>
       </c>
       <c r="J125" t="n">
-        <v>-9.1579586523603</v>
+        <v>19.6185991287894</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>10.502675816266</v>
+        <v>10.5200891329353</v>
       </c>
       <c r="B126" t="n">
-        <v>11.2762701837265</v>
+        <v>12.073606927512</v>
       </c>
       <c r="C126" t="n">
-        <v>11.7223451004164</v>
+        <v>12.864499118044</v>
       </c>
       <c r="D126" t="n">
-        <v>12.7203976801511</v>
+        <v>11.9454875496227</v>
       </c>
       <c r="E126" t="n">
-        <v>14.1099719483355</v>
+        <v>14.1543645638149</v>
       </c>
       <c r="F126" t="n">
-        <v>15.0539134410833</v>
+        <v>13.9507524987846</v>
       </c>
       <c r="G126" t="n">
-        <v>15.7491524655387</v>
+        <v>16.0086917437414</v>
       </c>
       <c r="H126" t="n">
-        <v>17.359186513913</v>
+        <v>16.8734461865414</v>
       </c>
       <c r="I126" t="n">
-        <v>18.1057896301806</v>
+        <v>17.6373071507034</v>
       </c>
       <c r="J126" t="n">
-        <v>19.2110376395709</v>
+        <v>18.5888926449088</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>10.1306566652642</v>
+        <v>9.40230854870058</v>
       </c>
       <c r="B127" t="n">
-        <v>11.2391095319288</v>
+        <v>9.62588212049845</v>
       </c>
       <c r="C127" t="n">
-        <v>12.4256267100978</v>
+        <v>11.8987563271689</v>
       </c>
       <c r="D127" t="n">
-        <v>13.1363364598502</v>
+        <v>14.0895952038008</v>
       </c>
       <c r="E127" t="n">
-        <v>13.9080423547699</v>
+        <v>12.3186745936832</v>
       </c>
       <c r="F127" t="n">
-        <v>15.2199078257035</v>
+        <v>15.439769246075</v>
       </c>
       <c r="G127" t="n">
-        <v>16.0915139514504</v>
+        <v>15.5193645041947</v>
       </c>
       <c r="H127" t="n">
-        <v>17.0605995896176</v>
+        <v>17.811817565812</v>
       </c>
       <c r="I127" t="n">
-        <v>18.0973542497753</v>
+        <v>18.1725497265098</v>
       </c>
       <c r="J127" t="n">
-        <v>18.6508056892718</v>
+        <v>20.7478206291237</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>9.89658427718866</v>
+        <v>10.04979167421</v>
       </c>
       <c r="B128" t="n">
-        <v>11.0282759670396</v>
+        <v>10.5008029758412</v>
       </c>
       <c r="C128" t="n">
-        <v>12.304948171321</v>
+        <v>12.4978613379999</v>
       </c>
       <c r="D128" t="n">
-        <v>12.6265493465982</v>
+        <v>12.3145776391455</v>
       </c>
       <c r="E128" t="n">
-        <v>13.8043045340711</v>
+        <v>14.424024063726</v>
       </c>
       <c r="F128" t="n">
-        <v>14.9808392165452</v>
+        <v>13.9762011786307</v>
       </c>
       <c r="G128" t="n">
-        <v>15.8877406014962</v>
+        <v>16.0673486577818</v>
       </c>
       <c r="H128" t="n">
-        <v>16.9063662087175</v>
+        <v>17.3331177893308</v>
       </c>
       <c r="I128" t="n">
-        <v>17.7937103491071</v>
+        <v>17.9939834985796</v>
       </c>
       <c r="J128" t="n">
-        <v>19.4306256943441</v>
+        <v>19.6443294611259</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>10.1801179063215</v>
+        <v>-5.4197426906005</v>
       </c>
       <c r="B129" t="n">
-        <v>10.8130707748292</v>
+        <v>-5.92753497067599</v>
       </c>
       <c r="C129" t="n">
-        <v>12.2601173027871</v>
+        <v>-5.36465934103049</v>
       </c>
       <c r="D129" t="n">
-        <v>12.713445045156</v>
+        <v>-6.48759462453307</v>
       </c>
       <c r="E129" t="n">
-        <v>14.3279433193039</v>
+        <v>-7.39836343115146</v>
       </c>
       <c r="F129" t="n">
-        <v>15.0813562405053</v>
+        <v>-8.56737727904846</v>
       </c>
       <c r="G129" t="n">
-        <v>16.0421415035375</v>
+        <v>-8.1897322996634</v>
       </c>
       <c r="H129" t="n">
-        <v>17.3073822938647</v>
+        <v>-8.61508480021136</v>
       </c>
       <c r="I129" t="n">
-        <v>17.8745552212325</v>
+        <v>-8.4008520121522</v>
       </c>
       <c r="J129" t="n">
-        <v>19.0043374029942</v>
+        <v>-9.10010424294113</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>-5.33293398261632</v>
+        <v>10.3489048884864</v>
       </c>
       <c r="B130" t="n">
-        <v>-5.39679436350236</v>
+        <v>10.2866641786333</v>
       </c>
       <c r="C130" t="n">
-        <v>-5.70755643010876</v>
+        <v>12.6181100294749</v>
       </c>
       <c r="D130" t="n">
-        <v>-6.21983704742271</v>
+        <v>12.2360596091896</v>
       </c>
       <c r="E130" t="n">
-        <v>-7.10887281640557</v>
+        <v>14.0649155424385</v>
       </c>
       <c r="F130" t="n">
-        <v>-7.79060387033019</v>
+        <v>15.699225543453</v>
       </c>
       <c r="G130" t="n">
-        <v>-8.20297025155565</v>
+        <v>16.4888438519945</v>
       </c>
       <c r="H130" t="n">
-        <v>-8.46427799442311</v>
+        <v>19.0927652065861</v>
       </c>
       <c r="I130" t="n">
-        <v>-9.26109069546202</v>
+        <v>18.2237545908839</v>
       </c>
       <c r="J130" t="n">
-        <v>-9.71626639523018</v>
+        <v>18.4597542973417</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>10.0819872501436</v>
+        <v>8.07929805022128</v>
       </c>
       <c r="B131" t="n">
-        <v>11.0745978800812</v>
+        <v>9.74039044789215</v>
       </c>
       <c r="C131" t="n">
-        <v>12.319028456584</v>
+        <v>11.1988927528203</v>
       </c>
       <c r="D131" t="n">
-        <v>13.2165776299172</v>
+        <v>12.9944451351864</v>
       </c>
       <c r="E131" t="n">
-        <v>14.2560131379814</v>
+        <v>15.2527279123058</v>
       </c>
       <c r="F131" t="n">
-        <v>15.0498301426553</v>
+        <v>15.1401139145383</v>
       </c>
       <c r="G131" t="n">
-        <v>15.7605792629774</v>
+        <v>16.328204988981</v>
       </c>
       <c r="H131" t="n">
-        <v>16.8917484784714</v>
+        <v>16.277887729361</v>
       </c>
       <c r="I131" t="n">
-        <v>17.9188065702866</v>
+        <v>17.5433080420443</v>
       </c>
       <c r="J131" t="n">
-        <v>18.7582162890658</v>
+        <v>19.8154058374888</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>10.279020784249</v>
+        <v>-6.03044492505339</v>
       </c>
       <c r="B132" t="n">
-        <v>11.0443602407275</v>
+        <v>-4.69031300780954</v>
       </c>
       <c r="C132" t="n">
-        <v>11.8620729096265</v>
+        <v>-5.72711647284166</v>
       </c>
       <c r="D132" t="n">
-        <v>12.5781335115622</v>
+        <v>-5.68015688334591</v>
       </c>
       <c r="E132" t="n">
-        <v>14.1985290027715</v>
+        <v>-6.61480239474706</v>
       </c>
       <c r="F132" t="n">
-        <v>14.6577756373886</v>
+        <v>-7.83508899316215</v>
       </c>
       <c r="G132" t="n">
-        <v>16.4220772380661</v>
+        <v>-9.91523015081481</v>
       </c>
       <c r="H132" t="n">
-        <v>17.1768222318435</v>
+        <v>-8.53807992494878</v>
       </c>
       <c r="I132" t="n">
-        <v>17.9143113464995</v>
+        <v>-8.49256332203327</v>
       </c>
       <c r="J132" t="n">
-        <v>18.9276328843572</v>
+        <v>-9.95269013129031</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>10.017178300886</v>
+        <v>-4.55694076096281</v>
       </c>
       <c r="B133" t="n">
-        <v>10.8880337320185</v>
+        <v>-5.68920873783448</v>
       </c>
       <c r="C133" t="n">
-        <v>12.0531428628272</v>
+        <v>-6.53700235848531</v>
       </c>
       <c r="D133" t="n">
-        <v>13.229841313097</v>
+        <v>-5.33434187984288</v>
       </c>
       <c r="E133" t="n">
-        <v>13.9890913390068</v>
+        <v>-7.03420476088481</v>
       </c>
       <c r="F133" t="n">
-        <v>15.060616820166</v>
+        <v>-7.23474835468377</v>
       </c>
       <c r="G133" t="n">
-        <v>15.8393482454141</v>
+        <v>-7.3955047167285</v>
       </c>
       <c r="H133" t="n">
-        <v>17.3797963252247</v>
+        <v>-8.12343696175415</v>
       </c>
       <c r="I133" t="n">
-        <v>17.7415616717714</v>
+        <v>-8.93386470968327</v>
       </c>
       <c r="J133" t="n">
-        <v>18.6958522678237</v>
+        <v>-10.7885964361439</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>10.3696894485776</v>
+        <v>10.8329607570834</v>
       </c>
       <c r="B134" t="n">
-        <v>11.0634835065625</v>
+        <v>12.3617471377219</v>
       </c>
       <c r="C134" t="n">
-        <v>11.7482271210835</v>
+        <v>12.4114003961265</v>
       </c>
       <c r="D134" t="n">
-        <v>12.883999162692</v>
+        <v>12.5363361748789</v>
       </c>
       <c r="E134" t="n">
-        <v>14.2988889705202</v>
+        <v>13.2138705743704</v>
       </c>
       <c r="F134" t="n">
-        <v>15.0862106926294</v>
+        <v>15.8374181529976</v>
       </c>
       <c r="G134" t="n">
-        <v>16.2927784093026</v>
+        <v>16.9778007661597</v>
       </c>
       <c r="H134" t="n">
-        <v>16.940834446382</v>
+        <v>17.3519293292193</v>
       </c>
       <c r="I134" t="n">
-        <v>18.1255105814384</v>
+        <v>17.3468624312336</v>
       </c>
       <c r="J134" t="n">
-        <v>18.9618048925747</v>
+        <v>18.5699295175919</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>-4.9309266358862</v>
+        <v>-6.10196012383258</v>
       </c>
       <c r="B135" t="n">
-        <v>-5.71403162280272</v>
+        <v>-6.2107557384299</v>
       </c>
       <c r="C135" t="n">
-        <v>-6.12877144572193</v>
+        <v>-5.60270679715275</v>
       </c>
       <c r="D135" t="n">
-        <v>-6.3652955282838</v>
+        <v>-6.41714506443654</v>
       </c>
       <c r="E135" t="n">
-        <v>-6.8491903666126</v>
+        <v>-5.95165981271744</v>
       </c>
       <c r="F135" t="n">
-        <v>-7.83435915609357</v>
+        <v>-8.08286907303731</v>
       </c>
       <c r="G135" t="n">
-        <v>-7.91862505212381</v>
+        <v>-7.50920077259104</v>
       </c>
       <c r="H135" t="n">
-        <v>-8.40781285925103</v>
+        <v>-8.69946567584228</v>
       </c>
       <c r="I135" t="n">
-        <v>-9.00784690659437</v>
+        <v>-8.48373715861952</v>
       </c>
       <c r="J135" t="n">
-        <v>-9.49707229734626</v>
+        <v>-9.83190837093952</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>9.90061124509741</v>
+        <v>10.668417109705</v>
       </c>
       <c r="B136" t="n">
-        <v>10.8794751315457</v>
+        <v>10.5597053003623</v>
       </c>
       <c r="C136" t="n">
-        <v>12.5537541439105</v>
+        <v>12.4135326227971</v>
       </c>
       <c r="D136" t="n">
-        <v>13.1018434108244</v>
+        <v>12.5646455926908</v>
       </c>
       <c r="E136" t="n">
-        <v>13.5130100567465</v>
+        <v>14.4609160491712</v>
       </c>
       <c r="F136" t="n">
-        <v>15.0259704987844</v>
+        <v>15.1299953979649</v>
       </c>
       <c r="G136" t="n">
-        <v>15.6945125848827</v>
+        <v>15.4837981774818</v>
       </c>
       <c r="H136" t="n">
-        <v>16.903347358141</v>
+        <v>17.080075208045</v>
       </c>
       <c r="I136" t="n">
-        <v>18.2479518215835</v>
+        <v>18.2763484174052</v>
       </c>
       <c r="J136" t="n">
-        <v>18.7936976116766</v>
+        <v>18.7164648609565</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>9.87696157871548</v>
+        <v>9.21870713791694</v>
       </c>
       <c r="B137" t="n">
-        <v>11.2840546759911</v>
+        <v>10.9148158027474</v>
       </c>
       <c r="C137" t="n">
-        <v>12.6361861876032</v>
+        <v>11.1872411533001</v>
       </c>
       <c r="D137" t="n">
-        <v>13.0262723807512</v>
+        <v>13.5854272922794</v>
       </c>
       <c r="E137" t="n">
-        <v>14.0262718512439</v>
+        <v>14.0125826076713</v>
       </c>
       <c r="F137" t="n">
-        <v>15.609818830788</v>
+        <v>14.8219545819675</v>
       </c>
       <c r="G137" t="n">
-        <v>16.0541220768437</v>
+        <v>15.0904585435677</v>
       </c>
       <c r="H137" t="n">
-        <v>16.9922586949644</v>
+        <v>18.0034337175523</v>
       </c>
       <c r="I137" t="n">
-        <v>18.1680518960902</v>
+        <v>17.7847119732619</v>
       </c>
       <c r="J137" t="n">
-        <v>18.920296084741</v>
+        <v>18.7483366455679</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>-4.67816749841833</v>
+        <v>10.5716506754369</v>
       </c>
       <c r="B138" t="n">
-        <v>-5.5279512515565</v>
+        <v>11.4745578136816</v>
       </c>
       <c r="C138" t="n">
-        <v>-6.505073365593</v>
+        <v>11.5077914540743</v>
       </c>
       <c r="D138" t="n">
-        <v>-6.41145176157723</v>
+        <v>14.0842203631005</v>
       </c>
       <c r="E138" t="n">
-        <v>-6.97580260773249</v>
+        <v>13.5565571576058</v>
       </c>
       <c r="F138" t="n">
-        <v>-7.32162451624794</v>
+        <v>15.2918504998131</v>
       </c>
       <c r="G138" t="n">
-        <v>-8.37562182365024</v>
+        <v>15.5858780969049</v>
       </c>
       <c r="H138" t="n">
-        <v>-8.72588543005387</v>
+        <v>16.1161311637579</v>
       </c>
       <c r="I138" t="n">
-        <v>-9.23859279889057</v>
+        <v>18.3393825668324</v>
       </c>
       <c r="J138" t="n">
-        <v>-9.28443788255379</v>
+        <v>20.6231203995903</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>9.54236107590437</v>
+        <v>-4.20851393274731</v>
       </c>
       <c r="B139" t="n">
-        <v>10.7662824248267</v>
+        <v>-5.97881337496671</v>
       </c>
       <c r="C139" t="n">
-        <v>12.3810986999725</v>
+        <v>-6.60597408304565</v>
       </c>
       <c r="D139" t="n">
-        <v>13.0035651857881</v>
+        <v>-5.45527933789995</v>
       </c>
       <c r="E139" t="n">
-        <v>14.2419662512647</v>
+        <v>-7.30608597053106</v>
       </c>
       <c r="F139" t="n">
-        <v>14.8738672788995</v>
+        <v>-6.66874897815119</v>
       </c>
       <c r="G139" t="n">
-        <v>16.0708246900859</v>
+        <v>-7.01408890039844</v>
       </c>
       <c r="H139" t="n">
-        <v>17.2862468975474</v>
+        <v>-9.15814865833636</v>
       </c>
       <c r="I139" t="n">
-        <v>17.9215039320906</v>
+        <v>-8.83678919645503</v>
       </c>
       <c r="J139" t="n">
-        <v>18.7420847111151</v>
+        <v>-8.98104528365984</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>-5.08922176747306</v>
+        <v>9.83596069701422</v>
       </c>
       <c r="B140" t="n">
-        <v>-5.98004325385047</v>
+        <v>10.8388046660212</v>
       </c>
       <c r="C140" t="n">
-        <v>-5.97997014943491</v>
+        <v>11.8021661713835</v>
       </c>
       <c r="D140" t="n">
-        <v>-6.314295831522</v>
+        <v>12.313247023104</v>
       </c>
       <c r="E140" t="n">
-        <v>-6.8725812148064</v>
+        <v>13.6694617430853</v>
       </c>
       <c r="F140" t="n">
-        <v>-7.210064596052</v>
+        <v>14.067758017163</v>
       </c>
       <c r="G140" t="n">
-        <v>-8.153372080749</v>
+        <v>15.9615264641872</v>
       </c>
       <c r="H140" t="n">
-        <v>-8.36666317710999</v>
+        <v>17.1038398476729</v>
       </c>
       <c r="I140" t="n">
-        <v>-8.69796894924384</v>
+        <v>18.8618583152803</v>
       </c>
       <c r="J140" t="n">
-        <v>-9.72389102406156</v>
+        <v>17.6171689884044</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>-4.7776246655295</v>
+        <v>10.7296284284433</v>
       </c>
       <c r="B141" t="n">
-        <v>-5.73841073892803</v>
+        <v>11.73442932136</v>
       </c>
       <c r="C141" t="n">
-        <v>-6.227438457257</v>
+        <v>11.9162704039669</v>
       </c>
       <c r="D141" t="n">
-        <v>-6.48532471898523</v>
+        <v>13.2843052632129</v>
       </c>
       <c r="E141" t="n">
-        <v>-6.92025433723954</v>
+        <v>14.2661480428291</v>
       </c>
       <c r="F141" t="n">
-        <v>-7.63858530245847</v>
+        <v>14.2328642226914</v>
       </c>
       <c r="G141" t="n">
-        <v>-8.22866811457351</v>
+        <v>15.6177493136048</v>
       </c>
       <c r="H141" t="n">
-        <v>-8.22659189507629</v>
+        <v>16.1559011691126</v>
       </c>
       <c r="I141" t="n">
-        <v>-9.0510783954852</v>
+        <v>18.1912024995102</v>
       </c>
       <c r="J141" t="n">
-        <v>-9.62392407228727</v>
+        <v>17.9471862920924</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>10.1867848532103</v>
+        <v>9.85442181076677</v>
       </c>
       <c r="B142" t="n">
-        <v>11.0003923843823</v>
+        <v>8.61789634316763</v>
       </c>
       <c r="C142" t="n">
-        <v>11.8102984571135</v>
+        <v>12.4607203418352</v>
       </c>
       <c r="D142" t="n">
-        <v>13.0121338751534</v>
+        <v>13.7096221709879</v>
       </c>
       <c r="E142" t="n">
-        <v>14.0904733814867</v>
+        <v>14.6811896371365</v>
       </c>
       <c r="F142" t="n">
-        <v>15.2524731616228</v>
+        <v>15.4155102874883</v>
       </c>
       <c r="G142" t="n">
-        <v>15.7229694980293</v>
+        <v>15.8737896523981</v>
       </c>
       <c r="H142" t="n">
-        <v>16.6427008996647</v>
+        <v>16.4849734754252</v>
       </c>
       <c r="I142" t="n">
-        <v>17.8680574041435</v>
+        <v>16.8985617943863</v>
       </c>
       <c r="J142" t="n">
-        <v>18.930080829443</v>
+        <v>18.3916432703058</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>9.64278530214405</v>
+        <v>10.3778829558218</v>
       </c>
       <c r="B143" t="n">
-        <v>10.8075057046102</v>
+        <v>12.4398074547189</v>
       </c>
       <c r="C143" t="n">
-        <v>12.1130019312576</v>
+        <v>11.9511044226321</v>
       </c>
       <c r="D143" t="n">
-        <v>12.8909943332135</v>
+        <v>11.2735308443473</v>
       </c>
       <c r="E143" t="n">
-        <v>14.2038646775244</v>
+        <v>14.2094757201309</v>
       </c>
       <c r="F143" t="n">
-        <v>15.1265369561935</v>
+        <v>14.3943187988582</v>
       </c>
       <c r="G143" t="n">
-        <v>16.1429800500012</v>
+        <v>15.4041711687194</v>
       </c>
       <c r="H143" t="n">
-        <v>16.9815777088991</v>
+        <v>17.8296598755605</v>
       </c>
       <c r="I143" t="n">
-        <v>17.9855452030917</v>
+        <v>16.4337907589354</v>
       </c>
       <c r="J143" t="n">
-        <v>18.9883101951854</v>
+        <v>20.6507688830257</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>10.3850920868495</v>
+        <v>10.3769816062696</v>
       </c>
       <c r="B144" t="n">
-        <v>11.586593181469</v>
+        <v>10.3734343679944</v>
       </c>
       <c r="C144" t="n">
-        <v>11.6967439642791</v>
+        <v>11.5709019438746</v>
       </c>
       <c r="D144" t="n">
-        <v>12.9671693313334</v>
+        <v>13.8586507967174</v>
       </c>
       <c r="E144" t="n">
-        <v>14.0015679544682</v>
+        <v>15.4085039842356</v>
       </c>
       <c r="F144" t="n">
-        <v>15.1070637389458</v>
+        <v>15.7635869196014</v>
       </c>
       <c r="G144" t="n">
-        <v>15.8877834476172</v>
+        <v>15.1209279917751</v>
       </c>
       <c r="H144" t="n">
-        <v>16.6470884557105</v>
+        <v>16.8602093749298</v>
       </c>
       <c r="I144" t="n">
-        <v>18.2426389504658</v>
+        <v>18.8136449389016</v>
       </c>
       <c r="J144" t="n">
-        <v>19.2416663605982</v>
+        <v>18.7174468140152</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>10.2928543558295</v>
+        <v>-5.37720893350005</v>
       </c>
       <c r="B145" t="n">
-        <v>11.0194103567124</v>
+        <v>-7.23860590679943</v>
       </c>
       <c r="C145" t="n">
-        <v>11.6087289692292</v>
+        <v>-7.3161910765008</v>
       </c>
       <c r="D145" t="n">
-        <v>12.8360793184999</v>
+        <v>-5.34332560071682</v>
       </c>
       <c r="E145" t="n">
-        <v>14.2057133637512</v>
+        <v>-7.41746426030794</v>
       </c>
       <c r="F145" t="n">
-        <v>15.1036029467502</v>
+        <v>-6.99421331161289</v>
       </c>
       <c r="G145" t="n">
-        <v>16.1819317873467</v>
+        <v>-8.27367157717497</v>
       </c>
       <c r="H145" t="n">
-        <v>17.1018343632747</v>
+        <v>-8.82505363316429</v>
       </c>
       <c r="I145" t="n">
-        <v>17.8102322048944</v>
+        <v>-10.5588728284464</v>
       </c>
       <c r="J145" t="n">
-        <v>19.0410491703191</v>
+        <v>-8.48466972691613</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>10.0984732585055</v>
+        <v>-5.37054283623944</v>
       </c>
       <c r="B146" t="n">
-        <v>10.3384499621882</v>
+        <v>-5.79675493948888</v>
       </c>
       <c r="C146" t="n">
-        <v>11.752003456323</v>
+        <v>-6.32800648397501</v>
       </c>
       <c r="D146" t="n">
-        <v>13.0906388364706</v>
+        <v>-6.51862882670233</v>
       </c>
       <c r="E146" t="n">
-        <v>13.9770098015409</v>
+        <v>-7.05543887126673</v>
       </c>
       <c r="F146" t="n">
-        <v>14.7643068075724</v>
+        <v>-7.74915199508701</v>
       </c>
       <c r="G146" t="n">
-        <v>15.4911948079109</v>
+        <v>-8.55945882913244</v>
       </c>
       <c r="H146" t="n">
-        <v>16.729825916321</v>
+        <v>-8.43705184631324</v>
       </c>
       <c r="I146" t="n">
-        <v>17.3184296669155</v>
+        <v>-8.78267423510937</v>
       </c>
       <c r="J146" t="n">
-        <v>19.0166828953056</v>
+        <v>-10.2405538898857</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>-4.77062300776739</v>
+        <v>9.39040647595961</v>
       </c>
       <c r="B147" t="n">
-        <v>-5.74714963988891</v>
+        <v>10.2679892769977</v>
       </c>
       <c r="C147" t="n">
-        <v>-5.9799682485301</v>
+        <v>12.0127730059576</v>
       </c>
       <c r="D147" t="n">
-        <v>-6.58323354814781</v>
+        <v>13.5435070472397</v>
       </c>
       <c r="E147" t="n">
-        <v>-7.40499248815299</v>
+        <v>14.9362831337499</v>
       </c>
       <c r="F147" t="n">
-        <v>-7.42693015437286</v>
+        <v>15.6001254099523</v>
       </c>
       <c r="G147" t="n">
-        <v>-7.69713668392512</v>
+        <v>16.6001225520723</v>
       </c>
       <c r="H147" t="n">
-        <v>-8.19520972590165</v>
+        <v>17.7025865491566</v>
       </c>
       <c r="I147" t="n">
-        <v>-8.91370248623223</v>
+        <v>17.4272436687502</v>
       </c>
       <c r="J147" t="n">
-        <v>-9.38632928828452</v>
+        <v>18.5867611842297</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>9.50235374549232</v>
+        <v>10.318608582401</v>
       </c>
       <c r="B148" t="n">
-        <v>11.350626506338</v>
+        <v>11.4129935441685</v>
       </c>
       <c r="C148" t="n">
-        <v>11.8658366078175</v>
+        <v>12.7462556708804</v>
       </c>
       <c r="D148" t="n">
-        <v>13.2240337386649</v>
+        <v>14.527846555959</v>
       </c>
       <c r="E148" t="n">
-        <v>14.1037936387499</v>
+        <v>13.1041762874882</v>
       </c>
       <c r="F148" t="n">
-        <v>15.0815462803075</v>
+        <v>15.548569033394</v>
       </c>
       <c r="G148" t="n">
-        <v>15.724542395736</v>
+        <v>16.2573965306877</v>
       </c>
       <c r="H148" t="n">
-        <v>16.6664281097147</v>
+        <v>17.2257299024113</v>
       </c>
       <c r="I148" t="n">
-        <v>18.4438704386483</v>
+        <v>18.5763228132377</v>
       </c>
       <c r="J148" t="n">
-        <v>19.1109115575912</v>
+        <v>19.0450861564071</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>10.2393248868451</v>
+        <v>9.69589963560219</v>
       </c>
       <c r="B149" t="n">
-        <v>10.7188847365035</v>
+        <v>11.4096494836908</v>
       </c>
       <c r="C149" t="n">
-        <v>11.9811457877743</v>
+        <v>11.9499176762167</v>
       </c>
       <c r="D149" t="n">
-        <v>12.9132371549232</v>
+        <v>13.4939257215985</v>
       </c>
       <c r="E149" t="n">
-        <v>13.7168067600524</v>
+        <v>13.7488457756035</v>
       </c>
       <c r="F149" t="n">
-        <v>14.8561058454569</v>
+        <v>13.7295876511647</v>
       </c>
       <c r="G149" t="n">
-        <v>15.9399471811338</v>
+        <v>16.434488844814</v>
       </c>
       <c r="H149" t="n">
-        <v>16.9771010492358</v>
+        <v>18.1576931941013</v>
       </c>
       <c r="I149" t="n">
-        <v>17.9088236231109</v>
+        <v>18.172946299693</v>
       </c>
       <c r="J149" t="n">
-        <v>19.2287102789751</v>
+        <v>19.0504597200607</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>9.54161460513359</v>
+        <v>-4.40201903281461</v>
       </c>
       <c r="B150" t="n">
-        <v>11.612588966185</v>
+        <v>-4.59265571833562</v>
       </c>
       <c r="C150" t="n">
-        <v>11.9757860702219</v>
+        <v>-6.20299207162901</v>
       </c>
       <c r="D150" t="n">
-        <v>13.3538968697944</v>
+        <v>-6.0852190565692</v>
       </c>
       <c r="E150" t="n">
-        <v>14.0528145887717</v>
+        <v>-6.48440146305253</v>
       </c>
       <c r="F150" t="n">
-        <v>15.0245794490923</v>
+        <v>-7.21471124238748</v>
       </c>
       <c r="G150" t="n">
-        <v>16.4549774886938</v>
+        <v>-6.76909505854092</v>
       </c>
       <c r="H150" t="n">
-        <v>17.2306389907614</v>
+        <v>-8.67882032429497</v>
       </c>
       <c r="I150" t="n">
-        <v>17.9021203541835</v>
+        <v>-7.12399604244043</v>
       </c>
       <c r="J150" t="n">
-        <v>18.4683700284624</v>
+        <v>-9.00976331141469</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>9.97719549575409</v>
+        <v>9.54002790562699</v>
       </c>
       <c r="B151" t="n">
-        <v>10.7277191896688</v>
+        <v>11.7347936662267</v>
       </c>
       <c r="C151" t="n">
-        <v>12.2919635921698</v>
+        <v>12.9227430431297</v>
       </c>
       <c r="D151" t="n">
-        <v>12.6506239186468</v>
+        <v>12.2618253437593</v>
       </c>
       <c r="E151" t="n">
-        <v>14.0785045932242</v>
+        <v>13.7514984313216</v>
       </c>
       <c r="F151" t="n">
-        <v>15.0355087151864</v>
+        <v>15.932620468249</v>
       </c>
       <c r="G151" t="n">
-        <v>15.9434099102669</v>
+        <v>15.9847671492082</v>
       </c>
       <c r="H151" t="n">
-        <v>16.5888632729603</v>
+        <v>16.2500912544917</v>
       </c>
       <c r="I151" t="n">
-        <v>18.0799217313731</v>
+        <v>18.4876464792812</v>
       </c>
       <c r="J151" t="n">
-        <v>19.514385309909</v>
+        <v>18.4140784902456</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>9.73517631744255</v>
+        <v>11.0558543970846</v>
       </c>
       <c r="B152" t="n">
-        <v>11.385505206938</v>
+        <v>11.6501472317003</v>
       </c>
       <c r="C152" t="n">
-        <v>12.1349695229565</v>
+        <v>12.805499576847</v>
       </c>
       <c r="D152" t="n">
-        <v>13.0147443308991</v>
+        <v>13.0623998793468</v>
       </c>
       <c r="E152" t="n">
-        <v>13.9888337990931</v>
+        <v>13.3366654447947</v>
       </c>
       <c r="F152" t="n">
-        <v>14.6947250219837</v>
+        <v>14.3705808211343</v>
       </c>
       <c r="G152" t="n">
-        <v>16.2331391573459</v>
+        <v>17.3127484347873</v>
       </c>
       <c r="H152" t="n">
-        <v>16.9099583095689</v>
+        <v>15.5012439557689</v>
       </c>
       <c r="I152" t="n">
-        <v>17.6965013774002</v>
+        <v>18.1822824534044</v>
       </c>
       <c r="J152" t="n">
-        <v>18.7770779060785</v>
+        <v>18.4844680493499</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>9.84802811715491</v>
+        <v>10.2391727024438</v>
       </c>
       <c r="B153" t="n">
-        <v>11.5725589612673</v>
+        <v>12.7049358734038</v>
       </c>
       <c r="C153" t="n">
-        <v>12.1321735529993</v>
+        <v>11.4585329423146</v>
       </c>
       <c r="D153" t="n">
-        <v>12.4340322922005</v>
+        <v>11.9477126797756</v>
       </c>
       <c r="E153" t="n">
-        <v>13.5374006847639</v>
+        <v>14.7441701866535</v>
       </c>
       <c r="F153" t="n">
-        <v>14.9960093869879</v>
+        <v>16.6597511387873</v>
       </c>
       <c r="G153" t="n">
-        <v>16.1026858542581</v>
+        <v>14.0439776026175</v>
       </c>
       <c r="H153" t="n">
-        <v>16.9073762995396</v>
+        <v>17.0350212619357</v>
       </c>
       <c r="I153" t="n">
-        <v>17.6507447390693</v>
+        <v>18.5663770651579</v>
       </c>
       <c r="J153" t="n">
-        <v>19.039925214088</v>
+        <v>19.2206836705312</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>9.88230950160659</v>
+        <v>9.14384955763551</v>
       </c>
       <c r="B154" t="n">
-        <v>10.8264043885614</v>
+        <v>11.6562492685481</v>
       </c>
       <c r="C154" t="n">
-        <v>11.6164459050578</v>
+        <v>10.9271435651695</v>
       </c>
       <c r="D154" t="n">
-        <v>13.2593868217926</v>
+        <v>14.2052096466473</v>
       </c>
       <c r="E154" t="n">
-        <v>14.1879920821285</v>
+        <v>15.0843276203737</v>
       </c>
       <c r="F154" t="n">
-        <v>14.8968029276124</v>
+        <v>15.3485970442038</v>
       </c>
       <c r="G154" t="n">
-        <v>16.1445484214801</v>
+        <v>16.858299627959</v>
       </c>
       <c r="H154" t="n">
-        <v>17.0270802626352</v>
+        <v>16.8674495987531</v>
       </c>
       <c r="I154" t="n">
-        <v>18.1277000506393</v>
+        <v>18.0071224984717</v>
       </c>
       <c r="J154" t="n">
-        <v>19.3649387187569</v>
+        <v>18.8047993248273</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>9.60868080633789</v>
+        <v>9.83034037692442</v>
       </c>
       <c r="B155" t="n">
-        <v>11.1284500173289</v>
+        <v>10.535236292036</v>
       </c>
       <c r="C155" t="n">
-        <v>12.1877309145603</v>
+        <v>10.6470173889911</v>
       </c>
       <c r="D155" t="n">
-        <v>12.8777724983415</v>
+        <v>12.4038394756752</v>
       </c>
       <c r="E155" t="n">
-        <v>14.4087343952907</v>
+        <v>14.3496058204132</v>
       </c>
       <c r="F155" t="n">
-        <v>14.7308146648578</v>
+        <v>14.4701198153124</v>
       </c>
       <c r="G155" t="n">
-        <v>15.9856217419179</v>
+        <v>15.2412163333315</v>
       </c>
       <c r="H155" t="n">
-        <v>16.9401060300494</v>
+        <v>17.6610749801738</v>
       </c>
       <c r="I155" t="n">
-        <v>18.1856847020275</v>
+        <v>18.0681716445066</v>
       </c>
       <c r="J155" t="n">
-        <v>19.1554133815801</v>
+        <v>18.9609125887775</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>-4.88301613862485</v>
+        <v>9.63716720215324</v>
       </c>
       <c r="B156" t="n">
-        <v>-5.26501981997667</v>
+        <v>11.4987908156371</v>
       </c>
       <c r="C156" t="n">
-        <v>-6.24241118961174</v>
+        <v>12.4625618314968</v>
       </c>
       <c r="D156" t="n">
-        <v>-6.72779819083415</v>
+        <v>13.7195990890906</v>
       </c>
       <c r="E156" t="n">
-        <v>-7.03006740295289</v>
+        <v>12.2374672191684</v>
       </c>
       <c r="F156" t="n">
-        <v>-7.18488452301504</v>
+        <v>15.5649909792059</v>
       </c>
       <c r="G156" t="n">
-        <v>-8.05782103566196</v>
+        <v>16.2304292259199</v>
       </c>
       <c r="H156" t="n">
-        <v>-8.22158445039263</v>
+        <v>16.960044939297</v>
       </c>
       <c r="I156" t="n">
-        <v>-8.94736861990544</v>
+        <v>18.5611213541061</v>
       </c>
       <c r="J156" t="n">
-        <v>-9.39049966220805</v>
+        <v>21.2659831467591</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>-4.78134980357728</v>
+        <v>-4.43816403809865</v>
       </c>
       <c r="B157" t="n">
-        <v>-5.41845140336879</v>
+        <v>-3.5346324800557</v>
       </c>
       <c r="C157" t="n">
-        <v>-6.39908877873091</v>
+        <v>-5.79344568537991</v>
       </c>
       <c r="D157" t="n">
-        <v>-6.00430787118573</v>
+        <v>-5.9972537696479</v>
       </c>
       <c r="E157" t="n">
-        <v>-6.77240711811607</v>
+        <v>-7.33256803457227</v>
       </c>
       <c r="F157" t="n">
-        <v>-7.42671632212919</v>
+        <v>-8.63305002148944</v>
       </c>
       <c r="G157" t="n">
-        <v>-7.58332601306678</v>
+        <v>-8.38776756896307</v>
       </c>
       <c r="H157" t="n">
-        <v>-8.54066484613635</v>
+        <v>-8.19920195249348</v>
       </c>
       <c r="I157" t="n">
-        <v>-8.9687861806806</v>
+        <v>-9.69495835823062</v>
       </c>
       <c r="J157" t="n">
-        <v>-9.14109990489078</v>
+        <v>-9.21891529883341</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>10.1171658305869</v>
+        <v>9.26099995946282</v>
       </c>
       <c r="B158" t="n">
-        <v>11.037144015141</v>
+        <v>9.67131084425039</v>
       </c>
       <c r="C158" t="n">
-        <v>12.0534054073787</v>
+        <v>12.3349292546197</v>
       </c>
       <c r="D158" t="n">
-        <v>12.4948588969349</v>
+        <v>13.3887637788537</v>
       </c>
       <c r="E158" t="n">
-        <v>13.7503492046524</v>
+        <v>13.7264283094358</v>
       </c>
       <c r="F158" t="n">
-        <v>14.5868083647186</v>
+        <v>15.6528847543955</v>
       </c>
       <c r="G158" t="n">
-        <v>16.0718698676638</v>
+        <v>15.6052620417123</v>
       </c>
       <c r="H158" t="n">
-        <v>17.2078780254497</v>
+        <v>16.8704604950659</v>
       </c>
       <c r="I158" t="n">
-        <v>18.2710829351789</v>
+        <v>18.0976538674637</v>
       </c>
       <c r="J158" t="n">
-        <v>19.3502605811348</v>
+        <v>18.5753052104519</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>-4.45472740105601</v>
+        <v>10.1722078134657</v>
       </c>
       <c r="B159" t="n">
-        <v>-5.42324001064968</v>
+        <v>10.7235038749103</v>
       </c>
       <c r="C159" t="n">
-        <v>-6.14919911021334</v>
+        <v>11.6368104926437</v>
       </c>
       <c r="D159" t="n">
-        <v>-6.70560518428724</v>
+        <v>14.2106860137611</v>
       </c>
       <c r="E159" t="n">
-        <v>-6.94507085084339</v>
+        <v>13.7847560316261</v>
       </c>
       <c r="F159" t="n">
-        <v>-7.35885654771872</v>
+        <v>15.4906135886307</v>
       </c>
       <c r="G159" t="n">
-        <v>-7.99614670837523</v>
+        <v>16.3563894234</v>
       </c>
       <c r="H159" t="n">
-        <v>-8.55213915939197</v>
+        <v>16.67472408313</v>
       </c>
       <c r="I159" t="n">
-        <v>-9.2670745557336</v>
+        <v>18.869942262284</v>
       </c>
       <c r="J159" t="n">
-        <v>-9.26497523161376</v>
+        <v>19.2342261366714</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>10.0084177374984</v>
+        <v>9.15426785107676</v>
       </c>
       <c r="B160" t="n">
-        <v>10.7799192073382</v>
+        <v>10.470803990609</v>
       </c>
       <c r="C160" t="n">
-        <v>11.9014393394784</v>
+        <v>12.3050255744436</v>
       </c>
       <c r="D160" t="n">
-        <v>12.7920963232885</v>
+        <v>12.7156746796721</v>
       </c>
       <c r="E160" t="n">
-        <v>14.0539223354983</v>
+        <v>13.7431280207829</v>
       </c>
       <c r="F160" t="n">
-        <v>14.7075869984724</v>
+        <v>14.0725749666628</v>
       </c>
       <c r="G160" t="n">
-        <v>15.9461368427134</v>
+        <v>16.616112069227</v>
       </c>
       <c r="H160" t="n">
-        <v>16.9090293874147</v>
+        <v>17.6437974470733</v>
       </c>
       <c r="I160" t="n">
-        <v>17.6600162946415</v>
+        <v>16.685333431153</v>
       </c>
       <c r="J160" t="n">
-        <v>18.792543670012</v>
+        <v>19.7022160147808</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>9.68927465232011</v>
+        <v>10.7754303167304</v>
       </c>
       <c r="B161" t="n">
-        <v>10.5243812985162</v>
+        <v>12.3975968439726</v>
       </c>
       <c r="C161" t="n">
-        <v>12.0530504126272</v>
+        <v>11.7119020194424</v>
       </c>
       <c r="D161" t="n">
-        <v>12.9027154726219</v>
+        <v>12.6720090445328</v>
       </c>
       <c r="E161" t="n">
-        <v>13.7540958427223</v>
+        <v>14.0317037186132</v>
       </c>
       <c r="F161" t="n">
-        <v>15.2848599432595</v>
+        <v>14.1360806864568</v>
       </c>
       <c r="G161" t="n">
-        <v>16.0730471531442</v>
+        <v>16.3541777334832</v>
       </c>
       <c r="H161" t="n">
-        <v>16.8713207753975</v>
+        <v>17.109454691522</v>
       </c>
       <c r="I161" t="n">
-        <v>18.2022684173404</v>
+        <v>18.9792953098082</v>
       </c>
       <c r="J161" t="n">
-        <v>18.6083848814774</v>
+        <v>17.795530010327</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>9.7879783910457</v>
+        <v>9.71151851433457</v>
       </c>
       <c r="B162" t="n">
-        <v>11.1603063592517</v>
+        <v>11.0570695082746</v>
       </c>
       <c r="C162" t="n">
-        <v>12.1358072131507</v>
+        <v>12.8941521905221</v>
       </c>
       <c r="D162" t="n">
-        <v>13.2678845268582</v>
+        <v>11.6127010865951</v>
       </c>
       <c r="E162" t="n">
-        <v>14.3443553799582</v>
+        <v>14.3995603107932</v>
       </c>
       <c r="F162" t="n">
-        <v>15.0282768675834</v>
+        <v>13.9097527639523</v>
       </c>
       <c r="G162" t="n">
-        <v>16.0370317536071</v>
+        <v>16.4617251267862</v>
       </c>
       <c r="H162" t="n">
-        <v>16.9806113861173</v>
+        <v>16.5492978766932</v>
       </c>
       <c r="I162" t="n">
-        <v>17.689505376363</v>
+        <v>17.9748124871187</v>
       </c>
       <c r="J162" t="n">
-        <v>19.0798868001165</v>
+        <v>19.1539096946929</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>10.0436313023956</v>
+        <v>10.1550482470252</v>
       </c>
       <c r="B163" t="n">
-        <v>10.8956322446459</v>
+        <v>11.5665573228965</v>
       </c>
       <c r="C163" t="n">
-        <v>12.0685086319745</v>
+        <v>13.1987322796047</v>
       </c>
       <c r="D163" t="n">
-        <v>13.1722849659409</v>
+        <v>12.2690902386949</v>
       </c>
       <c r="E163" t="n">
-        <v>13.8313710257882</v>
+        <v>13.3005640183306</v>
       </c>
       <c r="F163" t="n">
-        <v>15.0413429327721</v>
+        <v>14.2734004953877</v>
       </c>
       <c r="G163" t="n">
-        <v>15.7683013810348</v>
+        <v>16.8872126712061</v>
       </c>
       <c r="H163" t="n">
-        <v>16.6352486907076</v>
+        <v>17.5313285391566</v>
       </c>
       <c r="I163" t="n">
-        <v>18.3513916921876</v>
+        <v>17.9345299439408</v>
       </c>
       <c r="J163" t="n">
-        <v>18.5320114099423</v>
+        <v>19.1969956361518</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>9.95707119361485</v>
+        <v>9.45604594063016</v>
       </c>
       <c r="B164" t="n">
-        <v>11.0573433649086</v>
+        <v>11.7167492720456</v>
       </c>
       <c r="C164" t="n">
-        <v>12.6705669757735</v>
+        <v>12.1968068956394</v>
       </c>
       <c r="D164" t="n">
-        <v>13.137606761771</v>
+        <v>12.8090018605624</v>
       </c>
       <c r="E164" t="n">
-        <v>14.1826442085166</v>
+        <v>13.7699177951319</v>
       </c>
       <c r="F164" t="n">
-        <v>14.8336104786194</v>
+        <v>14.3049901800893</v>
       </c>
       <c r="G164" t="n">
-        <v>15.7782317646242</v>
+        <v>16.8645843723875</v>
       </c>
       <c r="H164" t="n">
-        <v>17.3918843890411</v>
+        <v>18.1588348031219</v>
       </c>
       <c r="I164" t="n">
-        <v>18.1609971168441</v>
+        <v>18.424572786929</v>
       </c>
       <c r="J164" t="n">
-        <v>19.0969045901892</v>
+        <v>19.9275386395369</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>-4.98682915855205</v>
+        <v>10.3250893427622</v>
       </c>
       <c r="B165" t="n">
-        <v>-5.54978334901727</v>
+        <v>12.059594484117</v>
       </c>
       <c r="C165" t="n">
-        <v>-5.90711264875723</v>
+        <v>11.3395894407989</v>
       </c>
       <c r="D165" t="n">
-        <v>-6.3210751812264</v>
+        <v>12.5286358656466</v>
       </c>
       <c r="E165" t="n">
-        <v>-6.94220214827159</v>
+        <v>14.0483448505727</v>
       </c>
       <c r="F165" t="n">
-        <v>-7.36844500327768</v>
+        <v>15.0049866080972</v>
       </c>
       <c r="G165" t="n">
-        <v>-7.9836815304675</v>
+        <v>15.9869294713427</v>
       </c>
       <c r="H165" t="n">
-        <v>-8.60665410406364</v>
+        <v>17.594359109787</v>
       </c>
       <c r="I165" t="n">
-        <v>-8.9909399556276</v>
+        <v>17.9466793265517</v>
       </c>
       <c r="J165" t="n">
-        <v>-9.6274632989719</v>
+        <v>20.1216042681447</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>9.53108024912859</v>
+        <v>-4.1370743986962</v>
       </c>
       <c r="B166" t="n">
-        <v>10.9172379022862</v>
+        <v>-5.93670453713241</v>
       </c>
       <c r="C166" t="n">
-        <v>12.310724176231</v>
+        <v>-5.55658741098842</v>
       </c>
       <c r="D166" t="n">
-        <v>13.3747423356042</v>
+        <v>-6.63532006719499</v>
       </c>
       <c r="E166" t="n">
-        <v>14.3121613631455</v>
+        <v>-7.12284591919651</v>
       </c>
       <c r="F166" t="n">
-        <v>15.1676916498419</v>
+        <v>-7.82024439174724</v>
       </c>
       <c r="G166" t="n">
-        <v>15.9424474527536</v>
+        <v>-8.50819778197403</v>
       </c>
       <c r="H166" t="n">
-        <v>16.9084063018032</v>
+        <v>-8.8673216741402</v>
       </c>
       <c r="I166" t="n">
-        <v>18.0762283111638</v>
+        <v>-9.33218773363872</v>
       </c>
       <c r="J166" t="n">
-        <v>19.393778668029</v>
+        <v>-9.55491151647003</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>10.1999309482662</v>
+        <v>9.58667918368864</v>
       </c>
       <c r="B167" t="n">
-        <v>10.589347914233</v>
+        <v>11.0988721587259</v>
       </c>
       <c r="C167" t="n">
-        <v>11.9704608036738</v>
+        <v>11.0322537679823</v>
       </c>
       <c r="D167" t="n">
-        <v>12.7988017217462</v>
+        <v>12.9621621462079</v>
       </c>
       <c r="E167" t="n">
-        <v>13.8664109897785</v>
+        <v>15.553201148918</v>
       </c>
       <c r="F167" t="n">
-        <v>14.8958630363367</v>
+        <v>14.7111863301761</v>
       </c>
       <c r="G167" t="n">
-        <v>15.6365218833124</v>
+        <v>16.4566346342516</v>
       </c>
       <c r="H167" t="n">
-        <v>16.424471296922</v>
+        <v>17.3054317829365</v>
       </c>
       <c r="I167" t="n">
-        <v>17.7205762161668</v>
+        <v>17.3148566376299</v>
       </c>
       <c r="J167" t="n">
-        <v>19.1606829975539</v>
+        <v>19.8560254592947</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>9.44117366410543</v>
+        <v>9.73800123273316</v>
       </c>
       <c r="B168" t="n">
-        <v>11.0445782609331</v>
+        <v>10.0729858185945</v>
       </c>
       <c r="C168" t="n">
-        <v>12.0152819489069</v>
+        <v>12.0184155489247</v>
       </c>
       <c r="D168" t="n">
-        <v>13.0593709579613</v>
+        <v>13.2171781885864</v>
       </c>
       <c r="E168" t="n">
-        <v>14.0759478277302</v>
+        <v>14.0508908979922</v>
       </c>
       <c r="F168" t="n">
-        <v>15.1111982443635</v>
+        <v>15.0292235859415</v>
       </c>
       <c r="G168" t="n">
-        <v>16.175179023424</v>
+        <v>18.2183001085256</v>
       </c>
       <c r="H168" t="n">
-        <v>16.9558128343224</v>
+        <v>16.8072585658179</v>
       </c>
       <c r="I168" t="n">
-        <v>17.8777875520798</v>
+        <v>17.8507897955768</v>
       </c>
       <c r="J168" t="n">
-        <v>18.8581054177595</v>
+        <v>19.7493837483631</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>9.79917791358193</v>
+        <v>-4.51788143294134</v>
       </c>
       <c r="B169" t="n">
-        <v>10.6851647734079</v>
+        <v>-5.04828323941792</v>
       </c>
       <c r="C169" t="n">
-        <v>11.9833761601087</v>
+        <v>-5.77582578024986</v>
       </c>
       <c r="D169" t="n">
-        <v>13.0398016891674</v>
+        <v>-6.40134072628648</v>
       </c>
       <c r="E169" t="n">
-        <v>14.1607445449516</v>
+        <v>-7.45295672665191</v>
       </c>
       <c r="F169" t="n">
-        <v>15.169352410315</v>
+        <v>-7.16379612262318</v>
       </c>
       <c r="G169" t="n">
-        <v>16.1260925765525</v>
+        <v>-7.09973567901099</v>
       </c>
       <c r="H169" t="n">
-        <v>17.3312863968423</v>
+        <v>-9.53385452006471</v>
       </c>
       <c r="I169" t="n">
-        <v>18.3595091466081</v>
+        <v>-7.02890200785748</v>
       </c>
       <c r="J169" t="n">
-        <v>18.9041574279912</v>
+        <v>-9.79169558065475</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>-5.18512112602769</v>
+        <v>9.53711898689096</v>
       </c>
       <c r="B170" t="n">
-        <v>-5.78010907742994</v>
+        <v>12.4226058873318</v>
       </c>
       <c r="C170" t="n">
-        <v>-6.04639133817894</v>
+        <v>11.1131696977503</v>
       </c>
       <c r="D170" t="n">
-        <v>-6.72354433068985</v>
+        <v>13.2332217244255</v>
       </c>
       <c r="E170" t="n">
-        <v>-7.32182201489101</v>
+        <v>13.4185686275028</v>
       </c>
       <c r="F170" t="n">
-        <v>-7.02810917240282</v>
+        <v>15.5228985721978</v>
       </c>
       <c r="G170" t="n">
-        <v>-8.47872339832895</v>
+        <v>16.0741730212417</v>
       </c>
       <c r="H170" t="n">
-        <v>-8.28462619221644</v>
+        <v>17.1437153074093</v>
       </c>
       <c r="I170" t="n">
-        <v>-9.05844341441306</v>
+        <v>17.7756596720954</v>
       </c>
       <c r="J170" t="n">
-        <v>-9.52483202213774</v>
+        <v>18.5109771205759</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>10.110611989899</v>
+        <v>10.2385240647017</v>
       </c>
       <c r="B171" t="n">
-        <v>10.5691328260444</v>
+        <v>10.1802585353823</v>
       </c>
       <c r="C171" t="n">
-        <v>12.3510642303819</v>
+        <v>11.3684906846396</v>
       </c>
       <c r="D171" t="n">
-        <v>13.2219568426206</v>
+        <v>13.1384334971833</v>
       </c>
       <c r="E171" t="n">
-        <v>13.8880201298744</v>
+        <v>14.0061476691734</v>
       </c>
       <c r="F171" t="n">
-        <v>14.8905424356962</v>
+        <v>14.4448945335844</v>
       </c>
       <c r="G171" t="n">
-        <v>16.1151287111549</v>
+        <v>15.6391643327094</v>
       </c>
       <c r="H171" t="n">
-        <v>16.9998148324217</v>
+        <v>17.3116044330893</v>
       </c>
       <c r="I171" t="n">
-        <v>17.9004019317627</v>
+        <v>18.0193788571333</v>
       </c>
       <c r="J171" t="n">
-        <v>19.0008342541463</v>
+        <v>18.0236857227591</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>9.77263403318218</v>
+        <v>-5.91630675423645</v>
       </c>
       <c r="B172" t="n">
-        <v>10.9646207745127</v>
+        <v>-5.87593355969045</v>
       </c>
       <c r="C172" t="n">
-        <v>12.0925931562558</v>
+        <v>-4.54607089712477</v>
       </c>
       <c r="D172" t="n">
-        <v>13.1248661196778</v>
+        <v>-6.63842127255266</v>
       </c>
       <c r="E172" t="n">
-        <v>13.4277690030732</v>
+        <v>-7.58507146659201</v>
       </c>
       <c r="F172" t="n">
-        <v>15.0372956722753</v>
+        <v>-7.41588492913718</v>
       </c>
       <c r="G172" t="n">
-        <v>16.2085478483832</v>
+        <v>-8.56329490891632</v>
       </c>
       <c r="H172" t="n">
-        <v>17.1230885509548</v>
+        <v>-8.62349055176351</v>
       </c>
       <c r="I172" t="n">
-        <v>17.8218710234663</v>
+        <v>-9.2007900239105</v>
       </c>
       <c r="J172" t="n">
-        <v>19.198725343734</v>
+        <v>-8.78800884432204</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>-4.83397729927643</v>
+        <v>8.86834676576789</v>
       </c>
       <c r="B173" t="n">
-        <v>-5.6963580915982</v>
+        <v>10.6231384481545</v>
       </c>
       <c r="C173" t="n">
-        <v>-5.96602290841097</v>
+        <v>11.6881398451895</v>
       </c>
       <c r="D173" t="n">
-        <v>-6.12356830515872</v>
+        <v>11.3987069989844</v>
       </c>
       <c r="E173" t="n">
-        <v>-7.06611668094574</v>
+        <v>13.6362635079356</v>
       </c>
       <c r="F173" t="n">
-        <v>-7.2626556427516</v>
+        <v>15.6256736951908</v>
       </c>
       <c r="G173" t="n">
-        <v>-7.804844497056</v>
+        <v>16.1469313660882</v>
       </c>
       <c r="H173" t="n">
-        <v>-8.44389598506894</v>
+        <v>16.7269146214623</v>
       </c>
       <c r="I173" t="n">
-        <v>-8.58356790653643</v>
+        <v>17.0891227897401</v>
       </c>
       <c r="J173" t="n">
-        <v>-9.25794252763786</v>
+        <v>17.6162155564186</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>-4.80529944574995</v>
+        <v>-4.1872045951477</v>
       </c>
       <c r="B174" t="n">
-        <v>-5.50251378668611</v>
+        <v>-4.60187779578958</v>
       </c>
       <c r="C174" t="n">
-        <v>-5.82846957320709</v>
+        <v>-5.61921244231209</v>
       </c>
       <c r="D174" t="n">
-        <v>-6.3961686311491</v>
+        <v>-6.13076641441479</v>
       </c>
       <c r="E174" t="n">
-        <v>-7.56378648621998</v>
+        <v>-7.6196851969367</v>
       </c>
       <c r="F174" t="n">
-        <v>-7.50661472184113</v>
+        <v>-8.82360124400522</v>
       </c>
       <c r="G174" t="n">
-        <v>-8.21640890649509</v>
+        <v>-7.11656478184298</v>
       </c>
       <c r="H174" t="n">
-        <v>-8.24860502845672</v>
+        <v>-8.09724630061874</v>
       </c>
       <c r="I174" t="n">
-        <v>-8.83741070832643</v>
+        <v>-8.3134646678394</v>
       </c>
       <c r="J174" t="n">
-        <v>-9.46810018362603</v>
+        <v>-9.80143770630667</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>10.1355001249817</v>
+        <v>10.7735175717641</v>
       </c>
       <c r="B175" t="n">
-        <v>11.2142638197237</v>
+        <v>10.2235966231179</v>
       </c>
       <c r="C175" t="n">
-        <v>11.9519245536779</v>
+        <v>11.0940196152546</v>
       </c>
       <c r="D175" t="n">
-        <v>12.7278564270478</v>
+        <v>13.86288019018</v>
       </c>
       <c r="E175" t="n">
-        <v>13.5702013648206</v>
+        <v>14.3585707354817</v>
       </c>
       <c r="F175" t="n">
-        <v>14.9061407490475</v>
+        <v>14.8933392130119</v>
       </c>
       <c r="G175" t="n">
-        <v>15.6095862700793</v>
+        <v>15.7107666670133</v>
       </c>
       <c r="H175" t="n">
-        <v>16.8560985107242</v>
+        <v>16.5930887545111</v>
       </c>
       <c r="I175" t="n">
-        <v>18.149035158174</v>
+        <v>18.2615321396283</v>
       </c>
       <c r="J175" t="n">
-        <v>18.6995107560282</v>
+        <v>19.473369271902</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>10.0129591564053</v>
+        <v>9.08632648711628</v>
       </c>
       <c r="B176" t="n">
-        <v>10.9422935401635</v>
+        <v>10.3828983196009</v>
       </c>
       <c r="C176" t="n">
-        <v>11.8867556307102</v>
+        <v>11.2835067292276</v>
       </c>
       <c r="D176" t="n">
-        <v>12.8744568402929</v>
+        <v>12.9776424033152</v>
       </c>
       <c r="E176" t="n">
-        <v>13.9357316710029</v>
+        <v>13.4203922036325</v>
       </c>
       <c r="F176" t="n">
-        <v>15.3364274711748</v>
+        <v>15.6187625892208</v>
       </c>
       <c r="G176" t="n">
-        <v>16.1931013821417</v>
+        <v>16.320925435101</v>
       </c>
       <c r="H176" t="n">
-        <v>17.008729958253</v>
+        <v>17.5409981749643</v>
       </c>
       <c r="I176" t="n">
-        <v>18.129734546468</v>
+        <v>17.3515557684515</v>
       </c>
       <c r="J176" t="n">
-        <v>19.25966505649</v>
+        <v>19.5502864363462</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>9.89269945604524</v>
+        <v>10.303252884315</v>
       </c>
       <c r="B177" t="n">
-        <v>11.0836252987209</v>
+        <v>10.6614247269237</v>
       </c>
       <c r="C177" t="n">
-        <v>11.7256142949319</v>
+        <v>11.7938451962021</v>
       </c>
       <c r="D177" t="n">
-        <v>12.6765673751356</v>
+        <v>11.8214230533627</v>
       </c>
       <c r="E177" t="n">
-        <v>13.8615352578402</v>
+        <v>12.9022159708985</v>
       </c>
       <c r="F177" t="n">
-        <v>14.9625346122702</v>
+        <v>14.4729165865073</v>
       </c>
       <c r="G177" t="n">
-        <v>16.073315088865</v>
+        <v>15.6190497115475</v>
       </c>
       <c r="H177" t="n">
-        <v>17.0903337090084</v>
+        <v>16.8961715121419</v>
       </c>
       <c r="I177" t="n">
-        <v>18.2329918464423</v>
+        <v>18.6402804474894</v>
       </c>
       <c r="J177" t="n">
-        <v>19.0184469303028</v>
+        <v>20.0793422345254</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>9.99169807947874</v>
+        <v>-4.4368679723961</v>
       </c>
       <c r="B178" t="n">
-        <v>10.7140518408071</v>
+        <v>-5.64409553355651</v>
       </c>
       <c r="C178" t="n">
-        <v>12.2316260278276</v>
+        <v>-5.31614082377236</v>
       </c>
       <c r="D178" t="n">
-        <v>13.0080635804062</v>
+        <v>-6.36532023754767</v>
       </c>
       <c r="E178" t="n">
-        <v>13.9661947002653</v>
+        <v>-6.07712970740094</v>
       </c>
       <c r="F178" t="n">
-        <v>14.7943448920381</v>
+        <v>-8.05046950621628</v>
       </c>
       <c r="G178" t="n">
-        <v>15.8512649460724</v>
+        <v>-7.87944571467226</v>
       </c>
       <c r="H178" t="n">
-        <v>17.3242455673774</v>
+        <v>-8.56240203724686</v>
       </c>
       <c r="I178" t="n">
-        <v>18.2861449761247</v>
+        <v>-8.80405515968839</v>
       </c>
       <c r="J178" t="n">
-        <v>18.9919636393452</v>
+        <v>-8.98466575254568</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>10.0712914653028</v>
+        <v>-4.99356742481304</v>
       </c>
       <c r="B179" t="n">
-        <v>11.1847739389344</v>
+        <v>-4.51139315995852</v>
       </c>
       <c r="C179" t="n">
-        <v>11.9091448831426</v>
+        <v>-6.93281054875043</v>
       </c>
       <c r="D179" t="n">
-        <v>13.337360296433</v>
+        <v>-6.506415303328</v>
       </c>
       <c r="E179" t="n">
-        <v>14.3217229741379</v>
+        <v>-7.24439352832051</v>
       </c>
       <c r="F179" t="n">
-        <v>15.3693532600425</v>
+        <v>-7.65997065227683</v>
       </c>
       <c r="G179" t="n">
-        <v>15.9105853716441</v>
+        <v>-6.8659708689622</v>
       </c>
       <c r="H179" t="n">
-        <v>16.9833320960976</v>
+        <v>-8.90238418340446</v>
       </c>
       <c r="I179" t="n">
-        <v>18.0756287650747</v>
+        <v>-10.5495800762684</v>
       </c>
       <c r="J179" t="n">
-        <v>18.8099813514744</v>
+        <v>-9.72695172951228</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>-4.98839101419835</v>
+        <v>-5.04699726657296</v>
       </c>
       <c r="B180" t="n">
-        <v>-4.881521459393</v>
+        <v>-6.18464766089015</v>
       </c>
       <c r="C180" t="n">
-        <v>-6.15286449116844</v>
+        <v>-5.74126395361136</v>
       </c>
       <c r="D180" t="n">
-        <v>-6.18200434024834</v>
+        <v>-5.7811484114467</v>
       </c>
       <c r="E180" t="n">
-        <v>-7.39052619524899</v>
+        <v>-8.82081239005801</v>
       </c>
       <c r="F180" t="n">
-        <v>-7.58875870501145</v>
+        <v>-7.36233208062093</v>
       </c>
       <c r="G180" t="n">
-        <v>-7.52819766945189</v>
+        <v>-7.68846236539576</v>
       </c>
       <c r="H180" t="n">
-        <v>-8.55886267785453</v>
+        <v>-7.32043764133691</v>
       </c>
       <c r="I180" t="n">
-        <v>-9.34087782245677</v>
+        <v>-7.93521723278054</v>
       </c>
       <c r="J180" t="n">
-        <v>-9.66747983290016</v>
+        <v>-9.5157504045104</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>-5.22082479387815</v>
+        <v>10.113574397511</v>
       </c>
       <c r="B181" t="n">
-        <v>-5.27073633952157</v>
+        <v>10.7189360073496</v>
       </c>
       <c r="C181" t="n">
-        <v>-5.67298757228701</v>
+        <v>11.3629200587168</v>
       </c>
       <c r="D181" t="n">
-        <v>-6.42627802016866</v>
+        <v>13.7241012619034</v>
       </c>
       <c r="E181" t="n">
-        <v>-6.93015649477148</v>
+        <v>14.1660427526885</v>
       </c>
       <c r="F181" t="n">
-        <v>-7.20119707810092</v>
+        <v>15.1376404071521</v>
       </c>
       <c r="G181" t="n">
-        <v>-8.0466147804904</v>
+        <v>16.3586969544675</v>
       </c>
       <c r="H181" t="n">
-        <v>-8.30723831473511</v>
+        <v>16.7468067536093</v>
       </c>
       <c r="I181" t="n">
-        <v>-9.27401621522254</v>
+        <v>18.0234499168794</v>
       </c>
       <c r="J181" t="n">
-        <v>-8.86654699517132</v>
+        <v>19.2641542689433</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>10.0506152987986</v>
+        <v>11.3403416736565</v>
       </c>
       <c r="B182" t="n">
-        <v>11.1776830620656</v>
+        <v>10.1204544007452</v>
       </c>
       <c r="C182" t="n">
-        <v>11.9746464238814</v>
+        <v>10.7454955446513</v>
       </c>
       <c r="D182" t="n">
-        <v>12.6689452159888</v>
+        <v>14.0085095895597</v>
       </c>
       <c r="E182" t="n">
-        <v>13.9791733862961</v>
+        <v>13.7145576208009</v>
       </c>
       <c r="F182" t="n">
-        <v>14.6725060897707</v>
+        <v>15.5360509880424</v>
       </c>
       <c r="G182" t="n">
-        <v>16.1001338189528</v>
+        <v>16.0156499000164</v>
       </c>
       <c r="H182" t="n">
-        <v>16.5786026209531</v>
+        <v>16.642536163101</v>
       </c>
       <c r="I182" t="n">
-        <v>17.9891136861555</v>
+        <v>17.9196734687995</v>
       </c>
       <c r="J182" t="n">
-        <v>18.5261923362363</v>
+        <v>19.9992776878031</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>9.92944100183251</v>
+        <v>10.4179130845355</v>
       </c>
       <c r="B183" t="n">
-        <v>10.7853949858345</v>
+        <v>10.8034099856281</v>
       </c>
       <c r="C183" t="n">
-        <v>11.8912512441194</v>
+        <v>12.109674123531</v>
       </c>
       <c r="D183" t="n">
-        <v>12.948571534956</v>
+        <v>12.8097657576321</v>
       </c>
       <c r="E183" t="n">
-        <v>13.4905475204631</v>
+        <v>13.6112471213195</v>
       </c>
       <c r="F183" t="n">
-        <v>14.8772158137127</v>
+        <v>15.7137408672816</v>
       </c>
       <c r="G183" t="n">
-        <v>16.1458302681915</v>
+        <v>16.9022729391116</v>
       </c>
       <c r="H183" t="n">
-        <v>16.6774929616725</v>
+        <v>17.6322551689854</v>
       </c>
       <c r="I183" t="n">
-        <v>17.6906656196467</v>
+        <v>18.5264035444281</v>
       </c>
       <c r="J183" t="n">
-        <v>19.1387218814144</v>
+        <v>19.5090747651859</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>10.2902747366959</v>
+        <v>9.16191219595137</v>
       </c>
       <c r="B184" t="n">
-        <v>10.6084345530594</v>
+        <v>9.40621307063835</v>
       </c>
       <c r="C184" t="n">
-        <v>11.9227677454313</v>
+        <v>11.4170772053522</v>
       </c>
       <c r="D184" t="n">
-        <v>13.1970629723058</v>
+        <v>12.3649700582886</v>
       </c>
       <c r="E184" t="n">
-        <v>14.4398117526401</v>
+        <v>14.2744840537208</v>
       </c>
       <c r="F184" t="n">
-        <v>14.8118145460437</v>
+        <v>14.4808296132443</v>
       </c>
       <c r="G184" t="n">
-        <v>15.6404248033388</v>
+        <v>16.0587621272985</v>
       </c>
       <c r="H184" t="n">
-        <v>17.0710846176233</v>
+        <v>17.8831479789242</v>
       </c>
       <c r="I184" t="n">
-        <v>18.0474305059775</v>
+        <v>17.1774827902946</v>
       </c>
       <c r="J184" t="n">
-        <v>19.1299538954354</v>
+        <v>19.542039023321</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>-4.97098849216841</v>
+        <v>-5.44099179868124</v>
       </c>
       <c r="B185" t="n">
-        <v>-5.41182783365089</v>
+        <v>-5.74584183077039</v>
       </c>
       <c r="C185" t="n">
-        <v>-6.30282444581319</v>
+        <v>-7.00138880698129</v>
       </c>
       <c r="D185" t="n">
-        <v>-6.33696736832565</v>
+        <v>-5.89073620657579</v>
       </c>
       <c r="E185" t="n">
-        <v>-6.64464244218626</v>
+        <v>-6.49556933001853</v>
       </c>
       <c r="F185" t="n">
-        <v>-7.69794137296618</v>
+        <v>-8.64715004951833</v>
       </c>
       <c r="G185" t="n">
-        <v>-8.22936927066667</v>
+        <v>-8.33267625342918</v>
       </c>
       <c r="H185" t="n">
-        <v>-8.80017088068564</v>
+        <v>-7.93582957826109</v>
       </c>
       <c r="I185" t="n">
-        <v>-8.9453393946312</v>
+        <v>-7.94182067235377</v>
       </c>
       <c r="J185" t="n">
-        <v>-10.192231176456</v>
+        <v>-10.8826157155833</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>-4.92193038565611</v>
+        <v>-4.08527004190118</v>
       </c>
       <c r="B186" t="n">
-        <v>-5.71148412331077</v>
+        <v>-5.99352025186855</v>
       </c>
       <c r="C186" t="n">
-        <v>-6.07856668222868</v>
+        <v>-5.73160917163056</v>
       </c>
       <c r="D186" t="n">
-        <v>-6.90888445398525</v>
+        <v>-7.02709482882725</v>
       </c>
       <c r="E186" t="n">
-        <v>-7.34490454835255</v>
+        <v>-6.38052825148381</v>
       </c>
       <c r="F186" t="n">
-        <v>-7.82817242177328</v>
+        <v>-7.58714011593776</v>
       </c>
       <c r="G186" t="n">
-        <v>-7.63322881413537</v>
+        <v>-7.55893830551005</v>
       </c>
       <c r="H186" t="n">
-        <v>-8.79184004269652</v>
+        <v>-9.17815364895746</v>
       </c>
       <c r="I186" t="n">
-        <v>-9.05711195162463</v>
+        <v>-8.91876324288103</v>
       </c>
       <c r="J186" t="n">
-        <v>-9.20475324769213</v>
+        <v>-8.85696290230956</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>10.1103581099319</v>
+        <v>-4.58888538742139</v>
       </c>
       <c r="B187" t="n">
-        <v>10.8652001918199</v>
+        <v>-6.82660546836393</v>
       </c>
       <c r="C187" t="n">
-        <v>11.849570129042</v>
+        <v>-7.06716917477601</v>
       </c>
       <c r="D187" t="n">
-        <v>12.985607627831</v>
+        <v>-5.70863591133557</v>
       </c>
       <c r="E187" t="n">
-        <v>13.9360390648942</v>
+        <v>-6.89415607029532</v>
       </c>
       <c r="F187" t="n">
-        <v>15.0364799326733</v>
+        <v>-8.54730268947502</v>
       </c>
       <c r="G187" t="n">
-        <v>15.9505471531653</v>
+        <v>-8.46349067517062</v>
       </c>
       <c r="H187" t="n">
-        <v>17.0651202639884</v>
+        <v>-8.07338039109233</v>
       </c>
       <c r="I187" t="n">
-        <v>18.0707362635753</v>
+        <v>-9.32308974487106</v>
       </c>
       <c r="J187" t="n">
-        <v>18.9175989764729</v>
+        <v>-8.64951763927082</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>10.0174566434564</v>
+        <v>-5.23672072787542</v>
       </c>
       <c r="B188" t="n">
-        <v>10.8367321886811</v>
+        <v>-5.20530550104199</v>
       </c>
       <c r="C188" t="n">
-        <v>11.7008231896341</v>
+        <v>-5.74292548981676</v>
       </c>
       <c r="D188" t="n">
-        <v>12.9938023957182</v>
+        <v>-7.45239976707126</v>
       </c>
       <c r="E188" t="n">
-        <v>13.7820682037005</v>
+        <v>-5.80793250906496</v>
       </c>
       <c r="F188" t="n">
-        <v>15.1519868542507</v>
+        <v>-8.92124918773896</v>
       </c>
       <c r="G188" t="n">
-        <v>16.0701259008719</v>
+        <v>-6.97720839514182</v>
       </c>
       <c r="H188" t="n">
-        <v>16.5681553918077</v>
+        <v>-9.41507057167706</v>
       </c>
       <c r="I188" t="n">
-        <v>18.0396577704755</v>
+        <v>-8.95944211029235</v>
       </c>
       <c r="J188" t="n">
-        <v>18.5495803047486</v>
+        <v>-9.24233879044482</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>-5.26544444591852</v>
+        <v>10.125908195429</v>
       </c>
       <c r="B189" t="n">
-        <v>-5.66532286968643</v>
+        <v>11.4747183077372</v>
       </c>
       <c r="C189" t="n">
-        <v>-5.77974535213192</v>
+        <v>10.9208896627009</v>
       </c>
       <c r="D189" t="n">
-        <v>-6.45916878516376</v>
+        <v>12.7191962493176</v>
       </c>
       <c r="E189" t="n">
-        <v>-7.1389758698632</v>
+        <v>14.3113462760305</v>
       </c>
       <c r="F189" t="n">
-        <v>-7.29477195663028</v>
+        <v>14.7609237628637</v>
       </c>
       <c r="G189" t="n">
-        <v>-7.90893862357336</v>
+        <v>16.1948342448922</v>
       </c>
       <c r="H189" t="n">
-        <v>-8.34197067148589</v>
+        <v>17.2112708745848</v>
       </c>
       <c r="I189" t="n">
-        <v>-8.96956079716813</v>
+        <v>19.388270621226</v>
       </c>
       <c r="J189" t="n">
-        <v>-9.75165296507519</v>
+        <v>19.1371369000928</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>9.58981033900044</v>
+        <v>10.7466266666611</v>
       </c>
       <c r="B190" t="n">
-        <v>11.1141197192702</v>
+        <v>10.4432602200027</v>
       </c>
       <c r="C190" t="n">
-        <v>12.2869390571546</v>
+        <v>12.5011616489382</v>
       </c>
       <c r="D190" t="n">
-        <v>13.4476080246274</v>
+        <v>12.3672225696078</v>
       </c>
       <c r="E190" t="n">
-        <v>13.842066734522</v>
+        <v>13.8979754089004</v>
       </c>
       <c r="F190" t="n">
-        <v>14.9878281907835</v>
+        <v>12.827075475051</v>
       </c>
       <c r="G190" t="n">
-        <v>15.8223612401187</v>
+        <v>16.8936835233015</v>
       </c>
       <c r="H190" t="n">
-        <v>16.9715469660886</v>
+        <v>17.0054347913281</v>
       </c>
       <c r="I190" t="n">
-        <v>18.3469293953756</v>
+        <v>18.2495756152028</v>
       </c>
       <c r="J190" t="n">
-        <v>19.2192950064164</v>
+        <v>19.2912500060273</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>9.87247648543256</v>
+        <v>-4.82204249388138</v>
       </c>
       <c r="B191" t="n">
-        <v>10.8894159516307</v>
+        <v>-5.02534650797038</v>
       </c>
       <c r="C191" t="n">
-        <v>12.1895144473371</v>
+        <v>-4.74504651878829</v>
       </c>
       <c r="D191" t="n">
-        <v>12.8483437212842</v>
+        <v>-8.17172802817705</v>
       </c>
       <c r="E191" t="n">
-        <v>13.9919237961785</v>
+        <v>-6.79887520606069</v>
       </c>
       <c r="F191" t="n">
-        <v>15.0019912812148</v>
+        <v>-8.32915260225948</v>
       </c>
       <c r="G191" t="n">
-        <v>16.2308504422218</v>
+        <v>-5.84792755460788</v>
       </c>
       <c r="H191" t="n">
-        <v>17.0244069391192</v>
+        <v>-7.74348024913524</v>
       </c>
       <c r="I191" t="n">
-        <v>17.9074892040443</v>
+        <v>-8.88922785962702</v>
       </c>
       <c r="J191" t="n">
-        <v>19.5618655748517</v>
+        <v>-9.13489805318456</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>10.2190525732365</v>
+        <v>10.8084997116751</v>
       </c>
       <c r="B192" t="n">
-        <v>11.0606512463491</v>
+        <v>10.7689299357032</v>
       </c>
       <c r="C192" t="n">
-        <v>11.8194247217204</v>
+        <v>12.5095939717936</v>
       </c>
       <c r="D192" t="n">
-        <v>13.1677566032522</v>
+        <v>11.9918105452433</v>
       </c>
       <c r="E192" t="n">
-        <v>14.2268867302468</v>
+        <v>12.2428378592405</v>
       </c>
       <c r="F192" t="n">
-        <v>14.5934658844288</v>
+        <v>15.2296584888875</v>
       </c>
       <c r="G192" t="n">
-        <v>16.4041599920058</v>
+        <v>15.88105828841</v>
       </c>
       <c r="H192" t="n">
-        <v>16.949222346581</v>
+        <v>16.5117989865402</v>
       </c>
       <c r="I192" t="n">
-        <v>18.3946439604573</v>
+        <v>18.0930187622766</v>
       </c>
       <c r="J192" t="n">
-        <v>19.0419056773692</v>
+        <v>20.2134295404374</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>-4.99322608939832</v>
+        <v>11.1580542316329</v>
       </c>
       <c r="B193" t="n">
-        <v>-5.12320964427647</v>
+        <v>11.3843595458277</v>
       </c>
       <c r="C193" t="n">
-        <v>-5.96433863806036</v>
+        <v>12.3703198422156</v>
       </c>
       <c r="D193" t="n">
-        <v>-6.35836774705687</v>
+        <v>13.6691380614564</v>
       </c>
       <c r="E193" t="n">
-        <v>-7.12314915260656</v>
+        <v>13.3905694624513</v>
       </c>
       <c r="F193" t="n">
-        <v>-7.47178299391459</v>
+        <v>14.7248129705455</v>
       </c>
       <c r="G193" t="n">
-        <v>-8.52792052785954</v>
+        <v>16.3368016377367</v>
       </c>
       <c r="H193" t="n">
-        <v>-8.32967936365887</v>
+        <v>17.1627516608828</v>
       </c>
       <c r="I193" t="n">
-        <v>-8.72181835427633</v>
+        <v>17.4051535146982</v>
       </c>
       <c r="J193" t="n">
-        <v>-9.67816470938259</v>
+        <v>19.3536662548737</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>-4.76247049469843</v>
+        <v>9.03927710258338</v>
       </c>
       <c r="B194" t="n">
-        <v>-5.69737837718396</v>
+        <v>11.7163193310771</v>
       </c>
       <c r="C194" t="n">
-        <v>-6.46603473898733</v>
+        <v>12.6172280845466</v>
       </c>
       <c r="D194" t="n">
-        <v>-6.33973694293355</v>
+        <v>12.0005583028348</v>
       </c>
       <c r="E194" t="n">
-        <v>-7.05681066150291</v>
+        <v>14.5239289977529</v>
       </c>
       <c r="F194" t="n">
-        <v>-7.14832433064828</v>
+        <v>15.2354896672014</v>
       </c>
       <c r="G194" t="n">
-        <v>-7.55912611446256</v>
+        <v>15.4274901419439</v>
       </c>
       <c r="H194" t="n">
-        <v>-8.22235280979012</v>
+        <v>17.7893084450349</v>
       </c>
       <c r="I194" t="n">
-        <v>-8.82804886439687</v>
+        <v>18.9333231038681</v>
       </c>
       <c r="J194" t="n">
-        <v>-9.0345681992975</v>
+        <v>18.7590496874473</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>9.9737069037263</v>
+        <v>10.3602788729822</v>
       </c>
       <c r="B195" t="n">
-        <v>10.9697557813546</v>
+        <v>10.3572700611893</v>
       </c>
       <c r="C195" t="n">
-        <v>12.454815189891</v>
+        <v>11.3861775299776</v>
       </c>
       <c r="D195" t="n">
-        <v>12.7094055397567</v>
+        <v>12.4470034484772</v>
       </c>
       <c r="E195" t="n">
-        <v>13.7837053766607</v>
+        <v>15.1112071073312</v>
       </c>
       <c r="F195" t="n">
-        <v>14.9456440985023</v>
+        <v>14.8126253697027</v>
       </c>
       <c r="G195" t="n">
-        <v>16.4162371718483</v>
+        <v>14.998854924345</v>
       </c>
       <c r="H195" t="n">
-        <v>17.6658884148219</v>
+        <v>16.6413203190743</v>
       </c>
       <c r="I195" t="n">
-        <v>18.0534949925945</v>
+        <v>17.4333391123566</v>
       </c>
       <c r="J195" t="n">
-        <v>19.4861244717811</v>
+        <v>19.4328166946132</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>-4.87578361496851</v>
+        <v>10.2081746308742</v>
       </c>
       <c r="B196" t="n">
-        <v>-5.17761573352449</v>
+        <v>10.2957416688605</v>
       </c>
       <c r="C196" t="n">
-        <v>-6.34139621126387</v>
+        <v>12.6714988885115</v>
       </c>
       <c r="D196" t="n">
-        <v>-6.72347213393445</v>
+        <v>12.5922993448233</v>
       </c>
       <c r="E196" t="n">
-        <v>-6.84725642668124</v>
+        <v>12.8774494158505</v>
       </c>
       <c r="F196" t="n">
-        <v>-7.23844599306792</v>
+        <v>14.6043119615549</v>
       </c>
       <c r="G196" t="n">
-        <v>-8.19298839707109</v>
+        <v>15.7313136658024</v>
       </c>
       <c r="H196" t="n">
-        <v>-8.57372597828424</v>
+        <v>16.9942543551484</v>
       </c>
       <c r="I196" t="n">
-        <v>-8.65018639385027</v>
+        <v>17.9024801144503</v>
       </c>
       <c r="J196" t="n">
-        <v>-9.78890166430604</v>
+        <v>18.3651838425731</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>10.1199506045543</v>
+        <v>10.0287454198515</v>
       </c>
       <c r="B197" t="n">
-        <v>11.0871103770649</v>
+        <v>10.4860012194428</v>
       </c>
       <c r="C197" t="n">
-        <v>12.0764733445685</v>
+        <v>11.1355664991029</v>
       </c>
       <c r="D197" t="n">
-        <v>12.8983291369461</v>
+        <v>13.0570936147776</v>
       </c>
       <c r="E197" t="n">
-        <v>13.7341328182538</v>
+        <v>13.8369782824628</v>
       </c>
       <c r="F197" t="n">
-        <v>15.293870376978</v>
+        <v>14.367604704125</v>
       </c>
       <c r="G197" t="n">
-        <v>16.2106321011696</v>
+        <v>15.2658649588041</v>
       </c>
       <c r="H197" t="n">
-        <v>16.9826210197965</v>
+        <v>18.8734953521071</v>
       </c>
       <c r="I197" t="n">
-        <v>17.7737382318703</v>
+        <v>18.9521817134937</v>
       </c>
       <c r="J197" t="n">
-        <v>19.1576932751106</v>
+        <v>19.2315687710201</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>-4.60785567046738</v>
+        <v>8.81728728395882</v>
       </c>
       <c r="B198" t="n">
-        <v>-5.10510274847657</v>
+        <v>10.7390593241284</v>
       </c>
       <c r="C198" t="n">
-        <v>-5.8855880521216</v>
+        <v>11.8429635385774</v>
       </c>
       <c r="D198" t="n">
-        <v>-6.52400346935703</v>
+        <v>13.0759405096818</v>
       </c>
       <c r="E198" t="n">
-        <v>-6.94009843204835</v>
+        <v>13.4765400798614</v>
       </c>
       <c r="F198" t="n">
-        <v>-7.30509521162731</v>
+        <v>13.3106155184891</v>
       </c>
       <c r="G198" t="n">
-        <v>-7.50515024171482</v>
+        <v>15.2324700675154</v>
       </c>
       <c r="H198" t="n">
-        <v>-8.31045695720696</v>
+        <v>16.1942417713241</v>
       </c>
       <c r="I198" t="n">
-        <v>-9.16684945660993</v>
+        <v>18.8219169526545</v>
       </c>
       <c r="J198" t="n">
-        <v>-9.71634056635933</v>
+        <v>20.2144768936824</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>-5.14168741643572</v>
+        <v>9.35257543074878</v>
       </c>
       <c r="B199" t="n">
-        <v>-5.31146114755622</v>
+        <v>9.52672013654072</v>
       </c>
       <c r="C199" t="n">
-        <v>-5.82552212249427</v>
+        <v>12.2134437012735</v>
       </c>
       <c r="D199" t="n">
-        <v>-6.48840707495942</v>
+        <v>13.9495670216983</v>
       </c>
       <c r="E199" t="n">
-        <v>-7.36376041570568</v>
+        <v>14.2500404236507</v>
       </c>
       <c r="F199" t="n">
-        <v>-6.91119746031041</v>
+        <v>15.6599065870048</v>
       </c>
       <c r="G199" t="n">
-        <v>-8.20476547279026</v>
+        <v>15.5890121602483</v>
       </c>
       <c r="H199" t="n">
-        <v>-8.58531258892299</v>
+        <v>18.1536081790603</v>
       </c>
       <c r="I199" t="n">
-        <v>-8.71774952221768</v>
+        <v>18.1885746829555</v>
       </c>
       <c r="J199" t="n">
-        <v>-9.2895306944739</v>
+        <v>19.0573789453551</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>-4.79782103424044</v>
+        <v>9.11439675913231</v>
       </c>
       <c r="B200" t="n">
-        <v>-5.82890530505574</v>
+        <v>9.14023069511195</v>
       </c>
       <c r="C200" t="n">
-        <v>-5.77746424747666</v>
+        <v>12.5776936650257</v>
       </c>
       <c r="D200" t="n">
-        <v>-6.8725970434792</v>
+        <v>14.8879104873625</v>
       </c>
       <c r="E200" t="n">
-        <v>-7.37240831940949</v>
+        <v>14.2152965052953</v>
       </c>
       <c r="F200" t="n">
-        <v>-7.67699428387689</v>
+        <v>14.407801590186</v>
       </c>
       <c r="G200" t="n">
-        <v>-7.46189693383616</v>
+        <v>16.0026296310309</v>
       </c>
       <c r="H200" t="n">
-        <v>-8.70287189529448</v>
+        <v>18.5451328968246</v>
       </c>
       <c r="I200" t="n">
-        <v>-9.09758516292328</v>
+        <v>17.9598349913344</v>
       </c>
       <c r="J200" t="n">
-        <v>-9.64592782815097</v>
+        <v>19.7222000515453</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>-5.15431848394544</v>
+        <v>11.6039893537152</v>
       </c>
       <c r="B201" t="n">
-        <v>-5.40864984364309</v>
+        <v>10.7854469680807</v>
       </c>
       <c r="C201" t="n">
-        <v>-6.34317732955245</v>
+        <v>13.3632900947463</v>
       </c>
       <c r="D201" t="n">
-        <v>-5.90720249458258</v>
+        <v>12.0138131131219</v>
       </c>
       <c r="E201" t="n">
-        <v>-6.99978460974812</v>
+        <v>13.7738196819305</v>
       </c>
       <c r="F201" t="n">
-        <v>-7.31895553950791</v>
+        <v>15.2089368639257</v>
       </c>
       <c r="G201" t="n">
-        <v>-7.89541736390264</v>
+        <v>16.2169201668348</v>
       </c>
       <c r="H201" t="n">
-        <v>-8.75386197370936</v>
+        <v>15.5448673782359</v>
       </c>
       <c r="I201" t="n">
-        <v>-9.36892477849066</v>
+        <v>17.0594090094407</v>
       </c>
       <c r="J201" t="n">
-        <v>-9.59390787851378</v>
+        <v>20.1980248811394</v>
       </c>
     </row>
   </sheetData>

--- a/SimulationStudyData/Dataset2_Yobs.xlsx
+++ b/SimulationStudyData/Dataset2_Yobs.xlsx
@@ -407,6402 +407,6402 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-4.58684427225325</v>
+        <v>-5.18437258775328</v>
       </c>
       <c r="B2" t="n">
-        <v>-5.53374000091069</v>
+        <v>-5.84689296132653</v>
       </c>
       <c r="C2" t="n">
-        <v>-6.61430524247869</v>
+        <v>-6.20384112832201</v>
       </c>
       <c r="D2" t="n">
-        <v>-5.66775099272311</v>
+        <v>-6.41462809627858</v>
       </c>
       <c r="E2" t="n">
-        <v>-8.0037606844685</v>
+        <v>-6.585225328309</v>
       </c>
       <c r="F2" t="n">
-        <v>-7.1361795866164</v>
+        <v>-7.19140543810609</v>
       </c>
       <c r="G2" t="n">
-        <v>-7.62524714267904</v>
+        <v>-8.12017547399634</v>
       </c>
       <c r="H2" t="n">
-        <v>-8.29064566994488</v>
+        <v>-8.40823355183251</v>
       </c>
       <c r="I2" t="n">
-        <v>-8.75127767640121</v>
+        <v>-9.20908254905335</v>
       </c>
       <c r="J2" t="n">
-        <v>-9.24884118023056</v>
+        <v>-9.88924635402908</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-5.1122196521225</v>
+        <v>-5.02827839634847</v>
       </c>
       <c r="B3" t="n">
-        <v>-4.9990895238794</v>
+        <v>-5.70909083200913</v>
       </c>
       <c r="C3" t="n">
-        <v>-6.93011608329342</v>
+        <v>-6.29653365233407</v>
       </c>
       <c r="D3" t="n">
-        <v>-4.98800047591626</v>
+        <v>-6.60338641434935</v>
       </c>
       <c r="E3" t="n">
-        <v>-5.7407642461791</v>
+        <v>-6.85950500706203</v>
       </c>
       <c r="F3" t="n">
-        <v>-6.52090667304945</v>
+        <v>-7.70684577515913</v>
       </c>
       <c r="G3" t="n">
-        <v>-8.39932804158485</v>
+        <v>-7.90586699765919</v>
       </c>
       <c r="H3" t="n">
-        <v>-7.93942320414461</v>
+        <v>-8.1434091877116</v>
       </c>
       <c r="I3" t="n">
-        <v>-8.40464602034044</v>
+        <v>-8.85911957474917</v>
       </c>
       <c r="J3" t="n">
-        <v>-8.96888864262798</v>
+        <v>-9.71701380051319</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>9.82275134007736</v>
+        <v>-4.9099195732939</v>
       </c>
       <c r="B4" t="n">
-        <v>10.6740479536032</v>
+        <v>-5.82859819043805</v>
       </c>
       <c r="C4" t="n">
-        <v>11.9064834796137</v>
+        <v>-5.94176054885757</v>
       </c>
       <c r="D4" t="n">
-        <v>12.6464162868896</v>
+        <v>-6.20135543773015</v>
       </c>
       <c r="E4" t="n">
-        <v>13.4392350493983</v>
+        <v>-6.55334916609149</v>
       </c>
       <c r="F4" t="n">
-        <v>13.8622659655646</v>
+        <v>-8.01496378808099</v>
       </c>
       <c r="G4" t="n">
-        <v>16.8774739383479</v>
+        <v>-8.14433702533064</v>
       </c>
       <c r="H4" t="n">
-        <v>15.5055400232376</v>
+        <v>-8.71595040866795</v>
       </c>
       <c r="I4" t="n">
-        <v>18.8716483692623</v>
+        <v>-9.42102123734556</v>
       </c>
       <c r="J4" t="n">
-        <v>19.0435174895205</v>
+        <v>-9.2065494159314</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-2.77222438366663</v>
+        <v>11.29184821662</v>
       </c>
       <c r="B5" t="n">
-        <v>-5.96657778800911</v>
+        <v>10.6475203096376</v>
       </c>
       <c r="C5" t="n">
-        <v>-5.25220281714027</v>
+        <v>10.3111267311397</v>
       </c>
       <c r="D5" t="n">
-        <v>-7.55193524485192</v>
+        <v>12.5967352183427</v>
       </c>
       <c r="E5" t="n">
-        <v>-6.74655913051892</v>
+        <v>13.2929466645343</v>
       </c>
       <c r="F5" t="n">
-        <v>-7.09151943682697</v>
+        <v>15.5088213851103</v>
       </c>
       <c r="G5" t="n">
-        <v>-8.73658901007761</v>
+        <v>16.647948439662</v>
       </c>
       <c r="H5" t="n">
-        <v>-7.68276636904889</v>
+        <v>17.4911976926107</v>
       </c>
       <c r="I5" t="n">
-        <v>-9.05578727756264</v>
+        <v>17.4812331350121</v>
       </c>
       <c r="J5" t="n">
-        <v>-10.0858107954454</v>
+        <v>18.6210075731438</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>9.85812159002353</v>
+        <v>11.0308624887785</v>
       </c>
       <c r="B6" t="n">
-        <v>12.4406018001093</v>
+        <v>11.6075269884167</v>
       </c>
       <c r="C6" t="n">
-        <v>11.971233962455</v>
+        <v>11.811522867141</v>
       </c>
       <c r="D6" t="n">
-        <v>11.122491567001</v>
+        <v>12.5692991027234</v>
       </c>
       <c r="E6" t="n">
-        <v>13.1359303590008</v>
+        <v>15.1120747459689</v>
       </c>
       <c r="F6" t="n">
-        <v>16.0914864456583</v>
+        <v>12.9923002321855</v>
       </c>
       <c r="G6" t="n">
-        <v>15.7328669433386</v>
+        <v>14.8140741121438</v>
       </c>
       <c r="H6" t="n">
-        <v>16.2085847365823</v>
+        <v>15.5032249814645</v>
       </c>
       <c r="I6" t="n">
-        <v>18.0182013879902</v>
+        <v>18.0783710957447</v>
       </c>
       <c r="J6" t="n">
-        <v>18.5729381404722</v>
+        <v>19.9844699211263</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>8.73941740855254</v>
+        <v>10.1144719620583</v>
       </c>
       <c r="B7" t="n">
-        <v>11.2960353481891</v>
+        <v>11.9503231260601</v>
       </c>
       <c r="C7" t="n">
-        <v>11.5126017938463</v>
+        <v>12.8979586240906</v>
       </c>
       <c r="D7" t="n">
-        <v>13.2103238927739</v>
+        <v>12.5027762417678</v>
       </c>
       <c r="E7" t="n">
-        <v>13.3896940508279</v>
+        <v>14.2610388889537</v>
       </c>
       <c r="F7" t="n">
-        <v>15.1029711522098</v>
+        <v>15.6778692707312</v>
       </c>
       <c r="G7" t="n">
-        <v>15.192125912026</v>
+        <v>16.4708071069085</v>
       </c>
       <c r="H7" t="n">
-        <v>17.9355416091045</v>
+        <v>16.2337012930327</v>
       </c>
       <c r="I7" t="n">
-        <v>17.5020058026806</v>
+        <v>18.6098522603464</v>
       </c>
       <c r="J7" t="n">
-        <v>17.7555976583191</v>
+        <v>19.5177396863321</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>9.97197189408162</v>
+        <v>9.8539571371071</v>
       </c>
       <c r="B8" t="n">
-        <v>11.3282363451846</v>
+        <v>11.8398255985164</v>
       </c>
       <c r="C8" t="n">
-        <v>12.7453824987922</v>
+        <v>12.33709223562</v>
       </c>
       <c r="D8" t="n">
-        <v>12.8517481993222</v>
+        <v>12.7186450221287</v>
       </c>
       <c r="E8" t="n">
-        <v>11.8445031669177</v>
+        <v>11.5967749604784</v>
       </c>
       <c r="F8" t="n">
-        <v>16.0689535345133</v>
+        <v>15.7578625749825</v>
       </c>
       <c r="G8" t="n">
-        <v>16.1891472177608</v>
+        <v>17.7382790494963</v>
       </c>
       <c r="H8" t="n">
-        <v>16.8601567124641</v>
+        <v>17.1506531448356</v>
       </c>
       <c r="I8" t="n">
-        <v>18.4118714465301</v>
+        <v>18.9479066312596</v>
       </c>
       <c r="J8" t="n">
-        <v>18.7604741350649</v>
+        <v>19.6181021641544</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-5.45807390751526</v>
+        <v>-5.04567472515615</v>
       </c>
       <c r="B9" t="n">
-        <v>-4.86779175778376</v>
+        <v>-5.34519889193617</v>
       </c>
       <c r="C9" t="n">
-        <v>-6.66024834745287</v>
+        <v>-5.63097524190252</v>
       </c>
       <c r="D9" t="n">
-        <v>-5.92924019694631</v>
+        <v>-6.12567954766482</v>
       </c>
       <c r="E9" t="n">
-        <v>-6.22227094907027</v>
+        <v>-7.20155009295026</v>
       </c>
       <c r="F9" t="n">
-        <v>-7.14794320022785</v>
+        <v>-7.39514051429005</v>
       </c>
       <c r="G9" t="n">
-        <v>-8.26524384000987</v>
+        <v>-8.69043548361222</v>
       </c>
       <c r="H9" t="n">
-        <v>-8.33789151010242</v>
+        <v>-8.61745978730332</v>
       </c>
       <c r="I9" t="n">
-        <v>-8.61527355510323</v>
+        <v>-8.86950241777555</v>
       </c>
       <c r="J9" t="n">
-        <v>-9.42934168071409</v>
+        <v>-9.26838662002439</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-5.70576975213644</v>
+        <v>11.0039184424599</v>
       </c>
       <c r="B10" t="n">
-        <v>-5.49782070543585</v>
+        <v>12.6411415792763</v>
       </c>
       <c r="C10" t="n">
-        <v>-5.72279988991016</v>
+        <v>12.1055638538585</v>
       </c>
       <c r="D10" t="n">
-        <v>-5.98118362946315</v>
+        <v>12.4683686621188</v>
       </c>
       <c r="E10" t="n">
-        <v>-7.25552443698267</v>
+        <v>14.3478929527716</v>
       </c>
       <c r="F10" t="n">
-        <v>-6.35521314388049</v>
+        <v>16.0956089770642</v>
       </c>
       <c r="G10" t="n">
-        <v>-7.6844723210356</v>
+        <v>16.7287128614541</v>
       </c>
       <c r="H10" t="n">
-        <v>-8.00768634270765</v>
+        <v>17.8598029229454</v>
       </c>
       <c r="I10" t="n">
-        <v>-9.63077222101366</v>
+        <v>18.530164545344</v>
       </c>
       <c r="J10" t="n">
-        <v>-9.69235582993644</v>
+        <v>19.4896483024468</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>9.70432984630081</v>
+        <v>10.1043402663362</v>
       </c>
       <c r="B11" t="n">
-        <v>11.7565233450408</v>
+        <v>11.4930314700075</v>
       </c>
       <c r="C11" t="n">
-        <v>10.7954789988067</v>
+        <v>11.7397898070834</v>
       </c>
       <c r="D11" t="n">
-        <v>14.0773189506658</v>
+        <v>13.5426890411629</v>
       </c>
       <c r="E11" t="n">
-        <v>13.088592267653</v>
+        <v>14.192684512946</v>
       </c>
       <c r="F11" t="n">
-        <v>16.2225576896013</v>
+        <v>16.3605699682435</v>
       </c>
       <c r="G11" t="n">
-        <v>15.702618993469</v>
+        <v>15.1995108824571</v>
       </c>
       <c r="H11" t="n">
-        <v>16.7464314048433</v>
+        <v>16.6608948678974</v>
       </c>
       <c r="I11" t="n">
-        <v>18.7820274762096</v>
+        <v>19.2726283226167</v>
       </c>
       <c r="J11" t="n">
-        <v>19.4840237658441</v>
+        <v>19.1824228786027</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>9.93858551853504</v>
+        <v>10.3611491285801</v>
       </c>
       <c r="B12" t="n">
-        <v>11.9513972385027</v>
+        <v>12.5357223434841</v>
       </c>
       <c r="C12" t="n">
-        <v>11.7172970646181</v>
+        <v>12.0244838014436</v>
       </c>
       <c r="D12" t="n">
-        <v>13.1015393113858</v>
+        <v>13.2462063130023</v>
       </c>
       <c r="E12" t="n">
-        <v>12.7816966143636</v>
+        <v>12.6620547962797</v>
       </c>
       <c r="F12" t="n">
-        <v>15.8196214254883</v>
+        <v>14.9954764088496</v>
       </c>
       <c r="G12" t="n">
-        <v>16.0920163971695</v>
+        <v>16.8439043662092</v>
       </c>
       <c r="H12" t="n">
-        <v>15.790984979299</v>
+        <v>17.1105400168913</v>
       </c>
       <c r="I12" t="n">
-        <v>19.1331954364444</v>
+        <v>17.161772977142</v>
       </c>
       <c r="J12" t="n">
-        <v>21.281659502023</v>
+        <v>19.4175511933933</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-6.51523720979428</v>
+        <v>-5.0092411839984</v>
       </c>
       <c r="B13" t="n">
-        <v>-6.8151872410131</v>
+        <v>-5.36964899819687</v>
       </c>
       <c r="C13" t="n">
-        <v>-6.94557151531088</v>
+        <v>-5.9075047300744</v>
       </c>
       <c r="D13" t="n">
-        <v>-5.99804245948967</v>
+        <v>-6.76571661715975</v>
       </c>
       <c r="E13" t="n">
-        <v>-6.18041274327124</v>
+        <v>-6.58623776563001</v>
       </c>
       <c r="F13" t="n">
-        <v>-8.48854682007657</v>
+        <v>-7.49919779699504</v>
       </c>
       <c r="G13" t="n">
-        <v>-8.23195273312465</v>
+        <v>-7.83557236064687</v>
       </c>
       <c r="H13" t="n">
-        <v>-8.94661116615967</v>
+        <v>-8.50817694451964</v>
       </c>
       <c r="I13" t="n">
-        <v>-9.12102060697181</v>
+        <v>-9.2961643380265</v>
       </c>
       <c r="J13" t="n">
-        <v>-10.5172860213858</v>
+        <v>-9.61522765829548</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-7.30403517991748</v>
+        <v>9.75531950212264</v>
       </c>
       <c r="B14" t="n">
-        <v>-5.02314010674957</v>
+        <v>12.006997343136</v>
       </c>
       <c r="C14" t="n">
-        <v>-4.98068526155574</v>
+        <v>11.1843377946956</v>
       </c>
       <c r="D14" t="n">
-        <v>-7.61772918487625</v>
+        <v>12.7639004592581</v>
       </c>
       <c r="E14" t="n">
-        <v>-5.8594088601554</v>
+        <v>13.8869700022575</v>
       </c>
       <c r="F14" t="n">
-        <v>-8.03578085361886</v>
+        <v>15.5657920630438</v>
       </c>
       <c r="G14" t="n">
-        <v>-7.23456310173979</v>
+        <v>16.6542508640543</v>
       </c>
       <c r="H14" t="n">
-        <v>-9.55545357204486</v>
+        <v>17.2046695587958</v>
       </c>
       <c r="I14" t="n">
-        <v>-8.1134344974476</v>
+        <v>18.1783444720756</v>
       </c>
       <c r="J14" t="n">
-        <v>-10.921719543778</v>
+        <v>19.7229176659424</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-3.35117324957962</v>
+        <v>11.4966819814804</v>
       </c>
       <c r="B15" t="n">
-        <v>-6.05593534757187</v>
+        <v>10.8963000250496</v>
       </c>
       <c r="C15" t="n">
-        <v>-7.12168094451563</v>
+        <v>13.3278330975189</v>
       </c>
       <c r="D15" t="n">
-        <v>-5.43661667442748</v>
+        <v>13.1877613701122</v>
       </c>
       <c r="E15" t="n">
-        <v>-7.59539206065796</v>
+        <v>14.5110157942767</v>
       </c>
       <c r="F15" t="n">
-        <v>-7.93603954476119</v>
+        <v>15.2824083841553</v>
       </c>
       <c r="G15" t="n">
-        <v>-7.76076648628399</v>
+        <v>16.0894935275262</v>
       </c>
       <c r="H15" t="n">
-        <v>-8.91217178082277</v>
+        <v>16.5478663689139</v>
       </c>
       <c r="I15" t="n">
-        <v>-8.50999210931087</v>
+        <v>16.2389130013534</v>
       </c>
       <c r="J15" t="n">
-        <v>-10.1832822213849</v>
+        <v>19.9978167481417</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-4.32866029581981</v>
+        <v>9.84801209340943</v>
       </c>
       <c r="B16" t="n">
-        <v>-4.73319843470925</v>
+        <v>10.2729517745124</v>
       </c>
       <c r="C16" t="n">
-        <v>-6.04366625846505</v>
+        <v>13.7492570392624</v>
       </c>
       <c r="D16" t="n">
-        <v>-5.88119103538802</v>
+        <v>14.1269767384945</v>
       </c>
       <c r="E16" t="n">
-        <v>-7.43754587949165</v>
+        <v>15.1766225221281</v>
       </c>
       <c r="F16" t="n">
-        <v>-5.59041125499951</v>
+        <v>14.648317296188</v>
       </c>
       <c r="G16" t="n">
-        <v>-7.41774434622693</v>
+        <v>15.2564756933551</v>
       </c>
       <c r="H16" t="n">
-        <v>-7.57748344401388</v>
+        <v>18.2584029089356</v>
       </c>
       <c r="I16" t="n">
-        <v>-8.66670115437265</v>
+        <v>18.0874203342112</v>
       </c>
       <c r="J16" t="n">
-        <v>-9.70480652834939</v>
+        <v>16.7819295571095</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>-4.20703427712237</v>
+        <v>10.5137572672644</v>
       </c>
       <c r="B17" t="n">
-        <v>-4.88985910930707</v>
+        <v>11.2599965974451</v>
       </c>
       <c r="C17" t="n">
-        <v>-6.70723858652509</v>
+        <v>12.7245499492366</v>
       </c>
       <c r="D17" t="n">
-        <v>-6.17916780968061</v>
+        <v>13.3140412859484</v>
       </c>
       <c r="E17" t="n">
-        <v>-7.23605525101831</v>
+        <v>12.8324142086651</v>
       </c>
       <c r="F17" t="n">
-        <v>-7.2717562389614</v>
+        <v>15.8562398457259</v>
       </c>
       <c r="G17" t="n">
-        <v>-9.30016437928406</v>
+        <v>15.0947549915998</v>
       </c>
       <c r="H17" t="n">
-        <v>-8.47198706870556</v>
+        <v>15.4271239479431</v>
       </c>
       <c r="I17" t="n">
-        <v>-8.71922058244462</v>
+        <v>17.2775717821713</v>
       </c>
       <c r="J17" t="n">
-        <v>-10.1244536405486</v>
+        <v>19.8875645236643</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-6.6126025285428</v>
+        <v>10.1901615045361</v>
       </c>
       <c r="B18" t="n">
-        <v>-6.48224040233191</v>
+        <v>10.2108980888941</v>
       </c>
       <c r="C18" t="n">
-        <v>-7.06987058170622</v>
+        <v>13.2221968926152</v>
       </c>
       <c r="D18" t="n">
-        <v>-7.61404021405816</v>
+        <v>11.7982221995113</v>
       </c>
       <c r="E18" t="n">
-        <v>-6.96803572741714</v>
+        <v>14.0889500993922</v>
       </c>
       <c r="F18" t="n">
-        <v>-7.54849216801993</v>
+        <v>16.5144934712648</v>
       </c>
       <c r="G18" t="n">
-        <v>-7.84772779980474</v>
+        <v>17.04506926349</v>
       </c>
       <c r="H18" t="n">
-        <v>-7.87003610536413</v>
+        <v>16.8051546920665</v>
       </c>
       <c r="I18" t="n">
-        <v>-10.2554460319561</v>
+        <v>19.1109700534961</v>
       </c>
       <c r="J18" t="n">
-        <v>-10.1631422018612</v>
+        <v>19.0774405754619</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>-5.97263874351007</v>
+        <v>9.22935936563461</v>
       </c>
       <c r="B19" t="n">
-        <v>-3.3836817235902</v>
+        <v>11.2153711283175</v>
       </c>
       <c r="C19" t="n">
-        <v>-6.22276933485183</v>
+        <v>11.1372300332213</v>
       </c>
       <c r="D19" t="n">
-        <v>-6.5561116933231</v>
+        <v>12.2699618407495</v>
       </c>
       <c r="E19" t="n">
-        <v>-7.18708865608109</v>
+        <v>14.5588322473603</v>
       </c>
       <c r="F19" t="n">
-        <v>-7.07127143933367</v>
+        <v>15.5128794359335</v>
       </c>
       <c r="G19" t="n">
-        <v>-6.76963189636618</v>
+        <v>16.3095888037253</v>
       </c>
       <c r="H19" t="n">
-        <v>-8.86164256530141</v>
+        <v>17.3839785308552</v>
       </c>
       <c r="I19" t="n">
-        <v>-9.00034569546664</v>
+        <v>17.5343395375616</v>
       </c>
       <c r="J19" t="n">
-        <v>-10.1585239446032</v>
+        <v>20.0395198069955</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>9.99786522715469</v>
+        <v>9.39960713954362</v>
       </c>
       <c r="B20" t="n">
-        <v>10.5439230191723</v>
+        <v>11.2545077701973</v>
       </c>
       <c r="C20" t="n">
-        <v>12.4557291853606</v>
+        <v>13.6847023002179</v>
       </c>
       <c r="D20" t="n">
-        <v>11.823928556385</v>
+        <v>13.1939376415782</v>
       </c>
       <c r="E20" t="n">
-        <v>14.765338236371</v>
+        <v>13.814691714759</v>
       </c>
       <c r="F20" t="n">
-        <v>15.6074218206284</v>
+        <v>15.695869476823</v>
       </c>
       <c r="G20" t="n">
-        <v>15.3943391439747</v>
+        <v>16.0390711501005</v>
       </c>
       <c r="H20" t="n">
-        <v>17.042466173179</v>
+        <v>17.1389727235967</v>
       </c>
       <c r="I20" t="n">
-        <v>17.1454420287832</v>
+        <v>17.750297183745</v>
       </c>
       <c r="J20" t="n">
-        <v>18.9102830600126</v>
+        <v>19.1506445354761</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-3.80072237935993</v>
+        <v>9.38984820209559</v>
       </c>
       <c r="B21" t="n">
-        <v>-5.94524083296857</v>
+        <v>11.2749438796307</v>
       </c>
       <c r="C21" t="n">
-        <v>-6.28431789151822</v>
+        <v>12.0752534118442</v>
       </c>
       <c r="D21" t="n">
-        <v>-6.90166593253608</v>
+        <v>11.9235539097249</v>
       </c>
       <c r="E21" t="n">
-        <v>-6.50127341474062</v>
+        <v>13.1532994840718</v>
       </c>
       <c r="F21" t="n">
-        <v>-7.74588727979114</v>
+        <v>15.3629374627829</v>
       </c>
       <c r="G21" t="n">
-        <v>-8.40666012871279</v>
+        <v>15.2443787095032</v>
       </c>
       <c r="H21" t="n">
-        <v>-9.28892216252596</v>
+        <v>16.9373094122843</v>
       </c>
       <c r="I21" t="n">
-        <v>-8.3224966877098</v>
+        <v>18.021456690168</v>
       </c>
       <c r="J21" t="n">
-        <v>-10.4414205143712</v>
+        <v>19.8289055017686</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>-3.92134705813828</v>
+        <v>-4.9163602047924</v>
       </c>
       <c r="B22" t="n">
-        <v>-6.19369268764552</v>
+        <v>-5.37568162017842</v>
       </c>
       <c r="C22" t="n">
-        <v>-6.35723654836407</v>
+        <v>-6.17726792678302</v>
       </c>
       <c r="D22" t="n">
-        <v>-6.48165157402964</v>
+        <v>-6.93116115468123</v>
       </c>
       <c r="E22" t="n">
-        <v>-6.6772830481419</v>
+        <v>-7.50632918236296</v>
       </c>
       <c r="F22" t="n">
-        <v>-8.44719434641933</v>
+        <v>-7.91791367848028</v>
       </c>
       <c r="G22" t="n">
-        <v>-7.98824142289229</v>
+        <v>-8.07319313115173</v>
       </c>
       <c r="H22" t="n">
-        <v>-8.58336719353354</v>
+        <v>-8.42315738249553</v>
       </c>
       <c r="I22" t="n">
-        <v>-8.55021671172223</v>
+        <v>-8.95949140803205</v>
       </c>
       <c r="J22" t="n">
-        <v>-10.1954525119089</v>
+        <v>-9.46875937117662</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>-5.73818331897209</v>
+        <v>10.1424467882272</v>
       </c>
       <c r="B23" t="n">
-        <v>-5.46738513933721</v>
+        <v>9.45328422778315</v>
       </c>
       <c r="C23" t="n">
-        <v>-5.57301505206927</v>
+        <v>11.6317147325671</v>
       </c>
       <c r="D23" t="n">
-        <v>-4.75814982112028</v>
+        <v>13.2764511726261</v>
       </c>
       <c r="E23" t="n">
-        <v>-5.58925722833436</v>
+        <v>15.7861280959909</v>
       </c>
       <c r="F23" t="n">
-        <v>-7.72236405193329</v>
+        <v>14.6680866331817</v>
       </c>
       <c r="G23" t="n">
-        <v>-7.34913697759144</v>
+        <v>16.3759801824022</v>
       </c>
       <c r="H23" t="n">
-        <v>-8.31947325182161</v>
+        <v>16.6358056438898</v>
       </c>
       <c r="I23" t="n">
-        <v>-9.53730510537212</v>
+        <v>18.5792731396212</v>
       </c>
       <c r="J23" t="n">
-        <v>-8.76685180612048</v>
+        <v>19.5063738020639</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>-4.54594992879348</v>
+        <v>8.27094185516071</v>
       </c>
       <c r="B24" t="n">
-        <v>-5.51168906658492</v>
+        <v>10.2719864071446</v>
       </c>
       <c r="C24" t="n">
-        <v>-5.72962109061567</v>
+        <v>12.9769265364733</v>
       </c>
       <c r="D24" t="n">
-        <v>-5.76818265121852</v>
+        <v>12.4798536783229</v>
       </c>
       <c r="E24" t="n">
-        <v>-7.11999785702715</v>
+        <v>14.8532675128289</v>
       </c>
       <c r="F24" t="n">
-        <v>-7.03348218831635</v>
+        <v>14.706565295949</v>
       </c>
       <c r="G24" t="n">
-        <v>-8.30613800183539</v>
+        <v>16.3128295151756</v>
       </c>
       <c r="H24" t="n">
-        <v>-8.05458720678689</v>
+        <v>17.043481079958</v>
       </c>
       <c r="I24" t="n">
-        <v>-10.1285708108052</v>
+        <v>18.7252507571153</v>
       </c>
       <c r="J24" t="n">
-        <v>-9.65339905799466</v>
+        <v>18.1756791156799</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>-5.37831015387567</v>
+        <v>9.12752012487041</v>
       </c>
       <c r="B25" t="n">
-        <v>-5.34514403389384</v>
+        <v>11.4195496745157</v>
       </c>
       <c r="C25" t="n">
-        <v>-7.39311855385853</v>
+        <v>11.8369041794797</v>
       </c>
       <c r="D25" t="n">
-        <v>-6.61482951606905</v>
+        <v>12.1126385037395</v>
       </c>
       <c r="E25" t="n">
-        <v>-7.23095794446204</v>
+        <v>14.1175184678326</v>
       </c>
       <c r="F25" t="n">
-        <v>-7.09617116771014</v>
+        <v>16.27353833919</v>
       </c>
       <c r="G25" t="n">
-        <v>-7.43453818266483</v>
+        <v>16.2863562400093</v>
       </c>
       <c r="H25" t="n">
-        <v>-7.56266631346025</v>
+        <v>17.424712927615</v>
       </c>
       <c r="I25" t="n">
-        <v>-9.90877664234066</v>
+        <v>17.6314373073418</v>
       </c>
       <c r="J25" t="n">
-        <v>-7.55749241040592</v>
+        <v>19.7319632438245</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>-4.37889088648186</v>
+        <v>11.2502029458153</v>
       </c>
       <c r="B26" t="n">
-        <v>-5.63596545175977</v>
+        <v>11.2356053689804</v>
       </c>
       <c r="C26" t="n">
-        <v>-4.98284854549726</v>
+        <v>14.3029201177223</v>
       </c>
       <c r="D26" t="n">
-        <v>-7.45470327768041</v>
+        <v>12.9960407363655</v>
       </c>
       <c r="E26" t="n">
-        <v>-7.44154900317532</v>
+        <v>12.4261706226645</v>
       </c>
       <c r="F26" t="n">
-        <v>-7.53921973388394</v>
+        <v>15.0330514414539</v>
       </c>
       <c r="G26" t="n">
-        <v>-7.42780895662712</v>
+        <v>15.2970741303305</v>
       </c>
       <c r="H26" t="n">
-        <v>-7.80874084340603</v>
+        <v>17.8163120534912</v>
       </c>
       <c r="I26" t="n">
-        <v>-7.96791945657753</v>
+        <v>15.809412395269</v>
       </c>
       <c r="J26" t="n">
-        <v>-10.1212455037368</v>
+        <v>18.8830470484315</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>-4.70218469977069</v>
+        <v>9.39392047291514</v>
       </c>
       <c r="B27" t="n">
-        <v>-5.61303319766312</v>
+        <v>10.4877080513061</v>
       </c>
       <c r="C27" t="n">
-        <v>-6.12052814459415</v>
+        <v>11.9897720310228</v>
       </c>
       <c r="D27" t="n">
-        <v>-4.91796094825466</v>
+        <v>13.5728092330605</v>
       </c>
       <c r="E27" t="n">
-        <v>-6.94851477002347</v>
+        <v>14.400751847429</v>
       </c>
       <c r="F27" t="n">
-        <v>-8.41630842799584</v>
+        <v>15.0016032713341</v>
       </c>
       <c r="G27" t="n">
-        <v>-9.58171970848548</v>
+        <v>16.5888519050314</v>
       </c>
       <c r="H27" t="n">
-        <v>-7.02642043276245</v>
+        <v>17.9993170592042</v>
       </c>
       <c r="I27" t="n">
-        <v>-9.38526393852875</v>
+        <v>19.3648118057321</v>
       </c>
       <c r="J27" t="n">
-        <v>-7.77511928630879</v>
+        <v>19.9258326781276</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>-5.49349225044018</v>
+        <v>8.37527263688068</v>
       </c>
       <c r="B28" t="n">
-        <v>-4.35365721960462</v>
+        <v>11.411096112048</v>
       </c>
       <c r="C28" t="n">
-        <v>-4.78828497670065</v>
+        <v>11.349083516366</v>
       </c>
       <c r="D28" t="n">
-        <v>-6.14352958648667</v>
+        <v>12.9045522408116</v>
       </c>
       <c r="E28" t="n">
-        <v>-6.96565360478076</v>
+        <v>13.5402249938258</v>
       </c>
       <c r="F28" t="n">
-        <v>-7.49179329007669</v>
+        <v>15.7302626126836</v>
       </c>
       <c r="G28" t="n">
-        <v>-8.24311846583174</v>
+        <v>17.2954331893328</v>
       </c>
       <c r="H28" t="n">
-        <v>-6.95754679106733</v>
+        <v>16.5873645342719</v>
       </c>
       <c r="I28" t="n">
-        <v>-10.1641593475506</v>
+        <v>17.8288197623412</v>
       </c>
       <c r="J28" t="n">
-        <v>-11.1111046471708</v>
+        <v>19.3582990351567</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>9.42052282889015</v>
+        <v>-4.74583660039106</v>
       </c>
       <c r="B29" t="n">
-        <v>10.6080318365245</v>
+        <v>-5.0821271095507</v>
       </c>
       <c r="C29" t="n">
-        <v>13.1904282080129</v>
+        <v>-5.88164298280998</v>
       </c>
       <c r="D29" t="n">
-        <v>12.450051303387</v>
+        <v>-6.4090992282359</v>
       </c>
       <c r="E29" t="n">
-        <v>12.6117473078481</v>
+        <v>-7.13687932496497</v>
       </c>
       <c r="F29" t="n">
-        <v>15.3785774291432</v>
+        <v>-7.44390253870489</v>
       </c>
       <c r="G29" t="n">
-        <v>15.6506281717811</v>
+        <v>-7.86487446620284</v>
       </c>
       <c r="H29" t="n">
-        <v>17.1570976626802</v>
+        <v>-8.58246705126536</v>
       </c>
       <c r="I29" t="n">
-        <v>19.3016735554301</v>
+        <v>-8.76425388744141</v>
       </c>
       <c r="J29" t="n">
-        <v>18.3943053661437</v>
+        <v>-9.42578094333184</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>-5.24207526273922</v>
+        <v>10.7523677617768</v>
       </c>
       <c r="B30" t="n">
-        <v>-6.31589016181826</v>
+        <v>11.5496476256937</v>
       </c>
       <c r="C30" t="n">
-        <v>-4.77711798279785</v>
+        <v>10.7027486134628</v>
       </c>
       <c r="D30" t="n">
-        <v>-6.24306631391542</v>
+        <v>11.9919416612359</v>
       </c>
       <c r="E30" t="n">
-        <v>-8.04747016767983</v>
+        <v>13.7763007297457</v>
       </c>
       <c r="F30" t="n">
-        <v>-7.68757001531294</v>
+        <v>14.9021180158284</v>
       </c>
       <c r="G30" t="n">
-        <v>-7.33996464979961</v>
+        <v>16.4375939720583</v>
       </c>
       <c r="H30" t="n">
-        <v>-8.24194766219536</v>
+        <v>15.6929737143328</v>
       </c>
       <c r="I30" t="n">
-        <v>-9.82914145562535</v>
+        <v>18.780533172338</v>
       </c>
       <c r="J30" t="n">
-        <v>-9.80921045499603</v>
+        <v>18.5680687688843</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>10.0040268456461</v>
+        <v>10.4370128243325</v>
       </c>
       <c r="B31" t="n">
-        <v>10.367714710028</v>
+        <v>11.5043871973189</v>
       </c>
       <c r="C31" t="n">
-        <v>11.3724238521231</v>
+        <v>12.3463405415409</v>
       </c>
       <c r="D31" t="n">
-        <v>12.2403367549151</v>
+        <v>13.0744494910929</v>
       </c>
       <c r="E31" t="n">
-        <v>14.188820651858</v>
+        <v>14.8296721207047</v>
       </c>
       <c r="F31" t="n">
-        <v>15.3961273874578</v>
+        <v>14.5372207999154</v>
       </c>
       <c r="G31" t="n">
-        <v>16.6857413358918</v>
+        <v>15.0891607110666</v>
       </c>
       <c r="H31" t="n">
-        <v>16.7199437136382</v>
+        <v>16.6698562232567</v>
       </c>
       <c r="I31" t="n">
-        <v>17.1976086826425</v>
+        <v>18.1422162681988</v>
       </c>
       <c r="J31" t="n">
-        <v>19.7781967514076</v>
+        <v>19.0182194010651</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>10.8405519326589</v>
+        <v>-5.12843600989406</v>
       </c>
       <c r="B32" t="n">
-        <v>11.613988790544</v>
+        <v>-5.01418292233192</v>
       </c>
       <c r="C32" t="n">
-        <v>12.3911207798583</v>
+        <v>-5.9052313679617</v>
       </c>
       <c r="D32" t="n">
-        <v>13.3292279791115</v>
+        <v>-6.60829376510264</v>
       </c>
       <c r="E32" t="n">
-        <v>13.6579844850284</v>
+        <v>-6.96061976383707</v>
       </c>
       <c r="F32" t="n">
-        <v>14.3231962140768</v>
+        <v>-8.01875019317071</v>
       </c>
       <c r="G32" t="n">
-        <v>15.2408728319999</v>
+        <v>-8.22821682030178</v>
       </c>
       <c r="H32" t="n">
-        <v>17.249026566694</v>
+        <v>-8.27665282078342</v>
       </c>
       <c r="I32" t="n">
-        <v>18.2325788443324</v>
+        <v>-8.97944682646074</v>
       </c>
       <c r="J32" t="n">
-        <v>20.9665054935785</v>
+        <v>-9.99196434972168</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>-3.84766140938285</v>
+        <v>10.3614556554017</v>
       </c>
       <c r="B33" t="n">
-        <v>-4.89644942511007</v>
+        <v>9.91183939539958</v>
       </c>
       <c r="C33" t="n">
-        <v>-5.91724600597376</v>
+        <v>11.5730174055082</v>
       </c>
       <c r="D33" t="n">
-        <v>-6.35323339351387</v>
+        <v>12.921783487607</v>
       </c>
       <c r="E33" t="n">
-        <v>-7.29059296717085</v>
+        <v>13.8571489247342</v>
       </c>
       <c r="F33" t="n">
-        <v>-6.74839386416528</v>
+        <v>14.6820558633234</v>
       </c>
       <c r="G33" t="n">
-        <v>-7.8426274844841</v>
+        <v>15.840382257091</v>
       </c>
       <c r="H33" t="n">
-        <v>-9.12808950888372</v>
+        <v>17.1367392211679</v>
       </c>
       <c r="I33" t="n">
-        <v>-9.16746585188237</v>
+        <v>17.8269874861973</v>
       </c>
       <c r="J33" t="n">
-        <v>-8.40843736561779</v>
+        <v>20.9473138059359</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>9.73727428513345</v>
+        <v>10.9168433018807</v>
       </c>
       <c r="B34" t="n">
-        <v>10.0398834206485</v>
+        <v>11.4222754953766</v>
       </c>
       <c r="C34" t="n">
-        <v>11.697165179281</v>
+        <v>10.8784385576777</v>
       </c>
       <c r="D34" t="n">
-        <v>14.6210790217115</v>
+        <v>13.0595172666383</v>
       </c>
       <c r="E34" t="n">
-        <v>13.9791056805895</v>
+        <v>12.9212312860449</v>
       </c>
       <c r="F34" t="n">
-        <v>16.315596617208</v>
+        <v>14.919728310765</v>
       </c>
       <c r="G34" t="n">
-        <v>16.0988712388026</v>
+        <v>16.4367237986525</v>
       </c>
       <c r="H34" t="n">
-        <v>17.8478900758525</v>
+        <v>16.7308135368231</v>
       </c>
       <c r="I34" t="n">
-        <v>18.1468911441552</v>
+        <v>17.7434804320205</v>
       </c>
       <c r="J34" t="n">
-        <v>18.8654473384182</v>
+        <v>19.4807555852225</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>9.82611631824983</v>
+        <v>9.423630565598</v>
       </c>
       <c r="B35" t="n">
-        <v>11.5053787401154</v>
+        <v>10.4381637304651</v>
       </c>
       <c r="C35" t="n">
-        <v>10.9247291726807</v>
+        <v>11.9796208318314</v>
       </c>
       <c r="D35" t="n">
-        <v>13.2316561465926</v>
+        <v>15.076073012928</v>
       </c>
       <c r="E35" t="n">
-        <v>13.1512724244723</v>
+        <v>12.5358716107456</v>
       </c>
       <c r="F35" t="n">
-        <v>14.7640594895018</v>
+        <v>15.2865213447409</v>
       </c>
       <c r="G35" t="n">
-        <v>16.0576178934383</v>
+        <v>16.7147519774613</v>
       </c>
       <c r="H35" t="n">
-        <v>18.7595142739691</v>
+        <v>17.2840083900588</v>
       </c>
       <c r="I35" t="n">
-        <v>17.4319614095727</v>
+        <v>16.2632189652846</v>
       </c>
       <c r="J35" t="n">
-        <v>19.2636118568769</v>
+        <v>18.590769723134</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>-3.13647319479035</v>
+        <v>10.4223551228672</v>
       </c>
       <c r="B36" t="n">
-        <v>-4.90932452702073</v>
+        <v>11.5137866847719</v>
       </c>
       <c r="C36" t="n">
-        <v>-5.42702703725402</v>
+        <v>11.3247300102325</v>
       </c>
       <c r="D36" t="n">
-        <v>-6.37001057055147</v>
+        <v>13.3966672248037</v>
       </c>
       <c r="E36" t="n">
-        <v>-7.21423490039491</v>
+        <v>14.7017758676421</v>
       </c>
       <c r="F36" t="n">
-        <v>-6.86246878469538</v>
+        <v>13.7797825633581</v>
       </c>
       <c r="G36" t="n">
-        <v>-8.10992505182988</v>
+        <v>16.9079804450784</v>
       </c>
       <c r="H36" t="n">
-        <v>-7.04282803934149</v>
+        <v>16.2927010708069</v>
       </c>
       <c r="I36" t="n">
-        <v>-9.97179784400478</v>
+        <v>17.4273383881215</v>
       </c>
       <c r="J36" t="n">
-        <v>-9.95640150370168</v>
+        <v>19.0204686752079</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>9.34169311229775</v>
+        <v>10.4115160903736</v>
       </c>
       <c r="B37" t="n">
-        <v>11.3299527323304</v>
+        <v>11.7644662705493</v>
       </c>
       <c r="C37" t="n">
-        <v>12.5633007852755</v>
+        <v>11.3409702545563</v>
       </c>
       <c r="D37" t="n">
-        <v>13.010234968767</v>
+        <v>13.5099795408631</v>
       </c>
       <c r="E37" t="n">
-        <v>14.1436942240298</v>
+        <v>13.8062435029031</v>
       </c>
       <c r="F37" t="n">
-        <v>16.2555203513002</v>
+        <v>16.023143593321</v>
       </c>
       <c r="G37" t="n">
-        <v>16.2046651545145</v>
+        <v>13.8093916803339</v>
       </c>
       <c r="H37" t="n">
-        <v>15.7044801399027</v>
+        <v>17.2001453462845</v>
       </c>
       <c r="I37" t="n">
-        <v>17.3589934590903</v>
+        <v>18.610761581992</v>
       </c>
       <c r="J37" t="n">
-        <v>18.1561764051182</v>
+        <v>18.6591841557776</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>-4.19478446836122</v>
+        <v>-4.99014387523331</v>
       </c>
       <c r="B38" t="n">
-        <v>-5.07088020655364</v>
+        <v>-5.40711700029149</v>
       </c>
       <c r="C38" t="n">
-        <v>-7.33062718483141</v>
+        <v>-6.13025321789116</v>
       </c>
       <c r="D38" t="n">
-        <v>-6.66267838768998</v>
+        <v>-6.45248167780379</v>
       </c>
       <c r="E38" t="n">
-        <v>-6.53054652978925</v>
+        <v>-6.86878076676637</v>
       </c>
       <c r="F38" t="n">
-        <v>-7.28062710556734</v>
+        <v>-7.45380699507477</v>
       </c>
       <c r="G38" t="n">
-        <v>-7.75931397183155</v>
+        <v>-7.94431797214005</v>
       </c>
       <c r="H38" t="n">
-        <v>-10.3048582926263</v>
+        <v>-8.34093136900657</v>
       </c>
       <c r="I38" t="n">
-        <v>-8.85922591956685</v>
+        <v>-8.86736498738591</v>
       </c>
       <c r="J38" t="n">
-        <v>-9.65708072583995</v>
+        <v>-9.60188552657164</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>-4.4963572935355</v>
+        <v>10.3673420066088</v>
       </c>
       <c r="B39" t="n">
-        <v>-4.83889380311558</v>
+        <v>11.3903711871777</v>
       </c>
       <c r="C39" t="n">
-        <v>-5.19038593845409</v>
+        <v>11.7676399346866</v>
       </c>
       <c r="D39" t="n">
-        <v>-5.74454523611611</v>
+        <v>13.3161119563786</v>
       </c>
       <c r="E39" t="n">
-        <v>-6.94440958685563</v>
+        <v>12.7104597401084</v>
       </c>
       <c r="F39" t="n">
-        <v>-7.64960384148646</v>
+        <v>13.7260284083239</v>
       </c>
       <c r="G39" t="n">
-        <v>-7.94301896789223</v>
+        <v>14.8811338923929</v>
       </c>
       <c r="H39" t="n">
-        <v>-8.97034340361221</v>
+        <v>17.0965093731155</v>
       </c>
       <c r="I39" t="n">
-        <v>-8.79156369073041</v>
+        <v>16.1482051269877</v>
       </c>
       <c r="J39" t="n">
-        <v>-10.1310094050882</v>
+        <v>19.5554549549307</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>-3.88262269795949</v>
+        <v>10.2216076250243</v>
       </c>
       <c r="B40" t="n">
-        <v>-5.89581133378464</v>
+        <v>10.2604121798346</v>
       </c>
       <c r="C40" t="n">
-        <v>-5.89452928402233</v>
+        <v>11.6557849008765</v>
       </c>
       <c r="D40" t="n">
-        <v>-6.04779394593263</v>
+        <v>12.0951983260297</v>
       </c>
       <c r="E40" t="n">
-        <v>-5.34866552430918</v>
+        <v>13.7892172358022</v>
       </c>
       <c r="F40" t="n">
-        <v>-7.52735791388153</v>
+        <v>14.3077173530607</v>
       </c>
       <c r="G40" t="n">
-        <v>-8.59592867278098</v>
+        <v>16.5629403247899</v>
       </c>
       <c r="H40" t="n">
-        <v>-8.50876048388322</v>
+        <v>17.3027249469911</v>
       </c>
       <c r="I40" t="n">
-        <v>-8.68318426592507</v>
+        <v>19.0351246159779</v>
       </c>
       <c r="J40" t="n">
-        <v>-9.25862283965704</v>
+        <v>19.1946452506414</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>8.44405161691453</v>
+        <v>-5.04788058677212</v>
       </c>
       <c r="B41" t="n">
-        <v>10.8780816430579</v>
+        <v>-5.19278844865812</v>
       </c>
       <c r="C41" t="n">
-        <v>11.3862865542273</v>
+        <v>-6.13332247282239</v>
       </c>
       <c r="D41" t="n">
-        <v>13.7217159686703</v>
+        <v>-6.35436227404223</v>
       </c>
       <c r="E41" t="n">
-        <v>15.1920134712748</v>
+        <v>-7.30819659182062</v>
       </c>
       <c r="F41" t="n">
-        <v>14.7901916845028</v>
+        <v>-7.51186055547783</v>
       </c>
       <c r="G41" t="n">
-        <v>15.0422932386864</v>
+        <v>-7.99536131012268</v>
       </c>
       <c r="H41" t="n">
-        <v>16.5101475180034</v>
+        <v>-8.72205674264021</v>
       </c>
       <c r="I41" t="n">
-        <v>18.5827394658344</v>
+        <v>-9.1257328622076</v>
       </c>
       <c r="J41" t="n">
-        <v>19.481756702128</v>
+        <v>-9.56852007312547</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>11.5990629683132</v>
+        <v>9.47553000944847</v>
       </c>
       <c r="B42" t="n">
-        <v>10.6645591656637</v>
+        <v>10.8960463007412</v>
       </c>
       <c r="C42" t="n">
-        <v>12.4493728991649</v>
+        <v>12.6823916831938</v>
       </c>
       <c r="D42" t="n">
-        <v>12.5520250108481</v>
+        <v>13.5987048427998</v>
       </c>
       <c r="E42" t="n">
-        <v>14.1092915069721</v>
+        <v>13.9341809033851</v>
       </c>
       <c r="F42" t="n">
-        <v>16.0884723372694</v>
+        <v>14.3260660930457</v>
       </c>
       <c r="G42" t="n">
-        <v>15.4059149028183</v>
+        <v>17.4779065895032</v>
       </c>
       <c r="H42" t="n">
-        <v>18.0514274128817</v>
+        <v>17.185689537207</v>
       </c>
       <c r="I42" t="n">
-        <v>16.8695998187034</v>
+        <v>16.9989791744497</v>
       </c>
       <c r="J42" t="n">
-        <v>19.7322004700862</v>
+        <v>18.4792050820849</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>-5.30831957177089</v>
+        <v>-5.0815914292306</v>
       </c>
       <c r="B43" t="n">
-        <v>-5.33081370199706</v>
+        <v>-5.38190134436508</v>
       </c>
       <c r="C43" t="n">
-        <v>-4.69778849511882</v>
+        <v>-6.14297586482949</v>
       </c>
       <c r="D43" t="n">
-        <v>-7.51307775949795</v>
+        <v>-6.78655751492291</v>
       </c>
       <c r="E43" t="n">
-        <v>-7.13410264747667</v>
+        <v>-7.36973681678704</v>
       </c>
       <c r="F43" t="n">
-        <v>-7.48939469476214</v>
+        <v>-7.60353124395931</v>
       </c>
       <c r="G43" t="n">
-        <v>-8.89649102265447</v>
+        <v>-8.44242827272235</v>
       </c>
       <c r="H43" t="n">
-        <v>-9.33526636574382</v>
+        <v>-8.50788377848364</v>
       </c>
       <c r="I43" t="n">
-        <v>-10.1890090978849</v>
+        <v>-8.87475911738396</v>
       </c>
       <c r="J43" t="n">
-        <v>-9.35171535666668</v>
+        <v>-9.31300209022394</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>8.31193560945089</v>
+        <v>10.2929165695009</v>
       </c>
       <c r="B44" t="n">
-        <v>9.82045162681156</v>
+        <v>11.0052322269074</v>
       </c>
       <c r="C44" t="n">
-        <v>12.1853870268666</v>
+        <v>12.9819272594786</v>
       </c>
       <c r="D44" t="n">
-        <v>12.9019726546587</v>
+        <v>13.0608633868943</v>
       </c>
       <c r="E44" t="n">
-        <v>14.6256636278371</v>
+        <v>13.5409074416379</v>
       </c>
       <c r="F44" t="n">
-        <v>14.7768322955692</v>
+        <v>14.4467180660195</v>
       </c>
       <c r="G44" t="n">
-        <v>16.1517939728818</v>
+        <v>16.5337901833592</v>
       </c>
       <c r="H44" t="n">
-        <v>16.3296598830144</v>
+        <v>15.9740109543629</v>
       </c>
       <c r="I44" t="n">
-        <v>16.6444916822913</v>
+        <v>18.2220806838775</v>
       </c>
       <c r="J44" t="n">
-        <v>19.5758696171597</v>
+        <v>19.2613689863535</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>9.87070549750648</v>
+        <v>9.65253077530405</v>
       </c>
       <c r="B45" t="n">
-        <v>11.4527820831859</v>
+        <v>12.1926074610795</v>
       </c>
       <c r="C45" t="n">
-        <v>11.9922854685611</v>
+        <v>12.3651677430072</v>
       </c>
       <c r="D45" t="n">
-        <v>12.8253061328185</v>
+        <v>13.3580244477624</v>
       </c>
       <c r="E45" t="n">
-        <v>16.1013325130486</v>
+        <v>14.9638434274215</v>
       </c>
       <c r="F45" t="n">
-        <v>15.1466474073369</v>
+        <v>15.3469837832248</v>
       </c>
       <c r="G45" t="n">
-        <v>15.3933171196964</v>
+        <v>14.5295668263144</v>
       </c>
       <c r="H45" t="n">
-        <v>17.4803411455913</v>
+        <v>17.6978103710691</v>
       </c>
       <c r="I45" t="n">
-        <v>18.9584682075027</v>
+        <v>18.5828447564988</v>
       </c>
       <c r="J45" t="n">
-        <v>20.512464516795</v>
+        <v>19.3696165640613</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>9.3928665048418</v>
+        <v>9.69823082781603</v>
       </c>
       <c r="B46" t="n">
-        <v>11.1299640417845</v>
+        <v>11.4544056090324</v>
       </c>
       <c r="C46" t="n">
-        <v>11.9942555126416</v>
+        <v>11.8517527201713</v>
       </c>
       <c r="D46" t="n">
-        <v>14.3687254252361</v>
+        <v>13.8662437143747</v>
       </c>
       <c r="E46" t="n">
-        <v>13.9769680738104</v>
+        <v>14.2636722623746</v>
       </c>
       <c r="F46" t="n">
-        <v>15.4042377531523</v>
+        <v>13.2965503513203</v>
       </c>
       <c r="G46" t="n">
-        <v>16.1356915919658</v>
+        <v>15.0813366335086</v>
       </c>
       <c r="H46" t="n">
-        <v>16.9286728198784</v>
+        <v>16.0165191225584</v>
       </c>
       <c r="I46" t="n">
-        <v>18.6810118172784</v>
+        <v>18.3100365716578</v>
       </c>
       <c r="J46" t="n">
-        <v>18.2791060395718</v>
+        <v>18.6365496665212</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>9.83183369943691</v>
+        <v>9.07193264415104</v>
       </c>
       <c r="B47" t="n">
-        <v>12.1169040259317</v>
+        <v>10.8066828913974</v>
       </c>
       <c r="C47" t="n">
-        <v>12.9941049332412</v>
+        <v>11.5130008637637</v>
       </c>
       <c r="D47" t="n">
-        <v>12.0355638682157</v>
+        <v>13.3906331679365</v>
       </c>
       <c r="E47" t="n">
-        <v>14.8134466296036</v>
+        <v>14.6452729902696</v>
       </c>
       <c r="F47" t="n">
-        <v>13.3970419338756</v>
+        <v>13.4440431881</v>
       </c>
       <c r="G47" t="n">
-        <v>15.1019774511246</v>
+        <v>15.0456345073004</v>
       </c>
       <c r="H47" t="n">
-        <v>16.5843927654944</v>
+        <v>15.5379246965727</v>
       </c>
       <c r="I47" t="n">
-        <v>17.8383349154061</v>
+        <v>18.1812359535226</v>
       </c>
       <c r="J47" t="n">
-        <v>18.5111217711628</v>
+        <v>18.0256796731161</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>10.281489909396</v>
+        <v>9.55853735698601</v>
       </c>
       <c r="B48" t="n">
-        <v>11.2692076508648</v>
+        <v>11.7299539761794</v>
       </c>
       <c r="C48" t="n">
-        <v>11.892371800007</v>
+        <v>11.4868732335173</v>
       </c>
       <c r="D48" t="n">
-        <v>12.376062424163</v>
+        <v>13.5133832056836</v>
       </c>
       <c r="E48" t="n">
-        <v>15.1024169668918</v>
+        <v>14.8661017786721</v>
       </c>
       <c r="F48" t="n">
-        <v>14.7609599242304</v>
+        <v>15.7113424821041</v>
       </c>
       <c r="G48" t="n">
-        <v>16.075542929632</v>
+        <v>15.4768608033277</v>
       </c>
       <c r="H48" t="n">
-        <v>17.8197780003055</v>
+        <v>16.2859529830128</v>
       </c>
       <c r="I48" t="n">
-        <v>17.9676001130325</v>
+        <v>16.7992338233547</v>
       </c>
       <c r="J48" t="n">
-        <v>18.7205021149155</v>
+        <v>18.5269505795519</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>9.69944034709016</v>
+        <v>-5.57013344686027</v>
       </c>
       <c r="B49" t="n">
-        <v>10.3826652096406</v>
+        <v>-5.52222272180747</v>
       </c>
       <c r="C49" t="n">
-        <v>11.9201836577125</v>
+        <v>-5.95644344894543</v>
       </c>
       <c r="D49" t="n">
-        <v>12.7641560056953</v>
+        <v>-6.57641756679984</v>
       </c>
       <c r="E49" t="n">
-        <v>14.8013656849732</v>
+        <v>-7.13053822185529</v>
       </c>
       <c r="F49" t="n">
-        <v>15.6043979163228</v>
+        <v>-7.38506969952961</v>
       </c>
       <c r="G49" t="n">
-        <v>15.5286752827265</v>
+        <v>-7.9938120937426</v>
       </c>
       <c r="H49" t="n">
-        <v>17.2000629831055</v>
+        <v>-8.44203822599681</v>
       </c>
       <c r="I49" t="n">
-        <v>16.309747537581</v>
+        <v>-8.75191816576633</v>
       </c>
       <c r="J49" t="n">
-        <v>18.2565341691116</v>
+        <v>-9.24046841339816</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>8.973852868562</v>
+        <v>9.97943012173111</v>
       </c>
       <c r="B50" t="n">
-        <v>10.7113030174375</v>
+        <v>10.4046698766514</v>
       </c>
       <c r="C50" t="n">
-        <v>11.1946444393762</v>
+        <v>11.5216602445667</v>
       </c>
       <c r="D50" t="n">
-        <v>11.6917141199644</v>
+        <v>14.0937316750631</v>
       </c>
       <c r="E50" t="n">
-        <v>14.0315262087102</v>
+        <v>13.1662060515949</v>
       </c>
       <c r="F50" t="n">
-        <v>15.0782779111907</v>
+        <v>14.4597831858791</v>
       </c>
       <c r="G50" t="n">
-        <v>15.6608051346242</v>
+        <v>15.1468971669502</v>
       </c>
       <c r="H50" t="n">
-        <v>16.9432041746855</v>
+        <v>16.0028356756403</v>
       </c>
       <c r="I50" t="n">
-        <v>17.8686753547658</v>
+        <v>17.6561427468632</v>
       </c>
       <c r="J50" t="n">
-        <v>17.473400061514</v>
+        <v>18.8058981450948</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>-6.17984311358657</v>
+        <v>10.2090673058243</v>
       </c>
       <c r="B51" t="n">
-        <v>-6.39391297292921</v>
+        <v>10.1673515628539</v>
       </c>
       <c r="C51" t="n">
-        <v>-5.6294519752614</v>
+        <v>13.0282453595851</v>
       </c>
       <c r="D51" t="n">
-        <v>-6.56577883560918</v>
+        <v>13.8231660271224</v>
       </c>
       <c r="E51" t="n">
-        <v>-6.4371655131794</v>
+        <v>14.9032487161164</v>
       </c>
       <c r="F51" t="n">
-        <v>-7.89959353310787</v>
+        <v>15.1000066452911</v>
       </c>
       <c r="G51" t="n">
-        <v>-9.36754351262824</v>
+        <v>16.8864942886072</v>
       </c>
       <c r="H51" t="n">
-        <v>-7.88085526084645</v>
+        <v>16.1465488395322</v>
       </c>
       <c r="I51" t="n">
-        <v>-9.42437136754</v>
+        <v>17.4936315825472</v>
       </c>
       <c r="J51" t="n">
-        <v>-10.7034612362228</v>
+        <v>19.7923438400457</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>10.0266548138706</v>
+        <v>10.5497539938228</v>
       </c>
       <c r="B52" t="n">
-        <v>11.1224497291072</v>
+        <v>11.3028895396982</v>
       </c>
       <c r="C52" t="n">
-        <v>13.1962671921486</v>
+        <v>12.6580215077871</v>
       </c>
       <c r="D52" t="n">
-        <v>12.1163400107879</v>
+        <v>13.7041531812132</v>
       </c>
       <c r="E52" t="n">
-        <v>14.0496479597315</v>
+        <v>13.948976278312</v>
       </c>
       <c r="F52" t="n">
-        <v>15.5840705839871</v>
+        <v>14.389934032637</v>
       </c>
       <c r="G52" t="n">
-        <v>17.5787972944858</v>
+        <v>17.623434560667</v>
       </c>
       <c r="H52" t="n">
-        <v>19.3200658087195</v>
+        <v>16.2741654000026</v>
       </c>
       <c r="I52" t="n">
-        <v>17.6270198854794</v>
+        <v>17.7104644179076</v>
       </c>
       <c r="J52" t="n">
-        <v>18.1927476467173</v>
+        <v>18.2797480612511</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>-5.1967923350083</v>
+        <v>-4.59766774340541</v>
       </c>
       <c r="B53" t="n">
-        <v>-5.80894939631727</v>
+        <v>-5.76278645713948</v>
       </c>
       <c r="C53" t="n">
-        <v>-5.05178502368148</v>
+        <v>-6.03624459388474</v>
       </c>
       <c r="D53" t="n">
-        <v>-7.24406522976378</v>
+        <v>-5.85449731070032</v>
       </c>
       <c r="E53" t="n">
-        <v>-7.24663205832547</v>
+        <v>-6.91312191480313</v>
       </c>
       <c r="F53" t="n">
-        <v>-7.30666823510377</v>
+        <v>-7.50585696720699</v>
       </c>
       <c r="G53" t="n">
-        <v>-8.57646566768762</v>
+        <v>-8.21071903076088</v>
       </c>
       <c r="H53" t="n">
-        <v>-8.08978936487979</v>
+        <v>-7.64725344979205</v>
       </c>
       <c r="I53" t="n">
-        <v>-8.11668052790793</v>
+        <v>-9.32795348598335</v>
       </c>
       <c r="J53" t="n">
-        <v>-8.86532809974331</v>
+        <v>-9.37183640944563</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>-6.27673627459892</v>
+        <v>-5.13124999102671</v>
       </c>
       <c r="B54" t="n">
-        <v>-4.83509914950784</v>
+        <v>-5.39166224950577</v>
       </c>
       <c r="C54" t="n">
-        <v>-5.75667128324473</v>
+        <v>-5.50412014621484</v>
       </c>
       <c r="D54" t="n">
-        <v>-6.27424667974615</v>
+        <v>-6.42203197572041</v>
       </c>
       <c r="E54" t="n">
-        <v>-6.423757837934</v>
+        <v>-7.34770074405608</v>
       </c>
       <c r="F54" t="n">
-        <v>-7.15563665554689</v>
+        <v>-7.60809814232712</v>
       </c>
       <c r="G54" t="n">
-        <v>-7.86618919016345</v>
+        <v>-8.45850609245317</v>
       </c>
       <c r="H54" t="n">
-        <v>-8.34113695451189</v>
+        <v>-8.47051041222446</v>
       </c>
       <c r="I54" t="n">
-        <v>-8.01694019858978</v>
+        <v>-9.20818761953443</v>
       </c>
       <c r="J54" t="n">
-        <v>-10.1523631480123</v>
+        <v>-9.23821839683293</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>10.0869047788156</v>
+        <v>10.4378583470733</v>
       </c>
       <c r="B55" t="n">
-        <v>9.96436428317861</v>
+        <v>11.5864282519906</v>
       </c>
       <c r="C55" t="n">
-        <v>12.6860198930343</v>
+        <v>12.4677216756545</v>
       </c>
       <c r="D55" t="n">
-        <v>13.3355490633931</v>
+        <v>12.3399411817208</v>
       </c>
       <c r="E55" t="n">
-        <v>13.804585188789</v>
+        <v>14.8247865409582</v>
       </c>
       <c r="F55" t="n">
-        <v>13.9841890606492</v>
+        <v>15.7421123327672</v>
       </c>
       <c r="G55" t="n">
-        <v>15.2467256873531</v>
+        <v>15.0026768269586</v>
       </c>
       <c r="H55" t="n">
-        <v>17.5210755666917</v>
+        <v>17.9167688031892</v>
       </c>
       <c r="I55" t="n">
-        <v>17.1256748455049</v>
+        <v>18.5006439359132</v>
       </c>
       <c r="J55" t="n">
-        <v>19.1849532099917</v>
+        <v>19.6648777949533</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>7.59348246969164</v>
+        <v>9.39606851965252</v>
       </c>
       <c r="B56" t="n">
-        <v>10.7064491538273</v>
+        <v>10.4316410073728</v>
       </c>
       <c r="C56" t="n">
-        <v>13.4110573573682</v>
+        <v>12.0848179629958</v>
       </c>
       <c r="D56" t="n">
-        <v>13.393997052259</v>
+        <v>13.1986226083236</v>
       </c>
       <c r="E56" t="n">
-        <v>13.2227482958899</v>
+        <v>13.2244228035412</v>
       </c>
       <c r="F56" t="n">
-        <v>15.121051843998</v>
+        <v>14.3346100741708</v>
       </c>
       <c r="G56" t="n">
-        <v>16.8232791294843</v>
+        <v>14.7435792361166</v>
       </c>
       <c r="H56" t="n">
-        <v>16.948755394018</v>
+        <v>17.2326532592765</v>
       </c>
       <c r="I56" t="n">
-        <v>18.0320138885226</v>
+        <v>19.1126216524709</v>
       </c>
       <c r="J56" t="n">
-        <v>17.7346598715415</v>
+        <v>18.1321217800392</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>10.6989873497442</v>
+        <v>9.65058948449185</v>
       </c>
       <c r="B57" t="n">
-        <v>10.9467984964093</v>
+        <v>10.9980164430457</v>
       </c>
       <c r="C57" t="n">
-        <v>11.4417524793723</v>
+        <v>11.8862003299852</v>
       </c>
       <c r="D57" t="n">
-        <v>12.6328078160247</v>
+        <v>13.4895118855038</v>
       </c>
       <c r="E57" t="n">
-        <v>13.4193823730505</v>
+        <v>14.0050545084236</v>
       </c>
       <c r="F57" t="n">
-        <v>14.8129438426175</v>
+        <v>14.6089142181697</v>
       </c>
       <c r="G57" t="n">
-        <v>16.7679290205488</v>
+        <v>15.1127365161763</v>
       </c>
       <c r="H57" t="n">
-        <v>16.1940924433704</v>
+        <v>16.4431360705973</v>
       </c>
       <c r="I57" t="n">
-        <v>19.6955791076852</v>
+        <v>17.9375418711181</v>
       </c>
       <c r="J57" t="n">
-        <v>18.4052772761145</v>
+        <v>20.1045644305117</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>10.720895748933</v>
+        <v>-5.08308775037229</v>
       </c>
       <c r="B58" t="n">
-        <v>10.7692001386148</v>
+        <v>-5.6775268241123</v>
       </c>
       <c r="C58" t="n">
-        <v>11.1338176484851</v>
+        <v>-5.85254620217759</v>
       </c>
       <c r="D58" t="n">
-        <v>13.0119149346673</v>
+        <v>-6.61564385196923</v>
       </c>
       <c r="E58" t="n">
-        <v>12.8209763671485</v>
+        <v>-6.87060488263823</v>
       </c>
       <c r="F58" t="n">
-        <v>16.1756081587573</v>
+        <v>-7.72453246299087</v>
       </c>
       <c r="G58" t="n">
-        <v>15.4753300640228</v>
+        <v>-7.60259695672977</v>
       </c>
       <c r="H58" t="n">
-        <v>16.4821885932967</v>
+        <v>-8.15298558058273</v>
       </c>
       <c r="I58" t="n">
-        <v>16.9331596836491</v>
+        <v>-9.04556162943835</v>
       </c>
       <c r="J58" t="n">
-        <v>18.3532782148878</v>
+        <v>-9.60521955140725</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>-6.1165874944679</v>
+        <v>-4.67807486522709</v>
       </c>
       <c r="B59" t="n">
-        <v>-4.72928599744299</v>
+        <v>-5.33920337550367</v>
       </c>
       <c r="C59" t="n">
-        <v>-5.26731824249651</v>
+        <v>-5.77567667818029</v>
       </c>
       <c r="D59" t="n">
-        <v>-5.37120686983238</v>
+        <v>-6.29805288947198</v>
       </c>
       <c r="E59" t="n">
-        <v>-7.23365417897289</v>
+        <v>-7.11078175636866</v>
       </c>
       <c r="F59" t="n">
-        <v>-7.28383497503612</v>
+        <v>-6.89090823046562</v>
       </c>
       <c r="G59" t="n">
-        <v>-8.59699751292225</v>
+        <v>-7.7262052118477</v>
       </c>
       <c r="H59" t="n">
-        <v>-9.24123495856458</v>
+        <v>-9.16821149886709</v>
       </c>
       <c r="I59" t="n">
-        <v>-8.40922792766664</v>
+        <v>-9.0493193077623</v>
       </c>
       <c r="J59" t="n">
-        <v>-8.56890994928175</v>
+        <v>-9.40618080187949</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>8.72063554037245</v>
+        <v>9.77178682960119</v>
       </c>
       <c r="B60" t="n">
-        <v>9.75148866403896</v>
+        <v>10.7461036663252</v>
       </c>
       <c r="C60" t="n">
-        <v>12.0617625796844</v>
+        <v>12.215067733764</v>
       </c>
       <c r="D60" t="n">
-        <v>12.689932020355</v>
+        <v>13.6779340410978</v>
       </c>
       <c r="E60" t="n">
-        <v>13.7540094909373</v>
+        <v>14.5910323323767</v>
       </c>
       <c r="F60" t="n">
-        <v>14.7114457906767</v>
+        <v>15.3411920251345</v>
       </c>
       <c r="G60" t="n">
-        <v>14.9825935683134</v>
+        <v>15.7511491596908</v>
       </c>
       <c r="H60" t="n">
-        <v>16.0654465501417</v>
+        <v>17.3248227261672</v>
       </c>
       <c r="I60" t="n">
-        <v>17.6028322533132</v>
+        <v>17.2650275543786</v>
       </c>
       <c r="J60" t="n">
-        <v>19.7903788051317</v>
+        <v>19.0911786319081</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>9.2951256864843</v>
+        <v>9.67042429692542</v>
       </c>
       <c r="B61" t="n">
-        <v>11.4588493701317</v>
+        <v>10.6094531728135</v>
       </c>
       <c r="C61" t="n">
-        <v>13.55103755329</v>
+        <v>12.5304202362844</v>
       </c>
       <c r="D61" t="n">
-        <v>13.6774453467765</v>
+        <v>14.0086152991797</v>
       </c>
       <c r="E61" t="n">
-        <v>13.6350271838145</v>
+        <v>15.2349905127622</v>
       </c>
       <c r="F61" t="n">
-        <v>15.4009669609547</v>
+        <v>15.7793831097413</v>
       </c>
       <c r="G61" t="n">
-        <v>16.1339337784967</v>
+        <v>17.9786552921739</v>
       </c>
       <c r="H61" t="n">
-        <v>18.7328358281518</v>
+        <v>16.8061801942979</v>
       </c>
       <c r="I61" t="n">
-        <v>19.3535651927579</v>
+        <v>18.2808746347414</v>
       </c>
       <c r="J61" t="n">
-        <v>20.064051818944</v>
+        <v>19.3582052008654</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>-6.21244040676373</v>
+        <v>-4.83661153205921</v>
       </c>
       <c r="B62" t="n">
-        <v>-5.25293550494334</v>
+        <v>-5.24277646035759</v>
       </c>
       <c r="C62" t="n">
-        <v>-5.19527160713663</v>
+        <v>-5.92925994104744</v>
       </c>
       <c r="D62" t="n">
-        <v>-6.52639571417079</v>
+        <v>-6.74617524461312</v>
       </c>
       <c r="E62" t="n">
-        <v>-7.41468810858792</v>
+        <v>-6.87905155435615</v>
       </c>
       <c r="F62" t="n">
-        <v>-7.14852183901288</v>
+        <v>-7.52045307901698</v>
       </c>
       <c r="G62" t="n">
-        <v>-6.47735083845389</v>
+        <v>-8.66929602883965</v>
       </c>
       <c r="H62" t="n">
-        <v>-8.76481852695437</v>
+        <v>-8.2128420242017</v>
       </c>
       <c r="I62" t="n">
-        <v>-8.61623145404356</v>
+        <v>-9.0370971397803</v>
       </c>
       <c r="J62" t="n">
-        <v>-9.86024341135001</v>
+        <v>-9.89622983024765</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>-5.2886699611619</v>
+        <v>10.1196810523842</v>
       </c>
       <c r="B63" t="n">
-        <v>-3.182055582845</v>
+        <v>9.54647774951951</v>
       </c>
       <c r="C63" t="n">
-        <v>-5.44414397885092</v>
+        <v>11.2203758189725</v>
       </c>
       <c r="D63" t="n">
-        <v>-7.61649019850415</v>
+        <v>13.2613851905117</v>
       </c>
       <c r="E63" t="n">
-        <v>-6.86625603936754</v>
+        <v>12.5882755326011</v>
       </c>
       <c r="F63" t="n">
-        <v>-8.20956222845963</v>
+        <v>15.2350256598477</v>
       </c>
       <c r="G63" t="n">
-        <v>-7.80990071844161</v>
+        <v>16.940892019745</v>
       </c>
       <c r="H63" t="n">
-        <v>-8.76045328363406</v>
+        <v>15.9448918901776</v>
       </c>
       <c r="I63" t="n">
-        <v>-10.7018159802848</v>
+        <v>17.7772528393161</v>
       </c>
       <c r="J63" t="n">
-        <v>-10.329809476855</v>
+        <v>19.4641178729184</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>-6.00534310057748</v>
+        <v>-4.82847206844066</v>
       </c>
       <c r="B64" t="n">
-        <v>-5.98890010636858</v>
+        <v>-5.56943626051216</v>
       </c>
       <c r="C64" t="n">
-        <v>-6.87809467836945</v>
+        <v>-5.87550824209764</v>
       </c>
       <c r="D64" t="n">
-        <v>-6.61267787663205</v>
+        <v>-6.31493799792783</v>
       </c>
       <c r="E64" t="n">
-        <v>-7.35017314145224</v>
+        <v>-6.98513634899737</v>
       </c>
       <c r="F64" t="n">
-        <v>-7.30900424913048</v>
+        <v>-7.51884639120906</v>
       </c>
       <c r="G64" t="n">
-        <v>-7.76750343970514</v>
+        <v>-7.83382667220418</v>
       </c>
       <c r="H64" t="n">
-        <v>-8.28993765922147</v>
+        <v>-8.21803967105821</v>
       </c>
       <c r="I64" t="n">
-        <v>-8.21773939599502</v>
+        <v>-9.29391538756075</v>
       </c>
       <c r="J64" t="n">
-        <v>-8.81774751183497</v>
+        <v>-9.08921284974418</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>10.9254292626995</v>
+        <v>10.2498913232232</v>
       </c>
       <c r="B65" t="n">
-        <v>10.2753115845096</v>
+        <v>10.5481343219239</v>
       </c>
       <c r="C65" t="n">
-        <v>10.8007232874234</v>
+        <v>12.5831548026953</v>
       </c>
       <c r="D65" t="n">
-        <v>13.4244658339466</v>
+        <v>14.0631741717951</v>
       </c>
       <c r="E65" t="n">
-        <v>13.8930588596545</v>
+        <v>14.783310100875</v>
       </c>
       <c r="F65" t="n">
-        <v>14.5863657169579</v>
+        <v>14.1001224012112</v>
       </c>
       <c r="G65" t="n">
-        <v>15.8557530093347</v>
+        <v>16.3170695547218</v>
       </c>
       <c r="H65" t="n">
-        <v>15.6832527732483</v>
+        <v>16.0571501206707</v>
       </c>
       <c r="I65" t="n">
-        <v>17.2989903071175</v>
+        <v>17.9222257620362</v>
       </c>
       <c r="J65" t="n">
-        <v>18.894686609643</v>
+        <v>18.9628380719719</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>10.8380659765629</v>
+        <v>9.50692458021995</v>
       </c>
       <c r="B66" t="n">
-        <v>10.7181581499587</v>
+        <v>11.0024656749236</v>
       </c>
       <c r="C66" t="n">
-        <v>12.0574767666091</v>
+        <v>11.508463324553</v>
       </c>
       <c r="D66" t="n">
-        <v>11.7780435034603</v>
+        <v>12.886414359325</v>
       </c>
       <c r="E66" t="n">
-        <v>14.3262069285773</v>
+        <v>12.6849347587325</v>
       </c>
       <c r="F66" t="n">
-        <v>15.7551439249038</v>
+        <v>14.1948707849785</v>
       </c>
       <c r="G66" t="n">
-        <v>15.9883026669549</v>
+        <v>15.8538963362303</v>
       </c>
       <c r="H66" t="n">
-        <v>17.7543464867804</v>
+        <v>15.5959186857517</v>
       </c>
       <c r="I66" t="n">
-        <v>18.7311804260658</v>
+        <v>18.225854415653</v>
       </c>
       <c r="J66" t="n">
-        <v>18.8287588398561</v>
+        <v>17.5844177138364</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>9.17400576138728</v>
+        <v>10.8699443910424</v>
       </c>
       <c r="B67" t="n">
-        <v>11.7003568245399</v>
+        <v>9.9966066062903</v>
       </c>
       <c r="C67" t="n">
-        <v>11.8730411566468</v>
+        <v>12.205409590405</v>
       </c>
       <c r="D67" t="n">
-        <v>13.4140687368689</v>
+        <v>13.1444142755187</v>
       </c>
       <c r="E67" t="n">
-        <v>13.6352327102062</v>
+        <v>15.3404827175317</v>
       </c>
       <c r="F67" t="n">
-        <v>16.3781380578508</v>
+        <v>14.3255549029208</v>
       </c>
       <c r="G67" t="n">
-        <v>15.4621791740467</v>
+        <v>16.0707842962568</v>
       </c>
       <c r="H67" t="n">
-        <v>16.7706824448097</v>
+        <v>17.5350891984625</v>
       </c>
       <c r="I67" t="n">
-        <v>19.0678151066902</v>
+        <v>16.8289299507125</v>
       </c>
       <c r="J67" t="n">
-        <v>18.468707512793</v>
+        <v>19.0615566146393</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>10.0374447847201</v>
+        <v>10.1959943281095</v>
       </c>
       <c r="B68" t="n">
-        <v>10.9487525592616</v>
+        <v>10.0314261264046</v>
       </c>
       <c r="C68" t="n">
-        <v>11.8347090262432</v>
+        <v>12.0579750543941</v>
       </c>
       <c r="D68" t="n">
-        <v>12.2934456253317</v>
+        <v>14.1164855855863</v>
       </c>
       <c r="E68" t="n">
-        <v>13.1103179058672</v>
+        <v>14.5751110729603</v>
       </c>
       <c r="F68" t="n">
-        <v>15.0225231178561</v>
+        <v>14.1607939264389</v>
       </c>
       <c r="G68" t="n">
-        <v>15.5448101612882</v>
+        <v>15.5156622626673</v>
       </c>
       <c r="H68" t="n">
-        <v>16.998702177052</v>
+        <v>17.4584129710721</v>
       </c>
       <c r="I68" t="n">
-        <v>17.7634343819364</v>
+        <v>19.3813832155631</v>
       </c>
       <c r="J68" t="n">
-        <v>18.5215786973141</v>
+        <v>19.0916227865738</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>10.004702722318</v>
+        <v>11.1531785055505</v>
       </c>
       <c r="B69" t="n">
-        <v>11.2442295169344</v>
+        <v>9.49028855278326</v>
       </c>
       <c r="C69" t="n">
-        <v>12.4199744463965</v>
+        <v>12.4451280476072</v>
       </c>
       <c r="D69" t="n">
-        <v>13.8238198054239</v>
+        <v>13.2753093920831</v>
       </c>
       <c r="E69" t="n">
-        <v>12.9703687724969</v>
+        <v>13.1908110561302</v>
       </c>
       <c r="F69" t="n">
-        <v>14.564462418104</v>
+        <v>14.5373669616243</v>
       </c>
       <c r="G69" t="n">
-        <v>15.0785551109454</v>
+        <v>16.0413835055245</v>
       </c>
       <c r="H69" t="n">
-        <v>18.0861067580592</v>
+        <v>17.4278835579857</v>
       </c>
       <c r="I69" t="n">
-        <v>17.4409265260768</v>
+        <v>17.4290868563946</v>
       </c>
       <c r="J69" t="n">
-        <v>18.5929167628345</v>
+        <v>18.2648073058949</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>9.92938723357395</v>
+        <v>10.8750189970128</v>
       </c>
       <c r="B70" t="n">
-        <v>9.6057305089976</v>
+        <v>10.8968324584155</v>
       </c>
       <c r="C70" t="n">
-        <v>10.9914152216716</v>
+        <v>11.1644811861769</v>
       </c>
       <c r="D70" t="n">
-        <v>13.1349739772067</v>
+        <v>12.4871639159602</v>
       </c>
       <c r="E70" t="n">
-        <v>13.8562418726048</v>
+        <v>14.0000167726232</v>
       </c>
       <c r="F70" t="n">
-        <v>14.5175359867745</v>
+        <v>15.5575970269348</v>
       </c>
       <c r="G70" t="n">
-        <v>15.7517185379194</v>
+        <v>14.4319771370127</v>
       </c>
       <c r="H70" t="n">
-        <v>17.8243223304306</v>
+        <v>16.4116324758358</v>
       </c>
       <c r="I70" t="n">
-        <v>18.0542047471096</v>
+        <v>17.3400477237869</v>
       </c>
       <c r="J70" t="n">
-        <v>21.2295997602524</v>
+        <v>18.8172738898964</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>9.84503609449695</v>
+        <v>11.0194500412042</v>
       </c>
       <c r="B71" t="n">
-        <v>11.5292177864792</v>
+        <v>10.6321529755417</v>
       </c>
       <c r="C71" t="n">
-        <v>11.1884751001457</v>
+        <v>12.2121334960556</v>
       </c>
       <c r="D71" t="n">
-        <v>14.5046253710972</v>
+        <v>13.8833162071405</v>
       </c>
       <c r="E71" t="n">
-        <v>13.6564909659913</v>
+        <v>14.2832569227306</v>
       </c>
       <c r="F71" t="n">
-        <v>14.6614151833198</v>
+        <v>13.4104427540483</v>
       </c>
       <c r="G71" t="n">
-        <v>15.4279285191577</v>
+        <v>15.1201643781551</v>
       </c>
       <c r="H71" t="n">
-        <v>16.9450620182481</v>
+        <v>17.4865345813886</v>
       </c>
       <c r="I71" t="n">
-        <v>18.1222887908486</v>
+        <v>17.4803950556314</v>
       </c>
       <c r="J71" t="n">
-        <v>19.6065669525151</v>
+        <v>18.4087379327617</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>-4.57083783981073</v>
+        <v>10.758452844866</v>
       </c>
       <c r="B72" t="n">
-        <v>-5.14545944164006</v>
+        <v>11.9350632893131</v>
       </c>
       <c r="C72" t="n">
-        <v>-6.26770325519406</v>
+        <v>12.0334771271218</v>
       </c>
       <c r="D72" t="n">
-        <v>-6.43940696979233</v>
+        <v>13.8401813622798</v>
       </c>
       <c r="E72" t="n">
-        <v>-5.81742451244042</v>
+        <v>14.816115493272</v>
       </c>
       <c r="F72" t="n">
-        <v>-7.02578054410528</v>
+        <v>13.767903965334</v>
       </c>
       <c r="G72" t="n">
-        <v>-8.03714906646021</v>
+        <v>15.3960037051132</v>
       </c>
       <c r="H72" t="n">
-        <v>-8.33098386329423</v>
+        <v>18.1842190001615</v>
       </c>
       <c r="I72" t="n">
-        <v>-8.21478306799073</v>
+        <v>17.3180321867415</v>
       </c>
       <c r="J72" t="n">
-        <v>-9.07137838955443</v>
+        <v>19.6875764429826</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>9.15063045433978</v>
+        <v>-5.1494313764484</v>
       </c>
       <c r="B73" t="n">
-        <v>11.6746808109481</v>
+        <v>-5.21024732331467</v>
       </c>
       <c r="C73" t="n">
-        <v>11.1238778106433</v>
+        <v>-5.92190071714864</v>
       </c>
       <c r="D73" t="n">
-        <v>12.2737173693553</v>
+        <v>-6.41546283214361</v>
       </c>
       <c r="E73" t="n">
-        <v>14.2617138009078</v>
+        <v>-6.73256051362399</v>
       </c>
       <c r="F73" t="n">
-        <v>13.7994405393888</v>
+        <v>-7.50958136754445</v>
       </c>
       <c r="G73" t="n">
-        <v>17.103055944509</v>
+        <v>-7.82287923457994</v>
       </c>
       <c r="H73" t="n">
-        <v>18.0799378439961</v>
+        <v>-8.47253313298842</v>
       </c>
       <c r="I73" t="n">
-        <v>16.8206525876926</v>
+        <v>-9.3473399030068</v>
       </c>
       <c r="J73" t="n">
-        <v>19.1629130077015</v>
+        <v>-9.32803389709192</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>9.15774954180168</v>
+        <v>10.0385243866362</v>
       </c>
       <c r="B74" t="n">
-        <v>10.833780797842</v>
+        <v>11.8283576221686</v>
       </c>
       <c r="C74" t="n">
-        <v>12.1810959352675</v>
+        <v>11.8613718098193</v>
       </c>
       <c r="D74" t="n">
-        <v>13.4257895320496</v>
+        <v>13.2512894334105</v>
       </c>
       <c r="E74" t="n">
-        <v>13.6660734084596</v>
+        <v>14.8316331474383</v>
       </c>
       <c r="F74" t="n">
-        <v>15.246106386092</v>
+        <v>14.007189120568</v>
       </c>
       <c r="G74" t="n">
-        <v>15.5357797622434</v>
+        <v>15.3762401839002</v>
       </c>
       <c r="H74" t="n">
-        <v>16.9311483569579</v>
+        <v>17.2321596052237</v>
       </c>
       <c r="I74" t="n">
-        <v>17.6861228064562</v>
+        <v>18.1534494136839</v>
       </c>
       <c r="J74" t="n">
-        <v>18.8929816513064</v>
+        <v>18.7542116498369</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>10.2349475389869</v>
+        <v>9.76554825158544</v>
       </c>
       <c r="B75" t="n">
-        <v>11.4095420207426</v>
+        <v>10.7844728406396</v>
       </c>
       <c r="C75" t="n">
-        <v>11.8936974004054</v>
+        <v>11.4526555704512</v>
       </c>
       <c r="D75" t="n">
-        <v>13.7648728297739</v>
+        <v>13.0384564952261</v>
       </c>
       <c r="E75" t="n">
-        <v>13.1872629918682</v>
+        <v>15.5094607827224</v>
       </c>
       <c r="F75" t="n">
-        <v>15.5083210128526</v>
+        <v>15.0243074714609</v>
       </c>
       <c r="G75" t="n">
-        <v>15.6561447321993</v>
+        <v>15.9205057593107</v>
       </c>
       <c r="H75" t="n">
-        <v>17.1281630653672</v>
+        <v>17.1369157267192</v>
       </c>
       <c r="I75" t="n">
-        <v>16.3414881106147</v>
+        <v>18.0722600682205</v>
       </c>
       <c r="J75" t="n">
-        <v>18.8151085971637</v>
+        <v>18.2966741436887</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>-3.59842528732773</v>
+        <v>9.28314969573174</v>
       </c>
       <c r="B76" t="n">
-        <v>-6.25480009855012</v>
+        <v>11.7020530064491</v>
       </c>
       <c r="C76" t="n">
-        <v>-6.27042994409619</v>
+        <v>13.0173727146079</v>
       </c>
       <c r="D76" t="n">
-        <v>-8.35883834421579</v>
+        <v>12.7420107415532</v>
       </c>
       <c r="E76" t="n">
-        <v>-5.26703869447904</v>
+        <v>14.0304043535635</v>
       </c>
       <c r="F76" t="n">
-        <v>-6.35123197171054</v>
+        <v>15.5018988243451</v>
       </c>
       <c r="G76" t="n">
-        <v>-7.56675068019655</v>
+        <v>16.1997215975271</v>
       </c>
       <c r="H76" t="n">
-        <v>-7.97147642078257</v>
+        <v>16.5980351875169</v>
       </c>
       <c r="I76" t="n">
-        <v>-9.03005043776686</v>
+        <v>17.5839782008483</v>
       </c>
       <c r="J76" t="n">
-        <v>-8.58497192979744</v>
+        <v>18.8931705394486</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>11.0772971446158</v>
+        <v>9.77174115617104</v>
       </c>
       <c r="B77" t="n">
-        <v>10.8109133921728</v>
+        <v>11.4940961255937</v>
       </c>
       <c r="C77" t="n">
-        <v>11.8718935759242</v>
+        <v>10.5482407375498</v>
       </c>
       <c r="D77" t="n">
-        <v>13.5937846655565</v>
+        <v>13.6164206192656</v>
       </c>
       <c r="E77" t="n">
-        <v>14.1125776158826</v>
+        <v>14.1408096408955</v>
       </c>
       <c r="F77" t="n">
-        <v>15.1505682320691</v>
+        <v>15.3235874997023</v>
       </c>
       <c r="G77" t="n">
-        <v>15.7004360994115</v>
+        <v>15.9912947116483</v>
       </c>
       <c r="H77" t="n">
-        <v>15.6668388374817</v>
+        <v>17.825495055024</v>
       </c>
       <c r="I77" t="n">
-        <v>18.4035222785613</v>
+        <v>16.8117290128481</v>
       </c>
       <c r="J77" t="n">
-        <v>18.5438172297151</v>
+        <v>18.3226998252083</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>10.3220052023081</v>
+        <v>-5.26840917753962</v>
       </c>
       <c r="B78" t="n">
-        <v>10.5333438475042</v>
+        <v>-5.59485974021581</v>
       </c>
       <c r="C78" t="n">
-        <v>12.1009646412082</v>
+        <v>-6.14537636040749</v>
       </c>
       <c r="D78" t="n">
-        <v>13.7925346874904</v>
+        <v>-6.67318937004289</v>
       </c>
       <c r="E78" t="n">
-        <v>14.1434651575336</v>
+        <v>-6.98837032365663</v>
       </c>
       <c r="F78" t="n">
-        <v>13.5294111632916</v>
+        <v>-7.30991463582482</v>
       </c>
       <c r="G78" t="n">
-        <v>15.9831346314688</v>
+        <v>-8.01026703359823</v>
       </c>
       <c r="H78" t="n">
-        <v>16.5714218721709</v>
+        <v>-8.95782358182915</v>
       </c>
       <c r="I78" t="n">
-        <v>18.2905316193461</v>
+        <v>-8.82063374517963</v>
       </c>
       <c r="J78" t="n">
-        <v>18.6696546657366</v>
+        <v>-9.23500620007313</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>-4.76945521705756</v>
+        <v>9.6791160118167</v>
       </c>
       <c r="B79" t="n">
-        <v>-6.24545181430248</v>
+        <v>11.555805386956</v>
       </c>
       <c r="C79" t="n">
-        <v>-6.98339270213396</v>
+        <v>13.8687270524614</v>
       </c>
       <c r="D79" t="n">
-        <v>-5.78570374669101</v>
+        <v>12.5904642466447</v>
       </c>
       <c r="E79" t="n">
-        <v>-7.26864320144293</v>
+        <v>14.4054352619402</v>
       </c>
       <c r="F79" t="n">
-        <v>-8.53979835473292</v>
+        <v>14.2764891521232</v>
       </c>
       <c r="G79" t="n">
-        <v>-8.03713966544869</v>
+        <v>15.2896751368425</v>
       </c>
       <c r="H79" t="n">
-        <v>-9.33717759772806</v>
+        <v>16.9963598758039</v>
       </c>
       <c r="I79" t="n">
-        <v>-9.73363526137371</v>
+        <v>18.8944949169921</v>
       </c>
       <c r="J79" t="n">
-        <v>-10.2428402368976</v>
+        <v>18.0421943567593</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>-5.11814913254975</v>
+        <v>10.4771878945606</v>
       </c>
       <c r="B80" t="n">
-        <v>-4.81524015821892</v>
+        <v>10.4394758613938</v>
       </c>
       <c r="C80" t="n">
-        <v>-7.25824710011012</v>
+        <v>13.8792043704731</v>
       </c>
       <c r="D80" t="n">
-        <v>-4.85221581926426</v>
+        <v>12.1384671960083</v>
       </c>
       <c r="E80" t="n">
-        <v>-7.81831006109731</v>
+        <v>13.874921570406</v>
       </c>
       <c r="F80" t="n">
-        <v>-7.25196557597414</v>
+        <v>15.8895199619452</v>
       </c>
       <c r="G80" t="n">
-        <v>-8.56715452181481</v>
+        <v>15.3977437744502</v>
       </c>
       <c r="H80" t="n">
-        <v>-8.68934201687154</v>
+        <v>16.9983069852205</v>
       </c>
       <c r="I80" t="n">
-        <v>-8.64997154399171</v>
+        <v>18.4502413817129</v>
       </c>
       <c r="J80" t="n">
-        <v>-10.150317822591</v>
+        <v>19.0631946213895</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>10.5291062489881</v>
+        <v>10.6997160128935</v>
       </c>
       <c r="B81" t="n">
-        <v>11.4883491738054</v>
+        <v>11.6176317932877</v>
       </c>
       <c r="C81" t="n">
-        <v>10.3516533864833</v>
+        <v>12.793082432556</v>
       </c>
       <c r="D81" t="n">
-        <v>14.0030099337047</v>
+        <v>12.3740793831142</v>
       </c>
       <c r="E81" t="n">
-        <v>13.891465834994</v>
+        <v>14.5245786970053</v>
       </c>
       <c r="F81" t="n">
-        <v>14.7965806626659</v>
+        <v>14.6157213547847</v>
       </c>
       <c r="G81" t="n">
-        <v>15.2948806655823</v>
+        <v>16.1289927281833</v>
       </c>
       <c r="H81" t="n">
-        <v>18.2327629326416</v>
+        <v>17.0086148979678</v>
       </c>
       <c r="I81" t="n">
-        <v>18.2488770252013</v>
+        <v>18.129043078017</v>
       </c>
       <c r="J81" t="n">
-        <v>19.0262309605851</v>
+        <v>19.9014709674642</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>9.732250958433</v>
+        <v>10.0153830419078</v>
       </c>
       <c r="B82" t="n">
-        <v>11.6110828268638</v>
+        <v>10.7058763961088</v>
       </c>
       <c r="C82" t="n">
-        <v>13.8305593470455</v>
+        <v>12.1673636397088</v>
       </c>
       <c r="D82" t="n">
-        <v>13.5695511030362</v>
+        <v>13.080409806439</v>
       </c>
       <c r="E82" t="n">
-        <v>13.6827897118495</v>
+        <v>13.0240565133567</v>
       </c>
       <c r="F82" t="n">
-        <v>15.7363579110651</v>
+        <v>14.3729740811415</v>
       </c>
       <c r="G82" t="n">
-        <v>16.961764711801</v>
+        <v>16.3358971810766</v>
       </c>
       <c r="H82" t="n">
-        <v>16.5358819976496</v>
+        <v>16.2714093710825</v>
       </c>
       <c r="I82" t="n">
-        <v>17.2911416329437</v>
+        <v>16.4067785791555</v>
       </c>
       <c r="J82" t="n">
-        <v>18.4330087534193</v>
+        <v>18.3504641071621</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>9.69012310315507</v>
+        <v>9.80240349618555</v>
       </c>
       <c r="B83" t="n">
-        <v>12.5524317051521</v>
+        <v>11.8629959831103</v>
       </c>
       <c r="C83" t="n">
-        <v>11.4834258134213</v>
+        <v>13.6393913970719</v>
       </c>
       <c r="D83" t="n">
-        <v>12.6913553436394</v>
+        <v>12.3410418258869</v>
       </c>
       <c r="E83" t="n">
-        <v>14.1332412151274</v>
+        <v>14.188787244879</v>
       </c>
       <c r="F83" t="n">
-        <v>14.3137939376814</v>
+        <v>15.077024446215</v>
       </c>
       <c r="G83" t="n">
-        <v>16.521423909225</v>
+        <v>16.7257149107898</v>
       </c>
       <c r="H83" t="n">
-        <v>16.2343831864049</v>
+        <v>17.238369347047</v>
       </c>
       <c r="I83" t="n">
-        <v>17.6661415923173</v>
+        <v>19.6715842342501</v>
       </c>
       <c r="J83" t="n">
-        <v>18.6242193743903</v>
+        <v>19.2522704881588</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>10.3825815271056</v>
+        <v>9.23485239020475</v>
       </c>
       <c r="B84" t="n">
-        <v>10.3706696585059</v>
+        <v>11.2571211379199</v>
       </c>
       <c r="C84" t="n">
-        <v>11.8798990761882</v>
+        <v>12.7906795046862</v>
       </c>
       <c r="D84" t="n">
-        <v>12.9938303156574</v>
+        <v>12.5045784268024</v>
       </c>
       <c r="E84" t="n">
-        <v>14.1360187136432</v>
+        <v>12.3643280241005</v>
       </c>
       <c r="F84" t="n">
-        <v>16.1956264231831</v>
+        <v>14.0071697064963</v>
       </c>
       <c r="G84" t="n">
-        <v>16.2790963711408</v>
+        <v>16.5475258183615</v>
       </c>
       <c r="H84" t="n">
-        <v>16.6503019178223</v>
+        <v>16.0356896682829</v>
       </c>
       <c r="I84" t="n">
-        <v>17.8709904591546</v>
+        <v>17.3794197603258</v>
       </c>
       <c r="J84" t="n">
-        <v>19.5907955529678</v>
+        <v>20.4326996041302</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>9.89640809154439</v>
+        <v>11.3939522008081</v>
       </c>
       <c r="B85" t="n">
-        <v>10.1775825988327</v>
+        <v>9.91060981239972</v>
       </c>
       <c r="C85" t="n">
-        <v>11.8287537824607</v>
+        <v>13.776351818721</v>
       </c>
       <c r="D85" t="n">
-        <v>12.8700187094057</v>
+        <v>14.8327957926926</v>
       </c>
       <c r="E85" t="n">
-        <v>14.2136951618082</v>
+        <v>13.8355719534831</v>
       </c>
       <c r="F85" t="n">
-        <v>14.692819957859</v>
+        <v>14.4131197384864</v>
       </c>
       <c r="G85" t="n">
-        <v>16.7406347848451</v>
+        <v>15.3297620486113</v>
       </c>
       <c r="H85" t="n">
-        <v>17.4928270955438</v>
+        <v>18.0266737112604</v>
       </c>
       <c r="I85" t="n">
-        <v>19.2679091308662</v>
+        <v>17.2504067222048</v>
       </c>
       <c r="J85" t="n">
-        <v>18.5824178621799</v>
+        <v>19.0396187285307</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>11.0953227604541</v>
+        <v>11.0199860722456</v>
       </c>
       <c r="B86" t="n">
-        <v>10.6486974460629</v>
+        <v>11.4583913053021</v>
       </c>
       <c r="C86" t="n">
-        <v>12.4492682202883</v>
+        <v>12.3480626896843</v>
       </c>
       <c r="D86" t="n">
-        <v>12.5581540373554</v>
+        <v>12.7247728426616</v>
       </c>
       <c r="E86" t="n">
-        <v>13.075964960699</v>
+        <v>14.3070778806115</v>
       </c>
       <c r="F86" t="n">
-        <v>14.8448180582356</v>
+        <v>15.1834276288497</v>
       </c>
       <c r="G86" t="n">
-        <v>15.9031748013091</v>
+        <v>16.974110334397</v>
       </c>
       <c r="H86" t="n">
-        <v>16.5687225879385</v>
+        <v>18.1172983421266</v>
       </c>
       <c r="I86" t="n">
-        <v>19.0609267844384</v>
+        <v>17.2772314763909</v>
       </c>
       <c r="J86" t="n">
-        <v>19.6329818172833</v>
+        <v>18.5451379743416</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>9.9504474367232</v>
+        <v>-4.82340837893102</v>
       </c>
       <c r="B87" t="n">
-        <v>10.4612388394707</v>
+        <v>-5.28251918805528</v>
       </c>
       <c r="C87" t="n">
-        <v>11.5962618060274</v>
+        <v>-6.24862949770371</v>
       </c>
       <c r="D87" t="n">
-        <v>13.1196025564547</v>
+        <v>-6.60419240888501</v>
       </c>
       <c r="E87" t="n">
-        <v>13.162640618105</v>
+        <v>-6.6766332809029</v>
       </c>
       <c r="F87" t="n">
-        <v>16.5152305660426</v>
+        <v>-7.59727294185151</v>
       </c>
       <c r="G87" t="n">
-        <v>15.3106510905585</v>
+        <v>-7.98423536520643</v>
       </c>
       <c r="H87" t="n">
-        <v>16.8574744620833</v>
+        <v>-8.92584981941492</v>
       </c>
       <c r="I87" t="n">
-        <v>18.3949174044977</v>
+        <v>-8.86860833337903</v>
       </c>
       <c r="J87" t="n">
-        <v>17.9037033312259</v>
+        <v>-9.43398108721324</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>-5.63105596680292</v>
+        <v>10.4000469174919</v>
       </c>
       <c r="B88" t="n">
-        <v>-5.11737826695544</v>
+        <v>10.635561351036</v>
       </c>
       <c r="C88" t="n">
-        <v>-7.66356823085801</v>
+        <v>11.3363519367363</v>
       </c>
       <c r="D88" t="n">
-        <v>-6.82459958830515</v>
+        <v>11.7304702809992</v>
       </c>
       <c r="E88" t="n">
-        <v>-7.84488955722404</v>
+        <v>13.8314043756076</v>
       </c>
       <c r="F88" t="n">
-        <v>-7.3352979330957</v>
+        <v>15.228484446355</v>
       </c>
       <c r="G88" t="n">
-        <v>-8.38474539973187</v>
+        <v>15.6812254352199</v>
       </c>
       <c r="H88" t="n">
-        <v>-8.99702687285584</v>
+        <v>17.3581137459802</v>
       </c>
       <c r="I88" t="n">
-        <v>-8.98124402795127</v>
+        <v>18.3974804329274</v>
       </c>
       <c r="J88" t="n">
-        <v>-10.9529713627435</v>
+        <v>19.2349245361639</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>-5.19070282192998</v>
+        <v>-5.01684136384202</v>
       </c>
       <c r="B89" t="n">
-        <v>-5.57179561354463</v>
+        <v>-5.28215162121149</v>
       </c>
       <c r="C89" t="n">
-        <v>-5.57084089863602</v>
+        <v>-6.1875625792174</v>
       </c>
       <c r="D89" t="n">
-        <v>-6.41658586924234</v>
+        <v>-7.09457685853208</v>
       </c>
       <c r="E89" t="n">
-        <v>-6.27293866538873</v>
+        <v>-7.14876343978639</v>
       </c>
       <c r="F89" t="n">
-        <v>-6.65966442133995</v>
+        <v>-7.51747186848067</v>
       </c>
       <c r="G89" t="n">
-        <v>-8.57822193537338</v>
+        <v>-8.11780644838197</v>
       </c>
       <c r="H89" t="n">
-        <v>-8.63839330704754</v>
+        <v>-8.81795558331284</v>
       </c>
       <c r="I89" t="n">
-        <v>-7.35099937909211</v>
+        <v>-9.17729169709039</v>
       </c>
       <c r="J89" t="n">
-        <v>-9.80937809697526</v>
+        <v>-9.32558295970546</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>11.0359424999488</v>
+        <v>9.17640339038197</v>
       </c>
       <c r="B90" t="n">
-        <v>11.4429890449665</v>
+        <v>10.8440958036197</v>
       </c>
       <c r="C90" t="n">
-        <v>11.7425978896682</v>
+        <v>12.4904610073958</v>
       </c>
       <c r="D90" t="n">
-        <v>12.5422830148051</v>
+        <v>12.5239174318387</v>
       </c>
       <c r="E90" t="n">
-        <v>14.6052856589547</v>
+        <v>14.4095025946336</v>
       </c>
       <c r="F90" t="n">
-        <v>13.5352533747791</v>
+        <v>13.787613021663</v>
       </c>
       <c r="G90" t="n">
-        <v>15.5485347794403</v>
+        <v>16.1262199748111</v>
       </c>
       <c r="H90" t="n">
-        <v>16.594247128353</v>
+        <v>15.7862689875732</v>
       </c>
       <c r="I90" t="n">
-        <v>16.1501994567916</v>
+        <v>18.757142210973</v>
       </c>
       <c r="J90" t="n">
-        <v>18.6006174078244</v>
+        <v>19.3849431175385</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>-4.52943659315566</v>
+        <v>9.55213491983571</v>
       </c>
       <c r="B91" t="n">
-        <v>-5.95378901345939</v>
+        <v>11.918449704661</v>
       </c>
       <c r="C91" t="n">
-        <v>-7.57272334830484</v>
+        <v>11.8097250891047</v>
       </c>
       <c r="D91" t="n">
-        <v>-7.33872569973336</v>
+        <v>13.4721490022387</v>
       </c>
       <c r="E91" t="n">
-        <v>-5.37876927549491</v>
+        <v>12.2295461600596</v>
       </c>
       <c r="F91" t="n">
-        <v>-8.2428823097961</v>
+        <v>16.0386867022771</v>
       </c>
       <c r="G91" t="n">
-        <v>-7.26426515632115</v>
+        <v>15.8738822065341</v>
       </c>
       <c r="H91" t="n">
-        <v>-8.8013800617925</v>
+        <v>17.184573777908</v>
       </c>
       <c r="I91" t="n">
-        <v>-8.92674358855597</v>
+        <v>17.1554323968752</v>
       </c>
       <c r="J91" t="n">
-        <v>-9.42839853411856</v>
+        <v>19.9576823944472</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>9.54773809824622</v>
+        <v>11.7932054632422</v>
       </c>
       <c r="B92" t="n">
-        <v>10.3145374360347</v>
+        <v>11.4601465590375</v>
       </c>
       <c r="C92" t="n">
-        <v>11.9435963472248</v>
+        <v>12.1140516871307</v>
       </c>
       <c r="D92" t="n">
-        <v>12.9297881682366</v>
+        <v>13.4322109748687</v>
       </c>
       <c r="E92" t="n">
-        <v>13.2980389924879</v>
+        <v>13.9665358527476</v>
       </c>
       <c r="F92" t="n">
-        <v>15.0204218119858</v>
+        <v>16.2514673202842</v>
       </c>
       <c r="G92" t="n">
-        <v>16.1597602897935</v>
+        <v>16.6473686646323</v>
       </c>
       <c r="H92" t="n">
-        <v>17.5352204881451</v>
+        <v>15.0416251595632</v>
       </c>
       <c r="I92" t="n">
-        <v>17.3971984674072</v>
+        <v>18.0596088722433</v>
       </c>
       <c r="J92" t="n">
-        <v>19.8021015048343</v>
+        <v>19.404690597281</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>-4.89139001398868</v>
+        <v>10.4701694176772</v>
       </c>
       <c r="B93" t="n">
-        <v>-5.89637314721567</v>
+        <v>10.8350265817646</v>
       </c>
       <c r="C93" t="n">
-        <v>-6.38578972526795</v>
+        <v>12.6179910809101</v>
       </c>
       <c r="D93" t="n">
-        <v>-5.46129331108596</v>
+        <v>12.3474727321618</v>
       </c>
       <c r="E93" t="n">
-        <v>-6.77742691458097</v>
+        <v>13.5701136522233</v>
       </c>
       <c r="F93" t="n">
-        <v>-6.70276231629001</v>
+        <v>13.4392650368942</v>
       </c>
       <c r="G93" t="n">
-        <v>-6.80568784488332</v>
+        <v>17.0040515136349</v>
       </c>
       <c r="H93" t="n">
-        <v>-9.30583641302219</v>
+        <v>16.9163747509413</v>
       </c>
       <c r="I93" t="n">
-        <v>-9.79431483646721</v>
+        <v>16.9783405373462</v>
       </c>
       <c r="J93" t="n">
-        <v>-7.85895268707021</v>
+        <v>17.8866456368192</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>8.65573994336428</v>
+        <v>9.44085081389353</v>
       </c>
       <c r="B94" t="n">
-        <v>10.5339856076158</v>
+        <v>11.9798744249878</v>
       </c>
       <c r="C94" t="n">
-        <v>11.9544683048368</v>
+        <v>11.8654669247596</v>
       </c>
       <c r="D94" t="n">
-        <v>12.0348011071299</v>
+        <v>12.9683541821282</v>
       </c>
       <c r="E94" t="n">
-        <v>13.2104413573086</v>
+        <v>12.827449969772</v>
       </c>
       <c r="F94" t="n">
-        <v>16.4825086103303</v>
+        <v>14.0055296898813</v>
       </c>
       <c r="G94" t="n">
-        <v>17.6453581337209</v>
+        <v>15.4963460506972</v>
       </c>
       <c r="H94" t="n">
-        <v>16.5407642366143</v>
+        <v>15.4465000113501</v>
       </c>
       <c r="I94" t="n">
-        <v>19.6232584138906</v>
+        <v>17.5527534111869</v>
       </c>
       <c r="J94" t="n">
-        <v>19.2295812650891</v>
+        <v>18.6538945893336</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>-4.07640724049368</v>
+        <v>10.6844402336371</v>
       </c>
       <c r="B95" t="n">
-        <v>-4.8687125673898</v>
+        <v>12.2691312023163</v>
       </c>
       <c r="C95" t="n">
-        <v>-5.21864723330388</v>
+        <v>12.5245575950038</v>
       </c>
       <c r="D95" t="n">
-        <v>-5.81388404116595</v>
+        <v>12.282103983776</v>
       </c>
       <c r="E95" t="n">
-        <v>-6.31052120748947</v>
+        <v>13.1996956403041</v>
       </c>
       <c r="F95" t="n">
-        <v>-8.09403348064133</v>
+        <v>14.4005198568131</v>
       </c>
       <c r="G95" t="n">
-        <v>-7.3295586140054</v>
+        <v>17.1906765642359</v>
       </c>
       <c r="H95" t="n">
-        <v>-8.9883987184062</v>
+        <v>15.2718808970166</v>
       </c>
       <c r="I95" t="n">
-        <v>-9.56835315409497</v>
+        <v>18.1562539967678</v>
       </c>
       <c r="J95" t="n">
-        <v>-9.79603639970117</v>
+        <v>19.2862269561856</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>8.94387038625823</v>
+        <v>-4.83637875007396</v>
       </c>
       <c r="B96" t="n">
-        <v>11.1716337456529</v>
+        <v>-5.07682880727507</v>
       </c>
       <c r="C96" t="n">
-        <v>12.0053122846242</v>
+        <v>-6.14851749468705</v>
       </c>
       <c r="D96" t="n">
-        <v>13.3826347167659</v>
+        <v>-6.30670976110113</v>
       </c>
       <c r="E96" t="n">
-        <v>14.0503820614746</v>
+        <v>-7.36844256800838</v>
       </c>
       <c r="F96" t="n">
-        <v>15.3681567879025</v>
+        <v>-7.34554908738578</v>
       </c>
       <c r="G96" t="n">
-        <v>16.626385501937</v>
+        <v>-7.79835437132917</v>
       </c>
       <c r="H96" t="n">
-        <v>16.5482018348688</v>
+        <v>-8.38563321040512</v>
       </c>
       <c r="I96" t="n">
-        <v>17.7068446740414</v>
+        <v>-9.22163363328911</v>
       </c>
       <c r="J96" t="n">
-        <v>19.1448156636595</v>
+        <v>-9.96994310085839</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>-3.91151092535855</v>
+        <v>-5.30732535448377</v>
       </c>
       <c r="B97" t="n">
-        <v>-4.89426327701735</v>
+        <v>-5.61739339316251</v>
       </c>
       <c r="C97" t="n">
-        <v>-6.72232546101711</v>
+        <v>-6.22587439442967</v>
       </c>
       <c r="D97" t="n">
-        <v>-6.96270562507888</v>
+        <v>-6.52798497999335</v>
       </c>
       <c r="E97" t="n">
-        <v>-7.77297035249189</v>
+        <v>-7.01794953549614</v>
       </c>
       <c r="F97" t="n">
-        <v>-5.85428546891055</v>
+        <v>-7.43201666936796</v>
       </c>
       <c r="G97" t="n">
-        <v>-8.5020451320264</v>
+        <v>-8.01405888856137</v>
       </c>
       <c r="H97" t="n">
-        <v>-8.62790296885405</v>
+        <v>-8.26916606815611</v>
       </c>
       <c r="I97" t="n">
-        <v>-9.4081328545541</v>
+        <v>-9.12409659545217</v>
       </c>
       <c r="J97" t="n">
-        <v>-10.9427592101101</v>
+        <v>-9.54933415687247</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>9.77742188662437</v>
+        <v>9.52422550408028</v>
       </c>
       <c r="B98" t="n">
-        <v>10.4394023861308</v>
+        <v>10.8350029660695</v>
       </c>
       <c r="C98" t="n">
-        <v>11.8171733937158</v>
+        <v>11.817541022264</v>
       </c>
       <c r="D98" t="n">
-        <v>11.7083035641938</v>
+        <v>11.5925277810254</v>
       </c>
       <c r="E98" t="n">
-        <v>13.5882349404328</v>
+        <v>14.017744894166</v>
       </c>
       <c r="F98" t="n">
-        <v>14.8983703692477</v>
+        <v>15.8578228747637</v>
       </c>
       <c r="G98" t="n">
-        <v>16.547087570747</v>
+        <v>15.5819896276673</v>
       </c>
       <c r="H98" t="n">
-        <v>17.0343866339269</v>
+        <v>16.1305396836064</v>
       </c>
       <c r="I98" t="n">
-        <v>18.0702365260024</v>
+        <v>17.4082781325301</v>
       </c>
       <c r="J98" t="n">
-        <v>18.6045434550039</v>
+        <v>19.2417353381558</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>-5.19751744507272</v>
+        <v>10.2868784913646</v>
       </c>
       <c r="B99" t="n">
-        <v>-5.38479531912897</v>
+        <v>12.8037567043831</v>
       </c>
       <c r="C99" t="n">
-        <v>-5.00723189009198</v>
+        <v>10.6355748935218</v>
       </c>
       <c r="D99" t="n">
-        <v>-6.67512450932239</v>
+        <v>13.7516493616314</v>
       </c>
       <c r="E99" t="n">
-        <v>-7.34858337524123</v>
+        <v>14.1512985606325</v>
       </c>
       <c r="F99" t="n">
-        <v>-5.63804371951921</v>
+        <v>14.6334836233988</v>
       </c>
       <c r="G99" t="n">
-        <v>-7.15279865391952</v>
+        <v>15.0890823522159</v>
       </c>
       <c r="H99" t="n">
-        <v>-8.44612848960378</v>
+        <v>18.9761184729169</v>
       </c>
       <c r="I99" t="n">
-        <v>-9.82937464503262</v>
+        <v>18.8615894639541</v>
       </c>
       <c r="J99" t="n">
-        <v>-8.90959697662916</v>
+        <v>17.6230786961426</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>9.27238386372364</v>
+        <v>11.2142391657434</v>
       </c>
       <c r="B100" t="n">
-        <v>12.3741622862522</v>
+        <v>12.08857585151</v>
       </c>
       <c r="C100" t="n">
-        <v>12.4272596000859</v>
+        <v>12.7146067499516</v>
       </c>
       <c r="D100" t="n">
-        <v>13.3464577769443</v>
+        <v>12.9923844847135</v>
       </c>
       <c r="E100" t="n">
-        <v>14.2220265753023</v>
+        <v>14.4141766935823</v>
       </c>
       <c r="F100" t="n">
-        <v>14.3950468241206</v>
+        <v>15.3045299709131</v>
       </c>
       <c r="G100" t="n">
-        <v>16.6855393697962</v>
+        <v>15.7496167564891</v>
       </c>
       <c r="H100" t="n">
-        <v>17.9912553193413</v>
+        <v>17.5142226325952</v>
       </c>
       <c r="I100" t="n">
-        <v>18.0937989654656</v>
+        <v>18.2542268342961</v>
       </c>
       <c r="J100" t="n">
-        <v>18.0428034057194</v>
+        <v>19.7222571610446</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>-5.1951669583158</v>
+        <v>10.2301593371525</v>
       </c>
       <c r="B101" t="n">
-        <v>-6.22920230502803</v>
+        <v>9.60564128077953</v>
       </c>
       <c r="C101" t="n">
-        <v>-6.08982743928961</v>
+        <v>12.0068398049209</v>
       </c>
       <c r="D101" t="n">
-        <v>-6.33022107162181</v>
+        <v>13.0242857058642</v>
       </c>
       <c r="E101" t="n">
-        <v>-7.19557807505209</v>
+        <v>14.5734074401157</v>
       </c>
       <c r="F101" t="n">
-        <v>-7.06116410177857</v>
+        <v>15.1469203020067</v>
       </c>
       <c r="G101" t="n">
-        <v>-7.27678837249561</v>
+        <v>14.708922052146</v>
       </c>
       <c r="H101" t="n">
-        <v>-8.48446276574399</v>
+        <v>17.1940449999095</v>
       </c>
       <c r="I101" t="n">
-        <v>-11.3968211208218</v>
+        <v>18.0605168710305</v>
       </c>
       <c r="J101" t="n">
-        <v>-8.58507136845163</v>
+        <v>19.4044147043623</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>10.2741253251461</v>
+        <v>8.75584117559587</v>
       </c>
       <c r="B102" t="n">
-        <v>9.51331274739217</v>
+        <v>11.21377268471</v>
       </c>
       <c r="C102" t="n">
-        <v>12.1344864118726</v>
+        <v>11.2229729277963</v>
       </c>
       <c r="D102" t="n">
-        <v>13.6142076706663</v>
+        <v>13.0917240942552</v>
       </c>
       <c r="E102" t="n">
-        <v>14.5625554891994</v>
+        <v>15.7322755175483</v>
       </c>
       <c r="F102" t="n">
-        <v>14.1873540695746</v>
+        <v>15.1666601668047</v>
       </c>
       <c r="G102" t="n">
-        <v>16.4682960501484</v>
+        <v>16.9180708826484</v>
       </c>
       <c r="H102" t="n">
-        <v>18.0459551042221</v>
+        <v>17.2885260663646</v>
       </c>
       <c r="I102" t="n">
-        <v>18.3020275743982</v>
+        <v>19.3106016230601</v>
       </c>
       <c r="J102" t="n">
-        <v>19.2060786171621</v>
+        <v>20.7177926365394</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>10.4227023128536</v>
+        <v>9.27787653283719</v>
       </c>
       <c r="B103" t="n">
-        <v>10.4441943196873</v>
+        <v>11.6907758069208</v>
       </c>
       <c r="C103" t="n">
-        <v>12.8073397209515</v>
+        <v>12.6478874795358</v>
       </c>
       <c r="D103" t="n">
-        <v>12.7224348847004</v>
+        <v>12.5926994524084</v>
       </c>
       <c r="E103" t="n">
-        <v>13.3435277560881</v>
+        <v>14.642050499526</v>
       </c>
       <c r="F103" t="n">
-        <v>15.111316193861</v>
+        <v>13.6685529296968</v>
       </c>
       <c r="G103" t="n">
-        <v>15.5987748956782</v>
+        <v>16.8766684318154</v>
       </c>
       <c r="H103" t="n">
-        <v>15.8960085806382</v>
+        <v>16.7299624686664</v>
       </c>
       <c r="I103" t="n">
-        <v>16.9502915590581</v>
+        <v>18.509093772995</v>
       </c>
       <c r="J103" t="n">
-        <v>20.2542285157309</v>
+        <v>18.9521567750484</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>-3.35185361335467</v>
+        <v>9.81468734066284</v>
       </c>
       <c r="B104" t="n">
-        <v>-6.96639902102408</v>
+        <v>10.7140606716869</v>
       </c>
       <c r="C104" t="n">
-        <v>-5.54361973087406</v>
+        <v>10.9252952256153</v>
       </c>
       <c r="D104" t="n">
-        <v>-7.11281106654673</v>
+        <v>14.0354081153366</v>
       </c>
       <c r="E104" t="n">
-        <v>-7.50098952099804</v>
+        <v>13.3598963093097</v>
       </c>
       <c r="F104" t="n">
-        <v>-6.3063408581028</v>
+        <v>14.6170632809108</v>
       </c>
       <c r="G104" t="n">
-        <v>-7.16240223175391</v>
+        <v>16.3687135314633</v>
       </c>
       <c r="H104" t="n">
-        <v>-8.6506922268256</v>
+        <v>16.2984469122526</v>
       </c>
       <c r="I104" t="n">
-        <v>-9.12773277327203</v>
+        <v>16.9045534539341</v>
       </c>
       <c r="J104" t="n">
-        <v>-11.1592243407365</v>
+        <v>19.175407165477</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>10.490851415673</v>
+        <v>-4.77796091349369</v>
       </c>
       <c r="B105" t="n">
-        <v>11.5110168973235</v>
+        <v>-5.45557517577149</v>
       </c>
       <c r="C105" t="n">
-        <v>11.0272596473766</v>
+        <v>-5.9210127744927</v>
       </c>
       <c r="D105" t="n">
-        <v>13.8060210042112</v>
+        <v>-6.57788369992037</v>
       </c>
       <c r="E105" t="n">
-        <v>13.9506240202484</v>
+        <v>-7.17775004880644</v>
       </c>
       <c r="F105" t="n">
-        <v>14.0121024003498</v>
+        <v>-7.50902014263256</v>
       </c>
       <c r="G105" t="n">
-        <v>16.4905415599921</v>
+        <v>-7.57045581265441</v>
       </c>
       <c r="H105" t="n">
-        <v>16.4903762093956</v>
+        <v>-8.54192802036552</v>
       </c>
       <c r="I105" t="n">
-        <v>18.3338401546662</v>
+        <v>-9.07864926363151</v>
       </c>
       <c r="J105" t="n">
-        <v>18.2938275319546</v>
+        <v>-9.41458668156321</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>10.214397780828</v>
+        <v>9.25142843668315</v>
       </c>
       <c r="B106" t="n">
-        <v>10.8821134439033</v>
+        <v>12.1772676248125</v>
       </c>
       <c r="C106" t="n">
-        <v>12.9230758229852</v>
+        <v>11.6584857785418</v>
       </c>
       <c r="D106" t="n">
-        <v>11.9998486021687</v>
+        <v>12.9231442140052</v>
       </c>
       <c r="E106" t="n">
-        <v>14.5305809121646</v>
+        <v>14.2345503026497</v>
       </c>
       <c r="F106" t="n">
-        <v>14.4104346893637</v>
+        <v>13.9335684955744</v>
       </c>
       <c r="G106" t="n">
-        <v>16.1663548061953</v>
+        <v>15.944212460082</v>
       </c>
       <c r="H106" t="n">
-        <v>17.062123539646</v>
+        <v>18.0889116596129</v>
       </c>
       <c r="I106" t="n">
-        <v>17.9995887152752</v>
+        <v>18.5474231548983</v>
       </c>
       <c r="J106" t="n">
-        <v>18.839815156004</v>
+        <v>19.3414366146691</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>-4.54866462849243</v>
+        <v>9.95120025573958</v>
       </c>
       <c r="B107" t="n">
-        <v>-5.71953830169428</v>
+        <v>11.2064254267469</v>
       </c>
       <c r="C107" t="n">
-        <v>-6.15854906098662</v>
+        <v>12.1940529208514</v>
       </c>
       <c r="D107" t="n">
-        <v>-7.06205743350565</v>
+        <v>13.2088546834322</v>
       </c>
       <c r="E107" t="n">
-        <v>-6.38406876339976</v>
+        <v>13.0613761565001</v>
       </c>
       <c r="F107" t="n">
-        <v>-6.20305505749531</v>
+        <v>15.8245443889728</v>
       </c>
       <c r="G107" t="n">
-        <v>-8.19030638789216</v>
+        <v>15.3795899213356</v>
       </c>
       <c r="H107" t="n">
-        <v>-9.31142568891381</v>
+        <v>16.3492390076017</v>
       </c>
       <c r="I107" t="n">
-        <v>-8.20052221201829</v>
+        <v>17.3930842762559</v>
       </c>
       <c r="J107" t="n">
-        <v>-9.32350216970717</v>
+        <v>18.4235541159742</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>-5.52480033518454</v>
+        <v>10.7124815163883</v>
       </c>
       <c r="B108" t="n">
-        <v>-6.80919334382488</v>
+        <v>10.8984407750331</v>
       </c>
       <c r="C108" t="n">
-        <v>-6.69626622729979</v>
+        <v>11.560952157655</v>
       </c>
       <c r="D108" t="n">
-        <v>-6.37243773756535</v>
+        <v>13.9061794134847</v>
       </c>
       <c r="E108" t="n">
-        <v>-7.3745854258575</v>
+        <v>13.3242947414702</v>
       </c>
       <c r="F108" t="n">
-        <v>-7.21151963680021</v>
+        <v>13.8706549351086</v>
       </c>
       <c r="G108" t="n">
-        <v>-8.00550422968739</v>
+        <v>15.8192594281297</v>
       </c>
       <c r="H108" t="n">
-        <v>-7.25928828699904</v>
+        <v>17.6643401426308</v>
       </c>
       <c r="I108" t="n">
-        <v>-9.01764231200765</v>
+        <v>17.5049325838398</v>
       </c>
       <c r="J108" t="n">
-        <v>-9.53257881847098</v>
+        <v>18.8129939988548</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>-4.8093139110552</v>
+        <v>10.0055803782593</v>
       </c>
       <c r="B109" t="n">
-        <v>-5.18506118387898</v>
+        <v>10.7503365938736</v>
       </c>
       <c r="C109" t="n">
-        <v>-5.81442055700747</v>
+        <v>12.7818146847113</v>
       </c>
       <c r="D109" t="n">
-        <v>-6.79044047794126</v>
+        <v>11.9918246188948</v>
       </c>
       <c r="E109" t="n">
-        <v>-8.24844242706129</v>
+        <v>12.9006823088201</v>
       </c>
       <c r="F109" t="n">
-        <v>-7.40968015803987</v>
+        <v>15.5625445393179</v>
       </c>
       <c r="G109" t="n">
-        <v>-8.65327184925535</v>
+        <v>15.6307212952646</v>
       </c>
       <c r="H109" t="n">
-        <v>-6.8887650857173</v>
+        <v>17.6414310973135</v>
       </c>
       <c r="I109" t="n">
-        <v>-8.4082865000278</v>
+        <v>17.2842154626188</v>
       </c>
       <c r="J109" t="n">
-        <v>-8.06364141149508</v>
+        <v>19.3426795106004</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>11.8593829767691</v>
+        <v>9.60682801117189</v>
       </c>
       <c r="B110" t="n">
-        <v>10.8990644972108</v>
+        <v>10.7823076766625</v>
       </c>
       <c r="C110" t="n">
-        <v>10.8807363988587</v>
+        <v>11.4659247960404</v>
       </c>
       <c r="D110" t="n">
-        <v>12.5769259868142</v>
+        <v>13.6021007626008</v>
       </c>
       <c r="E110" t="n">
-        <v>13.6272766561352</v>
+        <v>14.4150886390299</v>
       </c>
       <c r="F110" t="n">
-        <v>14.6346510294501</v>
+        <v>15.4104819732926</v>
       </c>
       <c r="G110" t="n">
-        <v>16.6712308712913</v>
+        <v>16.2380276851844</v>
       </c>
       <c r="H110" t="n">
-        <v>16.1384435435506</v>
+        <v>17.5162890123308</v>
       </c>
       <c r="I110" t="n">
-        <v>17.3880110677651</v>
+        <v>17.4041707425185</v>
       </c>
       <c r="J110" t="n">
-        <v>19.3630173760483</v>
+        <v>17.7829566755201</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>10.0765311049632</v>
+        <v>9.8220152041302</v>
       </c>
       <c r="B111" t="n">
-        <v>10.0044740442241</v>
+        <v>11.1322002615866</v>
       </c>
       <c r="C111" t="n">
-        <v>14.0826814130985</v>
+        <v>12.3006491639517</v>
       </c>
       <c r="D111" t="n">
-        <v>12.0316984493109</v>
+        <v>12.2582615840347</v>
       </c>
       <c r="E111" t="n">
-        <v>14.3507331835226</v>
+        <v>14.0913595176051</v>
       </c>
       <c r="F111" t="n">
-        <v>14.4320644263079</v>
+        <v>15.0200069009957</v>
       </c>
       <c r="G111" t="n">
-        <v>15.7237961449705</v>
+        <v>15.7302194060243</v>
       </c>
       <c r="H111" t="n">
-        <v>16.8104472752355</v>
+        <v>17.9216720983422</v>
       </c>
       <c r="I111" t="n">
-        <v>18.7353555743433</v>
+        <v>17.4169297745514</v>
       </c>
       <c r="J111" t="n">
-        <v>19.4731536921548</v>
+        <v>18.8913111869497</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>11.2372893565829</v>
+        <v>10.5204855319908</v>
       </c>
       <c r="B112" t="n">
-        <v>11.84210770421</v>
+        <v>10.0174019849818</v>
       </c>
       <c r="C112" t="n">
-        <v>10.184684164809</v>
+        <v>12.2556366473882</v>
       </c>
       <c r="D112" t="n">
-        <v>12.7641431983974</v>
+        <v>12.9601053329018</v>
       </c>
       <c r="E112" t="n">
-        <v>13.3471705208048</v>
+        <v>14.2158130001626</v>
       </c>
       <c r="F112" t="n">
-        <v>14.6116605659443</v>
+        <v>14.3149901353539</v>
       </c>
       <c r="G112" t="n">
-        <v>15.1478725818075</v>
+        <v>17.0707683734049</v>
       </c>
       <c r="H112" t="n">
-        <v>18.1993534148366</v>
+        <v>16.9350500490564</v>
       </c>
       <c r="I112" t="n">
-        <v>19.0039800986486</v>
+        <v>18.1285298625864</v>
       </c>
       <c r="J112" t="n">
-        <v>19.0423387567482</v>
+        <v>19.3933432023011</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>9.34359779922752</v>
+        <v>9.32307415053473</v>
       </c>
       <c r="B113" t="n">
-        <v>10.7504683848409</v>
+        <v>11.0673798103613</v>
       </c>
       <c r="C113" t="n">
-        <v>12.7849352325239</v>
+        <v>13.0745678483923</v>
       </c>
       <c r="D113" t="n">
-        <v>13.1865345649063</v>
+        <v>12.5735491796599</v>
       </c>
       <c r="E113" t="n">
-        <v>13.5455489936926</v>
+        <v>14.7929755669578</v>
       </c>
       <c r="F113" t="n">
-        <v>15.7895136050864</v>
+        <v>15.4207143331315</v>
       </c>
       <c r="G113" t="n">
-        <v>16.4233642593195</v>
+        <v>14.6155501839755</v>
       </c>
       <c r="H113" t="n">
-        <v>15.4350081213573</v>
+        <v>16.8333284391176</v>
       </c>
       <c r="I113" t="n">
-        <v>16.0448310410231</v>
+        <v>17.6013367995749</v>
       </c>
       <c r="J113" t="n">
-        <v>19.5952638435263</v>
+        <v>19.2430816592287</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>-4.49431747673948</v>
+        <v>9.61568500727725</v>
       </c>
       <c r="B114" t="n">
-        <v>-5.3008823297893</v>
+        <v>11.7726065861783</v>
       </c>
       <c r="C114" t="n">
-        <v>-6.45451811104497</v>
+        <v>11.8321152545475</v>
       </c>
       <c r="D114" t="n">
-        <v>-5.96075876494131</v>
+        <v>12.3782660997467</v>
       </c>
       <c r="E114" t="n">
-        <v>-7.27746594264004</v>
+        <v>14.5522768169894</v>
       </c>
       <c r="F114" t="n">
-        <v>-6.91591522917179</v>
+        <v>13.7525778802761</v>
       </c>
       <c r="G114" t="n">
-        <v>-8.2728377682942</v>
+        <v>16.2435722368755</v>
       </c>
       <c r="H114" t="n">
-        <v>-8.32224351114763</v>
+        <v>18.1397435403059</v>
       </c>
       <c r="I114" t="n">
-        <v>-9.77345439174447</v>
+        <v>18.3298822124554</v>
       </c>
       <c r="J114" t="n">
-        <v>-10.2133121312068</v>
+        <v>19.3956247083183</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>9.57571603853946</v>
+        <v>8.58005411856448</v>
       </c>
       <c r="B115" t="n">
-        <v>9.52436495948471</v>
+        <v>11.0343661583097</v>
       </c>
       <c r="C115" t="n">
-        <v>10.5685009662368</v>
+        <v>12.1459886185992</v>
       </c>
       <c r="D115" t="n">
-        <v>13.5558213657375</v>
+        <v>14.2130824493916</v>
       </c>
       <c r="E115" t="n">
-        <v>15.0026109864883</v>
+        <v>14.1032168271884</v>
       </c>
       <c r="F115" t="n">
-        <v>15.0781929382927</v>
+        <v>13.1208016185251</v>
       </c>
       <c r="G115" t="n">
-        <v>16.6946552391013</v>
+        <v>15.0995281769067</v>
       </c>
       <c r="H115" t="n">
-        <v>16.9225614448034</v>
+        <v>17.028924409151</v>
       </c>
       <c r="I115" t="n">
-        <v>17.2266742166828</v>
+        <v>15.9640680722577</v>
       </c>
       <c r="J115" t="n">
-        <v>18.023495629057</v>
+        <v>17.9169120582012</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>-4.80650189992066</v>
+        <v>10.5607185781896</v>
       </c>
       <c r="B116" t="n">
-        <v>-5.18374802581255</v>
+        <v>11.6104327538484</v>
       </c>
       <c r="C116" t="n">
-        <v>-5.39735727972423</v>
+        <v>11.3504687702672</v>
       </c>
       <c r="D116" t="n">
-        <v>-6.93708383340351</v>
+        <v>11.9706472797274</v>
       </c>
       <c r="E116" t="n">
-        <v>-7.24786082648387</v>
+        <v>14.21124215601</v>
       </c>
       <c r="F116" t="n">
-        <v>-7.67111556858014</v>
+        <v>15.2265215744672</v>
       </c>
       <c r="G116" t="n">
-        <v>-7.91101104053985</v>
+        <v>16.7540541581157</v>
       </c>
       <c r="H116" t="n">
-        <v>-9.35403773479617</v>
+        <v>15.9139932904138</v>
       </c>
       <c r="I116" t="n">
-        <v>-9.85645993198854</v>
+        <v>17.1264363275253</v>
       </c>
       <c r="J116" t="n">
-        <v>-9.24718136632046</v>
+        <v>17.6295397787521</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>11.3934012175243</v>
+        <v>-4.88269698805964</v>
       </c>
       <c r="B117" t="n">
-        <v>10.1625454567375</v>
+        <v>-5.42151326272443</v>
       </c>
       <c r="C117" t="n">
-        <v>11.5257936275647</v>
+        <v>-6.4349047456283</v>
       </c>
       <c r="D117" t="n">
-        <v>12.7397395578112</v>
+        <v>-6.67886028337068</v>
       </c>
       <c r="E117" t="n">
-        <v>13.4603921376474</v>
+        <v>-6.90339347692899</v>
       </c>
       <c r="F117" t="n">
-        <v>14.5519408131184</v>
+        <v>-7.34301634046844</v>
       </c>
       <c r="G117" t="n">
-        <v>14.6109074265304</v>
+        <v>-7.96759771704064</v>
       </c>
       <c r="H117" t="n">
-        <v>17.1797972160547</v>
+        <v>-8.58676321385774</v>
       </c>
       <c r="I117" t="n">
-        <v>17.8019408769109</v>
+        <v>-9.06431837576488</v>
       </c>
       <c r="J117" t="n">
-        <v>18.548557859202</v>
+        <v>-9.43956518393255</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>10.371993255677</v>
+        <v>-5.08279216952615</v>
       </c>
       <c r="B118" t="n">
-        <v>11.0703796335326</v>
+        <v>-5.07424570541344</v>
       </c>
       <c r="C118" t="n">
-        <v>12.0163091834615</v>
+        <v>-5.59940226691235</v>
       </c>
       <c r="D118" t="n">
-        <v>13.3963436794496</v>
+        <v>-6.97764310831844</v>
       </c>
       <c r="E118" t="n">
-        <v>13.5233355572658</v>
+        <v>-6.78854502130833</v>
       </c>
       <c r="F118" t="n">
-        <v>15.5854241956494</v>
+        <v>-7.76580025213323</v>
       </c>
       <c r="G118" t="n">
-        <v>16.8682175268285</v>
+        <v>-7.62710597711496</v>
       </c>
       <c r="H118" t="n">
-        <v>16.4665353367826</v>
+        <v>-8.59848844066923</v>
       </c>
       <c r="I118" t="n">
-        <v>18.1463466540527</v>
+        <v>-9.41502388628815</v>
       </c>
       <c r="J118" t="n">
-        <v>19.2960270882107</v>
+        <v>-9.0396856768638</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>9.56647913596821</v>
+        <v>11.4387231488904</v>
       </c>
       <c r="B119" t="n">
-        <v>10.3720781705774</v>
+        <v>10.3391013812812</v>
       </c>
       <c r="C119" t="n">
-        <v>12.0682036791187</v>
+        <v>11.8029158629562</v>
       </c>
       <c r="D119" t="n">
-        <v>13.8008878237926</v>
+        <v>12.9042673784686</v>
       </c>
       <c r="E119" t="n">
-        <v>14.494699201721</v>
+        <v>13.3035189918529</v>
       </c>
       <c r="F119" t="n">
-        <v>14.8833314941668</v>
+        <v>14.4364831691021</v>
       </c>
       <c r="G119" t="n">
-        <v>15.9300296376905</v>
+        <v>15.6279804643987</v>
       </c>
       <c r="H119" t="n">
-        <v>15.5749205652247</v>
+        <v>15.3893047829666</v>
       </c>
       <c r="I119" t="n">
-        <v>19.0492776469634</v>
+        <v>17.0162937001455</v>
       </c>
       <c r="J119" t="n">
-        <v>18.7741373565494</v>
+        <v>18.4265551060808</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>9.71176192040873</v>
+        <v>10.5435812947121</v>
       </c>
       <c r="B120" t="n">
-        <v>10.3754637209797</v>
+        <v>11.0788110101153</v>
       </c>
       <c r="C120" t="n">
-        <v>12.5956842963477</v>
+        <v>12.1687876686772</v>
       </c>
       <c r="D120" t="n">
-        <v>13.4745193786733</v>
+        <v>13.5396390766883</v>
       </c>
       <c r="E120" t="n">
-        <v>13.6956717263666</v>
+        <v>15.4952757666625</v>
       </c>
       <c r="F120" t="n">
-        <v>13.1496368603169</v>
+        <v>15.2725076348617</v>
       </c>
       <c r="G120" t="n">
-        <v>15.2666967163641</v>
+        <v>14.5943801371736</v>
       </c>
       <c r="H120" t="n">
-        <v>17.4512508691389</v>
+        <v>17.393444091072</v>
       </c>
       <c r="I120" t="n">
-        <v>19.1713950784655</v>
+        <v>17.42514799171</v>
       </c>
       <c r="J120" t="n">
-        <v>17.7403827927218</v>
+        <v>19.0363880628788</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>-4.58802198635087</v>
+        <v>10.0145830571072</v>
       </c>
       <c r="B121" t="n">
-        <v>-4.71636268269982</v>
+        <v>10.6078542975709</v>
       </c>
       <c r="C121" t="n">
-        <v>-6.23510921800766</v>
+        <v>12.8785443554203</v>
       </c>
       <c r="D121" t="n">
-        <v>-6.49522858071481</v>
+        <v>13.5980390073786</v>
       </c>
       <c r="E121" t="n">
-        <v>-6.83455226025573</v>
+        <v>14.4493826422034</v>
       </c>
       <c r="F121" t="n">
-        <v>-7.76192273030533</v>
+        <v>16.2260908905387</v>
       </c>
       <c r="G121" t="n">
-        <v>-8.89260254183122</v>
+        <v>16.1005820553907</v>
       </c>
       <c r="H121" t="n">
-        <v>-8.01887901317636</v>
+        <v>16.8631015201236</v>
       </c>
       <c r="I121" t="n">
-        <v>-8.78078233906966</v>
+        <v>19.1121985416124</v>
       </c>
       <c r="J121" t="n">
-        <v>-9.59077929863174</v>
+        <v>19.5041578956826</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>-3.0209066948341</v>
+        <v>10.893835033417</v>
       </c>
       <c r="B122" t="n">
-        <v>-4.78644772838811</v>
+        <v>12.2889119261428</v>
       </c>
       <c r="C122" t="n">
-        <v>-4.79546177030154</v>
+        <v>12.3012041209115</v>
       </c>
       <c r="D122" t="n">
-        <v>-6.12597666513221</v>
+        <v>13.7408064274487</v>
       </c>
       <c r="E122" t="n">
-        <v>-6.58497193926812</v>
+        <v>13.5544001189121</v>
       </c>
       <c r="F122" t="n">
-        <v>-6.78704684741694</v>
+        <v>14.4817351469183</v>
       </c>
       <c r="G122" t="n">
-        <v>-7.22717798932015</v>
+        <v>15.7247702494825</v>
       </c>
       <c r="H122" t="n">
-        <v>-8.14119176422897</v>
+        <v>18.0654233083915</v>
       </c>
       <c r="I122" t="n">
-        <v>-9.21017743900595</v>
+        <v>18.4766136534485</v>
       </c>
       <c r="J122" t="n">
-        <v>-9.51168244204771</v>
+        <v>19.4033103002123</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>11.3772373843979</v>
+        <v>10.3450960017013</v>
       </c>
       <c r="B123" t="n">
-        <v>11.0068038836784</v>
+        <v>10.757383220835</v>
       </c>
       <c r="C123" t="n">
-        <v>12.0296453070809</v>
+        <v>11.3992254108268</v>
       </c>
       <c r="D123" t="n">
-        <v>12.7365003910259</v>
+        <v>12.7465524657489</v>
       </c>
       <c r="E123" t="n">
-        <v>12.912498506704</v>
+        <v>13.6205507084362</v>
       </c>
       <c r="F123" t="n">
-        <v>15.7233924749878</v>
+        <v>14.3145329629127</v>
       </c>
       <c r="G123" t="n">
-        <v>15.088313774312</v>
+        <v>16.5625504305633</v>
       </c>
       <c r="H123" t="n">
-        <v>17.7237150995358</v>
+        <v>16.2755514376643</v>
       </c>
       <c r="I123" t="n">
-        <v>17.7546880591894</v>
+        <v>17.6705044038221</v>
       </c>
       <c r="J123" t="n">
-        <v>18.5750674823122</v>
+        <v>18.0310121396208</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>-5.44671255924286</v>
+        <v>9.2699346712449</v>
       </c>
       <c r="B124" t="n">
-        <v>-6.24313568600612</v>
+        <v>9.39678306758046</v>
       </c>
       <c r="C124" t="n">
-        <v>-4.6544639512815</v>
+        <v>11.9882721302435</v>
       </c>
       <c r="D124" t="n">
-        <v>-6.81782835230204</v>
+        <v>13.6958974393386</v>
       </c>
       <c r="E124" t="n">
-        <v>-7.36945568858009</v>
+        <v>14.3532015891532</v>
       </c>
       <c r="F124" t="n">
-        <v>-7.56692125115006</v>
+        <v>15.6838781710763</v>
       </c>
       <c r="G124" t="n">
-        <v>-8.0016172871657</v>
+        <v>16.7544190422358</v>
       </c>
       <c r="H124" t="n">
-        <v>-8.340192955687</v>
+        <v>17.6344863098931</v>
       </c>
       <c r="I124" t="n">
-        <v>-9.60968251618738</v>
+        <v>18.5244307505512</v>
       </c>
       <c r="J124" t="n">
-        <v>-9.32080379966708</v>
+        <v>18.4609843446729</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>9.82113616818823</v>
+        <v>10.901289972411</v>
       </c>
       <c r="B125" t="n">
-        <v>10.5413972048661</v>
+        <v>11.9645902557632</v>
       </c>
       <c r="C125" t="n">
-        <v>11.893584979865</v>
+        <v>12.8255839815395</v>
       </c>
       <c r="D125" t="n">
-        <v>13.1048107218554</v>
+        <v>13.3891720028586</v>
       </c>
       <c r="E125" t="n">
-        <v>13.7724758964394</v>
+        <v>13.7780559704863</v>
       </c>
       <c r="F125" t="n">
-        <v>15.3192135784065</v>
+        <v>14.6685910779855</v>
       </c>
       <c r="G125" t="n">
-        <v>16.2698870280869</v>
+        <v>16.0369941570184</v>
       </c>
       <c r="H125" t="n">
-        <v>16.7393888855075</v>
+        <v>17.294199514728</v>
       </c>
       <c r="I125" t="n">
-        <v>18.0637770464043</v>
+        <v>18.0817055894349</v>
       </c>
       <c r="J125" t="n">
-        <v>19.6185991287894</v>
+        <v>18.6806202060079</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>10.5200891329353</v>
+        <v>10.6770633638193</v>
       </c>
       <c r="B126" t="n">
-        <v>12.073606927512</v>
+        <v>10.2027349118126</v>
       </c>
       <c r="C126" t="n">
-        <v>12.864499118044</v>
+        <v>13.4420424084538</v>
       </c>
       <c r="D126" t="n">
-        <v>11.9454875496227</v>
+        <v>12.5703593625409</v>
       </c>
       <c r="E126" t="n">
-        <v>14.1543645638149</v>
+        <v>13.5527982526287</v>
       </c>
       <c r="F126" t="n">
-        <v>13.9507524987846</v>
+        <v>14.8482952469</v>
       </c>
       <c r="G126" t="n">
-        <v>16.0086917437414</v>
+        <v>15.5195108703551</v>
       </c>
       <c r="H126" t="n">
-        <v>16.8734461865414</v>
+        <v>17.6593453972808</v>
       </c>
       <c r="I126" t="n">
-        <v>17.6373071507034</v>
+        <v>17.3476054071689</v>
       </c>
       <c r="J126" t="n">
-        <v>18.5888926449088</v>
+        <v>19.1021086532382</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>9.40230854870058</v>
+        <v>-4.8822870114842</v>
       </c>
       <c r="B127" t="n">
-        <v>9.62588212049845</v>
+        <v>-5.64780116337312</v>
       </c>
       <c r="C127" t="n">
-        <v>11.8987563271689</v>
+        <v>-5.80902908988831</v>
       </c>
       <c r="D127" t="n">
-        <v>14.0895952038008</v>
+        <v>-6.7155639760486</v>
       </c>
       <c r="E127" t="n">
-        <v>12.3186745936832</v>
+        <v>-7.47033997062875</v>
       </c>
       <c r="F127" t="n">
-        <v>15.439769246075</v>
+        <v>-7.59954399048484</v>
       </c>
       <c r="G127" t="n">
-        <v>15.5193645041947</v>
+        <v>-8.32486483656509</v>
       </c>
       <c r="H127" t="n">
-        <v>17.811817565812</v>
+        <v>-8.50151324285722</v>
       </c>
       <c r="I127" t="n">
-        <v>18.1725497265098</v>
+        <v>-9.10843238857944</v>
       </c>
       <c r="J127" t="n">
-        <v>20.7478206291237</v>
+        <v>-9.26401003772762</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>10.04979167421</v>
+        <v>9.63619954019355</v>
       </c>
       <c r="B128" t="n">
-        <v>10.5008029758412</v>
+        <v>10.3046520699225</v>
       </c>
       <c r="C128" t="n">
-        <v>12.4978613379999</v>
+        <v>12.3411410402231</v>
       </c>
       <c r="D128" t="n">
-        <v>12.3145776391455</v>
+        <v>13.1772574854237</v>
       </c>
       <c r="E128" t="n">
-        <v>14.424024063726</v>
+        <v>14.6598208827237</v>
       </c>
       <c r="F128" t="n">
-        <v>13.9762011786307</v>
+        <v>16.1942830854679</v>
       </c>
       <c r="G128" t="n">
-        <v>16.0673486577818</v>
+        <v>16.7032265235882</v>
       </c>
       <c r="H128" t="n">
-        <v>17.3331177893308</v>
+        <v>16.6005734222636</v>
       </c>
       <c r="I128" t="n">
-        <v>17.9939834985796</v>
+        <v>17.238275950405</v>
       </c>
       <c r="J128" t="n">
-        <v>19.6443294611259</v>
+        <v>18.7260968957742</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>-5.4197426906005</v>
+        <v>10.4333658418911</v>
       </c>
       <c r="B129" t="n">
-        <v>-5.92753497067599</v>
+        <v>10.7478714607577</v>
       </c>
       <c r="C129" t="n">
-        <v>-5.36465934103049</v>
+        <v>11.7827341152571</v>
       </c>
       <c r="D129" t="n">
-        <v>-6.48759462453307</v>
+        <v>12.6957685434682</v>
       </c>
       <c r="E129" t="n">
-        <v>-7.39836343115146</v>
+        <v>14.6543151551526</v>
       </c>
       <c r="F129" t="n">
-        <v>-8.56737727904846</v>
+        <v>13.0104470365358</v>
       </c>
       <c r="G129" t="n">
-        <v>-8.1897322996634</v>
+        <v>15.3489108468113</v>
       </c>
       <c r="H129" t="n">
-        <v>-8.61508480021136</v>
+        <v>17.8840727312302</v>
       </c>
       <c r="I129" t="n">
-        <v>-8.4008520121522</v>
+        <v>18.3123787900954</v>
       </c>
       <c r="J129" t="n">
-        <v>-9.10010424294113</v>
+        <v>18.0780332245676</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>10.3489048884864</v>
+        <v>10.1762283576923</v>
       </c>
       <c r="B130" t="n">
-        <v>10.2866641786333</v>
+        <v>10.6581898343373</v>
       </c>
       <c r="C130" t="n">
-        <v>12.6181100294749</v>
+        <v>12.9547571434964</v>
       </c>
       <c r="D130" t="n">
-        <v>12.2360596091896</v>
+        <v>13.553641343124</v>
       </c>
       <c r="E130" t="n">
-        <v>14.0649155424385</v>
+        <v>14.5650633688181</v>
       </c>
       <c r="F130" t="n">
-        <v>15.699225543453</v>
+        <v>15.5152448270539</v>
       </c>
       <c r="G130" t="n">
-        <v>16.4888438519945</v>
+        <v>15.191732372161</v>
       </c>
       <c r="H130" t="n">
-        <v>19.0927652065861</v>
+        <v>17.017975379098</v>
       </c>
       <c r="I130" t="n">
-        <v>18.2237545908839</v>
+        <v>17.5471979876906</v>
       </c>
       <c r="J130" t="n">
-        <v>18.4597542973417</v>
+        <v>19.9024112893785</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>8.07929805022128</v>
+        <v>-4.90832015507439</v>
       </c>
       <c r="B131" t="n">
-        <v>9.74039044789215</v>
+        <v>-5.15304571543363</v>
       </c>
       <c r="C131" t="n">
-        <v>11.1988927528203</v>
+        <v>-5.60585433435572</v>
       </c>
       <c r="D131" t="n">
-        <v>12.9944451351864</v>
+        <v>-6.60024124276956</v>
       </c>
       <c r="E131" t="n">
-        <v>15.2527279123058</v>
+        <v>-6.80762602796199</v>
       </c>
       <c r="F131" t="n">
-        <v>15.1401139145383</v>
+        <v>-7.63900822525529</v>
       </c>
       <c r="G131" t="n">
-        <v>16.328204988981</v>
+        <v>-7.99971407289913</v>
       </c>
       <c r="H131" t="n">
-        <v>16.277887729361</v>
+        <v>-8.55041144129065</v>
       </c>
       <c r="I131" t="n">
-        <v>17.5433080420443</v>
+        <v>-8.53150077027815</v>
       </c>
       <c r="J131" t="n">
-        <v>19.8154058374888</v>
+        <v>-9.33254953868482</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>-6.03044492505339</v>
+        <v>-4.53782816382926</v>
       </c>
       <c r="B132" t="n">
-        <v>-4.69031300780954</v>
+        <v>-5.42920326340963</v>
       </c>
       <c r="C132" t="n">
-        <v>-5.72711647284166</v>
+        <v>-6.0374679594186</v>
       </c>
       <c r="D132" t="n">
-        <v>-5.68015688334591</v>
+        <v>-6.93228354702565</v>
       </c>
       <c r="E132" t="n">
-        <v>-6.61480239474706</v>
+        <v>-6.88374765157269</v>
       </c>
       <c r="F132" t="n">
-        <v>-7.83508899316215</v>
+        <v>-7.72825909574619</v>
       </c>
       <c r="G132" t="n">
-        <v>-9.91523015081481</v>
+        <v>-7.49147682206629</v>
       </c>
       <c r="H132" t="n">
-        <v>-8.53807992494878</v>
+        <v>-8.22070979872234</v>
       </c>
       <c r="I132" t="n">
-        <v>-8.49256332203327</v>
+        <v>-8.9287967077232</v>
       </c>
       <c r="J132" t="n">
-        <v>-9.95269013129031</v>
+        <v>-9.67813359216806</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>-4.55694076096281</v>
+        <v>9.91793863150113</v>
       </c>
       <c r="B133" t="n">
-        <v>-5.68920873783448</v>
+        <v>10.6025695944994</v>
       </c>
       <c r="C133" t="n">
-        <v>-6.53700235848531</v>
+        <v>11.3105612606039</v>
       </c>
       <c r="D133" t="n">
-        <v>-5.33434187984288</v>
+        <v>13.4829168774783</v>
       </c>
       <c r="E133" t="n">
-        <v>-7.03420476088481</v>
+        <v>13.74920627239</v>
       </c>
       <c r="F133" t="n">
-        <v>-7.23474835468377</v>
+        <v>14.5846482411461</v>
       </c>
       <c r="G133" t="n">
-        <v>-7.3955047167285</v>
+        <v>15.025853816537</v>
       </c>
       <c r="H133" t="n">
-        <v>-8.12343696175415</v>
+        <v>16.5836859150717</v>
       </c>
       <c r="I133" t="n">
-        <v>-8.93386470968327</v>
+        <v>17.2732146459326</v>
       </c>
       <c r="J133" t="n">
-        <v>-10.7885964361439</v>
+        <v>18.3425886848413</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>10.8329607570834</v>
+        <v>7.60298822437748</v>
       </c>
       <c r="B134" t="n">
-        <v>12.3617471377219</v>
+        <v>10.7012079004649</v>
       </c>
       <c r="C134" t="n">
-        <v>12.4114003961265</v>
+        <v>11.0009834300816</v>
       </c>
       <c r="D134" t="n">
-        <v>12.5363361748789</v>
+        <v>12.3574467079701</v>
       </c>
       <c r="E134" t="n">
-        <v>13.2138705743704</v>
+        <v>14.2348914074756</v>
       </c>
       <c r="F134" t="n">
-        <v>15.8374181529976</v>
+        <v>14.6269446054506</v>
       </c>
       <c r="G134" t="n">
-        <v>16.9778007661597</v>
+        <v>16.2400989686202</v>
       </c>
       <c r="H134" t="n">
-        <v>17.3519293292193</v>
+        <v>16.7146245579774</v>
       </c>
       <c r="I134" t="n">
-        <v>17.3468624312336</v>
+        <v>17.8800639149372</v>
       </c>
       <c r="J134" t="n">
-        <v>18.5699295175919</v>
+        <v>20.7419077245719</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>-6.10196012383258</v>
+        <v>-5.14178281889192</v>
       </c>
       <c r="B135" t="n">
-        <v>-6.2107557384299</v>
+        <v>-5.66219737968836</v>
       </c>
       <c r="C135" t="n">
-        <v>-5.60270679715275</v>
+        <v>-5.92038345879057</v>
       </c>
       <c r="D135" t="n">
-        <v>-6.41714506443654</v>
+        <v>-6.61315723062026</v>
       </c>
       <c r="E135" t="n">
-        <v>-5.95165981271744</v>
+        <v>-7.01457863030019</v>
       </c>
       <c r="F135" t="n">
-        <v>-8.08286907303731</v>
+        <v>-7.18296459412971</v>
       </c>
       <c r="G135" t="n">
-        <v>-7.50920077259104</v>
+        <v>-7.44255145361918</v>
       </c>
       <c r="H135" t="n">
-        <v>-8.69946567584228</v>
+        <v>-8.41568363481178</v>
       </c>
       <c r="I135" t="n">
-        <v>-8.48373715861952</v>
+        <v>-8.5809771478952</v>
       </c>
       <c r="J135" t="n">
-        <v>-9.83190837093952</v>
+        <v>-9.70600009886896</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>10.668417109705</v>
+        <v>9.61095985073889</v>
       </c>
       <c r="B136" t="n">
-        <v>10.5597053003623</v>
+        <v>11.5250019809939</v>
       </c>
       <c r="C136" t="n">
-        <v>12.4135326227971</v>
+        <v>11.899777433701</v>
       </c>
       <c r="D136" t="n">
-        <v>12.5646455926908</v>
+        <v>12.7361880043039</v>
       </c>
       <c r="E136" t="n">
-        <v>14.4609160491712</v>
+        <v>13.6133298310654</v>
       </c>
       <c r="F136" t="n">
-        <v>15.1299953979649</v>
+        <v>15.446145618887</v>
       </c>
       <c r="G136" t="n">
-        <v>15.4837981774818</v>
+        <v>15.4487911163641</v>
       </c>
       <c r="H136" t="n">
-        <v>17.080075208045</v>
+        <v>18.0100762535348</v>
       </c>
       <c r="I136" t="n">
-        <v>18.2763484174052</v>
+        <v>18.3686908651502</v>
       </c>
       <c r="J136" t="n">
-        <v>18.7164648609565</v>
+        <v>18.4872445255683</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>9.21870713791694</v>
+        <v>10.1353448632007</v>
       </c>
       <c r="B137" t="n">
-        <v>10.9148158027474</v>
+        <v>10.4441742353598</v>
       </c>
       <c r="C137" t="n">
-        <v>11.1872411533001</v>
+        <v>10.5438994995236</v>
       </c>
       <c r="D137" t="n">
-        <v>13.5854272922794</v>
+        <v>13.464649611857</v>
       </c>
       <c r="E137" t="n">
-        <v>14.0125826076713</v>
+        <v>14.8414504791104</v>
       </c>
       <c r="F137" t="n">
-        <v>14.8219545819675</v>
+        <v>15.0543330660997</v>
       </c>
       <c r="G137" t="n">
-        <v>15.0904585435677</v>
+        <v>16.9893711350187</v>
       </c>
       <c r="H137" t="n">
-        <v>18.0034337175523</v>
+        <v>16.878876731536</v>
       </c>
       <c r="I137" t="n">
-        <v>17.7847119732619</v>
+        <v>18.4526897779422</v>
       </c>
       <c r="J137" t="n">
-        <v>18.7483366455679</v>
+        <v>19.1144690187795</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>10.5716506754369</v>
+        <v>10.7420462133596</v>
       </c>
       <c r="B138" t="n">
-        <v>11.4745578136816</v>
+        <v>9.90215117457853</v>
       </c>
       <c r="C138" t="n">
-        <v>11.5077914540743</v>
+        <v>11.9916173490665</v>
       </c>
       <c r="D138" t="n">
-        <v>14.0842203631005</v>
+        <v>12.6041515087573</v>
       </c>
       <c r="E138" t="n">
-        <v>13.5565571576058</v>
+        <v>13.6994852570808</v>
       </c>
       <c r="F138" t="n">
-        <v>15.2918504998131</v>
+        <v>14.4820576086379</v>
       </c>
       <c r="G138" t="n">
-        <v>15.5858780969049</v>
+        <v>15.7148793114152</v>
       </c>
       <c r="H138" t="n">
-        <v>16.1161311637579</v>
+        <v>17.0505687394204</v>
       </c>
       <c r="I138" t="n">
-        <v>18.3393825668324</v>
+        <v>17.0947785743453</v>
       </c>
       <c r="J138" t="n">
-        <v>20.6231203995903</v>
+        <v>18.6667127232637</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>-4.20851393274731</v>
+        <v>9.2610442815956</v>
       </c>
       <c r="B139" t="n">
-        <v>-5.97881337496671</v>
+        <v>10.0209091149689</v>
       </c>
       <c r="C139" t="n">
-        <v>-6.60597408304565</v>
+        <v>12.4141724734242</v>
       </c>
       <c r="D139" t="n">
-        <v>-5.45527933789995</v>
+        <v>12.5095020911779</v>
       </c>
       <c r="E139" t="n">
-        <v>-7.30608597053106</v>
+        <v>13.2298395531693</v>
       </c>
       <c r="F139" t="n">
-        <v>-6.66874897815119</v>
+        <v>13.8364660543086</v>
       </c>
       <c r="G139" t="n">
-        <v>-7.01408890039844</v>
+        <v>15.6292871093477</v>
       </c>
       <c r="H139" t="n">
-        <v>-9.15814865833636</v>
+        <v>16.2909878380311</v>
       </c>
       <c r="I139" t="n">
-        <v>-8.83678919645503</v>
+        <v>17.3659429887027</v>
       </c>
       <c r="J139" t="n">
-        <v>-8.98104528365984</v>
+        <v>18.1811902467572</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>9.83596069701422</v>
+        <v>11.5007742707112</v>
       </c>
       <c r="B140" t="n">
-        <v>10.8388046660212</v>
+        <v>11.1658246749875</v>
       </c>
       <c r="C140" t="n">
-        <v>11.8021661713835</v>
+        <v>11.9274273355239</v>
       </c>
       <c r="D140" t="n">
-        <v>12.313247023104</v>
+        <v>13.3505448079825</v>
       </c>
       <c r="E140" t="n">
-        <v>13.6694617430853</v>
+        <v>12.9078660414469</v>
       </c>
       <c r="F140" t="n">
-        <v>14.067758017163</v>
+        <v>14.5966891418802</v>
       </c>
       <c r="G140" t="n">
-        <v>15.9615264641872</v>
+        <v>16.0792124329419</v>
       </c>
       <c r="H140" t="n">
-        <v>17.1038398476729</v>
+        <v>17.3724639734791</v>
       </c>
       <c r="I140" t="n">
-        <v>18.8618583152803</v>
+        <v>18.6264203877506</v>
       </c>
       <c r="J140" t="n">
-        <v>17.6171689884044</v>
+        <v>19.0998603598137</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>10.7296284284433</v>
+        <v>9.35413321969086</v>
       </c>
       <c r="B141" t="n">
-        <v>11.73442932136</v>
+        <v>10.0872905847314</v>
       </c>
       <c r="C141" t="n">
-        <v>11.9162704039669</v>
+        <v>11.0779064563827</v>
       </c>
       <c r="D141" t="n">
-        <v>13.2843052632129</v>
+        <v>12.6357976298627</v>
       </c>
       <c r="E141" t="n">
-        <v>14.2661480428291</v>
+        <v>13.3224018351414</v>
       </c>
       <c r="F141" t="n">
-        <v>14.2328642226914</v>
+        <v>14.2337894331156</v>
       </c>
       <c r="G141" t="n">
-        <v>15.6177493136048</v>
+        <v>16.1343773810156</v>
       </c>
       <c r="H141" t="n">
-        <v>16.1559011691126</v>
+        <v>16.9104580578976</v>
       </c>
       <c r="I141" t="n">
-        <v>18.1912024995102</v>
+        <v>18.6952328686462</v>
       </c>
       <c r="J141" t="n">
-        <v>17.9471862920924</v>
+        <v>17.9762965957548</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>9.85442181076677</v>
+        <v>-4.59711676936317</v>
       </c>
       <c r="B142" t="n">
-        <v>8.61789634316763</v>
+        <v>-5.21590890347196</v>
       </c>
       <c r="C142" t="n">
-        <v>12.4607203418352</v>
+        <v>-6.1093031662893</v>
       </c>
       <c r="D142" t="n">
-        <v>13.7096221709879</v>
+        <v>-6.38755562965882</v>
       </c>
       <c r="E142" t="n">
-        <v>14.6811896371365</v>
+        <v>-7.42211293635722</v>
       </c>
       <c r="F142" t="n">
-        <v>15.4155102874883</v>
+        <v>-7.74948095070819</v>
       </c>
       <c r="G142" t="n">
-        <v>15.8737896523981</v>
+        <v>-7.6198037845596</v>
       </c>
       <c r="H142" t="n">
-        <v>16.4849734754252</v>
+        <v>-8.48199785325945</v>
       </c>
       <c r="I142" t="n">
-        <v>16.8985617943863</v>
+        <v>-9.16183863794103</v>
       </c>
       <c r="J142" t="n">
-        <v>18.3916432703058</v>
+        <v>-8.93934517782744</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>10.3778829558218</v>
+        <v>-5.00591138531655</v>
       </c>
       <c r="B143" t="n">
-        <v>12.4398074547189</v>
+        <v>-5.52556927846175</v>
       </c>
       <c r="C143" t="n">
-        <v>11.9511044226321</v>
+        <v>-5.61658123702424</v>
       </c>
       <c r="D143" t="n">
-        <v>11.2735308443473</v>
+        <v>-6.32782216132277</v>
       </c>
       <c r="E143" t="n">
-        <v>14.2094757201309</v>
+        <v>-7.08539441251342</v>
       </c>
       <c r="F143" t="n">
-        <v>14.3943187988582</v>
+        <v>-7.88171277201572</v>
       </c>
       <c r="G143" t="n">
-        <v>15.4041711687194</v>
+        <v>-8.33219299741615</v>
       </c>
       <c r="H143" t="n">
-        <v>17.8296598755605</v>
+        <v>-8.32457968810479</v>
       </c>
       <c r="I143" t="n">
-        <v>16.4337907589354</v>
+        <v>-8.93782719904823</v>
       </c>
       <c r="J143" t="n">
-        <v>20.6507688830257</v>
+        <v>-9.44637791262096</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>10.3769816062696</v>
+        <v>10.289786369106</v>
       </c>
       <c r="B144" t="n">
-        <v>10.3734343679944</v>
+        <v>11.3213120709034</v>
       </c>
       <c r="C144" t="n">
-        <v>11.5709019438746</v>
+        <v>10.9911304013767</v>
       </c>
       <c r="D144" t="n">
-        <v>13.8586507967174</v>
+        <v>13.0097969142867</v>
       </c>
       <c r="E144" t="n">
-        <v>15.4085039842356</v>
+        <v>13.7649627656918</v>
       </c>
       <c r="F144" t="n">
-        <v>15.7635869196014</v>
+        <v>16.2142493862179</v>
       </c>
       <c r="G144" t="n">
-        <v>15.1209279917751</v>
+        <v>15.9622231373408</v>
       </c>
       <c r="H144" t="n">
-        <v>16.8602093749298</v>
+        <v>16.3330734906546</v>
       </c>
       <c r="I144" t="n">
-        <v>18.8136449389016</v>
+        <v>16.5897945856473</v>
       </c>
       <c r="J144" t="n">
-        <v>18.7174468140152</v>
+        <v>19.2301223462035</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>-5.37720893350005</v>
+        <v>8.96170791489363</v>
       </c>
       <c r="B145" t="n">
-        <v>-7.23860590679943</v>
+        <v>10.2535811198029</v>
       </c>
       <c r="C145" t="n">
-        <v>-7.3161910765008</v>
+        <v>12.3969410550041</v>
       </c>
       <c r="D145" t="n">
-        <v>-5.34332560071682</v>
+        <v>13.807077789932</v>
       </c>
       <c r="E145" t="n">
-        <v>-7.41746426030794</v>
+        <v>13.1284092869265</v>
       </c>
       <c r="F145" t="n">
-        <v>-6.99421331161289</v>
+        <v>14.7558675116463</v>
       </c>
       <c r="G145" t="n">
-        <v>-8.27367157717497</v>
+        <v>16.5325222222376</v>
       </c>
       <c r="H145" t="n">
-        <v>-8.82505363316429</v>
+        <v>16.8460681198472</v>
       </c>
       <c r="I145" t="n">
-        <v>-10.5588728284464</v>
+        <v>17.5087083052464</v>
       </c>
       <c r="J145" t="n">
-        <v>-8.48466972691613</v>
+        <v>17.4708493073528</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>-5.37054283623944</v>
+        <v>11.3161809980877</v>
       </c>
       <c r="B146" t="n">
-        <v>-5.79675493948888</v>
+        <v>10.5323988437356</v>
       </c>
       <c r="C146" t="n">
-        <v>-6.32800648397501</v>
+        <v>11.8963924494042</v>
       </c>
       <c r="D146" t="n">
-        <v>-6.51862882670233</v>
+        <v>13.8009072345668</v>
       </c>
       <c r="E146" t="n">
-        <v>-7.05543887126673</v>
+        <v>13.4635902827554</v>
       </c>
       <c r="F146" t="n">
-        <v>-7.74915199508701</v>
+        <v>14.0196910227574</v>
       </c>
       <c r="G146" t="n">
-        <v>-8.55945882913244</v>
+        <v>16.0510581635019</v>
       </c>
       <c r="H146" t="n">
-        <v>-8.43705184631324</v>
+        <v>16.2933645732249</v>
       </c>
       <c r="I146" t="n">
-        <v>-8.78267423510937</v>
+        <v>17.6621981667263</v>
       </c>
       <c r="J146" t="n">
-        <v>-10.2405538898857</v>
+        <v>19.1060089503813</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>9.39040647595961</v>
+        <v>-5.28556665460168</v>
       </c>
       <c r="B147" t="n">
-        <v>10.2679892769977</v>
+        <v>-5.56023431104686</v>
       </c>
       <c r="C147" t="n">
-        <v>12.0127730059576</v>
+        <v>-5.73042220328314</v>
       </c>
       <c r="D147" t="n">
-        <v>13.5435070472397</v>
+        <v>-6.42684103566974</v>
       </c>
       <c r="E147" t="n">
-        <v>14.9362831337499</v>
+        <v>-7.30839478805765</v>
       </c>
       <c r="F147" t="n">
-        <v>15.6001254099523</v>
+        <v>-7.39120624409912</v>
       </c>
       <c r="G147" t="n">
-        <v>16.6001225520723</v>
+        <v>-8.41727925905486</v>
       </c>
       <c r="H147" t="n">
-        <v>17.7025865491566</v>
+        <v>-8.95880474740901</v>
       </c>
       <c r="I147" t="n">
-        <v>17.4272436687502</v>
+        <v>-8.99751738335278</v>
       </c>
       <c r="J147" t="n">
-        <v>18.5867611842297</v>
+        <v>-9.62769780430561</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>10.318608582401</v>
+        <v>10.1787932087238</v>
       </c>
       <c r="B148" t="n">
-        <v>11.4129935441685</v>
+        <v>11.5188292400579</v>
       </c>
       <c r="C148" t="n">
-        <v>12.7462556708804</v>
+        <v>12.8686102801258</v>
       </c>
       <c r="D148" t="n">
-        <v>14.527846555959</v>
+        <v>13.8424745392859</v>
       </c>
       <c r="E148" t="n">
-        <v>13.1041762874882</v>
+        <v>14.5255103935029</v>
       </c>
       <c r="F148" t="n">
-        <v>15.548569033394</v>
+        <v>15.3120118549053</v>
       </c>
       <c r="G148" t="n">
-        <v>16.2573965306877</v>
+        <v>16.5667323699696</v>
       </c>
       <c r="H148" t="n">
-        <v>17.2257299024113</v>
+        <v>16.9629720495502</v>
       </c>
       <c r="I148" t="n">
-        <v>18.5763228132377</v>
+        <v>17.1255077313294</v>
       </c>
       <c r="J148" t="n">
-        <v>19.0450861564071</v>
+        <v>19.1002490045108</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>9.69589963560219</v>
+        <v>10.9290993558784</v>
       </c>
       <c r="B149" t="n">
-        <v>11.4096494836908</v>
+        <v>10.0993920260078</v>
       </c>
       <c r="C149" t="n">
-        <v>11.9499176762167</v>
+        <v>14.0113861783763</v>
       </c>
       <c r="D149" t="n">
-        <v>13.4939257215985</v>
+        <v>12.4881120375823</v>
       </c>
       <c r="E149" t="n">
-        <v>13.7488457756035</v>
+        <v>12.4386535822411</v>
       </c>
       <c r="F149" t="n">
-        <v>13.7295876511647</v>
+        <v>14.750240239523</v>
       </c>
       <c r="G149" t="n">
-        <v>16.434488844814</v>
+        <v>15.64824490244</v>
       </c>
       <c r="H149" t="n">
-        <v>18.1576931941013</v>
+        <v>16.8600466465499</v>
       </c>
       <c r="I149" t="n">
-        <v>18.172946299693</v>
+        <v>18.0105977023326</v>
       </c>
       <c r="J149" t="n">
-        <v>19.0504597200607</v>
+        <v>19.5668853892592</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>-4.40201903281461</v>
+        <v>10.4630097171624</v>
       </c>
       <c r="B150" t="n">
-        <v>-4.59265571833562</v>
+        <v>11.536985658015</v>
       </c>
       <c r="C150" t="n">
-        <v>-6.20299207162901</v>
+        <v>11.8432581671443</v>
       </c>
       <c r="D150" t="n">
-        <v>-6.0852190565692</v>
+        <v>13.726454669057</v>
       </c>
       <c r="E150" t="n">
-        <v>-6.48440146305253</v>
+        <v>13.7875825067785</v>
       </c>
       <c r="F150" t="n">
-        <v>-7.21471124238748</v>
+        <v>16.3510679086615</v>
       </c>
       <c r="G150" t="n">
-        <v>-6.76909505854092</v>
+        <v>14.9926068756582</v>
       </c>
       <c r="H150" t="n">
-        <v>-8.67882032429497</v>
+        <v>17.174590163752</v>
       </c>
       <c r="I150" t="n">
-        <v>-7.12399604244043</v>
+        <v>17.7437222171781</v>
       </c>
       <c r="J150" t="n">
-        <v>-9.00976331141469</v>
+        <v>19.3637354473446</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>9.54002790562699</v>
+        <v>9.16305091641957</v>
       </c>
       <c r="B151" t="n">
-        <v>11.7347936662267</v>
+        <v>11.4167176298912</v>
       </c>
       <c r="C151" t="n">
-        <v>12.9227430431297</v>
+        <v>11.2776940744524</v>
       </c>
       <c r="D151" t="n">
-        <v>12.2618253437593</v>
+        <v>12.2443527532269</v>
       </c>
       <c r="E151" t="n">
-        <v>13.7514984313216</v>
+        <v>14.7075285129723</v>
       </c>
       <c r="F151" t="n">
-        <v>15.932620468249</v>
+        <v>14.4251167473825</v>
       </c>
       <c r="G151" t="n">
-        <v>15.9847671492082</v>
+        <v>16.0812358719006</v>
       </c>
       <c r="H151" t="n">
-        <v>16.2500912544917</v>
+        <v>16.5839698281737</v>
       </c>
       <c r="I151" t="n">
-        <v>18.4876464792812</v>
+        <v>18.8160079950601</v>
       </c>
       <c r="J151" t="n">
-        <v>18.4140784902456</v>
+        <v>18.6969305438301</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>11.0558543970846</v>
+        <v>10.7220520705639</v>
       </c>
       <c r="B152" t="n">
-        <v>11.6501472317003</v>
+        <v>10.3648585292099</v>
       </c>
       <c r="C152" t="n">
-        <v>12.805499576847</v>
+        <v>11.028492334914</v>
       </c>
       <c r="D152" t="n">
-        <v>13.0623998793468</v>
+        <v>13.3396091149419</v>
       </c>
       <c r="E152" t="n">
-        <v>13.3366654447947</v>
+        <v>13.9861704447542</v>
       </c>
       <c r="F152" t="n">
-        <v>14.3705808211343</v>
+        <v>14.0682678430351</v>
       </c>
       <c r="G152" t="n">
-        <v>17.3127484347873</v>
+        <v>16.1777641223041</v>
       </c>
       <c r="H152" t="n">
-        <v>15.5012439557689</v>
+        <v>16.6538538745055</v>
       </c>
       <c r="I152" t="n">
-        <v>18.1822824534044</v>
+        <v>17.2213296047026</v>
       </c>
       <c r="J152" t="n">
-        <v>18.4844680493499</v>
+        <v>16.9481191559906</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>10.2391727024438</v>
+        <v>10.134305808085</v>
       </c>
       <c r="B153" t="n">
-        <v>12.7049358734038</v>
+        <v>11.2144219118192</v>
       </c>
       <c r="C153" t="n">
-        <v>11.4585329423146</v>
+        <v>13.0276825983394</v>
       </c>
       <c r="D153" t="n">
-        <v>11.9477126797756</v>
+        <v>13.1979565671747</v>
       </c>
       <c r="E153" t="n">
-        <v>14.7441701866535</v>
+        <v>15.1700557259525</v>
       </c>
       <c r="F153" t="n">
-        <v>16.6597511387873</v>
+        <v>14.6607816047334</v>
       </c>
       <c r="G153" t="n">
-        <v>14.0439776026175</v>
+        <v>16.6121142941344</v>
       </c>
       <c r="H153" t="n">
-        <v>17.0350212619357</v>
+        <v>16.9499794758413</v>
       </c>
       <c r="I153" t="n">
-        <v>18.5663770651579</v>
+        <v>18.8511942033364</v>
       </c>
       <c r="J153" t="n">
-        <v>19.2206836705312</v>
+        <v>19.5768020119521</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>9.14384955763551</v>
+        <v>9.86505469619422</v>
       </c>
       <c r="B154" t="n">
-        <v>11.6562492685481</v>
+        <v>10.9620671047874</v>
       </c>
       <c r="C154" t="n">
-        <v>10.9271435651695</v>
+        <v>12.379113207578</v>
       </c>
       <c r="D154" t="n">
-        <v>14.2052096466473</v>
+        <v>13.5471582329036</v>
       </c>
       <c r="E154" t="n">
-        <v>15.0843276203737</v>
+        <v>13.8341979261795</v>
       </c>
       <c r="F154" t="n">
-        <v>15.3485970442038</v>
+        <v>16.3488815905519</v>
       </c>
       <c r="G154" t="n">
-        <v>16.858299627959</v>
+        <v>16.3393216597454</v>
       </c>
       <c r="H154" t="n">
-        <v>16.8674495987531</v>
+        <v>17.590922987913</v>
       </c>
       <c r="I154" t="n">
-        <v>18.0071224984717</v>
+        <v>17.3789963028803</v>
       </c>
       <c r="J154" t="n">
-        <v>18.8047993248273</v>
+        <v>19.8124621502376</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>9.83034037692442</v>
+        <v>10.4361285047585</v>
       </c>
       <c r="B155" t="n">
-        <v>10.535236292036</v>
+        <v>11.1667105884877</v>
       </c>
       <c r="C155" t="n">
-        <v>10.6470173889911</v>
+        <v>12.4276013894478</v>
       </c>
       <c r="D155" t="n">
-        <v>12.4038394756752</v>
+        <v>13.3294096752221</v>
       </c>
       <c r="E155" t="n">
-        <v>14.3496058204132</v>
+        <v>13.5377753923463</v>
       </c>
       <c r="F155" t="n">
-        <v>14.4701198153124</v>
+        <v>15.5904816094563</v>
       </c>
       <c r="G155" t="n">
-        <v>15.2412163333315</v>
+        <v>16.8421744011641</v>
       </c>
       <c r="H155" t="n">
-        <v>17.6610749801738</v>
+        <v>17.9539924925292</v>
       </c>
       <c r="I155" t="n">
-        <v>18.0681716445066</v>
+        <v>18.6965616718137</v>
       </c>
       <c r="J155" t="n">
-        <v>18.9609125887775</v>
+        <v>20.6562343916287</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>9.63716720215324</v>
+        <v>10.7271720099537</v>
       </c>
       <c r="B156" t="n">
-        <v>11.4987908156371</v>
+        <v>10.5174118010312</v>
       </c>
       <c r="C156" t="n">
-        <v>12.4625618314968</v>
+        <v>10.9467352321412</v>
       </c>
       <c r="D156" t="n">
-        <v>13.7195990890906</v>
+        <v>13.2398397162005</v>
       </c>
       <c r="E156" t="n">
-        <v>12.2374672191684</v>
+        <v>13.8802876985678</v>
       </c>
       <c r="F156" t="n">
-        <v>15.5649909792059</v>
+        <v>13.9205049780587</v>
       </c>
       <c r="G156" t="n">
-        <v>16.2304292259199</v>
+        <v>16.7786904214777</v>
       </c>
       <c r="H156" t="n">
-        <v>16.960044939297</v>
+        <v>15.1601027860948</v>
       </c>
       <c r="I156" t="n">
-        <v>18.5611213541061</v>
+        <v>19.2535935544784</v>
       </c>
       <c r="J156" t="n">
-        <v>21.2659831467591</v>
+        <v>19.2063579489085</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>-4.43816403809865</v>
+        <v>10.7069727323902</v>
       </c>
       <c r="B157" t="n">
-        <v>-3.5346324800557</v>
+        <v>10.7277569984749</v>
       </c>
       <c r="C157" t="n">
-        <v>-5.79344568537991</v>
+        <v>12.5343854413748</v>
       </c>
       <c r="D157" t="n">
-        <v>-5.9972537696479</v>
+        <v>13.2192904651329</v>
       </c>
       <c r="E157" t="n">
-        <v>-7.33256803457227</v>
+        <v>14.0871185035799</v>
       </c>
       <c r="F157" t="n">
-        <v>-8.63305002148944</v>
+        <v>15.1120498400258</v>
       </c>
       <c r="G157" t="n">
-        <v>-8.38776756896307</v>
+        <v>15.4311417917663</v>
       </c>
       <c r="H157" t="n">
-        <v>-8.19920195249348</v>
+        <v>17.8958407949394</v>
       </c>
       <c r="I157" t="n">
-        <v>-9.69495835823062</v>
+        <v>18.4782136549084</v>
       </c>
       <c r="J157" t="n">
-        <v>-9.21891529883341</v>
+        <v>18.6617011969359</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>9.26099995946282</v>
+        <v>-5.12172847167552</v>
       </c>
       <c r="B158" t="n">
-        <v>9.67131084425039</v>
+        <v>-5.34670840901112</v>
       </c>
       <c r="C158" t="n">
-        <v>12.3349292546197</v>
+        <v>-5.80975918958125</v>
       </c>
       <c r="D158" t="n">
-        <v>13.3887637788537</v>
+        <v>-6.41075869219312</v>
       </c>
       <c r="E158" t="n">
-        <v>13.7264283094358</v>
+        <v>-7.29580971112605</v>
       </c>
       <c r="F158" t="n">
-        <v>15.6528847543955</v>
+        <v>-6.92105275201078</v>
       </c>
       <c r="G158" t="n">
-        <v>15.6052620417123</v>
+        <v>-8.12618520841161</v>
       </c>
       <c r="H158" t="n">
-        <v>16.8704604950659</v>
+        <v>-8.52710992546497</v>
       </c>
       <c r="I158" t="n">
-        <v>18.0976538674637</v>
+        <v>-9.02177627716338</v>
       </c>
       <c r="J158" t="n">
-        <v>18.5753052104519</v>
+        <v>-9.76165582454371</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>10.1722078134657</v>
+        <v>-4.81437201264488</v>
       </c>
       <c r="B159" t="n">
-        <v>10.7235038749103</v>
+        <v>-5.4722719074035</v>
       </c>
       <c r="C159" t="n">
-        <v>11.6368104926437</v>
+        <v>-6.05625670619506</v>
       </c>
       <c r="D159" t="n">
-        <v>14.2106860137611</v>
+        <v>-6.42127005150672</v>
       </c>
       <c r="E159" t="n">
-        <v>13.7847560316261</v>
+        <v>-7.07323965505357</v>
       </c>
       <c r="F159" t="n">
-        <v>15.4906135886307</v>
+        <v>-7.68388723945539</v>
       </c>
       <c r="G159" t="n">
-        <v>16.3563894234</v>
+        <v>-7.92426693828087</v>
       </c>
       <c r="H159" t="n">
-        <v>16.67472408313</v>
+        <v>-8.95426240927257</v>
       </c>
       <c r="I159" t="n">
-        <v>18.869942262284</v>
+        <v>-9.10790149174034</v>
       </c>
       <c r="J159" t="n">
-        <v>19.2342261366714</v>
+        <v>-9.65212734899383</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>9.15426785107676</v>
+        <v>-5.26711078317724</v>
       </c>
       <c r="B160" t="n">
-        <v>10.470803990609</v>
+        <v>-5.76168827796363</v>
       </c>
       <c r="C160" t="n">
-        <v>12.3050255744436</v>
+        <v>-5.86774802536536</v>
       </c>
       <c r="D160" t="n">
-        <v>12.7156746796721</v>
+        <v>-6.55855783187044</v>
       </c>
       <c r="E160" t="n">
-        <v>13.7431280207829</v>
+        <v>-6.86741800465018</v>
       </c>
       <c r="F160" t="n">
-        <v>14.0725749666628</v>
+        <v>-7.18931168474096</v>
       </c>
       <c r="G160" t="n">
-        <v>16.616112069227</v>
+        <v>-7.86677375606024</v>
       </c>
       <c r="H160" t="n">
-        <v>17.6437974470733</v>
+        <v>-8.33425350302528</v>
       </c>
       <c r="I160" t="n">
-        <v>16.685333431153</v>
+        <v>-9.16558476377537</v>
       </c>
       <c r="J160" t="n">
-        <v>19.7022160147808</v>
+        <v>-9.79918562380222</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>10.7754303167304</v>
+        <v>9.54402608233501</v>
       </c>
       <c r="B161" t="n">
-        <v>12.3975968439726</v>
+        <v>10.5999207500498</v>
       </c>
       <c r="C161" t="n">
-        <v>11.7119020194424</v>
+        <v>12.2143929194136</v>
       </c>
       <c r="D161" t="n">
-        <v>12.6720090445328</v>
+        <v>13.7627071376453</v>
       </c>
       <c r="E161" t="n">
-        <v>14.0317037186132</v>
+        <v>13.5521488181859</v>
       </c>
       <c r="F161" t="n">
-        <v>14.1360806864568</v>
+        <v>14.6177266819068</v>
       </c>
       <c r="G161" t="n">
-        <v>16.3541777334832</v>
+        <v>14.9185512495909</v>
       </c>
       <c r="H161" t="n">
-        <v>17.109454691522</v>
+        <v>16.4252038719395</v>
       </c>
       <c r="I161" t="n">
-        <v>18.9792953098082</v>
+        <v>17.6639992998425</v>
       </c>
       <c r="J161" t="n">
-        <v>17.795530010327</v>
+        <v>18.3230680757032</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>9.71151851433457</v>
+        <v>10.5089186636724</v>
       </c>
       <c r="B162" t="n">
-        <v>11.0570695082746</v>
+        <v>11.8170115111298</v>
       </c>
       <c r="C162" t="n">
-        <v>12.8941521905221</v>
+        <v>12.9514031048375</v>
       </c>
       <c r="D162" t="n">
-        <v>11.6127010865951</v>
+        <v>13.5497444917655</v>
       </c>
       <c r="E162" t="n">
-        <v>14.3995603107932</v>
+        <v>13.225283775779</v>
       </c>
       <c r="F162" t="n">
-        <v>13.9097527639523</v>
+        <v>16.4525744178415</v>
       </c>
       <c r="G162" t="n">
-        <v>16.4617251267862</v>
+        <v>16.0286337570399</v>
       </c>
       <c r="H162" t="n">
-        <v>16.5492978766932</v>
+        <v>16.7503797849352</v>
       </c>
       <c r="I162" t="n">
-        <v>17.9748124871187</v>
+        <v>18.4379639004719</v>
       </c>
       <c r="J162" t="n">
-        <v>19.1539096946929</v>
+        <v>19.1359814371333</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>10.1550482470252</v>
+        <v>-5.17745892790396</v>
       </c>
       <c r="B163" t="n">
-        <v>11.5665573228965</v>
+        <v>-5.26797399933863</v>
       </c>
       <c r="C163" t="n">
-        <v>13.1987322796047</v>
+        <v>-5.81146999363477</v>
       </c>
       <c r="D163" t="n">
-        <v>12.2690902386949</v>
+        <v>-6.43813713747599</v>
       </c>
       <c r="E163" t="n">
-        <v>13.3005640183306</v>
+        <v>-7.27504682025418</v>
       </c>
       <c r="F163" t="n">
-        <v>14.2734004953877</v>
+        <v>-7.99676877618857</v>
       </c>
       <c r="G163" t="n">
-        <v>16.8872126712061</v>
+        <v>-8.35970334646096</v>
       </c>
       <c r="H163" t="n">
-        <v>17.5313285391566</v>
+        <v>-8.18693048801153</v>
       </c>
       <c r="I163" t="n">
-        <v>17.9345299439408</v>
+        <v>-8.90925687327321</v>
       </c>
       <c r="J163" t="n">
-        <v>19.1969956361518</v>
+        <v>-9.3348013011918</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>9.45604594063016</v>
+        <v>9.10214050667392</v>
       </c>
       <c r="B164" t="n">
-        <v>11.7167492720456</v>
+        <v>11.3626679063137</v>
       </c>
       <c r="C164" t="n">
-        <v>12.1968068956394</v>
+        <v>12.6802163077397</v>
       </c>
       <c r="D164" t="n">
-        <v>12.8090018605624</v>
+        <v>14.1281023657151</v>
       </c>
       <c r="E164" t="n">
-        <v>13.7699177951319</v>
+        <v>13.5839830329609</v>
       </c>
       <c r="F164" t="n">
-        <v>14.3049901800893</v>
+        <v>14.5295362741274</v>
       </c>
       <c r="G164" t="n">
-        <v>16.8645843723875</v>
+        <v>17.1413760652012</v>
       </c>
       <c r="H164" t="n">
-        <v>18.1588348031219</v>
+        <v>17.046710953905</v>
       </c>
       <c r="I164" t="n">
-        <v>18.424572786929</v>
+        <v>17.8221181796328</v>
       </c>
       <c r="J164" t="n">
-        <v>19.9275386395369</v>
+        <v>19.5328176275744</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>10.3250893427622</v>
+        <v>-5.48607450069293</v>
       </c>
       <c r="B165" t="n">
-        <v>12.059594484117</v>
+        <v>-5.33889574922742</v>
       </c>
       <c r="C165" t="n">
-        <v>11.3395894407989</v>
+        <v>-6.02154721516311</v>
       </c>
       <c r="D165" t="n">
-        <v>12.5286358656466</v>
+        <v>-6.15820347616735</v>
       </c>
       <c r="E165" t="n">
-        <v>14.0483448505727</v>
+        <v>-6.95667462748806</v>
       </c>
       <c r="F165" t="n">
-        <v>15.0049866080972</v>
+        <v>-7.25457209837599</v>
       </c>
       <c r="G165" t="n">
-        <v>15.9869294713427</v>
+        <v>-8.30979732289006</v>
       </c>
       <c r="H165" t="n">
-        <v>17.594359109787</v>
+        <v>-8.04391974992847</v>
       </c>
       <c r="I165" t="n">
-        <v>17.9466793265517</v>
+        <v>-8.75226390930496</v>
       </c>
       <c r="J165" t="n">
-        <v>20.1216042681447</v>
+        <v>-9.49034301112237</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>-4.1370743986962</v>
+        <v>10.8651091684008</v>
       </c>
       <c r="B166" t="n">
-        <v>-5.93670453713241</v>
+        <v>9.51467232771189</v>
       </c>
       <c r="C166" t="n">
-        <v>-5.55658741098842</v>
+        <v>13.0621218920364</v>
       </c>
       <c r="D166" t="n">
-        <v>-6.63532006719499</v>
+        <v>14.4155837603973</v>
       </c>
       <c r="E166" t="n">
-        <v>-7.12284591919651</v>
+        <v>14.5505069358031</v>
       </c>
       <c r="F166" t="n">
-        <v>-7.82024439174724</v>
+        <v>14.8938517364852</v>
       </c>
       <c r="G166" t="n">
-        <v>-8.50819778197403</v>
+        <v>15.8954071622282</v>
       </c>
       <c r="H166" t="n">
-        <v>-8.8673216741402</v>
+        <v>16.7379790637332</v>
       </c>
       <c r="I166" t="n">
-        <v>-9.33218773363872</v>
+        <v>17.232093261315</v>
       </c>
       <c r="J166" t="n">
-        <v>-9.55491151647003</v>
+        <v>18.2194823638234</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>9.58667918368864</v>
+        <v>11.0802110815467</v>
       </c>
       <c r="B167" t="n">
-        <v>11.0988721587259</v>
+        <v>13.1488813227019</v>
       </c>
       <c r="C167" t="n">
-        <v>11.0322537679823</v>
+        <v>11.7265351573872</v>
       </c>
       <c r="D167" t="n">
-        <v>12.9621621462079</v>
+        <v>13.2393171164441</v>
       </c>
       <c r="E167" t="n">
-        <v>15.553201148918</v>
+        <v>14.8462500471889</v>
       </c>
       <c r="F167" t="n">
-        <v>14.7111863301761</v>
+        <v>14.6265127975348</v>
       </c>
       <c r="G167" t="n">
-        <v>16.4566346342516</v>
+        <v>14.6672413409192</v>
       </c>
       <c r="H167" t="n">
-        <v>17.3054317829365</v>
+        <v>17.356383797766</v>
       </c>
       <c r="I167" t="n">
-        <v>17.3148566376299</v>
+        <v>17.7031629444368</v>
       </c>
       <c r="J167" t="n">
-        <v>19.8560254592947</v>
+        <v>19.6613756163745</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>9.73800123273316</v>
+        <v>-4.97496642620277</v>
       </c>
       <c r="B168" t="n">
-        <v>10.0729858185945</v>
+        <v>-5.47130968005164</v>
       </c>
       <c r="C168" t="n">
-        <v>12.0184155489247</v>
+        <v>-5.54457054792271</v>
       </c>
       <c r="D168" t="n">
-        <v>13.2171781885864</v>
+        <v>-6.59697815447292</v>
       </c>
       <c r="E168" t="n">
-        <v>14.0508908979922</v>
+        <v>-7.01198458398793</v>
       </c>
       <c r="F168" t="n">
-        <v>15.0292235859415</v>
+        <v>-7.22316189191104</v>
       </c>
       <c r="G168" t="n">
-        <v>18.2183001085256</v>
+        <v>-8.44929069510084</v>
       </c>
       <c r="H168" t="n">
-        <v>16.8072585658179</v>
+        <v>-7.94706308281517</v>
       </c>
       <c r="I168" t="n">
-        <v>17.8507897955768</v>
+        <v>-8.8794865215988</v>
       </c>
       <c r="J168" t="n">
-        <v>19.7493837483631</v>
+        <v>-9.563531570045</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>-4.51788143294134</v>
+        <v>9.72894197105436</v>
       </c>
       <c r="B169" t="n">
-        <v>-5.04828323941792</v>
+        <v>10.9759471307119</v>
       </c>
       <c r="C169" t="n">
-        <v>-5.77582578024986</v>
+        <v>12.4346134229499</v>
       </c>
       <c r="D169" t="n">
-        <v>-6.40134072628648</v>
+        <v>12.8112208774919</v>
       </c>
       <c r="E169" t="n">
-        <v>-7.45295672665191</v>
+        <v>13.401094205873</v>
       </c>
       <c r="F169" t="n">
-        <v>-7.16379612262318</v>
+        <v>15.9714690136837</v>
       </c>
       <c r="G169" t="n">
-        <v>-7.09973567901099</v>
+        <v>15.2330356299911</v>
       </c>
       <c r="H169" t="n">
-        <v>-9.53385452006471</v>
+        <v>17.1927417643501</v>
       </c>
       <c r="I169" t="n">
-        <v>-7.02890200785748</v>
+        <v>18.286251376971</v>
       </c>
       <c r="J169" t="n">
-        <v>-9.79169558065475</v>
+        <v>19.2270948444354</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>9.53711898689096</v>
+        <v>9.52442763804488</v>
       </c>
       <c r="B170" t="n">
-        <v>12.4226058873318</v>
+        <v>11.0674088072253</v>
       </c>
       <c r="C170" t="n">
-        <v>11.1131696977503</v>
+        <v>13.3893925964162</v>
       </c>
       <c r="D170" t="n">
-        <v>13.2332217244255</v>
+        <v>13.8658762384156</v>
       </c>
       <c r="E170" t="n">
-        <v>13.4185686275028</v>
+        <v>13.9028472834296</v>
       </c>
       <c r="F170" t="n">
-        <v>15.5228985721978</v>
+        <v>16.0881310269224</v>
       </c>
       <c r="G170" t="n">
-        <v>16.0741730212417</v>
+        <v>16.7120704112019</v>
       </c>
       <c r="H170" t="n">
-        <v>17.1437153074093</v>
+        <v>16.3171134751521</v>
       </c>
       <c r="I170" t="n">
-        <v>17.7756596720954</v>
+        <v>17.8857969662625</v>
       </c>
       <c r="J170" t="n">
-        <v>18.5109771205759</v>
+        <v>19.8203697283704</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>10.2385240647017</v>
+        <v>9.92705311633909</v>
       </c>
       <c r="B171" t="n">
-        <v>10.1802585353823</v>
+        <v>11.5537229619837</v>
       </c>
       <c r="C171" t="n">
-        <v>11.3684906846396</v>
+        <v>12.5814599059107</v>
       </c>
       <c r="D171" t="n">
-        <v>13.1384334971833</v>
+        <v>13.4204078796166</v>
       </c>
       <c r="E171" t="n">
-        <v>14.0061476691734</v>
+        <v>14.0298341736728</v>
       </c>
       <c r="F171" t="n">
-        <v>14.4448945335844</v>
+        <v>13.7804844159968</v>
       </c>
       <c r="G171" t="n">
-        <v>15.6391643327094</v>
+        <v>16.6175674651558</v>
       </c>
       <c r="H171" t="n">
-        <v>17.3116044330893</v>
+        <v>16.7277350148969</v>
       </c>
       <c r="I171" t="n">
-        <v>18.0193788571333</v>
+        <v>18.7201060140286</v>
       </c>
       <c r="J171" t="n">
-        <v>18.0236857227591</v>
+        <v>19.8293055806418</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>-5.91630675423645</v>
+        <v>10.9205262543874</v>
       </c>
       <c r="B172" t="n">
-        <v>-5.87593355969045</v>
+        <v>11.5080848588372</v>
       </c>
       <c r="C172" t="n">
-        <v>-4.54607089712477</v>
+        <v>11.8056889640571</v>
       </c>
       <c r="D172" t="n">
-        <v>-6.63842127255266</v>
+        <v>12.9283897877383</v>
       </c>
       <c r="E172" t="n">
-        <v>-7.58507146659201</v>
+        <v>13.7662428378179</v>
       </c>
       <c r="F172" t="n">
-        <v>-7.41588492913718</v>
+        <v>14.1347836124075</v>
       </c>
       <c r="G172" t="n">
-        <v>-8.56329490891632</v>
+        <v>15.8651244726063</v>
       </c>
       <c r="H172" t="n">
-        <v>-8.62349055176351</v>
+        <v>16.937883811776</v>
       </c>
       <c r="I172" t="n">
-        <v>-9.2007900239105</v>
+        <v>16.3766112464958</v>
       </c>
       <c r="J172" t="n">
-        <v>-8.78800884432204</v>
+        <v>20.2267106613572</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>8.86834676576789</v>
+        <v>-5.33767579731966</v>
       </c>
       <c r="B173" t="n">
-        <v>10.6231384481545</v>
+        <v>-5.42806706421463</v>
       </c>
       <c r="C173" t="n">
-        <v>11.6881398451895</v>
+        <v>-6.43276034747096</v>
       </c>
       <c r="D173" t="n">
-        <v>11.3987069989844</v>
+        <v>-6.70331831533932</v>
       </c>
       <c r="E173" t="n">
-        <v>13.6362635079356</v>
+        <v>-7.38233601416804</v>
       </c>
       <c r="F173" t="n">
-        <v>15.6256736951908</v>
+        <v>-7.45254224732552</v>
       </c>
       <c r="G173" t="n">
-        <v>16.1469313660882</v>
+        <v>-8.11323732002803</v>
       </c>
       <c r="H173" t="n">
-        <v>16.7269146214623</v>
+        <v>-8.24958605829068</v>
       </c>
       <c r="I173" t="n">
-        <v>17.0891227897401</v>
+        <v>-9.10591024651295</v>
       </c>
       <c r="J173" t="n">
-        <v>17.6162155564186</v>
+        <v>-9.53001605471782</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>-4.1872045951477</v>
+        <v>10.2527530635336</v>
       </c>
       <c r="B174" t="n">
-        <v>-4.60187779578958</v>
+        <v>10.8086334819959</v>
       </c>
       <c r="C174" t="n">
-        <v>-5.61921244231209</v>
+        <v>12.8273960518524</v>
       </c>
       <c r="D174" t="n">
-        <v>-6.13076641441479</v>
+        <v>11.8691440744547</v>
       </c>
       <c r="E174" t="n">
-        <v>-7.6196851969367</v>
+        <v>14.2606019158915</v>
       </c>
       <c r="F174" t="n">
-        <v>-8.82360124400522</v>
+        <v>15.8510419166277</v>
       </c>
       <c r="G174" t="n">
-        <v>-7.11656478184298</v>
+        <v>16.2615690544083</v>
       </c>
       <c r="H174" t="n">
-        <v>-8.09724630061874</v>
+        <v>15.7502854619119</v>
       </c>
       <c r="I174" t="n">
-        <v>-8.3134646678394</v>
+        <v>17.4477261801799</v>
       </c>
       <c r="J174" t="n">
-        <v>-9.80143770630667</v>
+        <v>19.7115079948521</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>10.7735175717641</v>
+        <v>9.95046554148828</v>
       </c>
       <c r="B175" t="n">
-        <v>10.2235966231179</v>
+        <v>11.3793701708706</v>
       </c>
       <c r="C175" t="n">
-        <v>11.0940196152546</v>
+        <v>12.6345867051927</v>
       </c>
       <c r="D175" t="n">
-        <v>13.86288019018</v>
+        <v>13.2957928027337</v>
       </c>
       <c r="E175" t="n">
-        <v>14.3585707354817</v>
+        <v>14.9461084534795</v>
       </c>
       <c r="F175" t="n">
-        <v>14.8933392130119</v>
+        <v>15.1269824495155</v>
       </c>
       <c r="G175" t="n">
-        <v>15.7107666670133</v>
+        <v>15.8546037228256</v>
       </c>
       <c r="H175" t="n">
-        <v>16.5930887545111</v>
+        <v>16.5579431331278</v>
       </c>
       <c r="I175" t="n">
-        <v>18.2615321396283</v>
+        <v>18.4851548606702</v>
       </c>
       <c r="J175" t="n">
-        <v>19.473369271902</v>
+        <v>19.9662172056047</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>9.08632648711628</v>
+        <v>9.88069053462657</v>
       </c>
       <c r="B176" t="n">
-        <v>10.3828983196009</v>
+        <v>10.7519017792054</v>
       </c>
       <c r="C176" t="n">
-        <v>11.2835067292276</v>
+        <v>12.0523700728476</v>
       </c>
       <c r="D176" t="n">
-        <v>12.9776424033152</v>
+        <v>14.3218807244021</v>
       </c>
       <c r="E176" t="n">
-        <v>13.4203922036325</v>
+        <v>14.8281068932868</v>
       </c>
       <c r="F176" t="n">
-        <v>15.6187625892208</v>
+        <v>15.6381845878511</v>
       </c>
       <c r="G176" t="n">
-        <v>16.320925435101</v>
+        <v>14.7601061278181</v>
       </c>
       <c r="H176" t="n">
-        <v>17.5409981749643</v>
+        <v>15.8046387730159</v>
       </c>
       <c r="I176" t="n">
-        <v>17.3515557684515</v>
+        <v>18.2279235842113</v>
       </c>
       <c r="J176" t="n">
-        <v>19.5502864363462</v>
+        <v>18.1948772850944</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>10.303252884315</v>
+        <v>-5.00329309631711</v>
       </c>
       <c r="B177" t="n">
-        <v>10.6614247269237</v>
+        <v>-5.43170520850082</v>
       </c>
       <c r="C177" t="n">
-        <v>11.7938451962021</v>
+        <v>-5.82883412834085</v>
       </c>
       <c r="D177" t="n">
-        <v>11.8214230533627</v>
+        <v>-6.76683914613377</v>
       </c>
       <c r="E177" t="n">
-        <v>12.9022159708985</v>
+        <v>-7.13421380824254</v>
       </c>
       <c r="F177" t="n">
-        <v>14.4729165865073</v>
+        <v>-7.62640713680404</v>
       </c>
       <c r="G177" t="n">
-        <v>15.6190497115475</v>
+        <v>-7.90506619408452</v>
       </c>
       <c r="H177" t="n">
-        <v>16.8961715121419</v>
+        <v>-8.68474093075338</v>
       </c>
       <c r="I177" t="n">
-        <v>18.6402804474894</v>
+        <v>-8.9647150569975</v>
       </c>
       <c r="J177" t="n">
-        <v>20.0793422345254</v>
+        <v>-9.54384919597109</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>-4.4368679723961</v>
+        <v>9.8705100626847</v>
       </c>
       <c r="B178" t="n">
-        <v>-5.64409553355651</v>
+        <v>11.1586841050143</v>
       </c>
       <c r="C178" t="n">
-        <v>-5.31614082377236</v>
+        <v>13.1182891095092</v>
       </c>
       <c r="D178" t="n">
-        <v>-6.36532023754767</v>
+        <v>13.0587804571478</v>
       </c>
       <c r="E178" t="n">
-        <v>-6.07712970740094</v>
+        <v>13.3846554962213</v>
       </c>
       <c r="F178" t="n">
-        <v>-8.05046950621628</v>
+        <v>15.397380192841</v>
       </c>
       <c r="G178" t="n">
-        <v>-7.87944571467226</v>
+        <v>16.5862429129124</v>
       </c>
       <c r="H178" t="n">
-        <v>-8.56240203724686</v>
+        <v>17.3726527201458</v>
       </c>
       <c r="I178" t="n">
-        <v>-8.80405515968839</v>
+        <v>17.092489553095</v>
       </c>
       <c r="J178" t="n">
-        <v>-8.98466575254568</v>
+        <v>18.0903245530981</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>-4.99356742481304</v>
+        <v>9.56127733321606</v>
       </c>
       <c r="B179" t="n">
-        <v>-4.51139315995852</v>
+        <v>9.56804580833137</v>
       </c>
       <c r="C179" t="n">
-        <v>-6.93281054875043</v>
+        <v>10.7284118508271</v>
       </c>
       <c r="D179" t="n">
-        <v>-6.506415303328</v>
+        <v>12.8767344157529</v>
       </c>
       <c r="E179" t="n">
-        <v>-7.24439352832051</v>
+        <v>14.2763391899377</v>
       </c>
       <c r="F179" t="n">
-        <v>-7.65997065227683</v>
+        <v>16.3095557637448</v>
       </c>
       <c r="G179" t="n">
-        <v>-6.8659708689622</v>
+        <v>16.8708243324157</v>
       </c>
       <c r="H179" t="n">
-        <v>-8.90238418340446</v>
+        <v>18.1237079407481</v>
       </c>
       <c r="I179" t="n">
-        <v>-10.5495800762684</v>
+        <v>18.8232569562194</v>
       </c>
       <c r="J179" t="n">
-        <v>-9.72695172951228</v>
+        <v>17.8341489024229</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>-5.04699726657296</v>
+        <v>9.27678459110328</v>
       </c>
       <c r="B180" t="n">
-        <v>-6.18464766089015</v>
+        <v>11.4585780363667</v>
       </c>
       <c r="C180" t="n">
-        <v>-5.74126395361136</v>
+        <v>11.9295352176168</v>
       </c>
       <c r="D180" t="n">
-        <v>-5.7811484114467</v>
+        <v>10.2960085950692</v>
       </c>
       <c r="E180" t="n">
-        <v>-8.82081239005801</v>
+        <v>13.9224518416363</v>
       </c>
       <c r="F180" t="n">
-        <v>-7.36233208062093</v>
+        <v>14.1862446886371</v>
       </c>
       <c r="G180" t="n">
-        <v>-7.68846236539576</v>
+        <v>16.5733845173725</v>
       </c>
       <c r="H180" t="n">
-        <v>-7.32043764133691</v>
+        <v>17.0852798074469</v>
       </c>
       <c r="I180" t="n">
-        <v>-7.93521723278054</v>
+        <v>17.3090840869672</v>
       </c>
       <c r="J180" t="n">
-        <v>-9.5157504045104</v>
+        <v>18.6176822534809</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>10.113574397511</v>
+        <v>-5.43282544098868</v>
       </c>
       <c r="B181" t="n">
-        <v>10.7189360073496</v>
+        <v>-5.67041052343843</v>
       </c>
       <c r="C181" t="n">
-        <v>11.3629200587168</v>
+        <v>-5.85928179152453</v>
       </c>
       <c r="D181" t="n">
-        <v>13.7241012619034</v>
+        <v>-6.04593227066232</v>
       </c>
       <c r="E181" t="n">
-        <v>14.1660427526885</v>
+        <v>-6.95061954262313</v>
       </c>
       <c r="F181" t="n">
-        <v>15.1376404071521</v>
+        <v>-7.78452451026049</v>
       </c>
       <c r="G181" t="n">
-        <v>16.3586969544675</v>
+        <v>-8.08274511723975</v>
       </c>
       <c r="H181" t="n">
-        <v>16.7468067536093</v>
+        <v>-8.74179925100256</v>
       </c>
       <c r="I181" t="n">
-        <v>18.0234499168794</v>
+        <v>-8.57714364655144</v>
       </c>
       <c r="J181" t="n">
-        <v>19.2641542689433</v>
+        <v>-9.4843725425395</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>11.3403416736565</v>
+        <v>-5.06059230739523</v>
       </c>
       <c r="B182" t="n">
-        <v>10.1204544007452</v>
+        <v>-5.63810865830869</v>
       </c>
       <c r="C182" t="n">
-        <v>10.7454955446513</v>
+        <v>-5.84166001920031</v>
       </c>
       <c r="D182" t="n">
-        <v>14.0085095895597</v>
+        <v>-6.49504455569938</v>
       </c>
       <c r="E182" t="n">
-        <v>13.7145576208009</v>
+        <v>-6.96192855042798</v>
       </c>
       <c r="F182" t="n">
-        <v>15.5360509880424</v>
+        <v>-7.58974049252641</v>
       </c>
       <c r="G182" t="n">
-        <v>16.0156499000164</v>
+        <v>-8.34115437362804</v>
       </c>
       <c r="H182" t="n">
-        <v>16.642536163101</v>
+        <v>-8.66999522678273</v>
       </c>
       <c r="I182" t="n">
-        <v>17.9196734687995</v>
+        <v>-8.58229221113767</v>
       </c>
       <c r="J182" t="n">
-        <v>19.9992776878031</v>
+        <v>-9.46437904639752</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>10.4179130845355</v>
+        <v>10.7002026343529</v>
       </c>
       <c r="B183" t="n">
-        <v>10.8034099856281</v>
+        <v>11.2849278904889</v>
       </c>
       <c r="C183" t="n">
-        <v>12.109674123531</v>
+        <v>12.4285278883397</v>
       </c>
       <c r="D183" t="n">
-        <v>12.8097657576321</v>
+        <v>14.271956678367</v>
       </c>
       <c r="E183" t="n">
-        <v>13.6112471213195</v>
+        <v>14.8438888524995</v>
       </c>
       <c r="F183" t="n">
-        <v>15.7137408672816</v>
+        <v>14.0258745937814</v>
       </c>
       <c r="G183" t="n">
-        <v>16.9022729391116</v>
+        <v>15.8245727421775</v>
       </c>
       <c r="H183" t="n">
-        <v>17.6322551689854</v>
+        <v>16.518027770086</v>
       </c>
       <c r="I183" t="n">
-        <v>18.5264035444281</v>
+        <v>18.7687475734099</v>
       </c>
       <c r="J183" t="n">
-        <v>19.5090747651859</v>
+        <v>18.2610359570073</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>9.16191219595137</v>
+        <v>11.2661990605331</v>
       </c>
       <c r="B184" t="n">
-        <v>9.40621307063835</v>
+        <v>10.6894652993296</v>
       </c>
       <c r="C184" t="n">
-        <v>11.4170772053522</v>
+        <v>11.6055897805266</v>
       </c>
       <c r="D184" t="n">
-        <v>12.3649700582886</v>
+        <v>11.5723972004278</v>
       </c>
       <c r="E184" t="n">
-        <v>14.2744840537208</v>
+        <v>13.5124604384443</v>
       </c>
       <c r="F184" t="n">
-        <v>14.4808296132443</v>
+        <v>16.2895376416211</v>
       </c>
       <c r="G184" t="n">
-        <v>16.0587621272985</v>
+        <v>15.8996818172399</v>
       </c>
       <c r="H184" t="n">
-        <v>17.8831479789242</v>
+        <v>16.6180512796579</v>
       </c>
       <c r="I184" t="n">
-        <v>17.1774827902946</v>
+        <v>18.8736059162873</v>
       </c>
       <c r="J184" t="n">
-        <v>19.542039023321</v>
+        <v>18.339204553962</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>-5.44099179868124</v>
+        <v>-4.75706818408973</v>
       </c>
       <c r="B185" t="n">
-        <v>-5.74584183077039</v>
+        <v>-5.62077415471168</v>
       </c>
       <c r="C185" t="n">
-        <v>-7.00138880698129</v>
+        <v>-6.38810360634359</v>
       </c>
       <c r="D185" t="n">
-        <v>-5.89073620657579</v>
+        <v>-7.12306973796032</v>
       </c>
       <c r="E185" t="n">
-        <v>-6.49556933001853</v>
+        <v>-6.68599437996049</v>
       </c>
       <c r="F185" t="n">
-        <v>-8.64715004951833</v>
+        <v>-7.48334192931058</v>
       </c>
       <c r="G185" t="n">
-        <v>-8.33267625342918</v>
+        <v>-7.99835537571601</v>
       </c>
       <c r="H185" t="n">
-        <v>-7.93582957826109</v>
+        <v>-8.69464069844757</v>
       </c>
       <c r="I185" t="n">
-        <v>-7.94182067235377</v>
+        <v>-9.03167635931242</v>
       </c>
       <c r="J185" t="n">
-        <v>-10.8826157155833</v>
+        <v>-9.23232000532975</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>-4.08527004190118</v>
+        <v>9.2081817789948</v>
       </c>
       <c r="B186" t="n">
-        <v>-5.99352025186855</v>
+        <v>10.5132062456468</v>
       </c>
       <c r="C186" t="n">
-        <v>-5.73160917163056</v>
+        <v>12.2802909438793</v>
       </c>
       <c r="D186" t="n">
-        <v>-7.02709482882725</v>
+        <v>12.3429111622171</v>
       </c>
       <c r="E186" t="n">
-        <v>-6.38052825148381</v>
+        <v>15.2923466456614</v>
       </c>
       <c r="F186" t="n">
-        <v>-7.58714011593776</v>
+        <v>14.5533939021246</v>
       </c>
       <c r="G186" t="n">
-        <v>-7.55893830551005</v>
+        <v>17.2860318562273</v>
       </c>
       <c r="H186" t="n">
-        <v>-9.17815364895746</v>
+        <v>17.3140292432431</v>
       </c>
       <c r="I186" t="n">
-        <v>-8.91876324288103</v>
+        <v>18.1418096346874</v>
       </c>
       <c r="J186" t="n">
-        <v>-8.85696290230956</v>
+        <v>19.7315364312839</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>-4.58888538742139</v>
+        <v>9.20742545654053</v>
       </c>
       <c r="B187" t="n">
-        <v>-6.82660546836393</v>
+        <v>10.9587200281876</v>
       </c>
       <c r="C187" t="n">
-        <v>-7.06716917477601</v>
+        <v>11.010776285153</v>
       </c>
       <c r="D187" t="n">
-        <v>-5.70863591133557</v>
+        <v>12.4008038327206</v>
       </c>
       <c r="E187" t="n">
-        <v>-6.89415607029532</v>
+        <v>13.320892349727</v>
       </c>
       <c r="F187" t="n">
-        <v>-8.54730268947502</v>
+        <v>14.1051519686657</v>
       </c>
       <c r="G187" t="n">
-        <v>-8.46349067517062</v>
+        <v>15.6224664355897</v>
       </c>
       <c r="H187" t="n">
-        <v>-8.07338039109233</v>
+        <v>17.7283557798064</v>
       </c>
       <c r="I187" t="n">
-        <v>-9.32308974487106</v>
+        <v>17.8197552491184</v>
       </c>
       <c r="J187" t="n">
-        <v>-8.64951763927082</v>
+        <v>20.1202720425455</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>-5.23672072787542</v>
+        <v>-4.8981718515753</v>
       </c>
       <c r="B188" t="n">
-        <v>-5.20530550104199</v>
+        <v>-5.4784274723164</v>
       </c>
       <c r="C188" t="n">
-        <v>-5.74292548981676</v>
+        <v>-5.90177565809065</v>
       </c>
       <c r="D188" t="n">
-        <v>-7.45239976707126</v>
+        <v>-6.52616738354059</v>
       </c>
       <c r="E188" t="n">
-        <v>-5.80793250906496</v>
+        <v>-7.24445608303687</v>
       </c>
       <c r="F188" t="n">
-        <v>-8.92124918773896</v>
+        <v>-7.29714453971561</v>
       </c>
       <c r="G188" t="n">
-        <v>-6.97720839514182</v>
+        <v>-7.93362941604178</v>
       </c>
       <c r="H188" t="n">
-        <v>-9.41507057167706</v>
+        <v>-8.81033594916149</v>
       </c>
       <c r="I188" t="n">
-        <v>-8.95944211029235</v>
+        <v>-8.72478597258574</v>
       </c>
       <c r="J188" t="n">
-        <v>-9.24233879044482</v>
+        <v>-9.60742819718624</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>10.125908195429</v>
+        <v>10.7856968124628</v>
       </c>
       <c r="B189" t="n">
-        <v>11.4747183077372</v>
+        <v>10.4119437116912</v>
       </c>
       <c r="C189" t="n">
-        <v>10.9208896627009</v>
+        <v>13.1339599500893</v>
       </c>
       <c r="D189" t="n">
-        <v>12.7191962493176</v>
+        <v>12.4461256603705</v>
       </c>
       <c r="E189" t="n">
-        <v>14.3113462760305</v>
+        <v>12.8540150055745</v>
       </c>
       <c r="F189" t="n">
-        <v>14.7609237628637</v>
+        <v>15.4988832451592</v>
       </c>
       <c r="G189" t="n">
-        <v>16.1948342448922</v>
+        <v>16.1766524671472</v>
       </c>
       <c r="H189" t="n">
-        <v>17.2112708745848</v>
+        <v>15.8618841750942</v>
       </c>
       <c r="I189" t="n">
-        <v>19.388270621226</v>
+        <v>16.5724833208478</v>
       </c>
       <c r="J189" t="n">
-        <v>19.1371369000928</v>
+        <v>18.3096166165353</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>10.7466266666611</v>
+        <v>-4.86855896496395</v>
       </c>
       <c r="B190" t="n">
-        <v>10.4432602200027</v>
+        <v>-5.40427862023202</v>
       </c>
       <c r="C190" t="n">
-        <v>12.5011616489382</v>
+        <v>-6.14038359965325</v>
       </c>
       <c r="D190" t="n">
-        <v>12.3672225696078</v>
+        <v>-6.74790663010979</v>
       </c>
       <c r="E190" t="n">
-        <v>13.8979754089004</v>
+        <v>-7.06050487643618</v>
       </c>
       <c r="F190" t="n">
-        <v>12.827075475051</v>
+        <v>-7.93414394189849</v>
       </c>
       <c r="G190" t="n">
-        <v>16.8936835233015</v>
+        <v>-7.44700418269207</v>
       </c>
       <c r="H190" t="n">
-        <v>17.0054347913281</v>
+        <v>-8.06368812847621</v>
       </c>
       <c r="I190" t="n">
-        <v>18.2495756152028</v>
+        <v>-9.23132644910896</v>
       </c>
       <c r="J190" t="n">
-        <v>19.2912500060273</v>
+        <v>-9.61923796563084</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>-4.82204249388138</v>
+        <v>9.24366212478956</v>
       </c>
       <c r="B191" t="n">
-        <v>-5.02534650797038</v>
+        <v>10.2904091370183</v>
       </c>
       <c r="C191" t="n">
-        <v>-4.74504651878829</v>
+        <v>12.5949404454315</v>
       </c>
       <c r="D191" t="n">
-        <v>-8.17172802817705</v>
+        <v>12.6611490060464</v>
       </c>
       <c r="E191" t="n">
-        <v>-6.79887520606069</v>
+        <v>12.2465039433759</v>
       </c>
       <c r="F191" t="n">
-        <v>-8.32915260225948</v>
+        <v>15.9370520777157</v>
       </c>
       <c r="G191" t="n">
-        <v>-5.84792755460788</v>
+        <v>15.9636403215512</v>
       </c>
       <c r="H191" t="n">
-        <v>-7.74348024913524</v>
+        <v>16.7779566691409</v>
       </c>
       <c r="I191" t="n">
-        <v>-8.88922785962702</v>
+        <v>18.3155005143931</v>
       </c>
       <c r="J191" t="n">
-        <v>-9.13489805318456</v>
+        <v>19.9506899044048</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>10.8084997116751</v>
+        <v>-4.76719673732109</v>
       </c>
       <c r="B192" t="n">
-        <v>10.7689299357032</v>
+        <v>-5.46509500753464</v>
       </c>
       <c r="C192" t="n">
-        <v>12.5095939717936</v>
+        <v>-5.74932795191532</v>
       </c>
       <c r="D192" t="n">
-        <v>11.9918105452433</v>
+        <v>-6.01508438566332</v>
       </c>
       <c r="E192" t="n">
-        <v>12.2428378592405</v>
+        <v>-6.99994717888587</v>
       </c>
       <c r="F192" t="n">
-        <v>15.2296584888875</v>
+        <v>-7.84155991981011</v>
       </c>
       <c r="G192" t="n">
-        <v>15.88105828841</v>
+        <v>-8.06961009822355</v>
       </c>
       <c r="H192" t="n">
-        <v>16.5117989865402</v>
+        <v>-8.46184353630843</v>
       </c>
       <c r="I192" t="n">
-        <v>18.0930187622766</v>
+        <v>-9.18915384858643</v>
       </c>
       <c r="J192" t="n">
-        <v>20.2134295404374</v>
+        <v>-9.64264982100577</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>11.1580542316329</v>
+        <v>-5.11413854880742</v>
       </c>
       <c r="B193" t="n">
-        <v>11.3843595458277</v>
+        <v>-5.44126818591032</v>
       </c>
       <c r="C193" t="n">
-        <v>12.3703198422156</v>
+        <v>-6.20098444935911</v>
       </c>
       <c r="D193" t="n">
-        <v>13.6691380614564</v>
+        <v>-6.77846694060393</v>
       </c>
       <c r="E193" t="n">
-        <v>13.3905694624513</v>
+        <v>-7.09442864800198</v>
       </c>
       <c r="F193" t="n">
-        <v>14.7248129705455</v>
+        <v>-7.56058007453471</v>
       </c>
       <c r="G193" t="n">
-        <v>16.3368016377367</v>
+        <v>-7.79519552039852</v>
       </c>
       <c r="H193" t="n">
-        <v>17.1627516608828</v>
+        <v>-8.53959010677772</v>
       </c>
       <c r="I193" t="n">
-        <v>17.4051535146982</v>
+        <v>-9.06386775028707</v>
       </c>
       <c r="J193" t="n">
-        <v>19.3536662548737</v>
+        <v>-9.35101738217647</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>9.03927710258338</v>
+        <v>-4.48839908469064</v>
       </c>
       <c r="B194" t="n">
-        <v>11.7163193310771</v>
+        <v>-5.93423446878043</v>
       </c>
       <c r="C194" t="n">
-        <v>12.6172280845466</v>
+        <v>-6.09531223906094</v>
       </c>
       <c r="D194" t="n">
-        <v>12.0005583028348</v>
+        <v>-6.2181358553045</v>
       </c>
       <c r="E194" t="n">
-        <v>14.5239289977529</v>
+        <v>-7.30041820157339</v>
       </c>
       <c r="F194" t="n">
-        <v>15.2354896672014</v>
+        <v>-8.18614070070189</v>
       </c>
       <c r="G194" t="n">
-        <v>15.4274901419439</v>
+        <v>-8.00249775520104</v>
       </c>
       <c r="H194" t="n">
-        <v>17.7893084450349</v>
+        <v>-8.64283621175061</v>
       </c>
       <c r="I194" t="n">
-        <v>18.9333231038681</v>
+        <v>-8.6710441159273</v>
       </c>
       <c r="J194" t="n">
-        <v>18.7590496874473</v>
+        <v>-10.1219070932967</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>10.3602788729822</v>
+        <v>9.60924128069818</v>
       </c>
       <c r="B195" t="n">
-        <v>10.3572700611893</v>
+        <v>10.5794012835459</v>
       </c>
       <c r="C195" t="n">
-        <v>11.3861775299776</v>
+        <v>12.0225915217033</v>
       </c>
       <c r="D195" t="n">
-        <v>12.4470034484772</v>
+        <v>12.4617828624974</v>
       </c>
       <c r="E195" t="n">
-        <v>15.1112071073312</v>
+        <v>13.7129034306959</v>
       </c>
       <c r="F195" t="n">
-        <v>14.8126253697027</v>
+        <v>15.5286628177832</v>
       </c>
       <c r="G195" t="n">
-        <v>14.998854924345</v>
+        <v>15.9485016885597</v>
       </c>
       <c r="H195" t="n">
-        <v>16.6413203190743</v>
+        <v>17.452735532828</v>
       </c>
       <c r="I195" t="n">
-        <v>17.4333391123566</v>
+        <v>17.5686774380047</v>
       </c>
       <c r="J195" t="n">
-        <v>19.4328166946132</v>
+        <v>18.5585812075499</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>10.2081746308742</v>
+        <v>9.93138967404497</v>
       </c>
       <c r="B196" t="n">
-        <v>10.2957416688605</v>
+        <v>10.221901109642</v>
       </c>
       <c r="C196" t="n">
-        <v>12.6714988885115</v>
+        <v>12.4295690545867</v>
       </c>
       <c r="D196" t="n">
-        <v>12.5922993448233</v>
+        <v>14.1515617844663</v>
       </c>
       <c r="E196" t="n">
-        <v>12.8774494158505</v>
+        <v>13.6505907334636</v>
       </c>
       <c r="F196" t="n">
-        <v>14.6043119615549</v>
+        <v>15.702240010627</v>
       </c>
       <c r="G196" t="n">
-        <v>15.7313136658024</v>
+        <v>16.9776537218744</v>
       </c>
       <c r="H196" t="n">
-        <v>16.9942543551484</v>
+        <v>17.437092519274</v>
       </c>
       <c r="I196" t="n">
-        <v>17.9024801144503</v>
+        <v>18.7039471320417</v>
       </c>
       <c r="J196" t="n">
-        <v>18.3651838425731</v>
+        <v>19.2844584291712</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>10.0287454198515</v>
+        <v>9.3252993965274</v>
       </c>
       <c r="B197" t="n">
-        <v>10.4860012194428</v>
+        <v>9.21195741316815</v>
       </c>
       <c r="C197" t="n">
-        <v>11.1355664991029</v>
+        <v>13.6750465607933</v>
       </c>
       <c r="D197" t="n">
-        <v>13.0570936147776</v>
+        <v>13.7918887561509</v>
       </c>
       <c r="E197" t="n">
-        <v>13.8369782824628</v>
+        <v>14.5022087331802</v>
       </c>
       <c r="F197" t="n">
-        <v>14.367604704125</v>
+        <v>14.3332274509295</v>
       </c>
       <c r="G197" t="n">
-        <v>15.2658649588041</v>
+        <v>15.3127424887369</v>
       </c>
       <c r="H197" t="n">
-        <v>18.8734953521071</v>
+        <v>16.9379001536831</v>
       </c>
       <c r="I197" t="n">
-        <v>18.9521817134937</v>
+        <v>17.3475284564361</v>
       </c>
       <c r="J197" t="n">
-        <v>19.2315687710201</v>
+        <v>17.4796623685265</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>8.81728728395882</v>
+        <v>10.5888017499974</v>
       </c>
       <c r="B198" t="n">
-        <v>10.7390593241284</v>
+        <v>11.0668762978808</v>
       </c>
       <c r="C198" t="n">
-        <v>11.8429635385774</v>
+        <v>12.383572048198</v>
       </c>
       <c r="D198" t="n">
-        <v>13.0759405096818</v>
+        <v>12.3709238197542</v>
       </c>
       <c r="E198" t="n">
-        <v>13.4765400798614</v>
+        <v>14.2296937107256</v>
       </c>
       <c r="F198" t="n">
-        <v>13.3106155184891</v>
+        <v>14.5679669751451</v>
       </c>
       <c r="G198" t="n">
-        <v>15.2324700675154</v>
+        <v>16.2179517771785</v>
       </c>
       <c r="H198" t="n">
-        <v>16.1942417713241</v>
+        <v>17.3551584889356</v>
       </c>
       <c r="I198" t="n">
-        <v>18.8219169526545</v>
+        <v>16.7242701589238</v>
       </c>
       <c r="J198" t="n">
-        <v>20.2144768936824</v>
+        <v>18.8541746476721</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>9.35257543074878</v>
+        <v>9.35952042199018</v>
       </c>
       <c r="B199" t="n">
-        <v>9.52672013654072</v>
+        <v>12.0585227438463</v>
       </c>
       <c r="C199" t="n">
-        <v>12.2134437012735</v>
+        <v>10.3718844434372</v>
       </c>
       <c r="D199" t="n">
-        <v>13.9495670216983</v>
+        <v>11.9638211214253</v>
       </c>
       <c r="E199" t="n">
-        <v>14.2500404236507</v>
+        <v>12.5469707116586</v>
       </c>
       <c r="F199" t="n">
-        <v>15.6599065870048</v>
+        <v>15.3252729564412</v>
       </c>
       <c r="G199" t="n">
-        <v>15.5890121602483</v>
+        <v>15.721715952997</v>
       </c>
       <c r="H199" t="n">
-        <v>18.1536081790603</v>
+        <v>17.3534553365645</v>
       </c>
       <c r="I199" t="n">
-        <v>18.1885746829555</v>
+        <v>17.0778075562583</v>
       </c>
       <c r="J199" t="n">
-        <v>19.0573789453551</v>
+        <v>19.4416472059575</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>9.11439675913231</v>
+        <v>9.08914470365828</v>
       </c>
       <c r="B200" t="n">
-        <v>9.14023069511195</v>
+        <v>9.93588794750127</v>
       </c>
       <c r="C200" t="n">
-        <v>12.5776936650257</v>
+        <v>12.8094022945003</v>
       </c>
       <c r="D200" t="n">
-        <v>14.8879104873625</v>
+        <v>12.9974261450148</v>
       </c>
       <c r="E200" t="n">
-        <v>14.2152965052953</v>
+        <v>14.3602153477417</v>
       </c>
       <c r="F200" t="n">
-        <v>14.407801590186</v>
+        <v>13.7629292066313</v>
       </c>
       <c r="G200" t="n">
-        <v>16.0026296310309</v>
+        <v>15.7696489711764</v>
       </c>
       <c r="H200" t="n">
-        <v>18.5451328968246</v>
+        <v>16.3148998917524</v>
       </c>
       <c r="I200" t="n">
-        <v>17.9598349913344</v>
+        <v>18.5294508691911</v>
       </c>
       <c r="J200" t="n">
-        <v>19.7222000515453</v>
+        <v>19.4451100557552</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>11.6039893537152</v>
+        <v>10.3454298794284</v>
       </c>
       <c r="B201" t="n">
-        <v>10.7854469680807</v>
+        <v>9.85155615429729</v>
       </c>
       <c r="C201" t="n">
-        <v>13.3632900947463</v>
+        <v>11.2339391659219</v>
       </c>
       <c r="D201" t="n">
-        <v>12.0138131131219</v>
+        <v>12.0199926854274</v>
       </c>
       <c r="E201" t="n">
-        <v>13.7738196819305</v>
+        <v>13.8768354915911</v>
       </c>
       <c r="F201" t="n">
-        <v>15.2089368639257</v>
+        <v>15.2927378423311</v>
       </c>
       <c r="G201" t="n">
-        <v>16.2169201668348</v>
+        <v>15.7927572039721</v>
       </c>
       <c r="H201" t="n">
-        <v>15.5448673782359</v>
+        <v>16.8869084141031</v>
       </c>
       <c r="I201" t="n">
-        <v>17.0594090094407</v>
+        <v>17.2012324022222</v>
       </c>
       <c r="J201" t="n">
-        <v>20.1980248811394</v>
+        <v>19.1550823997285</v>
       </c>
     </row>
   </sheetData>
